--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99685436-D313-49F8-AED1-33BDD6756962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375E84E-D82C-4AC8-91F2-5F00D747BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="840" windowWidth="20475" windowHeight="13170" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="1710" yWindow="930" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>[Name]</t>
   </si>
@@ -1928,6 +1928,192 @@
       </rPr>
       <t xml:space="preserve"> The target is destroyed. All toxic plants that are destroyed as a result of this ability explode. All creatures and objects within 1 burst of an exploding toxic plant take 3 fire damage.</t>
     </r>
+  </si>
+  <si>
+    <t>Squire Qoroth</t>
+  </si>
+  <si>
+    <t>Level 1 Harrier Retainer</t>
+  </si>
+  <si>
+    <t>Fey, Humanoid, Wode Elf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stamina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+  </si>
+  <si>
+    <t>Masking Glamour</t>
+  </si>
+  <si>
+    <t>Qoroth immediately hides at the end of his turn while in cover or concealment, even if he is observed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thorned Fist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keywords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Charge, Melee, Strike, Weapon</t>
+    </r>
+  </si>
+  <si>
+    <t>3 damage</t>
+  </si>
+  <si>
+    <t>5 damage</t>
+  </si>
+  <si>
+    <t>7 damage; grow a thornskin</t>
+  </si>
+  <si>
+    <t>Veil of Thorns</t>
+  </si>
+  <si>
+    <t>While Qoroth has a thornskin, whenever he takes damage from a melee ability, he can lose his thornskin to shift 2 and cause the attacker to bleed (save ends).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Free Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Might 0    Agility 2    Reason 0    Intuition 1    Presence 0 </t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2304,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2141,21 +2327,39 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2167,56 +2371,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2566,16 +2745,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -2587,10 +2766,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="28"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -2716,50 +2895,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -2815,11 +2994,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -2828,125 +3007,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="L14" s="18" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="L14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="L18" s="20" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="L18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -2972,99 +3151,99 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="L21" s="23" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="L21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="L23" s="26" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="L23" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3113,10 +3292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3128,26 +3307,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="H1" s="44" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="H1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
@@ -3179,7 +3358,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="18" t="s">
         <v>59</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -3189,7 +3368,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
@@ -3199,7 +3378,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3209,7 +3388,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="18" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3219,7 +3398,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="1"/>
@@ -3227,45 +3406,45 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
@@ -3291,119 +3470,119 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="H9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="H11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="H12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
@@ -3414,14 +3593,14 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
@@ -3429,11 +3608,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="H16" s="5" t="s">
         <v>50</v>
       </c>
@@ -3447,73 +3626,73 @@
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="H17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="H18" s="23" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="H18" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="H19" s="20" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="H19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="H20" s="5" t="s">
         <v>50</v>
       </c>
@@ -3524,24 +3703,24 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="H21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
@@ -3552,14 +3731,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
@@ -3567,97 +3746,107 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="H23" s="23" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="H23" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="H24" s="26" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="H24" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="H25" s="40" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="H25" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1">
+      <c r="A29" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="5" t="s">
         <v>62</v>
       </c>
@@ -3668,46 +3857,90 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H30" s="5" t="s">
         <v>94</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="H31" s="18" t="s">
+      <c r="A31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="18"/>
+      <c r="H31" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="8:13">
-      <c r="H33" s="26" t="s">
+      <c r="A32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="18"/>
+      <c r="H33" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-    </row>
-    <row r="34" spans="8:13">
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="H34" s="5" t="s">
         <v>98</v>
       </c>
@@ -3717,39 +3950,75 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="8:13">
+    <row r="35" spans="1:13">
+      <c r="A35" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="H35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="41" t="s">
+      <c r="K35" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-    </row>
-    <row r="36" spans="8:13" ht="15" customHeight="1">
-      <c r="H36" s="18" t="s">
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-    </row>
-    <row r="37" spans="8:13">
-      <c r="H37" s="26" t="s">
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="H37" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="8:13">
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
       <c r="H38" s="5" t="s">
         <v>104</v>
       </c>
@@ -3759,46 +4028,126 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="8:13">
+    <row r="39" spans="1:13">
+      <c r="A39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
       <c r="H39" s="5" t="s">
         <v>103</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="41" t="s">
+      <c r="K39" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-    </row>
-    <row r="40" spans="8:13" ht="15" customHeight="1">
-      <c r="H40" s="18" t="s">
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="H40" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-    </row>
-    <row r="41" spans="8:13">
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-    </row>
-    <row r="42" spans="8:13">
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="58">
     <mergeCell ref="H40:M42"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="H37:M37"/>
@@ -3830,6 +4179,8 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A24:F24"/>
@@ -3842,11 +4193,22 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A45:F47"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3865,16 +4227,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -3896,7 +4258,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3908,7 +4270,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3918,29 +4280,29 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
@@ -3958,65 +4320,65 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
@@ -4034,85 +4396,85 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4126,12 +4488,12 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375E84E-D82C-4AC8-91F2-5F00D747BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B0DE5-459E-4AE8-AA05-9F1FEA1B18BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="930" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
   <si>
     <t>[Name]</t>
   </si>
@@ -2114,6 +2114,695 @@
   </si>
   <si>
     <t xml:space="preserve">Might 0    Agility 2    Reason 0    Intuition 1    Presence 0 </t>
+  </si>
+  <si>
+    <t>Level 1 Solo</t>
+  </si>
+  <si>
+    <t>The Horror</t>
+  </si>
+  <si>
+    <t>Undead, Chimera</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stamina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (30 * Party Size) + (10 * Victories)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Grafted Arms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Melee 2</t>
+    </r>
+  </si>
+  <si>
+    <t>4 damage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 creature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Basilisk Glands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 Malice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened and slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened and slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 Burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The horror can have up to four targets grabbed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Malice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The horror can vertical push 5 one grabbed target.</t>
+    </r>
+  </si>
+  <si>
+    <t>Arise</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ranged 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The target strikes the horror and gets a tier-1 result.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The horror can have up to four targets grabbed.</t>
+    </r>
+  </si>
+  <si>
+    <t>The first time the horror is reduced to Stamina 0 by damage that isn't fire or holy damage and their body isn't destroyed, they regain 10 Stamina and fall prone.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kill Them, My Creation! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Triggered Action)</t>
+    </r>
+  </si>
+  <si>
+    <t>Solo Monster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solo Turns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The horror takes up to two turns each round. They can't take turns consecutively.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">End Effect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At the end of their turn, the horror can take 5 damage to end one save ends effect affecting them. This damage can't be reduced in any way.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Might +3   Agility -1   Reason +1   Intuition -2   Presence -4 </t>
+  </si>
+  <si>
+    <t>Yslansh's Tactics</t>
+  </si>
+  <si>
+    <t>If the horror would be flanked, Yslansh whispers commands to it and the flankers gain no edge.</t>
+  </si>
+  <si>
+    <t>EV 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The horror shifts 5. Any creatures they have grabbed move with the horror, taking 1 damage for each square the horror shifts. If they end this movement adjacent within 2 of the target, roll power.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2304,7 +2993,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2333,11 +3022,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2348,18 +3034,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2371,31 +3053,60 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2745,16 +3456,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -2766,10 +3477,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="21"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -2895,50 +3606,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -2994,11 +3705,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -3007,125 +3718,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="L14" s="26" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="L14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="L18" s="24" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="L18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -3151,115 +3862,102 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="28" t="s">
+      <c r="O20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="L21" s="30" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="L21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="L23" s="32" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="L23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -3272,6 +3970,19 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3292,43 +4003,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="H1" s="34" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="J1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="S1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -3339,18 +4065,28 @@
       <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="S2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -3361,16 +4097,24 @@
       <c r="F3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="1"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="18"/>
+      <c r="S3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -3381,8 +4125,1126 @@
       <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="J6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="S6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="S7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="S8" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="J9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="J10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="S10" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="J11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="J13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="S13" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="S14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="J15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="S15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="J16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="S16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="J17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="S17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="J18" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="S18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="J19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="S19" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="J20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="J21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="S21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="J22" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="S22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="J23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="S23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="J24" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="S24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="J25" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="S25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="S26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="S27" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1">
+      <c r="J28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="S28" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1">
+      <c r="J29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="J30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="S30" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="J31" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="S31" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+    </row>
+    <row r="33" spans="10:24">
+      <c r="J33" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+    </row>
+    <row r="34" spans="10:24">
+      <c r="J34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="S34" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+    </row>
+    <row r="35" spans="10:24">
+      <c r="J35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="S35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="10:24" ht="15" customHeight="1">
+      <c r="J36" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="S36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+    </row>
+    <row r="37" spans="10:24">
+      <c r="J37" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="S37" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+    </row>
+    <row r="38" spans="10:24">
+      <c r="J38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="S38" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+    </row>
+    <row r="39" spans="10:24">
+      <c r="J39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+    </row>
+    <row r="40" spans="10:24" ht="15" customHeight="1">
+      <c r="J40" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+    </row>
+    <row r="41" spans="10:24">
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+    </row>
+    <row r="42" spans="10:24">
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="S42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+    </row>
+    <row r="43" spans="10:24" ht="15" customHeight="1">
+      <c r="S43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+    </row>
+    <row r="44" spans="10:24">
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+    </row>
+    <row r="45" spans="10:24">
+      <c r="S45" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S19:X20"/>
+    <mergeCell ref="S31:X33"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="S38:X41"/>
+    <mergeCell ref="S28:X29"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J31:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J25:O27"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DFD280-CB3F-4A45-8F62-9CF1F8B27A7E}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="H1" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3401,50 +5263,50 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="H6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="H7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
@@ -3456,7 +5318,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8" s="5" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3470,87 +5332,87 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="H9" s="5" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="K9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="I10" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="H11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="I11" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="H12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="I12" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
@@ -3559,30 +5421,32 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="H13" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="H13" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="H14" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
@@ -3593,14 +5457,12 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
@@ -3608,876 +5470,134 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="H16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="H17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="H17" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="H18" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="H19" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="H21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="A21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="A22" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="H23" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="H24" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="H25" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="H28" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
-      <c r="A29" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="H29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="18"/>
-      <c r="H31" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="18"/>
-      <c r="H33" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="H34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="H35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="H36" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="H37" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="H38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="H39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="H40" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="H40:M42"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="H31:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H25:M27"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H13:M14"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="B19:F19"/>
+  <mergeCells count="28">
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="K9:M9"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H14:M15"/>
+    <mergeCell ref="H17:M19"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A45:F47"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="A41:F41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DFD280-CB3F-4A45-8F62-9CF1F8B27A7E}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
     <mergeCell ref="A22:F23"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A20:F20"/>
@@ -4488,12 +5608,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B0DE5-459E-4AE8-AA05-9F1FEA1B18BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45D9B3-EC9B-4DA7-8BA4-B4E36F6ED808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="930" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="3150" yWindow="855" windowWidth="20475" windowHeight="14100" activeTab="3" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="203">
   <si>
     <t>[Name]</t>
   </si>
@@ -1948,29 +1948,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Stamina </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Speed</t>
     </r>
     <r>
@@ -1986,9 +1963,6 @@
   </si>
   <si>
     <t>Masking Glamour</t>
-  </si>
-  <si>
-    <t>Qoroth immediately hides at the end of his turn while in cover or concealment, even if he is observed.</t>
   </si>
   <si>
     <r>
@@ -2078,9 +2052,6 @@
     <t>3 damage</t>
   </si>
   <si>
-    <t>5 damage</t>
-  </si>
-  <si>
     <t>7 damage; grow a thornskin</t>
   </si>
   <si>
@@ -2113,9 +2084,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Might 0    Agility 2    Reason 0    Intuition 1    Presence 0 </t>
-  </si>
-  <si>
     <t>Level 1 Solo</t>
   </si>
   <si>
@@ -2157,7 +2125,583 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Grafted Arms </t>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Melee 2</t>
+    </r>
+  </si>
+  <si>
+    <t>4 damage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 creature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened and slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened and slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 Burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The horror can have up to four targets grabbed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Malice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The horror can vertical push 5 one grabbed target.</t>
+    </r>
+  </si>
+  <si>
+    <t>Arise</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ranged 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The target strikes the horror and gets a tier-1 result.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The horror can have up to four targets grabbed.</t>
+    </r>
+  </si>
+  <si>
+    <t>The first time the horror is reduced to Stamina 0 by damage that isn't fire or holy damage and their body isn't destroyed, they regain 10 Stamina and fall prone.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kill Them, My Creation! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Triggered Action)</t>
+    </r>
+  </si>
+  <si>
+    <t>Solo Monster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solo Turns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The horror takes up to two turns each round. They can't take turns consecutively.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">End Effect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At the end of their turn, the horror can take 5 damage to end one save ends effect affecting them. This damage can't be reduced in any way.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Might +3   Agility -1   Reason +1   Intuition -2   Presence -4 </t>
+  </si>
+  <si>
+    <t>Yslansh's Tactics</t>
+  </si>
+  <si>
+    <t>If the horror would be flanked, Yslansh whispers commands to it and the flankers gain no edge.</t>
+  </si>
+  <si>
+    <t>EV 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The horror shifts 5. Any creatures they have grabbed move with the horror, taking 1 damage for each square the horror shifts. If they end this movement adjacent within 2 of the target, roll power.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gwennyl Thorton</t>
+  </si>
+  <si>
+    <t>Level 1 Defender Retainer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stamina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Might +2    Agility 0    Reason 0    Intuition 0    Presence +1 </t>
+  </si>
+  <si>
+    <t>Supernatural Insight</t>
+  </si>
+  <si>
+    <t>Gwennyl ignores concealment if it's granted by a supernatural effect.</t>
+  </si>
+  <si>
+    <t>Abilities targeting Qoroth that would take a bane from cover or concealment have a double bane instead.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Practiced Strike </t>
     </r>
     <r>
       <rPr>
@@ -2218,21 +2762,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Distance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Melee 2</t>
-    </r>
-  </si>
-  <si>
-    <t>4 damage</t>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This ability inflicts bleeding (EoT) if the target is already weakened. </t>
+    </r>
   </si>
   <si>
     <r>
@@ -2258,12 +2799,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> grabbed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6 damage; </t>
+      <t xml:space="preserve"> weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 damage; </t>
     </r>
     <r>
       <rPr>
@@ -2285,43 +2826,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> grabbed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Target</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1 creature</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Basilisk Glands </t>
+      <t xml:space="preserve"> weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <t>5 damage; grow a thornskin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stamina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <t>Squire Bleddyn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stamina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sharpened Shield </t>
     </r>
     <r>
       <rPr>
@@ -2369,12 +2939,538 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 damage; push 1; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 damage; push 2; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 damage; push 3; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bleddyn and her mentor, if they're within 5 squares from Bleddyn, can shift 2 before the ability is used.</t>
+    </r>
+  </si>
+  <si>
+    <t>Unwavering in the Storm</t>
+  </si>
+  <si>
+    <t>When an ally is adjacent to Gwennyl, they have cover and can choose to use Gwennyl's Stability to resist force movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might 0    Agility +2    Reason 0    Intuition +1    Presence 0 </t>
+  </si>
+  <si>
+    <t>Familiar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stamina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 * your level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1T / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Telepathic</t>
+  </si>
+  <si>
+    <t>While you and your familiar are within 10 squares of each other, you can communicate telepathically and share each other's senses. While sharing senses, each of you also benefits from your own senses at the same time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might -3    Agility +2    Reason 0    Intuition +1    Presence +1 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6 (fly, hover)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Grafted Arms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Basilisk Glands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 5 Malice</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4 poison damage; </t>
+    <t>Basilisk Hatchling</t>
+  </si>
+  <si>
+    <t>Level 1 Minion Hexer</t>
+  </si>
+  <si>
+    <t>EV 3 for four minions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stamina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Might 0   Agility +2   Reason 0   Intuition 0   Presence +1 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With Captain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +3 bonus to speed</t>
+    </r>
+  </si>
+  <si>
+    <t>When the hatchling ends its turn adjacent to a prone creature, it takes a bite out of them, inflicting bleeding (EoT).</t>
+  </si>
+  <si>
+    <t>Just a Nibble</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> One creature per minion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Newborn Wink </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keywords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Melee, Magic, Ranged, Strike</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Melee 1 or Ranged 10</t>
+    </r>
+  </si>
+  <si>
+    <t>1 corruption damage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 corruption damage; </t>
     </r>
     <r>
       <rPr>
@@ -2385,7 +3481,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M&lt;0</t>
+      <t>R&lt;1</t>
     </r>
     <r>
       <rPr>
@@ -2396,12 +3492,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> weakened (save ends)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6 poison damage; </t>
+      <t xml:space="preserve"> slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 corruption damage; </t>
     </r>
     <r>
       <rPr>
@@ -2412,7 +3516,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M&lt;1</t>
+      <t>R&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2423,393 +3538,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> weakened and slowed (save ends)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9 poison damage; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M&lt;2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> weakened and slowed (save ends)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Distance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2 Burst</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The horror can have up to four targets grabbed.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3 Malice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The horror can vertical push 5 one grabbed target.</t>
-    </r>
-  </si>
-  <si>
-    <t>Arise</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Distance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ranged 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trigger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The target strikes the horror and gets a tier-1 result.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6 damage; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A&lt;1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> grabbed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8 damage; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A&lt;2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> grabbed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10 damage; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A&lt;3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> grabbed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The horror can have up to four targets grabbed.</t>
-    </r>
-  </si>
-  <si>
-    <t>The first time the horror is reduced to Stamina 0 by damage that isn't fire or holy damage and their body isn't destroyed, they regain 10 Stamina and fall prone.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Kill Them, My Creation! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Triggered Action)</t>
-    </r>
-  </si>
-  <si>
-    <t>Solo Monster</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Solo Turns </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The horror takes up to two turns each round. They can't take turns consecutively.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">End Effect </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>At the end of their turn, the horror can take 5 damage to end one save ends effect affecting them. This damage can't be reduced in any way.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Might +3   Agility -1   Reason +1   Intuition -2   Presence -4 </t>
-  </si>
-  <si>
-    <t>Yslansh's Tactics</t>
-  </si>
-  <si>
-    <t>If the horror would be flanked, Yslansh whispers commands to it and the flankers gain no edge.</t>
-  </si>
-  <si>
-    <t>EV 30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The horror shifts 5. Any creatures they have grabbed move with the horror, taking 1 damage for each square the horror shifts. If they end this movement adjacent within 2 of the target, roll power.</t>
-    </r>
+      <t>slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tormented Albëoq</t>
+  </si>
+  <si>
+    <t>Abyssal, Demon</t>
+  </si>
+  <si>
+    <t>Basilisk, Beast</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Immunity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Poison 4</t>
+    </r>
+  </si>
+  <si>
+    <t>Human, Humanoid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2873,6 +3645,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2993,7 +3771,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -3025,6 +3803,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3089,24 +3868,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3450,22 +4261,22 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -3477,10 +4288,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -3606,50 +4417,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -3705,11 +4516,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -3718,125 +4529,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="L14" s="31" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="L14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="L18" s="23" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="L18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -3862,99 +4673,99 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="L21" s="26" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="L21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="L23" s="29" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="L23" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4003,10 +4814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4020,41 +4831,64 @@
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" customWidth="1"/>
+    <col min="32" max="32" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:42">
+      <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="J1" s="25" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="J1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="24" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="S1" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="S1" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="AB1" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AK1" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -4076,17 +4910,37 @@
         <v>71</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -4106,15 +4960,35 @@
       <c r="N3" s="5"/>
       <c r="O3" s="18"/>
       <c r="S3" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
       <c r="W3" s="5"/>
       <c r="X3" s="18"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="AB3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -4143,10 +5017,30 @@
       <c r="V4" s="1"/>
       <c r="W4" s="5"/>
       <c r="X4" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4171,60 +5065,112 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="21" t="s">
+      <c r="AB5" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="J6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="J6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="S6" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="23" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="S6" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="AB6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AK6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="S7" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="S7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="AB7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AK7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -4241,168 +5187,280 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="S8" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="AB8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AK8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="AB9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="S10" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="S10" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="AB10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AK10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="AB11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AK11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="AB12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AK12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL12" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="1"/>
       <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="S13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="44" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="S13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="AB13" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AK13" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -4411,8 +5469,24 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="AB14" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AK14" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -4421,36 +5495,48 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
       <c r="S15" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="36" t="s">
+      <c r="V15" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -4462,113 +5548,113 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
+      <c r="T16" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
+      <c r="T17" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="J18" s="26" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="J18" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
+      <c r="T18" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="J19" s="23" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="J19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="S19" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="S19" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -4577,40 +5663,40 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="S21" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="S21" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="5" t="s">
@@ -4621,14 +5707,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
       <c r="S22" s="5" t="s">
         <v>62</v>
       </c>
@@ -4644,151 +5730,151 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="J23" s="26" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="J23" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
       <c r="S23" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="36" t="s">
+      <c r="V23" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="J24" s="29" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="J24" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
       <c r="S24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
+      <c r="T24" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="J25" s="38" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="J25" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
       <c r="S25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T25" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
+      <c r="T25" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
       <c r="S26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
+      <c r="T26" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="S27" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="S27" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1">
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="S28" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="S28" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
@@ -4799,12 +5885,12 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
     </row>
     <row r="30" spans="1:24">
       <c r="J30" s="5" t="s">
@@ -4812,67 +5898,67 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="36" t="s">
+      <c r="M30" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="S30" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="S30" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="S31" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="S31" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
     </row>
     <row r="33" spans="10:24">
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
     </row>
     <row r="34" spans="10:24">
       <c r="J34" s="5" t="s">
@@ -4883,14 +5969,14 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
+      <c r="S34" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
     </row>
     <row r="35" spans="10:24">
       <c r="J35" s="5" t="s">
@@ -4898,11 +5984,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="36" t="s">
+      <c r="M35" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
       <c r="S35" s="5" t="s">
         <v>43</v>
       </c>
@@ -4913,42 +5999,42 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="10:24" ht="15" customHeight="1">
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
       <c r="S36" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
+      <c r="V36" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
     </row>
     <row r="37" spans="10:24">
-      <c r="J37" s="29" t="s">
+      <c r="J37" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="S37" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="S37" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
     </row>
     <row r="38" spans="10:24">
       <c r="J38" s="5" t="s">
@@ -4959,14 +6045,14 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
+      <c r="S38" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
     </row>
     <row r="39" spans="10:24">
       <c r="J39" s="5" t="s">
@@ -4974,88 +6060,84 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="36" t="s">
+      <c r="M39" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
     </row>
     <row r="40" spans="10:24" ht="15" customHeight="1">
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
     </row>
     <row r="41" spans="10:24">
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
     </row>
     <row r="42" spans="10:24">
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
       <c r="S42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
+      <c r="T42" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
     </row>
     <row r="43" spans="10:24" ht="15" customHeight="1">
       <c r="S43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T43" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
+      <c r="T43" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
     </row>
     <row r="44" spans="10:24">
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
       <c r="S44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="T44" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -5063,37 +6145,56 @@
       <c r="X44" s="7"/>
     </row>
     <row r="45" spans="10:24">
-      <c r="S45" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
+      <c r="S45" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="94">
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK14:AP15"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AB14:AG15"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
     <mergeCell ref="S13:X13"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="T17:X17"/>
     <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S19:X20"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="S30:X30"/>
     <mergeCell ref="S31:X33"/>
     <mergeCell ref="T42:X42"/>
     <mergeCell ref="T43:X43"/>
     <mergeCell ref="S38:X41"/>
     <mergeCell ref="S28:X29"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="S34:X34"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="S30:X30"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="S6:X6"/>
@@ -5102,6 +6203,7 @@
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="S8:X9"/>
     <mergeCell ref="S10:X12"/>
+    <mergeCell ref="S19:X20"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A6:F6"/>
@@ -5156,10 +6258,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DFD280-CB3F-4A45-8F62-9CF1F8B27A7E}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:AP23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5168,29 +6270,57 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:42">
+      <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="J1" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="S1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="41" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="AB1" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AK1" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -5201,18 +6331,48 @@
       <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="S2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -5223,16 +6383,48 @@
       <c r="F3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="1"/>
+      <c r="N3" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="S3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="AB3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="54"/>
+      <c r="AK3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP3" s="54"/>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -5243,18 +6435,46 @@
       <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="S4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="X4" s="35"/>
+      <c r="AB4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG4" s="35"/>
+      <c r="AK4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5263,52 +6483,124 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="21" t="s">
+      <c r="J5" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="S5" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="AB5" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AK5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="H6" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="J6" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="S6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="AB6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AK6" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="J7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="S7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="AB7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AK7" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -5317,138 +6609,278 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="S8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="AB8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="H9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="J9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="S9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="AB9" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+    </row>
+    <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="J10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="S10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="H11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="S11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="AB11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="J12" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="S12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="AB12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="H13" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="44" t="s">
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="S13" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="AB13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+    </row>
+    <row r="14" spans="1:42" ht="15" customHeight="1">
+      <c r="A14" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="H14" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="J14" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="AB14" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -5457,141 +6889,186 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="J15" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="S15" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="AB15" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="H16" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="S16" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+    </row>
+    <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="H17" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="AB17" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="AB18" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="43" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+    </row>
+    <row r="20" spans="1:33" ht="15" customHeight="1">
+      <c r="A20" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="29" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="38" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H14:M15"/>
-    <mergeCell ref="H17:M19"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="H13:M13"/>
+  <mergeCells count="65">
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W3:X3"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -5608,7 +7085,51 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S13:X14"/>
+    <mergeCell ref="S16:X18"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45D9B3-EC9B-4DA7-8BA4-B4E36F6ED808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59163694-E382-4C6F-BB98-858FE1D4DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="855" windowWidth="20475" windowHeight="14100" activeTab="3" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="3150" yWindow="855" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="241">
   <si>
     <t>[Name]</t>
   </si>
@@ -3575,6 +3575,538 @@
   </si>
   <si>
     <t>Human, Humanoid</t>
+  </si>
+  <si>
+    <t>Tormented Myldorin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Weakness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Holy 3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Might +2   Agility 0   Reason -2   Intuition -1   Presence +1 </t>
+  </si>
+  <si>
+    <t>Tormented Lethe</t>
+  </si>
+  <si>
+    <t>While the myldorin is winded, its strikes cause targets to be frightened (EoT) of it, and any strike made against it gains an edge.</t>
+  </si>
+  <si>
+    <t>Tormented Soulsight</t>
+  </si>
+  <si>
+    <t>On frightened creatures within 2 squares of it, the albëoq ignores concealment and has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
+  </si>
+  <si>
+    <t>On frightened creatures within 2 squares of it, the myldorin ignores concealment and has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The albëoq's squad takes damage and the albëoq is the last remaining squad member.</t>
+    </r>
+  </si>
+  <si>
+    <t>4 damage; push 1</t>
+  </si>
+  <si>
+    <t>6 damage; push 2</t>
+  </si>
+  <si>
+    <t>Level 2 Minion Brute</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With Captain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Speed +2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stamina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The squad regains 14 Stamina and 2 albëoqs arise, joining the squad in unoccupied spaces within 3 squares.</t>
+    </r>
+  </si>
+  <si>
+    <t>EV 4 for four minions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mournful Shriek </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Triggered Action)</t>
+    </r>
+  </si>
+  <si>
+    <t>Statue of the Third Commander</t>
+  </si>
+  <si>
+    <t>Level 2 Solo</t>
+  </si>
+  <si>
+    <t>Construct, Golem</t>
+  </si>
+  <si>
+    <t>Deatheye Yslansh</t>
+  </si>
+  <si>
+    <t>Level 1 Leader</t>
+  </si>
+  <si>
+    <t>Excrucior Interfectus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Worse Things Than Death </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Villain Action 1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Level 3 Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might 0   Agility 0   Reason -2   Intuition -1   Presence +2 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Free Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Impending Doom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The target grows miniature faces all over its body. The next time it is damaged, the faces shriek and and burst. The damage is halved and enemies adjacent to the target are frightened (save ends) of the target. If the target is a minion, all minions in the squad share the effect.</t>
+    </r>
+  </si>
+  <si>
+    <t>EV 4</t>
+  </si>
+  <si>
+    <t>Level 2 Horde Support</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stamina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+  </si>
+  <si>
+    <t>4 psychic damage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 psychic damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> damage weakness 3 (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7 psychic damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damage weakness 3 (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Look on What You've Wrought </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Maneuver) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 Malice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lash out in Agony </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> One creature</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3771,7 +4303,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -3804,6 +4336,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3849,27 +4395,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3885,6 +4418,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
@@ -3903,21 +4464,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4261,22 +4807,22 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -4288,10 +4834,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="25"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -4417,50 +4963,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -4516,11 +5062,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -4529,125 +5075,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="L14" s="32" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="L14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="L18" s="24" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="L18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -4673,99 +5219,99 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="35" t="s">
+      <c r="O20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="L21" s="27" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="L21" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="L23" s="30" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="L23" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4814,10 +5360,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
-  <dimension ref="A1:AP45"/>
+  <dimension ref="A1:BZ62"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4832,63 +5378,104 @@
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" customWidth="1"/>
     <col min="30" max="30" width="12.28515625" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
+    <col min="51" max="51" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:78">
+      <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="J1" s="26" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="J1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="S1" s="26" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="S1" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="AB1" s="62" t="s">
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="AB1" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
       <c r="AE1" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AK1" s="62" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AK1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-    </row>
-    <row r="2" spans="1:42">
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -4926,7 +5513,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="4"/>
-      <c r="AG2" s="64" t="s">
+      <c r="AG2" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AK2" s="21" t="s">
@@ -4936,11 +5523,51 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="4"/>
-      <c r="AP2" s="64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
+      <c r="AP2" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -4978,17 +5605,51 @@
         <v>201</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
+        <v>204</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="18"/>
+      <c r="BL3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="18"/>
+      <c r="BU3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="18"/>
+    </row>
+    <row r="4" spans="1:78">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -5037,10 +5698,50 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
+        <v>40</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5065,112 +5766,208 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="35" t="s">
+      <c r="AB5" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
+      <c r="AK5" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78">
+      <c r="A6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="J6" s="22" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="J6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="S6" s="22" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="S6" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="AB6" s="22" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="AB6" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AK6" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="24" t="s">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AK6" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AT6" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="29"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="29"/>
+      <c r="BC6" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD6" s="29"/>
+      <c r="BE6" s="29"/>
+      <c r="BF6" s="29"/>
+      <c r="BG6" s="29"/>
+      <c r="BH6" s="29"/>
+      <c r="BL6" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM6" s="29"/>
+      <c r="BN6" s="29"/>
+      <c r="BO6" s="29"/>
+      <c r="BP6" s="29"/>
+      <c r="BQ6" s="29"/>
+      <c r="BU6" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV6" s="29"/>
+      <c r="BW6" s="29"/>
+      <c r="BX6" s="29"/>
+      <c r="BY6" s="29"/>
+      <c r="BZ6" s="29"/>
+    </row>
+    <row r="7" spans="1:78">
+      <c r="A7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="S7" s="30" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="S7" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="AB7" s="24" t="s">
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="AB7" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AK7" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-    </row>
-    <row r="8" spans="1:42">
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AK7" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AT7" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="BC7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
+      <c r="BH7" s="30"/>
+      <c r="BL7" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="36"/>
+      <c r="BQ7" s="36"/>
+      <c r="BU7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="BV7" s="30"/>
+      <c r="BW7" s="30"/>
+      <c r="BX7" s="30"/>
+      <c r="BY7" s="30"/>
+      <c r="BZ7" s="30"/>
+    </row>
+    <row r="8" spans="1:78">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -5187,14 +5984,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="46" t="s">
+      <c r="S8" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
       <c r="AB8" s="5" t="s">
         <v>193</v>
       </c>
@@ -5204,41 +6001,73 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AK8" s="5" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AT8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="BC8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BL8" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="45"/>
+      <c r="BU8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+    </row>
+    <row r="9" spans="1:78">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
       <c r="AB9" s="5" t="s">
         <v>194</v>
       </c>
@@ -5250,7 +6079,7 @@
         <v>191</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -5259,208 +6088,386 @@
       <c r="AP9" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:42">
+      <c r="AT9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BL9" s="45"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BU9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43"/>
+    </row>
+    <row r="10" spans="1:78">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="S10" s="46" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="S10" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AC10" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="AL10" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AT10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU10" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+      <c r="BC10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="40"/>
+      <c r="BG10" s="40"/>
+      <c r="BH10" s="40"/>
+      <c r="BL10" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM10" s="45"/>
+      <c r="BN10" s="45"/>
+      <c r="BO10" s="45"/>
+      <c r="BP10" s="45"/>
+      <c r="BQ10" s="45"/>
+      <c r="BU10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV10" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW10" s="40"/>
+      <c r="BX10" s="40"/>
+      <c r="BY10" s="40"/>
+      <c r="BZ10" s="40"/>
+    </row>
+    <row r="11" spans="1:78">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="40" t="s">
+      <c r="AC11" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-    </row>
-    <row r="12" spans="1:42">
+      <c r="AL11" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AT11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
+      <c r="BC11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD11" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="40"/>
+      <c r="BL11" s="45"/>
+      <c r="BM11" s="45"/>
+      <c r="BN11" s="45"/>
+      <c r="BO11" s="45"/>
+      <c r="BP11" s="45"/>
+      <c r="BQ11" s="45"/>
+      <c r="BU11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV11" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW11" s="40"/>
+      <c r="BX11" s="40"/>
+      <c r="BY11" s="40"/>
+      <c r="BZ11" s="40"/>
+    </row>
+    <row r="12" spans="1:78">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="41" t="s">
+      <c r="AC12" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="AL12" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AT12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU12" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="BC12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD12" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="40"/>
+      <c r="BL12" s="45"/>
+      <c r="BM12" s="45"/>
+      <c r="BN12" s="45"/>
+      <c r="BO12" s="45"/>
+      <c r="BP12" s="45"/>
+      <c r="BQ12" s="45"/>
+      <c r="BU12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV12" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW12" s="40"/>
+      <c r="BX12" s="40"/>
+      <c r="BY12" s="40"/>
+      <c r="BZ12" s="40"/>
+    </row>
+    <row r="13" spans="1:78">
       <c r="A13" s="1"/>
       <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="S13" s="24" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="S13" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="AB13" s="30" t="s">
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="AB13" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AK13" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="45" t="s">
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AK13" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AT13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="30"/>
+      <c r="BC13" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BL13" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM13" s="30"/>
+      <c r="BN13" s="30"/>
+      <c r="BO13" s="30"/>
+      <c r="BP13" s="30"/>
+      <c r="BQ13" s="30"/>
+      <c r="BU13" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="BV13" s="38"/>
+      <c r="BW13" s="38"/>
+      <c r="BX13" s="38"/>
+      <c r="BY13" s="38"/>
+      <c r="BZ13" s="38"/>
+    </row>
+    <row r="14" spans="1:78" ht="15" customHeight="1">
+      <c r="A14" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -5469,24 +6476,52 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="51" t="s">
+      <c r="AB14" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AK14" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AK14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AT14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="39"/>
+      <c r="BL14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BU14" s="39"/>
+      <c r="BV14" s="39"/>
+      <c r="BW14" s="39"/>
+      <c r="BX14" s="39"/>
+      <c r="BY14" s="39"/>
+      <c r="BZ14" s="39"/>
+    </row>
+    <row r="15" spans="1:78">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -5495,48 +6530,88 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="37" t="s">
+      <c r="V15" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AK15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="BC15" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="30"/>
+      <c r="BF15" s="30"/>
+      <c r="BG15" s="30"/>
+      <c r="BH15" s="30"/>
+      <c r="BL15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP15" s="43"/>
+      <c r="BQ15" s="43"/>
+      <c r="BU15" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BV15" s="30"/>
+      <c r="BW15" s="30"/>
+      <c r="BX15" s="30"/>
+      <c r="BY15" s="30"/>
+      <c r="BZ15" s="30"/>
+    </row>
+    <row r="16" spans="1:78" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -5548,113 +6623,281 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="40" t="s">
+      <c r="T16" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="AK16" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AT16" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="BC16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BL16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM16" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN16" s="40"/>
+      <c r="BO16" s="40"/>
+      <c r="BP16" s="40"/>
+      <c r="BQ16" s="40"/>
+      <c r="BU16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+    </row>
+    <row r="17" spans="1:78">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="40" t="s">
+      <c r="T17" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="BC17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG17" s="43"/>
+      <c r="BH17" s="43"/>
+      <c r="BL17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM17" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN17" s="40"/>
+      <c r="BO17" s="40"/>
+      <c r="BP17" s="40"/>
+      <c r="BQ17" s="40"/>
+      <c r="BU17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY17" s="43"/>
+      <c r="BZ17" s="43"/>
+    </row>
+    <row r="18" spans="1:78" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="J18" s="27" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="J18" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="40" t="s">
+      <c r="T18" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="AK18" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="BC18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD18" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE18" s="40"/>
+      <c r="BF18" s="40"/>
+      <c r="BG18" s="40"/>
+      <c r="BH18" s="40"/>
+      <c r="BL18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM18" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN18" s="40"/>
+      <c r="BO18" s="40"/>
+      <c r="BP18" s="40"/>
+      <c r="BQ18" s="40"/>
+      <c r="BU18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV18" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW18" s="40"/>
+      <c r="BX18" s="40"/>
+      <c r="BY18" s="40"/>
+      <c r="BZ18" s="40"/>
+    </row>
+    <row r="19" spans="1:78">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="J19" s="24" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="J19" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="S19" s="32" t="s">
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="S19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="44" t="s">
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="BC19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD19" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE19" s="40"/>
+      <c r="BF19" s="40"/>
+      <c r="BG19" s="40"/>
+      <c r="BH19" s="40"/>
+      <c r="BL19" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="38"/>
+      <c r="BU19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV19" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW19" s="40"/>
+      <c r="BX19" s="40"/>
+      <c r="BY19" s="40"/>
+      <c r="BZ19" s="40"/>
+    </row>
+    <row r="20" spans="1:78">
+      <c r="A20" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -5663,42 +6906,122 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="24" t="s">
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="AK20" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="BC20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD20" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE20" s="40"/>
+      <c r="BF20" s="40"/>
+      <c r="BG20" s="40"/>
+      <c r="BH20" s="40"/>
+      <c r="BL20" s="39"/>
+      <c r="BM20" s="39"/>
+      <c r="BN20" s="39"/>
+      <c r="BO20" s="39"/>
+      <c r="BP20" s="39"/>
+      <c r="BQ20" s="39"/>
+      <c r="BU20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV20" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW20" s="40"/>
+      <c r="BX20" s="40"/>
+      <c r="BY20" s="40"/>
+      <c r="BZ20" s="40"/>
+    </row>
+    <row r="21" spans="1:78">
+      <c r="A21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="S21" s="24" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="S21" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="AK21" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AT21" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="BC21" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="37"/>
+      <c r="BG21" s="37"/>
+      <c r="BH21" s="37"/>
+      <c r="BL21" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM21" s="30"/>
+      <c r="BN21" s="30"/>
+      <c r="BO21" s="30"/>
+      <c r="BP21" s="30"/>
+      <c r="BQ21" s="30"/>
+      <c r="BU21" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV21" s="37"/>
+      <c r="BW21" s="37"/>
+      <c r="BX21" s="37"/>
+      <c r="BY21" s="37"/>
+      <c r="BZ21" s="37"/>
+    </row>
+    <row r="22" spans="1:78">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -5707,14 +7030,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="S22" s="5" t="s">
         <v>62</v>
       </c>
@@ -5723,160 +7046,384 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="52"/>
+      <c r="AT22" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="52"/>
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="52"/>
+      <c r="AY22" s="52"/>
+      <c r="BC22" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BL22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BU22" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV22" s="50"/>
+      <c r="BW22" s="50"/>
+      <c r="BX22" s="50"/>
+      <c r="BY22" s="50"/>
+      <c r="BZ22" s="50"/>
+    </row>
+    <row r="23" spans="1:78">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="J23" s="27" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="J23" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
       <c r="S23" s="5" t="s">
         <v>131</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="37" t="s">
+      <c r="V23" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="27" t="s">
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="52"/>
+      <c r="AT23" s="52"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="52"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="52"/>
+      <c r="AY23" s="52"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BL23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BU23" s="51"/>
+      <c r="BV23" s="51"/>
+      <c r="BW23" s="51"/>
+      <c r="BX23" s="51"/>
+      <c r="BY23" s="51"/>
+      <c r="BZ23" s="51"/>
+    </row>
+    <row r="24" spans="1:78">
+      <c r="A24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="J24" s="30" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="J24" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
       <c r="S24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="40" t="s">
+      <c r="T24" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="30" t="s">
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="BC24" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BL24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM24" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN24" s="40"/>
+      <c r="BO24" s="40"/>
+      <c r="BP24" s="40"/>
+      <c r="BQ24" s="40"/>
+      <c r="BU24" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV24" s="30"/>
+      <c r="BW24" s="30"/>
+      <c r="BX24" s="30"/>
+      <c r="BY24" s="30"/>
+      <c r="BZ24" s="30"/>
+    </row>
+    <row r="25" spans="1:78">
+      <c r="A25" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="J25" s="39" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="J25" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
       <c r="S25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T25" s="40" t="s">
+      <c r="T25" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="39" t="s">
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="AT25" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="BC25" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="48"/>
+      <c r="BG25" s="48"/>
+      <c r="BH25" s="48"/>
+      <c r="BL25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM25" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN25" s="40"/>
+      <c r="BO25" s="40"/>
+      <c r="BP25" s="40"/>
+      <c r="BQ25" s="40"/>
+      <c r="BU25" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV25" s="48"/>
+      <c r="BW25" s="48"/>
+      <c r="BX25" s="48"/>
+      <c r="BY25" s="48"/>
+      <c r="BZ25" s="48"/>
+    </row>
+    <row r="26" spans="1:78">
+      <c r="A26" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
       <c r="S26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="40" t="s">
+      <c r="T26" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="S27" s="30" t="s">
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="AT26" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="BC26" s="48"/>
+      <c r="BD26" s="48"/>
+      <c r="BE26" s="48"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="48"/>
+      <c r="BL26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM26" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN26" s="40"/>
+      <c r="BO26" s="40"/>
+      <c r="BP26" s="40"/>
+      <c r="BQ26" s="40"/>
+      <c r="BU26" s="48"/>
+      <c r="BV26" s="48"/>
+      <c r="BW26" s="48"/>
+      <c r="BX26" s="48"/>
+      <c r="BY26" s="48"/>
+      <c r="BZ26" s="48"/>
+    </row>
+    <row r="27" spans="1:78">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="S27" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-    </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1">
-      <c r="J28" s="30" t="s">
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BL27" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM27" s="37"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="37"/>
+      <c r="BP27" s="37"/>
+      <c r="BQ27" s="37"/>
+      <c r="BU27" s="49"/>
+      <c r="BV27" s="49"/>
+      <c r="BW27" s="49"/>
+      <c r="BX27" s="49"/>
+      <c r="BY27" s="49"/>
+      <c r="BZ27" s="49"/>
+    </row>
+    <row r="28" spans="1:78" ht="15" customHeight="1">
+      <c r="J28" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="S28" s="49" t="s">
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="S28" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-    </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1">
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="BC28" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="30"/>
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BL28" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM28" s="50"/>
+      <c r="BN28" s="50"/>
+      <c r="BO28" s="50"/>
+      <c r="BP28" s="50"/>
+      <c r="BQ28" s="50"/>
+      <c r="BU28" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV28" s="30"/>
+      <c r="BW28" s="30"/>
+      <c r="BX28" s="30"/>
+      <c r="BY28" s="30"/>
+      <c r="BZ28" s="30"/>
+    </row>
+    <row r="29" spans="1:78" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
         <v>62</v>
       </c>
@@ -5885,82 +7432,196 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="BC29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BL29" s="51"/>
+      <c r="BM29" s="51"/>
+      <c r="BN29" s="51"/>
+      <c r="BO29" s="51"/>
+      <c r="BP29" s="51"/>
+      <c r="BQ29" s="51"/>
+      <c r="BU29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+    </row>
+    <row r="30" spans="1:78">
       <c r="J30" s="5" t="s">
         <v>94</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="S30" s="30" t="s">
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="S30" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="J31" s="32" t="s">
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="BC30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG30" s="44"/>
+      <c r="BH30" s="44"/>
+      <c r="BL30" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM30" s="30"/>
+      <c r="BN30" s="30"/>
+      <c r="BO30" s="30"/>
+      <c r="BP30" s="30"/>
+      <c r="BQ30" s="30"/>
+      <c r="BU30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY30" s="44"/>
+      <c r="BZ30" s="44"/>
+    </row>
+    <row r="31" spans="1:78">
+      <c r="J31" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="S31" s="47" t="s">
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="S31" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-    </row>
-    <row r="33" spans="10:24">
-      <c r="J33" s="30" t="s">
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="BC31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD31" s="41"/>
+      <c r="BE31" s="41"/>
+      <c r="BF31" s="41"/>
+      <c r="BG31" s="41"/>
+      <c r="BH31" s="41"/>
+      <c r="BL31" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM31" s="48"/>
+      <c r="BN31" s="48"/>
+      <c r="BO31" s="48"/>
+      <c r="BP31" s="48"/>
+      <c r="BQ31" s="48"/>
+      <c r="BU31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="BV31" s="41"/>
+      <c r="BW31" s="41"/>
+      <c r="BX31" s="41"/>
+      <c r="BY31" s="41"/>
+      <c r="BZ31" s="41"/>
+    </row>
+    <row r="32" spans="1:78">
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="BC32" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD32" s="48"/>
+      <c r="BE32" s="48"/>
+      <c r="BF32" s="48"/>
+      <c r="BG32" s="48"/>
+      <c r="BH32" s="48"/>
+      <c r="BL32" s="48"/>
+      <c r="BM32" s="48"/>
+      <c r="BN32" s="48"/>
+      <c r="BO32" s="48"/>
+      <c r="BP32" s="48"/>
+      <c r="BQ32" s="48"/>
+      <c r="BU32" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="BV32" s="48"/>
+      <c r="BW32" s="48"/>
+      <c r="BX32" s="48"/>
+      <c r="BY32" s="48"/>
+      <c r="BZ32" s="48"/>
+    </row>
+    <row r="33" spans="10:78">
+      <c r="J33" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-    </row>
-    <row r="34" spans="10:24">
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="BC33" s="48"/>
+      <c r="BD33" s="48"/>
+      <c r="BE33" s="48"/>
+      <c r="BF33" s="48"/>
+      <c r="BG33" s="48"/>
+      <c r="BH33" s="48"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="49"/>
+      <c r="BU33" s="48"/>
+      <c r="BV33" s="48"/>
+      <c r="BW33" s="48"/>
+      <c r="BX33" s="48"/>
+      <c r="BY33" s="48"/>
+      <c r="BZ33" s="48"/>
+    </row>
+    <row r="34" spans="10:78">
       <c r="J34" s="5" t="s">
         <v>98</v>
       </c>
@@ -5969,26 +7630,46 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="24" t="s">
+      <c r="S34" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-    </row>
-    <row r="35" spans="10:24">
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="BC34" s="48"/>
+      <c r="BD34" s="48"/>
+      <c r="BE34" s="48"/>
+      <c r="BF34" s="48"/>
+      <c r="BG34" s="48"/>
+      <c r="BH34" s="48"/>
+      <c r="BL34" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM34" s="30"/>
+      <c r="BN34" s="30"/>
+      <c r="BO34" s="30"/>
+      <c r="BP34" s="30"/>
+      <c r="BQ34" s="30"/>
+      <c r="BU34" s="48"/>
+      <c r="BV34" s="48"/>
+      <c r="BW34" s="48"/>
+      <c r="BX34" s="48"/>
+      <c r="BY34" s="48"/>
+      <c r="BZ34" s="48"/>
+    </row>
+    <row r="35" spans="10:78">
       <c r="J35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="37" t="s">
+      <c r="M35" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
       <c r="S35" s="5" t="s">
         <v>43</v>
       </c>
@@ -5997,46 +7678,124 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="10:24" ht="15" customHeight="1">
-      <c r="J36" s="32" t="s">
+      <c r="BC35" s="48"/>
+      <c r="BD35" s="48"/>
+      <c r="BE35" s="48"/>
+      <c r="BF35" s="48"/>
+      <c r="BG35" s="48"/>
+      <c r="BH35" s="48"/>
+      <c r="BL35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BU35" s="48"/>
+      <c r="BV35" s="48"/>
+      <c r="BW35" s="48"/>
+      <c r="BX35" s="48"/>
+      <c r="BY35" s="48"/>
+      <c r="BZ35" s="48"/>
+    </row>
+    <row r="36" spans="10:78" ht="15" customHeight="1">
+      <c r="J36" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
       <c r="S36" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="37" t="s">
+      <c r="V36" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-    </row>
-    <row r="37" spans="10:24">
-      <c r="J37" s="30" t="s">
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="BC36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD36" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE36" s="40"/>
+      <c r="BF36" s="40"/>
+      <c r="BG36" s="40"/>
+      <c r="BH36" s="40"/>
+      <c r="BL36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP36" s="44"/>
+      <c r="BQ36" s="44"/>
+      <c r="BU36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV36" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW36" s="40"/>
+      <c r="BX36" s="40"/>
+      <c r="BY36" s="40"/>
+      <c r="BZ36" s="40"/>
+    </row>
+    <row r="37" spans="10:78">
+      <c r="J37" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="S37" s="35" t="s">
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="S37" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-    </row>
-    <row r="38" spans="10:24">
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="BC37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD37" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE37" s="40"/>
+      <c r="BF37" s="40"/>
+      <c r="BG37" s="40"/>
+      <c r="BH37" s="40"/>
+      <c r="BL37" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM37" s="41"/>
+      <c r="BN37" s="41"/>
+      <c r="BO37" s="41"/>
+      <c r="BP37" s="41"/>
+      <c r="BQ37" s="41"/>
+      <c r="BU37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV37" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW37" s="40"/>
+      <c r="BX37" s="40"/>
+      <c r="BY37" s="40"/>
+      <c r="BZ37" s="40"/>
+    </row>
+    <row r="38" spans="10:78">
       <c r="J38" s="5" t="s">
         <v>104</v>
       </c>
@@ -6045,94 +7804,176 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="47" t="s">
+      <c r="S38" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-    </row>
-    <row r="39" spans="10:24">
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="BC38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD38" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE38" s="7"/>
+      <c r="BF38" s="7"/>
+      <c r="BG38" s="7"/>
+      <c r="BH38" s="7"/>
+      <c r="BL38" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM38" s="48"/>
+      <c r="BN38" s="48"/>
+      <c r="BO38" s="48"/>
+      <c r="BP38" s="48"/>
+      <c r="BQ38" s="48"/>
+      <c r="BU38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV38" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW38" s="7"/>
+      <c r="BX38" s="7"/>
+      <c r="BY38" s="7"/>
+      <c r="BZ38" s="7"/>
+    </row>
+    <row r="39" spans="10:78">
       <c r="J39" s="5" t="s">
         <v>103</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="37" t="s">
+      <c r="M39" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-    </row>
-    <row r="40" spans="10:24" ht="15" customHeight="1">
-      <c r="J40" s="32" t="s">
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="BC39" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD39" s="48"/>
+      <c r="BE39" s="48"/>
+      <c r="BF39" s="48"/>
+      <c r="BG39" s="48"/>
+      <c r="BH39" s="48"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="48"/>
+      <c r="BN39" s="48"/>
+      <c r="BO39" s="48"/>
+      <c r="BP39" s="48"/>
+      <c r="BQ39" s="48"/>
+      <c r="BU39" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV39" s="48"/>
+      <c r="BW39" s="48"/>
+      <c r="BX39" s="48"/>
+      <c r="BY39" s="48"/>
+      <c r="BZ39" s="48"/>
+    </row>
+    <row r="40" spans="10:78" ht="15" customHeight="1">
+      <c r="J40" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-    </row>
-    <row r="41" spans="10:24">
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-    </row>
-    <row r="42" spans="10:24">
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="BL40" s="48"/>
+      <c r="BM40" s="48"/>
+      <c r="BN40" s="48"/>
+      <c r="BO40" s="48"/>
+      <c r="BP40" s="48"/>
+      <c r="BQ40" s="48"/>
+    </row>
+    <row r="41" spans="10:78">
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="BL41" s="48"/>
+      <c r="BM41" s="48"/>
+      <c r="BN41" s="48"/>
+      <c r="BO41" s="48"/>
+      <c r="BP41" s="48"/>
+      <c r="BQ41" s="48"/>
+    </row>
+    <row r="42" spans="10:78">
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
       <c r="S42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="40" t="s">
+      <c r="T42" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-    </row>
-    <row r="43" spans="10:24" ht="15" customHeight="1">
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="BL42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM42" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN42" s="40"/>
+      <c r="BO42" s="40"/>
+      <c r="BP42" s="40"/>
+      <c r="BQ42" s="40"/>
+    </row>
+    <row r="43" spans="10:78" ht="15" customHeight="1">
       <c r="S43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T43" s="40" t="s">
+      <c r="T43" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-    </row>
-    <row r="44" spans="10:24">
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="BL43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM43" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN43" s="40"/>
+      <c r="BO43" s="40"/>
+      <c r="BP43" s="40"/>
+      <c r="BQ43" s="40"/>
+    </row>
+    <row r="44" spans="10:78">
       <c r="S44" s="1" t="s">
         <v>7</v>
       </c>
@@ -6143,30 +7984,314 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
-    </row>
-    <row r="45" spans="10:24">
-      <c r="S45" s="47" t="s">
+      <c r="BL44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM44" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN44" s="7"/>
+      <c r="BO44" s="7"/>
+      <c r="BP44" s="7"/>
+      <c r="BQ44" s="7"/>
+    </row>
+    <row r="45" spans="10:78">
+      <c r="S45" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="BL45" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM45" s="48"/>
+      <c r="BN45" s="48"/>
+      <c r="BO45" s="48"/>
+      <c r="BP45" s="48"/>
+      <c r="BQ45" s="48"/>
+    </row>
+    <row r="48" spans="10:78">
+      <c r="BC48" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="37"/>
+      <c r="BF48" s="37"/>
+      <c r="BG48" s="37"/>
+      <c r="BH48" s="37"/>
+      <c r="BU48" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="BV48" s="37"/>
+      <c r="BW48" s="37"/>
+      <c r="BX48" s="37"/>
+      <c r="BY48" s="37"/>
+      <c r="BZ48" s="37"/>
+    </row>
+    <row r="49" spans="55:78">
+      <c r="BC49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BU49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+    </row>
+    <row r="50" spans="55:78">
+      <c r="BC50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG50" s="44"/>
+      <c r="BH50" s="44"/>
+      <c r="BU50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY50" s="44"/>
+      <c r="BZ50" s="44"/>
+    </row>
+    <row r="51" spans="55:78">
+      <c r="BC51" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD51" s="38"/>
+      <c r="BE51" s="38"/>
+      <c r="BF51" s="38"/>
+      <c r="BG51" s="38"/>
+      <c r="BH51" s="38"/>
+      <c r="BU51" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV51" s="38"/>
+      <c r="BW51" s="38"/>
+      <c r="BX51" s="38"/>
+      <c r="BY51" s="38"/>
+      <c r="BZ51" s="38"/>
+    </row>
+    <row r="52" spans="55:78">
+      <c r="BC52" s="38"/>
+      <c r="BD52" s="38"/>
+      <c r="BE52" s="38"/>
+      <c r="BF52" s="38"/>
+      <c r="BG52" s="38"/>
+      <c r="BH52" s="38"/>
+      <c r="BU52" s="38"/>
+      <c r="BV52" s="38"/>
+      <c r="BW52" s="38"/>
+      <c r="BX52" s="38"/>
+      <c r="BY52" s="38"/>
+      <c r="BZ52" s="38"/>
+    </row>
+    <row r="53" spans="55:78">
+      <c r="BC53" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD53" s="37"/>
+      <c r="BE53" s="37"/>
+      <c r="BF53" s="37"/>
+      <c r="BG53" s="37"/>
+      <c r="BH53" s="37"/>
+      <c r="BU53" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV53" s="37"/>
+      <c r="BW53" s="37"/>
+      <c r="BX53" s="37"/>
+      <c r="BY53" s="37"/>
+      <c r="BZ53" s="37"/>
+    </row>
+    <row r="54" spans="55:78">
+      <c r="BC54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BU54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="1"/>
+    </row>
+    <row r="55" spans="55:78">
+      <c r="BC55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG55" s="44"/>
+      <c r="BH55" s="44"/>
+      <c r="BU55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY55" s="44"/>
+      <c r="BZ55" s="44"/>
+    </row>
+    <row r="56" spans="55:78">
+      <c r="BC56" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD56" s="38"/>
+      <c r="BE56" s="38"/>
+      <c r="BF56" s="38"/>
+      <c r="BG56" s="38"/>
+      <c r="BH56" s="38"/>
+      <c r="BU56" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BV56" s="38"/>
+      <c r="BW56" s="38"/>
+      <c r="BX56" s="38"/>
+      <c r="BY56" s="38"/>
+      <c r="BZ56" s="38"/>
+    </row>
+    <row r="57" spans="55:78">
+      <c r="BC57" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD57" s="37"/>
+      <c r="BE57" s="37"/>
+      <c r="BF57" s="37"/>
+      <c r="BG57" s="37"/>
+      <c r="BH57" s="37"/>
+      <c r="BU57" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV57" s="37"/>
+      <c r="BW57" s="37"/>
+      <c r="BX57" s="37"/>
+      <c r="BY57" s="37"/>
+      <c r="BZ57" s="37"/>
+    </row>
+    <row r="58" spans="55:78">
+      <c r="BC58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BU58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="1"/>
+      <c r="BX58" s="1"/>
+      <c r="BY58" s="1"/>
+      <c r="BZ58" s="1"/>
+    </row>
+    <row r="59" spans="55:78">
+      <c r="BC59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG59" s="44"/>
+      <c r="BH59" s="44"/>
+      <c r="BU59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY59" s="44"/>
+      <c r="BZ59" s="44"/>
+    </row>
+    <row r="60" spans="55:78">
+      <c r="BC60" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD60" s="38"/>
+      <c r="BE60" s="38"/>
+      <c r="BF60" s="38"/>
+      <c r="BG60" s="38"/>
+      <c r="BH60" s="38"/>
+      <c r="BU60" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV60" s="38"/>
+      <c r="BW60" s="38"/>
+      <c r="BX60" s="38"/>
+      <c r="BY60" s="38"/>
+      <c r="BZ60" s="38"/>
+    </row>
+    <row r="61" spans="55:78">
+      <c r="BC61" s="38"/>
+      <c r="BD61" s="38"/>
+      <c r="BE61" s="38"/>
+      <c r="BF61" s="38"/>
+      <c r="BG61" s="38"/>
+      <c r="BH61" s="38"/>
+      <c r="BU61" s="38"/>
+      <c r="BV61" s="38"/>
+      <c r="BW61" s="38"/>
+      <c r="BX61" s="38"/>
+      <c r="BY61" s="38"/>
+      <c r="BZ61" s="38"/>
+    </row>
+    <row r="62" spans="55:78">
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="38"/>
+      <c r="BG62" s="38"/>
+      <c r="BH62" s="38"/>
+      <c r="BU62" s="38"/>
+      <c r="BV62" s="38"/>
+      <c r="BW62" s="38"/>
+      <c r="BX62" s="38"/>
+      <c r="BY62" s="38"/>
+      <c r="BZ62" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="AB5:AE5"/>
+  <mergeCells count="198">
     <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK14:AP15"/>
-    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK20:AP20"/>
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="AK7:AP7"/>
     <mergeCell ref="AL10:AP10"/>
     <mergeCell ref="AB13:AG13"/>
     <mergeCell ref="AB14:AG15"/>
-    <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AL11:AP11"/>
     <mergeCell ref="AL12:AP12"/>
     <mergeCell ref="AC10:AG10"/>
@@ -6177,6 +8302,13 @@
     <mergeCell ref="AB6:AG6"/>
     <mergeCell ref="AB7:AG7"/>
     <mergeCell ref="T24:X24"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="T25:X25"/>
     <mergeCell ref="T26:X26"/>
     <mergeCell ref="S13:X13"/>
@@ -6184,6 +8316,9 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="T17:X17"/>
     <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="S19:X20"/>
     <mergeCell ref="S45:X45"/>
     <mergeCell ref="S34:X34"/>
     <mergeCell ref="V36:X36"/>
@@ -6195,15 +8330,11 @@
     <mergeCell ref="T43:X43"/>
     <mergeCell ref="S38:X41"/>
     <mergeCell ref="S28:X29"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="S10:X12"/>
-    <mergeCell ref="S19:X20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A6:F6"/>
@@ -6212,13 +8343,6 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
@@ -6233,6 +8357,16 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AT6:AY6"/>
+    <mergeCell ref="AT7:AY7"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="J31:O32"/>
     <mergeCell ref="J33:O33"/>
@@ -6245,12 +8379,112 @@
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="J23:O23"/>
     <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="BC6:BH6"/>
+    <mergeCell ref="AK16:AP17"/>
+    <mergeCell ref="AK21:AP23"/>
+    <mergeCell ref="AT22:AY24"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK18:AP19"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AT25:AY25"/>
+    <mergeCell ref="AT21:AY21"/>
+    <mergeCell ref="BD12:BH12"/>
+    <mergeCell ref="BC13:BH14"/>
+    <mergeCell ref="BC15:BH15"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BD18:BH18"/>
+    <mergeCell ref="BC7:BH7"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BD10:BH10"/>
+    <mergeCell ref="BD11:BH11"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="BO23:BQ23"/>
+    <mergeCell ref="BM24:BQ24"/>
+    <mergeCell ref="BC25:BH27"/>
+    <mergeCell ref="BC28:BH28"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BC31:BH31"/>
+    <mergeCell ref="BC32:BH35"/>
+    <mergeCell ref="BD19:BH19"/>
+    <mergeCell ref="BD20:BH20"/>
+    <mergeCell ref="BC21:BH21"/>
+    <mergeCell ref="BC22:BH23"/>
+    <mergeCell ref="BC24:BH24"/>
+    <mergeCell ref="BL7:BQ7"/>
+    <mergeCell ref="BL8:BQ9"/>
+    <mergeCell ref="BL10:BQ12"/>
+    <mergeCell ref="BL13:BQ13"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BM16:BQ16"/>
+    <mergeCell ref="BM17:BQ17"/>
+    <mergeCell ref="BM18:BQ18"/>
+    <mergeCell ref="BL19:BQ20"/>
+    <mergeCell ref="BM42:BQ42"/>
+    <mergeCell ref="BM43:BQ43"/>
+    <mergeCell ref="BL45:BQ45"/>
+    <mergeCell ref="BU6:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BX9:BZ9"/>
+    <mergeCell ref="BV10:BZ10"/>
+    <mergeCell ref="BV11:BZ11"/>
+    <mergeCell ref="BV12:BZ12"/>
+    <mergeCell ref="BU13:BZ14"/>
+    <mergeCell ref="BU15:BZ15"/>
+    <mergeCell ref="BX17:BZ17"/>
+    <mergeCell ref="BV18:BZ18"/>
+    <mergeCell ref="BL31:BQ33"/>
+    <mergeCell ref="BL34:BQ34"/>
+    <mergeCell ref="BO36:BQ36"/>
+    <mergeCell ref="BL37:BQ37"/>
+    <mergeCell ref="BL38:BQ41"/>
+    <mergeCell ref="BM25:BQ25"/>
+    <mergeCell ref="BM26:BQ26"/>
+    <mergeCell ref="BL27:BQ27"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BV36:BZ36"/>
+    <mergeCell ref="BV37:BZ37"/>
+    <mergeCell ref="BU39:BZ39"/>
+    <mergeCell ref="BU25:BZ27"/>
+    <mergeCell ref="BU28:BZ28"/>
+    <mergeCell ref="BX30:BZ30"/>
+    <mergeCell ref="BU31:BZ31"/>
+    <mergeCell ref="BU32:BZ35"/>
+    <mergeCell ref="BV19:BZ19"/>
+    <mergeCell ref="BV20:BZ20"/>
+    <mergeCell ref="BU21:BZ21"/>
+    <mergeCell ref="BU22:BZ23"/>
+    <mergeCell ref="BU24:BZ24"/>
+    <mergeCell ref="BU48:BZ48"/>
+    <mergeCell ref="BX50:BZ50"/>
+    <mergeCell ref="BU51:BZ52"/>
+    <mergeCell ref="BU53:BZ53"/>
+    <mergeCell ref="BX55:BZ55"/>
+    <mergeCell ref="BU56:BZ56"/>
+    <mergeCell ref="BU57:BZ57"/>
+    <mergeCell ref="BX59:BZ59"/>
+    <mergeCell ref="BU60:BZ62"/>
+    <mergeCell ref="BC56:BH56"/>
+    <mergeCell ref="BC57:BH57"/>
+    <mergeCell ref="BF59:BH59"/>
+    <mergeCell ref="BC60:BH62"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AT16:AY20"/>
+    <mergeCell ref="BC48:BH48"/>
+    <mergeCell ref="BF50:BH50"/>
+    <mergeCell ref="BC51:BH52"/>
+    <mergeCell ref="BC53:BH53"/>
+    <mergeCell ref="BF55:BH55"/>
+    <mergeCell ref="BD36:BH36"/>
+    <mergeCell ref="BD37:BH37"/>
+    <mergeCell ref="BC39:BH39"/>
+    <mergeCell ref="AT26:AY28"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6260,7 +8494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DFD280-CB3F-4A45-8F62-9CF1F8B27A7E}">
   <dimension ref="A1:AP23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -6271,54 +8505,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="J1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="J1" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="S1" s="43" t="s">
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="S1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="42" t="s">
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="AB1" s="55" t="s">
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="AB1" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="57" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AK1" s="52" t="s">
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AK1" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -6389,40 +8623,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="54"/>
+      <c r="O3" s="65"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="54" t="s">
+      <c r="W3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="54"/>
+      <c r="X3" s="65"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="54" t="s">
+      <c r="AF3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="54"/>
+      <c r="AG3" s="65"/>
       <c r="AK3" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="54" t="s">
+      <c r="AO3" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="AP3" s="54"/>
+      <c r="AP3" s="65"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -6441,38 +8675,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="35"/>
+      <c r="O4" s="41"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="35"/>
+      <c r="X4" s="41"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="35" t="s">
+      <c r="AF4" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="35"/>
+      <c r="AG4" s="41"/>
       <c r="AK4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -6483,90 +8717,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="S5" s="22" t="s">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="S5" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="AB5" s="22" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="AB5" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AK5" s="22" t="s">
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AK5" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="J6" s="24" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="S6" s="24" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="S6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="AB6" s="24" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="AB6" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AK6" s="30" t="s">
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AK6" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -6591,14 +8825,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="51" t="s">
+      <c r="AK7" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -6614,37 +8848,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="37" t="s">
+      <c r="V8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="37" t="s">
+      <c r="AE8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -6652,169 +8886,169 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="AB9" s="32" t="s">
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="AB9" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="52"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="40" t="s">
+      <c r="T11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="40" t="s">
+      <c r="AC11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="J12" s="47" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="J12" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="S12" s="30" t="s">
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="S12" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="40" t="s">
+      <c r="AC12" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -6823,62 +9057,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="S13" s="39" t="s">
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="S13" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="40" t="s">
+      <c r="AC13" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="J14" s="30" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="J14" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="AB14" s="30" t="s">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="AB14" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
@@ -6889,30 +9123,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="S15" s="30" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="S15" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="AB15" s="39" t="s">
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="AB15" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -6920,145 +9154,145 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="S16" s="39" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="S16" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="AB17" s="30" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="AB17" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="AB18" s="51" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="AB18" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="65">

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59163694-E382-4C6F-BB98-858FE1D4DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9AA81-7FE7-49BE-A734-5981C9690D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="855" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="17130" yWindow="855" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="287">
   <si>
     <t>[Name]</t>
   </si>
@@ -3609,18 +3609,9 @@
     <t>Tormented Lethe</t>
   </si>
   <si>
-    <t>While the myldorin is winded, its strikes cause targets to be frightened (EoT) of it, and any strike made against it gains an edge.</t>
-  </si>
-  <si>
     <t>Tormented Soulsight</t>
   </si>
   <si>
-    <t>On frightened creatures within 2 squares of it, the albëoq ignores concealment and has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
-  </si>
-  <si>
-    <t>On frightened creatures within 2 squares of it, the myldorin ignores concealment and has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3744,9 +3735,6 @@
   </si>
   <si>
     <t>Level 2 Solo</t>
-  </si>
-  <si>
-    <t>Construct, Golem</t>
   </si>
   <si>
     <t>Deatheye Yslansh</t>
@@ -4106,6 +4094,941 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> One creature</t>
+    </r>
+  </si>
+  <si>
+    <t>EV 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stamina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 80</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Might 0   Agility +2   Reason +2   Intuition +1   Presence +3 </t>
+  </si>
+  <si>
+    <t>Yslansh Reptilian Escape</t>
+  </si>
+  <si>
+    <t>While Yslansh still has a tail, whenever she is inflicted with an EoT or save ends effect, she can lose her tail to immediately end the effect and shift 2.</t>
+  </si>
+  <si>
+    <t>Humanoid, Lizardfolk, Demon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yslansh is targeted by a strike.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pain Begets the Eye </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Triggered Action)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 Malice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10 burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Any damage from the strike is halved, and all enemeis within 2 squares of Yslansh are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frightened (save ends) of Yslansh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Each enemy in the area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Each target is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frightened (EoT) of Yslansh. If a target was already frightened, Yslansh instead slides the target up to 3 squares, ignoring their stability.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hear My Voice and Despair! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Maneuver)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ranged 15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Your Service is Not Ended! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Free Triggered Action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> One non-minion ally</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The target is reduced to 0 Stamina by damage that isn't fire damage or holy damage and their body isn't destroyed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In unoccupied spaces within 3 of the target, a squad of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 undead crawling claws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coalesce out of the remains of their corpse.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Visions of Death </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 psychic damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9 psychic damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 psychic damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R&lt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A creature weakened by this ability has -1 to resist potencies of abilities that would inflict frightening.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tormented Soulsight of the Deatheye</t>
+  </si>
+  <si>
+    <t>On frightened creatures within 2 squares of it, the myldorin ignores concealment and the myldorin has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
+  </si>
+  <si>
+    <t>The albëoq ignores concealment of frightened creatures within 2 squares and the albëoq has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
+  </si>
+  <si>
+    <t>The myldorin ignores concealment of frightened creatures within 2 squares and the myldorin has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
+  </si>
+  <si>
+    <t>Yslansh ignores concealment of frightened creatures within 10 squares and Yslansh has line of effect to the frightened creatures irrespective of mundane obstacles.</t>
+  </si>
+  <si>
+    <t>The Statue Malice</t>
+  </si>
+  <si>
+    <t>Malice Features</t>
+  </si>
+  <si>
+    <t>Construct, Statue</t>
+  </si>
+  <si>
+    <t>At the start of a statue's turn, you can spend malice to activate one of the following features.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grafted Arms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 7 Malice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hesitation Will Not Save the Vale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 Malice</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vines emerge and rapidly grow across the entire encounter map. 
+Each enemy must make an Agility test. </t>
+  </si>
+  <si>
+    <t>8 damage; restrained (save ends)</t>
+  </si>
+  <si>
+    <t>restrained (EoT)</t>
+  </si>
+  <si>
+    <t>no effect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Solo Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 Malice</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The statue takes an additional action on their turn. They can use this feature even if they are dazed. </t>
+  </si>
+  <si>
+    <t>Until the end of the round, at the end of each turn, the statue can shift 2.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Wode, Our Battlefield, Our Birthright</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 Malice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chorus from the Abyss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Villain Action 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keywords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ranged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Three enemies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Each target must choose between taking 5 psychic damage, or being frightened (save ends). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You Will Serve Better in Death </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Villain Action 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yslansh kills the target and its place summons an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undead umbral stalker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Avatar Demands Death! DEATH! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Villain Action 3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yslansh shifts up to her speed, uses Visions of Death, shifts up to her speed, and then uses Hear My Voice and Despair.</t>
     </r>
   </si>
 </sst>
@@ -4303,7 +5226,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -4350,6 +5273,15 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4359,14 +5291,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -4378,62 +5314,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4447,9 +5339,39 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4464,6 +5386,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4813,16 +5751,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -4834,10 +5772,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -4963,50 +5901,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -5062,11 +6000,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -5075,125 +6013,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="L14" s="38" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="L14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="L18" s="30" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="L18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -5219,102 +6157,115 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="L21" s="33" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="L21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="L23" s="36" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="L23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -5327,19 +6278,6 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5360,10 +6298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
-  <dimension ref="A1:BZ62"/>
+  <dimension ref="A1:CI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ61" sqref="BJ61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5383,47 +6321,47 @@
     <col min="51" max="51" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:87">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="J1" s="32" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="31" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="S1" s="32" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="S1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="31" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="AB1" s="59" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="AB1" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
       <c r="AK1" s="25" t="s">
         <v>198</v>
       </c>
@@ -5432,7 +6370,7 @@
       <c r="AN1" s="25"/>
       <c r="AO1" s="25"/>
       <c r="AP1" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AT1" s="23" t="s">
         <v>203</v>
@@ -5442,40 +6380,50 @@
       <c r="AW1" s="17"/>
       <c r="AX1" s="17"/>
       <c r="AY1" s="27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="22"/>
       <c r="BG1" s="22"/>
       <c r="BH1" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
       <c r="BO1" s="22"/>
       <c r="BP1" s="22"/>
       <c r="BQ1" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BU1" s="3" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="BV1" s="3"/>
       <c r="BW1" s="3"/>
       <c r="BX1" s="22"/>
       <c r="BY1" s="22"/>
       <c r="BZ1" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:78">
+        <v>266</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="22"/>
+      <c r="CH1" s="22"/>
+      <c r="CI1" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -5524,7 +6472,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AT2" s="21" t="s">
         <v>199</v>
@@ -5534,20 +6482,20 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="BC2" s="21" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="4" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="BL2" s="21" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
@@ -5556,18 +6504,26 @@
       <c r="BQ2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BU2" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CD2" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="4" t="s">
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:87">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -5605,7 +6561,7 @@
         <v>201</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
@@ -5615,7 +6571,7 @@
         <v>204</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="5"/>
@@ -5625,13 +6581,15 @@
         <v>204</v>
       </c>
       <c r="BC3" s="5" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="5"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="5"/>
-      <c r="BH3" s="18"/>
+      <c r="BH3" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="BL3" s="5" t="s">
         <v>122</v>
       </c>
@@ -5640,16 +6598,22 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="5"/>
       <c r="BQ3" s="18"/>
-      <c r="BU3" s="5" t="s">
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="56"/>
+      <c r="BZ3" s="56"/>
+      <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="18"/>
-    </row>
-    <row r="4" spans="1:78">
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="18"/>
+    </row>
+    <row r="4" spans="1:87">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -5716,9 +6680,9 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
-      <c r="BG4" s="5"/>
+      <c r="BG4" s="1"/>
       <c r="BH4" s="18" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="BL4" s="5" t="s">
         <v>73</v>
@@ -5730,18 +6694,26 @@
       <c r="BQ4" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="BU4" s="5" t="s">
+      <c r="BU4" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
+      <c r="CD4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="18" t="s">
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:78">
+    <row r="5" spans="1:87" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5766,42 +6738,42 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="41" t="s">
+      <c r="AB5" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
+      <c r="AK5" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
+        <v>225</v>
+      </c>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="BC5" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
@@ -5810,164 +6782,186 @@
       <c r="BQ5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="18" t="s">
+      <c r="BU5" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV5" s="54"/>
+      <c r="BW5" s="54"/>
+      <c r="BX5" s="54"/>
+      <c r="BY5" s="54"/>
+      <c r="BZ5" s="54"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:78">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:87">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="J6" s="28" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="S6" s="28" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="S6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="AB6" s="28" t="s">
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="AB6" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AK6" s="28" t="s">
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AK6" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AT6" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="29"/>
-      <c r="AX6" s="29"/>
-      <c r="AY6" s="29"/>
-      <c r="BC6" s="28" t="s">
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AT6" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="BC6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD6" s="33"/>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="33"/>
+      <c r="BH6" s="33"/>
+      <c r="BL6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="BD6" s="29"/>
-      <c r="BE6" s="29"/>
-      <c r="BF6" s="29"/>
-      <c r="BG6" s="29"/>
-      <c r="BH6" s="29"/>
-      <c r="BL6" s="28" t="s">
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BU6" s="56"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="56"/>
+      <c r="BZ6" s="56"/>
+      <c r="CD6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="BM6" s="29"/>
-      <c r="BN6" s="29"/>
-      <c r="BO6" s="29"/>
-      <c r="BP6" s="29"/>
-      <c r="BQ6" s="29"/>
-      <c r="BU6" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV6" s="29"/>
-      <c r="BW6" s="29"/>
-      <c r="BX6" s="29"/>
-      <c r="BY6" s="29"/>
-      <c r="BZ6" s="29"/>
-    </row>
-    <row r="7" spans="1:78">
-      <c r="A7" s="30" t="s">
+      <c r="CE6" s="32"/>
+      <c r="CF6" s="32"/>
+      <c r="CG6" s="32"/>
+      <c r="CH6" s="32"/>
+      <c r="CI6" s="32"/>
+    </row>
+    <row r="7" spans="1:87">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="S7" s="36" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="S7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="AB7" s="30" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="AB7" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AK7" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AT7" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30"/>
-      <c r="AW7" s="30"/>
-      <c r="AX7" s="30"/>
-      <c r="AY7" s="30"/>
-      <c r="BC7" s="30" t="s">
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AK7" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AT7" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="BC7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BL7" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM7" s="41"/>
+      <c r="BN7" s="41"/>
+      <c r="BO7" s="41"/>
+      <c r="BP7" s="41"/>
+      <c r="BQ7" s="41"/>
+      <c r="BU7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CD7" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="BD7" s="30"/>
-      <c r="BE7" s="30"/>
-      <c r="BF7" s="30"/>
-      <c r="BG7" s="30"/>
-      <c r="BH7" s="30"/>
-      <c r="BL7" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="36"/>
-      <c r="BU7" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="BV7" s="30"/>
-      <c r="BW7" s="30"/>
-      <c r="BX7" s="30"/>
-      <c r="BY7" s="30"/>
-      <c r="BZ7" s="30"/>
-    </row>
-    <row r="8" spans="1:78">
+      <c r="CE7" s="33"/>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="33"/>
+      <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
+    </row>
+    <row r="8" spans="1:87">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -5984,14 +6978,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
       <c r="AB8" s="5" t="s">
         <v>193</v>
       </c>
@@ -6017,57 +7011,67 @@
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
       <c r="BC8" s="5" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BL8" s="45" t="s">
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL8" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="45"/>
-      <c r="BU8" s="5" t="s">
+      <c r="BM8" s="52"/>
+      <c r="BN8" s="52"/>
+      <c r="BO8" s="52"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="52"/>
+      <c r="BU8" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="BV8" s="54"/>
+      <c r="BW8" s="54"/>
+      <c r="BX8" s="54"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="54"/>
+      <c r="CD8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BV8" s="1"/>
-      <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-    </row>
-    <row r="9" spans="1:78">
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+    </row>
+    <row r="9" spans="1:87">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
       <c r="AB9" s="5" t="s">
         <v>194</v>
       </c>
@@ -6096,378 +7100,412 @@
       <c r="AW9" s="18"/>
       <c r="AX9" s="18"/>
       <c r="AY9" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD9" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52"/>
+      <c r="BO9" s="52"/>
+      <c r="BP9" s="52"/>
+      <c r="BQ9" s="52"/>
+      <c r="BU9" s="56"/>
+      <c r="BV9" s="56"/>
+      <c r="BW9" s="56"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="56"/>
+      <c r="BZ9" s="56"/>
+      <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="43" t="s">
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BU9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43"/>
-    </row>
-    <row r="10" spans="1:78">
+      <c r="CH9" s="53"/>
+      <c r="CI9" s="53"/>
+    </row>
+    <row r="10" spans="1:87">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="S10" s="45" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="S10" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="47" t="s">
+      <c r="AC10" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="47" t="s">
+      <c r="AL10" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="AV10" s="40"/>
-      <c r="AW10" s="40"/>
-      <c r="AX10" s="40"/>
-      <c r="AY10" s="40"/>
+      <c r="AU10" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
       <c r="BC10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD10" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BL10" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="52"/>
+      <c r="BP10" s="52"/>
+      <c r="BQ10" s="52"/>
+      <c r="BU10" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="33"/>
+      <c r="CD10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD10" s="47" t="s">
+      <c r="CE10" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="BE10" s="40"/>
-      <c r="BF10" s="40"/>
-      <c r="BG10" s="40"/>
-      <c r="BH10" s="40"/>
-      <c r="BL10" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="45"/>
-      <c r="BU10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV10" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BW10" s="40"/>
-      <c r="BX10" s="40"/>
-      <c r="BY10" s="40"/>
-      <c r="BZ10" s="40"/>
-    </row>
-    <row r="11" spans="1:78">
+      <c r="CF10" s="34"/>
+      <c r="CG10" s="34"/>
+      <c r="CH10" s="34"/>
+      <c r="CI10" s="34"/>
+    </row>
+    <row r="11" spans="1:87">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="47" t="s">
+      <c r="AC11" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="40"/>
-      <c r="AP11" s="40"/>
+      <c r="AL11" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV11" s="40"/>
-      <c r="AW11" s="40"/>
-      <c r="AX11" s="40"/>
-      <c r="AY11" s="40"/>
-      <c r="BC11" s="6" t="s">
+      <c r="AU11" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="BC11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD11" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BL11" s="52"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="52"/>
+      <c r="BO11" s="52"/>
+      <c r="BP11" s="52"/>
+      <c r="BQ11" s="52"/>
+      <c r="BU11" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="BV11" s="74"/>
+      <c r="BW11" s="74"/>
+      <c r="BX11" s="74"/>
+      <c r="BY11" s="74"/>
+      <c r="BZ11" s="74"/>
+      <c r="CD11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD11" s="47" t="s">
+      <c r="CE11" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="BE11" s="40"/>
-      <c r="BF11" s="40"/>
-      <c r="BG11" s="40"/>
-      <c r="BH11" s="40"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="45"/>
-      <c r="BO11" s="45"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
-      <c r="BU11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV11" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="BW11" s="40"/>
-      <c r="BX11" s="40"/>
-      <c r="BY11" s="40"/>
-      <c r="BZ11" s="40"/>
-    </row>
-    <row r="12" spans="1:78">
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="34"/>
+      <c r="CI11" s="34"/>
+    </row>
+    <row r="12" spans="1:87">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="53" t="s">
+      <c r="AC12" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
+      <c r="AL12" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40"/>
-      <c r="AY12" s="40"/>
-      <c r="BC12" s="1" t="s">
+      <c r="AU12" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="BC12" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="35"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BU12" s="74"/>
+      <c r="BV12" s="74"/>
+      <c r="BW12" s="74"/>
+      <c r="BX12" s="74"/>
+      <c r="BY12" s="74"/>
+      <c r="BZ12" s="74"/>
+      <c r="CD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD12" s="47" t="s">
+      <c r="CE12" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BE12" s="40"/>
-      <c r="BF12" s="40"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="40"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="45"/>
-      <c r="BU12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV12" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="BW12" s="40"/>
-      <c r="BX12" s="40"/>
-      <c r="BY12" s="40"/>
-      <c r="BZ12" s="40"/>
-    </row>
-    <row r="13" spans="1:78">
+      <c r="CF12" s="34"/>
+      <c r="CG12" s="34"/>
+      <c r="CH12" s="34"/>
+      <c r="CI12" s="34"/>
+    </row>
+    <row r="13" spans="1:87">
       <c r="A13" s="1"/>
       <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="S13" s="30" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="S13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="AB13" s="36" t="s">
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="AB13" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AK13" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AT13" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="BC13" s="38" t="s">
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AK13" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AT13" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BL13" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BU13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV13" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="34"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CD13" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="38"/>
-      <c r="BL13" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="BM13" s="30"/>
-      <c r="BN13" s="30"/>
-      <c r="BO13" s="30"/>
-      <c r="BP13" s="30"/>
-      <c r="BQ13" s="30"/>
-      <c r="BU13" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="BV13" s="38"/>
-      <c r="BW13" s="38"/>
-      <c r="BX13" s="38"/>
-      <c r="BY13" s="38"/>
-      <c r="BZ13" s="38"/>
-    </row>
-    <row r="14" spans="1:78" ht="15" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="35"/>
+      <c r="CG13" s="35"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="35"/>
+    </row>
+    <row r="14" spans="1:87" ht="15" customHeight="1">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -6476,14 +7514,14 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="52" t="s">
+      <c r="AB14" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -6500,12 +7538,14 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="39"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="39"/>
-      <c r="BF14" s="39"/>
-      <c r="BG14" s="39"/>
-      <c r="BH14" s="39"/>
+      <c r="BC14" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
       <c r="BL14" s="5" t="s">
         <v>43</v>
       </c>
@@ -6514,14 +7554,24 @@
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1"/>
-      <c r="BU14" s="39"/>
-      <c r="BV14" s="39"/>
-      <c r="BW14" s="39"/>
-      <c r="BX14" s="39"/>
-      <c r="BY14" s="39"/>
-      <c r="BZ14" s="39"/>
-    </row>
-    <row r="15" spans="1:78">
+      <c r="BU14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV14" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="36"/>
+      <c r="CF14" s="36"/>
+      <c r="CG14" s="36"/>
+      <c r="CH14" s="36"/>
+      <c r="CI14" s="36"/>
+    </row>
+    <row r="15" spans="1:87">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -6530,30 +7580,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -6569,49 +7619,59 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="43" t="s">
+      <c r="AW15" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="43"/>
-      <c r="AY15" s="43"/>
-      <c r="BC15" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="30"/>
-      <c r="BF15" s="30"/>
-      <c r="BG15" s="30"/>
-      <c r="BH15" s="30"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="BC15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
       <c r="BL15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
-      <c r="BO15" s="43" t="s">
+      <c r="BO15" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="BP15" s="43"/>
-      <c r="BQ15" s="43"/>
-      <c r="BU15" s="30" t="s">
+      <c r="BP15" s="53"/>
+      <c r="BQ15" s="53"/>
+      <c r="BU15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV15" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="34"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CD15" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="BV15" s="30"/>
-      <c r="BW15" s="30"/>
-      <c r="BX15" s="30"/>
-      <c r="BY15" s="30"/>
-      <c r="BZ15" s="30"/>
-    </row>
-    <row r="16" spans="1:78" ht="15" customHeight="1">
+      <c r="CE15" s="33"/>
+      <c r="CF15" s="33"/>
+      <c r="CG15" s="33"/>
+      <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
+    </row>
+    <row r="16" spans="1:87" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -6623,281 +7683,299 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="47" t="s">
+      <c r="T16" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="AK16" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AT16" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="AK16" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AT16" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
       <c r="BC16" s="5" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="18" t="s">
+        <v>247</v>
+      </c>
       <c r="BL16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM16" s="47" t="s">
+      <c r="BM16" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="BN16" s="40"/>
-      <c r="BO16" s="40"/>
-      <c r="BP16" s="40"/>
-      <c r="BQ16" s="40"/>
-      <c r="BU16" s="5" t="s">
+      <c r="BN16" s="34"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="34"/>
+      <c r="BU16" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
+      <c r="CD16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-    </row>
-    <row r="17" spans="1:78">
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+    </row>
+    <row r="17" spans="1:87">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="43" t="s">
+      <c r="M17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="47" t="s">
+      <c r="T17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="BC17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG17" s="43"/>
-      <c r="BH17" s="43"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AT17" s="52"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="52"/>
+      <c r="AW17" s="52"/>
+      <c r="AX17" s="52"/>
+      <c r="AY17" s="52"/>
+      <c r="BC17" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="52"/>
+      <c r="BH17" s="52"/>
       <c r="BL17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM17" s="47" t="s">
+      <c r="BM17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="BN17" s="40"/>
-      <c r="BO17" s="40"/>
-      <c r="BP17" s="40"/>
-      <c r="BQ17" s="40"/>
-      <c r="BU17" s="5" t="s">
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="34"/>
+      <c r="BP17" s="34"/>
+      <c r="BQ17" s="34"/>
+      <c r="BU17" s="54"/>
+      <c r="BV17" s="52"/>
+      <c r="BW17" s="52"/>
+      <c r="BX17" s="52"/>
+      <c r="BY17" s="52"/>
+      <c r="BZ17" s="52"/>
+      <c r="CD17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="43" t="s">
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="BY17" s="43"/>
-      <c r="BZ17" s="43"/>
-    </row>
-    <row r="18" spans="1:78" ht="15" customHeight="1">
+      <c r="CH17" s="53"/>
+      <c r="CI17" s="53"/>
+    </row>
+    <row r="18" spans="1:87" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="J18" s="33" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="J18" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="47" t="s">
+      <c r="T18" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="AK18" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="BC18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD18" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE18" s="40"/>
-      <c r="BF18" s="40"/>
-      <c r="BG18" s="40"/>
-      <c r="BH18" s="40"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="AK18" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
+      <c r="AY18" s="52"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="52"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="52"/>
       <c r="BL18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM18" s="47" t="s">
+      <c r="BM18" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BN18" s="40"/>
-      <c r="BO18" s="40"/>
-      <c r="BP18" s="40"/>
-      <c r="BQ18" s="40"/>
-      <c r="BU18" s="6" t="s">
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
+      <c r="BU18" s="52"/>
+      <c r="BV18" s="52"/>
+      <c r="BW18" s="52"/>
+      <c r="BX18" s="52"/>
+      <c r="BY18" s="52"/>
+      <c r="BZ18" s="52"/>
+      <c r="CD18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV18" s="47" t="s">
+      <c r="CE18" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="BW18" s="40"/>
-      <c r="BX18" s="40"/>
-      <c r="BY18" s="40"/>
-      <c r="BZ18" s="40"/>
-    </row>
-    <row r="19" spans="1:78">
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
+    </row>
+    <row r="19" spans="1:87">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="J19" s="30" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="J19" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="S19" s="38" t="s">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="S19" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="BC19" s="6" t="s">
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BL19" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="35"/>
+      <c r="BQ19" s="35"/>
+      <c r="BU19" s="52"/>
+      <c r="BV19" s="52"/>
+      <c r="BW19" s="52"/>
+      <c r="BX19" s="52"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="52"/>
+      <c r="CD19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD19" s="47" t="s">
+      <c r="CE19" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="BE19" s="40"/>
-      <c r="BF19" s="40"/>
-      <c r="BG19" s="40"/>
-      <c r="BH19" s="40"/>
-      <c r="BL19" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM19" s="38"/>
-      <c r="BN19" s="38"/>
-      <c r="BO19" s="38"/>
-      <c r="BP19" s="38"/>
-      <c r="BQ19" s="38"/>
-      <c r="BU19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV19" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW19" s="40"/>
-      <c r="BX19" s="40"/>
-      <c r="BY19" s="40"/>
-      <c r="BZ19" s="40"/>
-    </row>
-    <row r="20" spans="1:78">
-      <c r="A20" s="57" t="s">
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="34"/>
+      <c r="CH19" s="34"/>
+      <c r="CI19" s="34"/>
+    </row>
+    <row r="20" spans="1:87">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -6906,122 +7984,120 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="AK20" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="46"/>
-      <c r="AV20" s="46"/>
-      <c r="AW20" s="46"/>
-      <c r="AX20" s="46"/>
-      <c r="AY20" s="46"/>
-      <c r="BC20" s="1" t="s">
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="AK20" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="BC20" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="CD20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD20" s="47" t="s">
+      <c r="CE20" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="BE20" s="40"/>
-      <c r="BF20" s="40"/>
-      <c r="BG20" s="40"/>
-      <c r="BH20" s="40"/>
-      <c r="BL20" s="39"/>
-      <c r="BM20" s="39"/>
-      <c r="BN20" s="39"/>
-      <c r="BO20" s="39"/>
-      <c r="BP20" s="39"/>
-      <c r="BQ20" s="39"/>
-      <c r="BU20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV20" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="BW20" s="40"/>
-      <c r="BX20" s="40"/>
-      <c r="BY20" s="40"/>
-      <c r="BZ20" s="40"/>
-    </row>
-    <row r="21" spans="1:78">
-      <c r="A21" s="30" t="s">
+      <c r="CF20" s="34"/>
+      <c r="CG20" s="34"/>
+      <c r="CH20" s="34"/>
+      <c r="CI20" s="34"/>
+    </row>
+    <row r="21" spans="1:87" ht="15" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="43" t="s">
+      <c r="M21" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="S21" s="30" t="s">
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="S21" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="AK21" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AT21" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="BC21" s="36" t="s">
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="AK21" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AT21" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="BC21" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD21" s="45"/>
+      <c r="BE21" s="45"/>
+      <c r="BF21" s="45"/>
+      <c r="BG21" s="45"/>
+      <c r="BH21" s="45"/>
+      <c r="BL21" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM21" s="33"/>
+      <c r="BN21" s="33"/>
+      <c r="BO21" s="33"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="33"/>
+      <c r="CD21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="37"/>
-      <c r="BH21" s="37"/>
-      <c r="BL21" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM21" s="30"/>
-      <c r="BN21" s="30"/>
-      <c r="BO21" s="30"/>
-      <c r="BP21" s="30"/>
-      <c r="BQ21" s="30"/>
-      <c r="BU21" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV21" s="37"/>
-      <c r="BW21" s="37"/>
-      <c r="BX21" s="37"/>
-      <c r="BY21" s="37"/>
-      <c r="BZ21" s="37"/>
-    </row>
-    <row r="22" spans="1:78">
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
+      <c r="CI21" s="42"/>
+    </row>
+    <row r="22" spans="1:87">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -7030,14 +8106,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
       <c r="S22" s="5" t="s">
         <v>62</v>
       </c>
@@ -7046,28 +8122,26 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="52"/>
-      <c r="AT22" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="BC22" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD22" s="50"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="50"/>
-      <c r="BG22" s="50"/>
-      <c r="BH22" s="50"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AT22" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="BC22" s="45"/>
+      <c r="BD22" s="45"/>
+      <c r="BE22" s="45"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="45"/>
       <c r="BL22" s="5" t="s">
         <v>62</v>
       </c>
@@ -7076,354 +8150,354 @@
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
-      <c r="BU22" s="50" t="s">
+      <c r="CD22" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="BV22" s="50"/>
-      <c r="BW22" s="50"/>
-      <c r="BX22" s="50"/>
-      <c r="BY22" s="50"/>
-      <c r="BZ22" s="50"/>
-    </row>
-    <row r="23" spans="1:78">
+      <c r="CE22" s="57"/>
+      <c r="CF22" s="57"/>
+      <c r="CG22" s="57"/>
+      <c r="CH22" s="57"/>
+      <c r="CI22" s="57"/>
+    </row>
+    <row r="23" spans="1:87">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="J23" s="33" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="J23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="S23" s="5" t="s">
         <v>131</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="43" t="s">
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AT23" s="52"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="52"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="BC23" s="51"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="51"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="51"/>
-      <c r="BH23" s="51"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
       <c r="BL23" s="5" t="s">
         <v>131</v>
       </c>
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
-      <c r="BO23" s="43" t="s">
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="BP23" s="43"/>
-      <c r="BQ23" s="43"/>
-      <c r="BU23" s="51"/>
-      <c r="BV23" s="51"/>
-      <c r="BW23" s="51"/>
-      <c r="BX23" s="51"/>
-      <c r="BY23" s="51"/>
-      <c r="BZ23" s="51"/>
-    </row>
-    <row r="24" spans="1:78">
-      <c r="A24" s="33" t="s">
+      <c r="CD23" s="58"/>
+      <c r="CE23" s="58"/>
+      <c r="CF23" s="58"/>
+      <c r="CG23" s="58"/>
+      <c r="CH23" s="58"/>
+      <c r="CI23" s="58"/>
+    </row>
+    <row r="24" spans="1:87">
+      <c r="A24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="J24" s="36" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="J24" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
       <c r="S24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="47" t="s">
+      <c r="T24" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="BC24" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="BC24" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="33"/>
       <c r="BL24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM24" s="47" t="s">
+      <c r="BM24" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="BN24" s="40"/>
-      <c r="BO24" s="40"/>
-      <c r="BP24" s="40"/>
-      <c r="BQ24" s="40"/>
-      <c r="BU24" s="36" t="s">
+      <c r="BN24" s="34"/>
+      <c r="BO24" s="34"/>
+      <c r="BP24" s="34"/>
+      <c r="BQ24" s="34"/>
+      <c r="CD24" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-    </row>
-    <row r="25" spans="1:78">
-      <c r="A25" s="36" t="s">
+      <c r="CE24" s="33"/>
+      <c r="CF24" s="33"/>
+      <c r="CG24" s="33"/>
+      <c r="CH24" s="33"/>
+      <c r="CI24" s="33"/>
+    </row>
+    <row r="25" spans="1:87">
+      <c r="A25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="J25" s="54" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="J25" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
       <c r="S25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T25" s="47" t="s">
+      <c r="T25" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="AT25" s="36" t="s">
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="AT25" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="AU25" s="37"/>
-      <c r="AV25" s="37"/>
-      <c r="AW25" s="37"/>
-      <c r="AX25" s="37"/>
-      <c r="AY25" s="37"/>
-      <c r="BC25" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD25" s="48"/>
-      <c r="BE25" s="48"/>
-      <c r="BF25" s="48"/>
-      <c r="BG25" s="48"/>
-      <c r="BH25" s="48"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
+      <c r="BC25" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD25" s="54"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="54"/>
       <c r="BL25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM25" s="47" t="s">
+      <c r="BM25" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="BN25" s="40"/>
-      <c r="BO25" s="40"/>
-      <c r="BP25" s="40"/>
-      <c r="BQ25" s="40"/>
-      <c r="BU25" s="48" t="s">
+      <c r="BN25" s="34"/>
+      <c r="BO25" s="34"/>
+      <c r="BP25" s="34"/>
+      <c r="BQ25" s="34"/>
+      <c r="CD25" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="BV25" s="48"/>
-      <c r="BW25" s="48"/>
-      <c r="BX25" s="48"/>
-      <c r="BY25" s="48"/>
-      <c r="BZ25" s="48"/>
-    </row>
-    <row r="26" spans="1:78">
-      <c r="A26" s="54" t="s">
+      <c r="CE25" s="54"/>
+      <c r="CF25" s="54"/>
+      <c r="CG25" s="54"/>
+      <c r="CH25" s="54"/>
+      <c r="CI25" s="54"/>
+    </row>
+    <row r="26" spans="1:87" ht="15" customHeight="1">
+      <c r="A26" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
       <c r="S26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="47" t="s">
+      <c r="T26" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="AT26" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="52"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="BC26" s="48"/>
-      <c r="BD26" s="48"/>
-      <c r="BE26" s="48"/>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="48"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="AT26" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="BC26" s="54"/>
+      <c r="BD26" s="54"/>
+      <c r="BE26" s="54"/>
+      <c r="BF26" s="54"/>
+      <c r="BG26" s="54"/>
+      <c r="BH26" s="54"/>
       <c r="BL26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM26" s="47" t="s">
+      <c r="BM26" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="BN26" s="40"/>
-      <c r="BO26" s="40"/>
-      <c r="BP26" s="40"/>
-      <c r="BQ26" s="40"/>
-      <c r="BU26" s="48"/>
-      <c r="BV26" s="48"/>
-      <c r="BW26" s="48"/>
-      <c r="BX26" s="48"/>
-      <c r="BY26" s="48"/>
-      <c r="BZ26" s="48"/>
-    </row>
-    <row r="27" spans="1:78">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="S27" s="36" t="s">
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="CD26" s="54"/>
+      <c r="CE26" s="54"/>
+      <c r="CF26" s="54"/>
+      <c r="CG26" s="54"/>
+      <c r="CH26" s="54"/>
+      <c r="CI26" s="54"/>
+    </row>
+    <row r="27" spans="1:87">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="S27" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BL27" s="36" t="s">
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BL27" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="BM27" s="37"/>
-      <c r="BN27" s="37"/>
-      <c r="BO27" s="37"/>
-      <c r="BP27" s="37"/>
-      <c r="BQ27" s="37"/>
-      <c r="BU27" s="49"/>
-      <c r="BV27" s="49"/>
-      <c r="BW27" s="49"/>
-      <c r="BX27" s="49"/>
-      <c r="BY27" s="49"/>
-      <c r="BZ27" s="49"/>
-    </row>
-    <row r="28" spans="1:78" ht="15" customHeight="1">
-      <c r="J28" s="36" t="s">
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
+      <c r="BP27" s="42"/>
+      <c r="BQ27" s="42"/>
+      <c r="CD27" s="56"/>
+      <c r="CE27" s="56"/>
+      <c r="CF27" s="56"/>
+      <c r="CG27" s="56"/>
+      <c r="CH27" s="56"/>
+      <c r="CI27" s="56"/>
+    </row>
+    <row r="28" spans="1:87" ht="15" customHeight="1">
+      <c r="J28" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="S28" s="50" t="s">
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="S28" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="BC28" s="30" t="s">
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="BC28" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BL28" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
+      <c r="BP28" s="57"/>
+      <c r="BQ28" s="57"/>
+      <c r="CD28" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BL28" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM28" s="50"/>
-      <c r="BN28" s="50"/>
-      <c r="BO28" s="50"/>
-      <c r="BP28" s="50"/>
-      <c r="BQ28" s="50"/>
-      <c r="BU28" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="BV28" s="30"/>
-      <c r="BW28" s="30"/>
-      <c r="BX28" s="30"/>
-      <c r="BY28" s="30"/>
-      <c r="BZ28" s="30"/>
-    </row>
-    <row r="29" spans="1:78" ht="15" customHeight="1">
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
+      <c r="CH28" s="33"/>
+      <c r="CI28" s="33"/>
+    </row>
+    <row r="29" spans="1:87" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
         <v>62</v>
       </c>
@@ -7432,196 +8506,194 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
       <c r="BC29" s="5" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
-      <c r="BL29" s="51"/>
-      <c r="BM29" s="51"/>
-      <c r="BN29" s="51"/>
-      <c r="BO29" s="51"/>
-      <c r="BP29" s="51"/>
-      <c r="BQ29" s="51"/>
-      <c r="BU29" s="5" t="s">
+      <c r="BL29" s="58"/>
+      <c r="BM29" s="58"/>
+      <c r="BN29" s="58"/>
+      <c r="BO29" s="58"/>
+      <c r="BP29" s="58"/>
+      <c r="BQ29" s="58"/>
+      <c r="CD29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BV29" s="1"/>
-      <c r="BW29" s="1"/>
-      <c r="BX29" s="1"/>
-      <c r="BY29" s="1"/>
-      <c r="BZ29" s="1"/>
-    </row>
-    <row r="30" spans="1:78">
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+    </row>
+    <row r="30" spans="1:87" ht="15" customHeight="1">
       <c r="J30" s="5" t="s">
         <v>94</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="43" t="s">
+      <c r="M30" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="S30" s="36" t="s">
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="S30" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
       <c r="BC30" s="5" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="43" t="s">
+      <c r="BF30" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="55"/>
+      <c r="BL30" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM30" s="33"/>
+      <c r="BN30" s="33"/>
+      <c r="BO30" s="33"/>
+      <c r="BP30" s="33"/>
+      <c r="BQ30" s="33"/>
+      <c r="CD30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="BG30" s="44"/>
-      <c r="BH30" s="44"/>
-      <c r="BL30" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM30" s="30"/>
-      <c r="BN30" s="30"/>
-      <c r="BO30" s="30"/>
-      <c r="BP30" s="30"/>
-      <c r="BQ30" s="30"/>
-      <c r="BU30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="BV30" s="1"/>
-      <c r="BW30" s="1"/>
-      <c r="BX30" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY30" s="44"/>
-      <c r="BZ30" s="44"/>
-    </row>
-    <row r="31" spans="1:78">
-      <c r="J31" s="38" t="s">
+      <c r="CH30" s="55"/>
+      <c r="CI30" s="55"/>
+    </row>
+    <row r="31" spans="1:87">
+      <c r="J31" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="S31" s="48" t="s">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="S31" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="BC31" s="41" t="s">
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="BC31" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD31" s="72"/>
+      <c r="BE31" s="72"/>
+      <c r="BF31" s="72"/>
+      <c r="BG31" s="72"/>
+      <c r="BH31" s="72"/>
+      <c r="BL31" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM31" s="54"/>
+      <c r="BN31" s="54"/>
+      <c r="BO31" s="54"/>
+      <c r="BP31" s="54"/>
+      <c r="BQ31" s="54"/>
+      <c r="CD31" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="BD31" s="41"/>
-      <c r="BE31" s="41"/>
-      <c r="BF31" s="41"/>
-      <c r="BG31" s="41"/>
-      <c r="BH31" s="41"/>
-      <c r="BL31" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM31" s="48"/>
-      <c r="BN31" s="48"/>
-      <c r="BO31" s="48"/>
-      <c r="BP31" s="48"/>
-      <c r="BQ31" s="48"/>
-      <c r="BU31" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV31" s="41"/>
-      <c r="BW31" s="41"/>
-      <c r="BX31" s="41"/>
-      <c r="BY31" s="41"/>
-      <c r="BZ31" s="41"/>
-    </row>
-    <row r="32" spans="1:78">
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="BC32" s="48" t="s">
+      <c r="CE31" s="37"/>
+      <c r="CF31" s="37"/>
+      <c r="CG31" s="37"/>
+      <c r="CH31" s="37"/>
+      <c r="CI31" s="37"/>
+    </row>
+    <row r="32" spans="1:87" ht="15" customHeight="1">
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="BC32" s="72"/>
+      <c r="BD32" s="72"/>
+      <c r="BE32" s="72"/>
+      <c r="BF32" s="72"/>
+      <c r="BG32" s="72"/>
+      <c r="BH32" s="72"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="54"/>
+      <c r="BN32" s="54"/>
+      <c r="BO32" s="54"/>
+      <c r="BP32" s="54"/>
+      <c r="BQ32" s="54"/>
+      <c r="CD32" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48"/>
-      <c r="BF32" s="48"/>
-      <c r="BG32" s="48"/>
-      <c r="BH32" s="48"/>
-      <c r="BL32" s="48"/>
-      <c r="BM32" s="48"/>
-      <c r="BN32" s="48"/>
-      <c r="BO32" s="48"/>
-      <c r="BP32" s="48"/>
-      <c r="BQ32" s="48"/>
-      <c r="BU32" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="BV32" s="48"/>
-      <c r="BW32" s="48"/>
-      <c r="BX32" s="48"/>
-      <c r="BY32" s="48"/>
-      <c r="BZ32" s="48"/>
-    </row>
-    <row r="33" spans="10:78">
-      <c r="J33" s="36" t="s">
+      <c r="CE32" s="54"/>
+      <c r="CF32" s="54"/>
+      <c r="CG32" s="54"/>
+      <c r="CH32" s="54"/>
+      <c r="CI32" s="54"/>
+    </row>
+    <row r="33" spans="10:87">
+      <c r="J33" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="BC33" s="48"/>
-      <c r="BD33" s="48"/>
-      <c r="BE33" s="48"/>
-      <c r="BF33" s="48"/>
-      <c r="BG33" s="48"/>
-      <c r="BH33" s="48"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
-      <c r="BP33" s="49"/>
-      <c r="BQ33" s="49"/>
-      <c r="BU33" s="48"/>
-      <c r="BV33" s="48"/>
-      <c r="BW33" s="48"/>
-      <c r="BX33" s="48"/>
-      <c r="BY33" s="48"/>
-      <c r="BZ33" s="48"/>
-    </row>
-    <row r="34" spans="10:78">
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="BC33" s="72"/>
+      <c r="BD33" s="72"/>
+      <c r="BE33" s="72"/>
+      <c r="BF33" s="72"/>
+      <c r="BG33" s="72"/>
+      <c r="BH33" s="72"/>
+      <c r="BL33" s="56"/>
+      <c r="BM33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BO33" s="56"/>
+      <c r="BP33" s="56"/>
+      <c r="BQ33" s="56"/>
+      <c r="CD33" s="54"/>
+      <c r="CE33" s="54"/>
+      <c r="CF33" s="54"/>
+      <c r="CG33" s="54"/>
+      <c r="CH33" s="54"/>
+      <c r="CI33" s="54"/>
+    </row>
+    <row r="34" spans="10:87">
       <c r="J34" s="5" t="s">
         <v>98</v>
       </c>
@@ -7630,46 +8702,48 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="30" t="s">
+      <c r="S34" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="BC34" s="48"/>
-      <c r="BD34" s="48"/>
-      <c r="BE34" s="48"/>
-      <c r="BF34" s="48"/>
-      <c r="BG34" s="48"/>
-      <c r="BH34" s="48"/>
-      <c r="BL34" s="30" t="s">
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="BC34" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD34" s="54"/>
+      <c r="BE34" s="54"/>
+      <c r="BF34" s="54"/>
+      <c r="BG34" s="54"/>
+      <c r="BH34" s="54"/>
+      <c r="BL34" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="BM34" s="30"/>
-      <c r="BN34" s="30"/>
-      <c r="BO34" s="30"/>
-      <c r="BP34" s="30"/>
-      <c r="BQ34" s="30"/>
-      <c r="BU34" s="48"/>
-      <c r="BV34" s="48"/>
-      <c r="BW34" s="48"/>
-      <c r="BX34" s="48"/>
-      <c r="BY34" s="48"/>
-      <c r="BZ34" s="48"/>
-    </row>
-    <row r="35" spans="10:78">
+      <c r="BM34" s="33"/>
+      <c r="BN34" s="33"/>
+      <c r="BO34" s="33"/>
+      <c r="BP34" s="33"/>
+      <c r="BQ34" s="33"/>
+      <c r="CD34" s="54"/>
+      <c r="CE34" s="54"/>
+      <c r="CF34" s="54"/>
+      <c r="CG34" s="54"/>
+      <c r="CH34" s="54"/>
+      <c r="CI34" s="54"/>
+    </row>
+    <row r="35" spans="10:87">
       <c r="J35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="43" t="s">
+      <c r="M35" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
       <c r="S35" s="5" t="s">
         <v>43</v>
       </c>
@@ -7678,12 +8752,12 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="BC35" s="48"/>
-      <c r="BD35" s="48"/>
-      <c r="BE35" s="48"/>
-      <c r="BF35" s="48"/>
-      <c r="BG35" s="48"/>
-      <c r="BH35" s="48"/>
+      <c r="BC35" s="54"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="54"/>
       <c r="BL35" s="5" t="s">
         <v>43</v>
       </c>
@@ -7692,110 +8766,104 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
-      <c r="BU35" s="48"/>
-      <c r="BV35" s="48"/>
-      <c r="BW35" s="48"/>
-      <c r="BX35" s="48"/>
-      <c r="BY35" s="48"/>
-      <c r="BZ35" s="48"/>
-    </row>
-    <row r="36" spans="10:78" ht="15" customHeight="1">
-      <c r="J36" s="38" t="s">
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="54"/>
+      <c r="CG35" s="54"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="54"/>
+    </row>
+    <row r="36" spans="10:87" ht="15" customHeight="1">
+      <c r="J36" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
       <c r="S36" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="43" t="s">
+      <c r="V36" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="BC36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD36" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE36" s="40"/>
-      <c r="BF36" s="40"/>
-      <c r="BG36" s="40"/>
-      <c r="BH36" s="40"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="BC36" s="54"/>
+      <c r="BD36" s="54"/>
+      <c r="BE36" s="54"/>
+      <c r="BF36" s="54"/>
+      <c r="BG36" s="54"/>
+      <c r="BH36" s="54"/>
       <c r="BL36" s="5" t="s">
         <v>134</v>
       </c>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
-      <c r="BO36" s="43" t="s">
+      <c r="BO36" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="BP36" s="44"/>
-      <c r="BQ36" s="44"/>
-      <c r="BU36" s="6" t="s">
+      <c r="BP36" s="55"/>
+      <c r="BQ36" s="55"/>
+      <c r="CD36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV36" s="47" t="s">
+      <c r="CE36" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="BW36" s="40"/>
-      <c r="BX36" s="40"/>
-      <c r="BY36" s="40"/>
-      <c r="BZ36" s="40"/>
-    </row>
-    <row r="37" spans="10:78">
-      <c r="J37" s="36" t="s">
+      <c r="CF36" s="34"/>
+      <c r="CG36" s="34"/>
+      <c r="CH36" s="34"/>
+      <c r="CI36" s="34"/>
+    </row>
+    <row r="37" spans="10:87">
+      <c r="J37" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="S37" s="41" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="S37" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="BC37" s="6" t="s">
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="BC37" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD37" s="33"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="33"/>
+      <c r="BG37" s="33"/>
+      <c r="BH37" s="33"/>
+      <c r="BL37" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM37" s="37"/>
+      <c r="BN37" s="37"/>
+      <c r="BO37" s="37"/>
+      <c r="BP37" s="37"/>
+      <c r="BQ37" s="37"/>
+      <c r="CD37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD37" s="47" t="s">
+      <c r="CE37" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="BE37" s="40"/>
-      <c r="BF37" s="40"/>
-      <c r="BG37" s="40"/>
-      <c r="BH37" s="40"/>
-      <c r="BL37" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM37" s="41"/>
-      <c r="BN37" s="41"/>
-      <c r="BO37" s="41"/>
-      <c r="BP37" s="41"/>
-      <c r="BQ37" s="41"/>
-      <c r="BU37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV37" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW37" s="40"/>
-      <c r="BX37" s="40"/>
-      <c r="BY37" s="40"/>
-      <c r="BZ37" s="40"/>
-    </row>
-    <row r="38" spans="10:78">
+      <c r="CF37" s="34"/>
+      <c r="CG37" s="34"/>
+      <c r="CH37" s="34"/>
+      <c r="CI37" s="34"/>
+    </row>
+    <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
         <v>104</v>
       </c>
@@ -7804,176 +8872,204 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="48" t="s">
+      <c r="S38" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="BC38" s="1" t="s">
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="BC38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BL38" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM38" s="54"/>
+      <c r="BN38" s="54"/>
+      <c r="BO38" s="54"/>
+      <c r="BP38" s="54"/>
+      <c r="BQ38" s="54"/>
+      <c r="CD38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD38" s="20" t="s">
+      <c r="CE38" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="BE38" s="7"/>
-      <c r="BF38" s="7"/>
-      <c r="BG38" s="7"/>
-      <c r="BH38" s="7"/>
-      <c r="BL38" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM38" s="48"/>
-      <c r="BN38" s="48"/>
-      <c r="BO38" s="48"/>
-      <c r="BP38" s="48"/>
-      <c r="BQ38" s="48"/>
-      <c r="BU38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV38" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="BW38" s="7"/>
-      <c r="BX38" s="7"/>
-      <c r="BY38" s="7"/>
-      <c r="BZ38" s="7"/>
-    </row>
-    <row r="39" spans="10:78">
+      <c r="CF38" s="7"/>
+      <c r="CG38" s="7"/>
+      <c r="CH38" s="7"/>
+      <c r="CI38" s="7"/>
+    </row>
+    <row r="39" spans="10:87">
       <c r="J39" s="5" t="s">
         <v>103</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="BC39" s="48" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="BC39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG39" s="55"/>
+      <c r="BH39" s="55"/>
+      <c r="BL39" s="54"/>
+      <c r="BM39" s="54"/>
+      <c r="BN39" s="54"/>
+      <c r="BO39" s="54"/>
+      <c r="BP39" s="54"/>
+      <c r="BQ39" s="54"/>
+      <c r="CD39" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="BD39" s="48"/>
-      <c r="BE39" s="48"/>
-      <c r="BF39" s="48"/>
-      <c r="BG39" s="48"/>
-      <c r="BH39" s="48"/>
-      <c r="BL39" s="48"/>
-      <c r="BM39" s="48"/>
-      <c r="BN39" s="48"/>
-      <c r="BO39" s="48"/>
-      <c r="BP39" s="48"/>
-      <c r="BQ39" s="48"/>
-      <c r="BU39" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="BV39" s="48"/>
-      <c r="BW39" s="48"/>
-      <c r="BX39" s="48"/>
-      <c r="BY39" s="48"/>
-      <c r="BZ39" s="48"/>
-    </row>
-    <row r="40" spans="10:78" ht="15" customHeight="1">
-      <c r="J40" s="38" t="s">
+      <c r="CE39" s="54"/>
+      <c r="CF39" s="54"/>
+      <c r="CG39" s="54"/>
+      <c r="CH39" s="54"/>
+      <c r="CI39" s="54"/>
+    </row>
+    <row r="40" spans="10:87" ht="15" customHeight="1">
+      <c r="J40" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="BL40" s="48"/>
-      <c r="BM40" s="48"/>
-      <c r="BN40" s="48"/>
-      <c r="BO40" s="48"/>
-      <c r="BP40" s="48"/>
-      <c r="BQ40" s="48"/>
-    </row>
-    <row r="41" spans="10:78">
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="BL41" s="48"/>
-      <c r="BM41" s="48"/>
-      <c r="BN41" s="48"/>
-      <c r="BO41" s="48"/>
-      <c r="BP41" s="48"/>
-      <c r="BQ41" s="48"/>
-    </row>
-    <row r="42" spans="10:78">
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="BC40" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="37"/>
+      <c r="BG40" s="37"/>
+      <c r="BH40" s="37"/>
+      <c r="BL40" s="54"/>
+      <c r="BM40" s="54"/>
+      <c r="BN40" s="54"/>
+      <c r="BO40" s="54"/>
+      <c r="BP40" s="54"/>
+      <c r="BQ40" s="54"/>
+    </row>
+    <row r="41" spans="10:87">
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="BC41" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="BD41" s="54"/>
+      <c r="BE41" s="54"/>
+      <c r="BF41" s="54"/>
+      <c r="BG41" s="54"/>
+      <c r="BH41" s="54"/>
+      <c r="BL41" s="54"/>
+      <c r="BM41" s="54"/>
+      <c r="BN41" s="54"/>
+      <c r="BO41" s="54"/>
+      <c r="BP41" s="54"/>
+      <c r="BQ41" s="54"/>
+    </row>
+    <row r="42" spans="10:87">
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
       <c r="S42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="47" t="s">
+      <c r="T42" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="BC42" s="54"/>
+      <c r="BD42" s="54"/>
+      <c r="BE42" s="54"/>
+      <c r="BF42" s="54"/>
+      <c r="BG42" s="54"/>
+      <c r="BH42" s="54"/>
       <c r="BL42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM42" s="47" t="s">
+      <c r="BM42" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="BN42" s="40"/>
-      <c r="BO42" s="40"/>
-      <c r="BP42" s="40"/>
-      <c r="BQ42" s="40"/>
-    </row>
-    <row r="43" spans="10:78" ht="15" customHeight="1">
+      <c r="BN42" s="34"/>
+      <c r="BO42" s="34"/>
+      <c r="BP42" s="34"/>
+      <c r="BQ42" s="34"/>
+    </row>
+    <row r="43" spans="10:87" ht="15" customHeight="1">
       <c r="S43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T43" s="47" t="s">
+      <c r="T43" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="BC43" s="54"/>
+      <c r="BD43" s="54"/>
+      <c r="BE43" s="54"/>
+      <c r="BF43" s="54"/>
+      <c r="BG43" s="54"/>
+      <c r="BH43" s="54"/>
       <c r="BL43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM43" s="47" t="s">
+      <c r="BM43" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="BN43" s="40"/>
-      <c r="BO43" s="40"/>
-      <c r="BP43" s="40"/>
-      <c r="BQ43" s="40"/>
-    </row>
-    <row r="44" spans="10:78">
+      <c r="BN43" s="34"/>
+      <c r="BO43" s="34"/>
+      <c r="BP43" s="34"/>
+      <c r="BQ43" s="34"/>
+    </row>
+    <row r="44" spans="10:87">
       <c r="S44" s="1" t="s">
         <v>7</v>
       </c>
@@ -7995,368 +9091,543 @@
       <c r="BP44" s="7"/>
       <c r="BQ44" s="7"/>
     </row>
-    <row r="45" spans="10:78">
-      <c r="S45" s="48" t="s">
+    <row r="45" spans="10:87">
+      <c r="S45" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-      <c r="BL45" s="48" t="s">
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="BL45" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="BM45" s="48"/>
-      <c r="BN45" s="48"/>
-      <c r="BO45" s="48"/>
-      <c r="BP45" s="48"/>
-      <c r="BQ45" s="48"/>
-    </row>
-    <row r="48" spans="10:78">
-      <c r="BC48" s="36" t="s">
+      <c r="BM45" s="54"/>
+      <c r="BN45" s="54"/>
+      <c r="BO45" s="54"/>
+      <c r="BP45" s="54"/>
+      <c r="BQ45" s="54"/>
+    </row>
+    <row r="48" spans="10:87">
+      <c r="BC48" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD48" s="41"/>
+      <c r="BE48" s="41"/>
+      <c r="BF48" s="41"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="BL48" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="BU48" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="BV48" s="37"/>
-      <c r="BW48" s="37"/>
-      <c r="BX48" s="37"/>
-      <c r="BY48" s="37"/>
-      <c r="BZ48" s="37"/>
-    </row>
-    <row r="49" spans="55:78">
+      <c r="BM48" s="41"/>
+      <c r="BN48" s="41"/>
+      <c r="BO48" s="41"/>
+      <c r="BP48" s="41"/>
+      <c r="BQ48" s="41"/>
+      <c r="CD48" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="CE48" s="42"/>
+      <c r="CF48" s="42"/>
+      <c r="CG48" s="42"/>
+      <c r="CH48" s="42"/>
+      <c r="CI48" s="42"/>
+    </row>
+    <row r="49" spans="55:87">
       <c r="BC49" s="5" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
       <c r="BF49" s="1"/>
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
-      <c r="BU49" s="5" t="s">
+      <c r="BL49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BV49" s="1"/>
-      <c r="BW49" s="1"/>
-      <c r="BX49" s="1"/>
-      <c r="BY49" s="1"/>
-      <c r="BZ49" s="1"/>
-    </row>
-    <row r="50" spans="55:78">
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="CD49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+    </row>
+    <row r="50" spans="55:87">
       <c r="BC50" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="43" t="s">
+      <c r="BF50" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="BG50" s="53"/>
+      <c r="BH50" s="53"/>
+      <c r="BL50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="BG50" s="44"/>
-      <c r="BH50" s="44"/>
-      <c r="BU50" s="5" t="s">
+      <c r="BP50" s="53"/>
+      <c r="BQ50" s="53"/>
+      <c r="CD50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="BV50" s="1"/>
-      <c r="BW50" s="1"/>
-      <c r="BX50" s="43" t="s">
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="BY50" s="44"/>
-      <c r="BZ50" s="44"/>
-    </row>
-    <row r="51" spans="55:78">
-      <c r="BC51" s="38" t="s">
+      <c r="CH50" s="55"/>
+      <c r="CI50" s="55"/>
+    </row>
+    <row r="51" spans="55:87">
+      <c r="BC51" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="BD51" s="35"/>
+      <c r="BE51" s="35"/>
+      <c r="BF51" s="35"/>
+      <c r="BG51" s="35"/>
+      <c r="BH51" s="35"/>
+      <c r="BL51" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="BD51" s="38"/>
-      <c r="BE51" s="38"/>
-      <c r="BF51" s="38"/>
-      <c r="BG51" s="38"/>
-      <c r="BH51" s="38"/>
-      <c r="BU51" s="38" t="s">
+      <c r="BM51" s="35"/>
+      <c r="BN51" s="35"/>
+      <c r="BO51" s="35"/>
+      <c r="BP51" s="35"/>
+      <c r="BQ51" s="35"/>
+      <c r="CD51" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="BV51" s="38"/>
-      <c r="BW51" s="38"/>
-      <c r="BX51" s="38"/>
-      <c r="BY51" s="38"/>
-      <c r="BZ51" s="38"/>
-    </row>
-    <row r="52" spans="55:78">
-      <c r="BC52" s="38"/>
-      <c r="BD52" s="38"/>
-      <c r="BE52" s="38"/>
-      <c r="BF52" s="38"/>
-      <c r="BG52" s="38"/>
-      <c r="BH52" s="38"/>
-      <c r="BU52" s="38"/>
-      <c r="BV52" s="38"/>
-      <c r="BW52" s="38"/>
-      <c r="BX52" s="38"/>
-      <c r="BY52" s="38"/>
-      <c r="BZ52" s="38"/>
-    </row>
-    <row r="53" spans="55:78">
-      <c r="BC53" s="36" t="s">
+      <c r="CE51" s="35"/>
+      <c r="CF51" s="35"/>
+      <c r="CG51" s="35"/>
+      <c r="CH51" s="35"/>
+      <c r="CI51" s="35"/>
+    </row>
+    <row r="52" spans="55:87">
+      <c r="BC52" s="36"/>
+      <c r="BD52" s="36"/>
+      <c r="BE52" s="36"/>
+      <c r="BF52" s="36"/>
+      <c r="BG52" s="36"/>
+      <c r="BH52" s="36"/>
+      <c r="BL52" s="36"/>
+      <c r="BM52" s="36"/>
+      <c r="BN52" s="36"/>
+      <c r="BO52" s="36"/>
+      <c r="BP52" s="36"/>
+      <c r="BQ52" s="36"/>
+      <c r="CD52" s="35"/>
+      <c r="CE52" s="35"/>
+      <c r="CF52" s="35"/>
+      <c r="CG52" s="35"/>
+      <c r="CH52" s="35"/>
+      <c r="CI52" s="35"/>
+    </row>
+    <row r="53" spans="55:87">
+      <c r="BC53" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD53" s="41"/>
+      <c r="BE53" s="41"/>
+      <c r="BF53" s="41"/>
+      <c r="BG53" s="41"/>
+      <c r="BH53" s="41"/>
+      <c r="BL53" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="BD53" s="37"/>
-      <c r="BE53" s="37"/>
-      <c r="BF53" s="37"/>
-      <c r="BG53" s="37"/>
-      <c r="BH53" s="37"/>
-      <c r="BU53" s="36" t="s">
+      <c r="BM53" s="41"/>
+      <c r="BN53" s="41"/>
+      <c r="BO53" s="41"/>
+      <c r="BP53" s="41"/>
+      <c r="BQ53" s="41"/>
+      <c r="CD53" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="BV53" s="37"/>
-      <c r="BW53" s="37"/>
-      <c r="BX53" s="37"/>
-      <c r="BY53" s="37"/>
-      <c r="BZ53" s="37"/>
-    </row>
-    <row r="54" spans="55:78">
+      <c r="CE53" s="42"/>
+      <c r="CF53" s="42"/>
+      <c r="CG53" s="42"/>
+      <c r="CH53" s="42"/>
+      <c r="CI53" s="42"/>
+    </row>
+    <row r="54" spans="55:87">
       <c r="BC54" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
-      <c r="BU54" s="5" t="s">
+      <c r="BL54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="BV54" s="1"/>
-      <c r="BW54" s="1"/>
-      <c r="BX54" s="1"/>
-      <c r="BY54" s="1"/>
-      <c r="BZ54" s="1"/>
-    </row>
-    <row r="55" spans="55:78">
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="CD54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE54" s="1"/>
+      <c r="CF54" s="1"/>
+      <c r="CG54" s="1"/>
+      <c r="CH54" s="1"/>
+      <c r="CI54" s="1"/>
+    </row>
+    <row r="55" spans="55:87" ht="15" customHeight="1">
       <c r="BC55" s="5" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="43" t="s">
+      <c r="BF55" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG55" s="53"/>
+      <c r="BH55" s="53"/>
+      <c r="BL55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="BG55" s="44"/>
-      <c r="BH55" s="44"/>
-      <c r="BU55" s="5" t="s">
+      <c r="BP55" s="53"/>
+      <c r="BQ55" s="53"/>
+      <c r="CD55" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BV55" s="1"/>
-      <c r="BW55" s="1"/>
-      <c r="BX55" s="43" t="s">
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="BY55" s="44"/>
-      <c r="BZ55" s="44"/>
-    </row>
-    <row r="56" spans="55:78">
-      <c r="BC56" s="38" t="s">
+      <c r="CH55" s="55"/>
+      <c r="CI55" s="55"/>
+    </row>
+    <row r="56" spans="55:87">
+      <c r="BC56" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="BD56" s="75"/>
+      <c r="BE56" s="75"/>
+      <c r="BF56" s="75"/>
+      <c r="BG56" s="75"/>
+      <c r="BH56" s="75"/>
+      <c r="BL56" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BD56" s="38"/>
-      <c r="BE56" s="38"/>
-      <c r="BF56" s="38"/>
-      <c r="BG56" s="38"/>
-      <c r="BH56" s="38"/>
-      <c r="BU56" s="38" t="s">
+      <c r="BM56" s="36"/>
+      <c r="BN56" s="36"/>
+      <c r="BO56" s="36"/>
+      <c r="BP56" s="36"/>
+      <c r="BQ56" s="36"/>
+      <c r="CD56" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="BV56" s="38"/>
-      <c r="BW56" s="38"/>
-      <c r="BX56" s="38"/>
-      <c r="BY56" s="38"/>
-      <c r="BZ56" s="38"/>
-    </row>
-    <row r="57" spans="55:78">
-      <c r="BC57" s="36" t="s">
+      <c r="CE56" s="35"/>
+      <c r="CF56" s="35"/>
+      <c r="CG56" s="35"/>
+      <c r="CH56" s="35"/>
+      <c r="CI56" s="35"/>
+    </row>
+    <row r="57" spans="55:87">
+      <c r="BC57" s="36"/>
+      <c r="BD57" s="36"/>
+      <c r="BE57" s="36"/>
+      <c r="BF57" s="36"/>
+      <c r="BG57" s="36"/>
+      <c r="BH57" s="36"/>
+      <c r="BL57" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="BD57" s="37"/>
-      <c r="BE57" s="37"/>
-      <c r="BF57" s="37"/>
-      <c r="BG57" s="37"/>
-      <c r="BH57" s="37"/>
-      <c r="BU57" s="36" t="s">
+      <c r="BM57" s="41"/>
+      <c r="BN57" s="41"/>
+      <c r="BO57" s="41"/>
+      <c r="BP57" s="41"/>
+      <c r="BQ57" s="41"/>
+      <c r="CD57" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="BV57" s="37"/>
-      <c r="BW57" s="37"/>
-      <c r="BX57" s="37"/>
-      <c r="BY57" s="37"/>
-      <c r="BZ57" s="37"/>
-    </row>
-    <row r="58" spans="55:78">
-      <c r="BC58" s="5" t="s">
+      <c r="CE57" s="42"/>
+      <c r="CF57" s="42"/>
+      <c r="CG57" s="42"/>
+      <c r="CH57" s="42"/>
+      <c r="CI57" s="42"/>
+    </row>
+    <row r="58" spans="55:87">
+      <c r="BC58" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD58" s="41"/>
+      <c r="BE58" s="41"/>
+      <c r="BF58" s="41"/>
+      <c r="BG58" s="41"/>
+      <c r="BH58" s="41"/>
+      <c r="BL58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BD58" s="1"/>
-      <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
-      <c r="BG58" s="1"/>
-      <c r="BH58" s="1"/>
-      <c r="BU58" s="5" t="s">
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="1"/>
+      <c r="CD58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BV58" s="1"/>
-      <c r="BW58" s="1"/>
-      <c r="BX58" s="1"/>
-      <c r="BY58" s="1"/>
-      <c r="BZ58" s="1"/>
-    </row>
-    <row r="59" spans="55:78">
+      <c r="CE58" s="1"/>
+      <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+    </row>
+    <row r="59" spans="55:87">
       <c r="BC59" s="5" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
-      <c r="BF59" s="43" t="s">
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BL59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="BG59" s="44"/>
-      <c r="BH59" s="44"/>
-      <c r="BU59" s="5" t="s">
+      <c r="BP59" s="55"/>
+      <c r="BQ59" s="55"/>
+      <c r="CD59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BV59" s="1"/>
-      <c r="BW59" s="1"/>
-      <c r="BX59" s="43" t="s">
+      <c r="CE59" s="1"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="BY59" s="44"/>
-      <c r="BZ59" s="44"/>
-    </row>
-    <row r="60" spans="55:78">
-      <c r="BC60" s="38" t="s">
+      <c r="CH59" s="55"/>
+      <c r="CI59" s="55"/>
+    </row>
+    <row r="60" spans="55:87" ht="15" customHeight="1">
+      <c r="BC60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG60" s="55"/>
+      <c r="BH60" s="55"/>
+      <c r="BL60" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="BD60" s="38"/>
-      <c r="BE60" s="38"/>
-      <c r="BF60" s="38"/>
-      <c r="BG60" s="38"/>
-      <c r="BH60" s="38"/>
-      <c r="BU60" s="38" t="s">
+      <c r="BM60" s="35"/>
+      <c r="BN60" s="35"/>
+      <c r="BO60" s="35"/>
+      <c r="BP60" s="35"/>
+      <c r="BQ60" s="35"/>
+      <c r="CD60" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="BV60" s="38"/>
-      <c r="BW60" s="38"/>
-      <c r="BX60" s="38"/>
-      <c r="BY60" s="38"/>
-      <c r="BZ60" s="38"/>
-    </row>
-    <row r="61" spans="55:78">
-      <c r="BC61" s="38"/>
-      <c r="BD61" s="38"/>
-      <c r="BE61" s="38"/>
-      <c r="BF61" s="38"/>
-      <c r="BG61" s="38"/>
-      <c r="BH61" s="38"/>
-      <c r="BU61" s="38"/>
-      <c r="BV61" s="38"/>
-      <c r="BW61" s="38"/>
-      <c r="BX61" s="38"/>
-      <c r="BY61" s="38"/>
-      <c r="BZ61" s="38"/>
-    </row>
-    <row r="62" spans="55:78">
-      <c r="BC62" s="38"/>
-      <c r="BD62" s="38"/>
-      <c r="BE62" s="38"/>
-      <c r="BF62" s="38"/>
-      <c r="BG62" s="38"/>
-      <c r="BH62" s="38"/>
-      <c r="BU62" s="38"/>
-      <c r="BV62" s="38"/>
-      <c r="BW62" s="38"/>
-      <c r="BX62" s="38"/>
-      <c r="BY62" s="38"/>
-      <c r="BZ62" s="38"/>
+      <c r="CE60" s="35"/>
+      <c r="CF60" s="35"/>
+      <c r="CG60" s="35"/>
+      <c r="CH60" s="35"/>
+      <c r="CI60" s="35"/>
+    </row>
+    <row r="61" spans="55:87">
+      <c r="BC61" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="BD61" s="35"/>
+      <c r="BE61" s="35"/>
+      <c r="BF61" s="35"/>
+      <c r="BG61" s="35"/>
+      <c r="BH61" s="35"/>
+      <c r="BL61" s="35"/>
+      <c r="BM61" s="35"/>
+      <c r="BN61" s="35"/>
+      <c r="BO61" s="35"/>
+      <c r="BP61" s="35"/>
+      <c r="BQ61" s="35"/>
+      <c r="CD61" s="35"/>
+      <c r="CE61" s="35"/>
+      <c r="CF61" s="35"/>
+      <c r="CG61" s="35"/>
+      <c r="CH61" s="35"/>
+      <c r="CI61" s="35"/>
+    </row>
+    <row r="62" spans="55:87">
+      <c r="BC62" s="35"/>
+      <c r="BD62" s="35"/>
+      <c r="BE62" s="35"/>
+      <c r="BF62" s="35"/>
+      <c r="BG62" s="35"/>
+      <c r="BH62" s="35"/>
+      <c r="BL62" s="35"/>
+      <c r="BM62" s="35"/>
+      <c r="BN62" s="35"/>
+      <c r="BO62" s="35"/>
+      <c r="BP62" s="35"/>
+      <c r="BQ62" s="35"/>
+      <c r="CD62" s="35"/>
+      <c r="CE62" s="35"/>
+      <c r="CF62" s="35"/>
+      <c r="CG62" s="35"/>
+      <c r="CH62" s="35"/>
+      <c r="CI62" s="35"/>
+    </row>
+    <row r="63" spans="55:87">
+      <c r="BC63" s="35"/>
+      <c r="BD63" s="35"/>
+      <c r="BE63" s="35"/>
+      <c r="BF63" s="35"/>
+      <c r="BG63" s="35"/>
+      <c r="BH63" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="198">
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AK20:AP20"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AB14:AG15"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="S10:X12"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="S19:X20"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="S34:X34"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="S31:X33"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="S38:X41"/>
-    <mergeCell ref="S28:X29"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="214">
+    <mergeCell ref="BC56:BH57"/>
+    <mergeCell ref="BL48:BQ48"/>
+    <mergeCell ref="BO50:BQ50"/>
+    <mergeCell ref="BL51:BQ52"/>
+    <mergeCell ref="BL53:BQ53"/>
+    <mergeCell ref="BO55:BQ55"/>
+    <mergeCell ref="BL56:BQ56"/>
+    <mergeCell ref="BL57:BQ57"/>
+    <mergeCell ref="BO59:BQ59"/>
+    <mergeCell ref="BL60:BQ62"/>
+    <mergeCell ref="BU2:BZ3"/>
+    <mergeCell ref="BU16:BZ16"/>
+    <mergeCell ref="BU17:BZ19"/>
+    <mergeCell ref="BU11:BZ12"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BU4:BZ4"/>
+    <mergeCell ref="BU5:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BU8:BZ9"/>
+    <mergeCell ref="BU10:BZ10"/>
+    <mergeCell ref="BV14:BZ14"/>
+    <mergeCell ref="BV15:BZ15"/>
+    <mergeCell ref="BC58:BH58"/>
+    <mergeCell ref="BF60:BH60"/>
+    <mergeCell ref="BC61:BH63"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AT16:AY20"/>
+    <mergeCell ref="BC48:BH48"/>
+    <mergeCell ref="BF50:BH50"/>
+    <mergeCell ref="BC51:BH52"/>
+    <mergeCell ref="BC53:BH53"/>
+    <mergeCell ref="BF55:BH55"/>
+    <mergeCell ref="AT26:AY28"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BC21:BH23"/>
+    <mergeCell ref="BC41:BH43"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CD56:CI56"/>
+    <mergeCell ref="CD57:CI57"/>
+    <mergeCell ref="CG59:CI59"/>
+    <mergeCell ref="CD60:CI62"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
+    <mergeCell ref="CD31:CI31"/>
+    <mergeCell ref="CD32:CI35"/>
+    <mergeCell ref="CE19:CI19"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="BM42:BQ42"/>
+    <mergeCell ref="BM43:BQ43"/>
+    <mergeCell ref="BL45:BQ45"/>
+    <mergeCell ref="CD6:CI6"/>
+    <mergeCell ref="CD7:CI7"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="CE12:CI12"/>
+    <mergeCell ref="CD13:CI14"/>
+    <mergeCell ref="CD15:CI15"/>
+    <mergeCell ref="CG17:CI17"/>
+    <mergeCell ref="CE18:CI18"/>
+    <mergeCell ref="BL31:BQ33"/>
+    <mergeCell ref="BL34:BQ34"/>
+    <mergeCell ref="BO36:BQ36"/>
+    <mergeCell ref="BL37:BQ37"/>
+    <mergeCell ref="BL38:BQ41"/>
+    <mergeCell ref="BM25:BQ25"/>
+    <mergeCell ref="BM26:BQ26"/>
+    <mergeCell ref="BL27:BQ27"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BL7:BQ7"/>
+    <mergeCell ref="BL8:BQ9"/>
+    <mergeCell ref="BL10:BQ12"/>
+    <mergeCell ref="BL13:BQ13"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BM16:BQ16"/>
+    <mergeCell ref="BM17:BQ17"/>
+    <mergeCell ref="BM18:BQ18"/>
+    <mergeCell ref="BL19:BQ20"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="BM24:BQ24"/>
+    <mergeCell ref="BC25:BH27"/>
+    <mergeCell ref="BC37:BH37"/>
+    <mergeCell ref="BF39:BH39"/>
+    <mergeCell ref="BC40:BH40"/>
+    <mergeCell ref="BC24:BH24"/>
+    <mergeCell ref="BC28:BH28"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BC31:BH33"/>
+    <mergeCell ref="BC34:BH36"/>
+    <mergeCell ref="BC5:BH5"/>
+    <mergeCell ref="AK16:AP17"/>
+    <mergeCell ref="AK21:AP23"/>
+    <mergeCell ref="AT22:AY24"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK18:AP19"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AT25:AY25"/>
+    <mergeCell ref="AT21:AY21"/>
+    <mergeCell ref="BD11:BH11"/>
+    <mergeCell ref="BC12:BH13"/>
+    <mergeCell ref="BC14:BH14"/>
+    <mergeCell ref="BC6:BH6"/>
+    <mergeCell ref="BD9:BH9"/>
+    <mergeCell ref="BD10:BH10"/>
+    <mergeCell ref="BC17:BH19"/>
     <mergeCell ref="AT5:AW5"/>
     <mergeCell ref="AT6:AY6"/>
     <mergeCell ref="AT7:AY7"/>
@@ -8381,108 +9652,77 @@
     <mergeCell ref="J24:O24"/>
     <mergeCell ref="J13:O14"/>
     <mergeCell ref="J19:O19"/>
-    <mergeCell ref="BC6:BH6"/>
-    <mergeCell ref="AK16:AP17"/>
-    <mergeCell ref="AK21:AP23"/>
-    <mergeCell ref="AT22:AY24"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK18:AP19"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AT25:AY25"/>
-    <mergeCell ref="AT21:AY21"/>
-    <mergeCell ref="BD12:BH12"/>
-    <mergeCell ref="BC13:BH14"/>
-    <mergeCell ref="BC15:BH15"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BD18:BH18"/>
-    <mergeCell ref="BC7:BH7"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BD10:BH10"/>
-    <mergeCell ref="BD11:BH11"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="BO23:BQ23"/>
-    <mergeCell ref="BM24:BQ24"/>
-    <mergeCell ref="BC25:BH27"/>
-    <mergeCell ref="BC28:BH28"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BC31:BH31"/>
-    <mergeCell ref="BC32:BH35"/>
-    <mergeCell ref="BD19:BH19"/>
-    <mergeCell ref="BD20:BH20"/>
-    <mergeCell ref="BC21:BH21"/>
-    <mergeCell ref="BC22:BH23"/>
-    <mergeCell ref="BC24:BH24"/>
-    <mergeCell ref="BL7:BQ7"/>
-    <mergeCell ref="BL8:BQ9"/>
-    <mergeCell ref="BL10:BQ12"/>
-    <mergeCell ref="BL13:BQ13"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BM16:BQ16"/>
-    <mergeCell ref="BM17:BQ17"/>
-    <mergeCell ref="BM18:BQ18"/>
-    <mergeCell ref="BL19:BQ20"/>
-    <mergeCell ref="BM42:BQ42"/>
-    <mergeCell ref="BM43:BQ43"/>
-    <mergeCell ref="BL45:BQ45"/>
-    <mergeCell ref="BU6:BZ6"/>
-    <mergeCell ref="BU7:BZ7"/>
-    <mergeCell ref="BX9:BZ9"/>
-    <mergeCell ref="BV10:BZ10"/>
-    <mergeCell ref="BV11:BZ11"/>
-    <mergeCell ref="BV12:BZ12"/>
-    <mergeCell ref="BU13:BZ14"/>
-    <mergeCell ref="BU15:BZ15"/>
-    <mergeCell ref="BX17:BZ17"/>
-    <mergeCell ref="BV18:BZ18"/>
-    <mergeCell ref="BL31:BQ33"/>
-    <mergeCell ref="BL34:BQ34"/>
-    <mergeCell ref="BO36:BQ36"/>
-    <mergeCell ref="BL37:BQ37"/>
-    <mergeCell ref="BL38:BQ41"/>
-    <mergeCell ref="BM25:BQ25"/>
-    <mergeCell ref="BM26:BQ26"/>
-    <mergeCell ref="BL27:BQ27"/>
-    <mergeCell ref="BL28:BQ29"/>
-    <mergeCell ref="BL30:BQ30"/>
-    <mergeCell ref="BL6:BQ6"/>
-    <mergeCell ref="BV36:BZ36"/>
-    <mergeCell ref="BV37:BZ37"/>
-    <mergeCell ref="BU39:BZ39"/>
-    <mergeCell ref="BU25:BZ27"/>
-    <mergeCell ref="BU28:BZ28"/>
-    <mergeCell ref="BX30:BZ30"/>
-    <mergeCell ref="BU31:BZ31"/>
-    <mergeCell ref="BU32:BZ35"/>
-    <mergeCell ref="BV19:BZ19"/>
-    <mergeCell ref="BV20:BZ20"/>
-    <mergeCell ref="BU21:BZ21"/>
-    <mergeCell ref="BU22:BZ23"/>
-    <mergeCell ref="BU24:BZ24"/>
-    <mergeCell ref="BU48:BZ48"/>
-    <mergeCell ref="BX50:BZ50"/>
-    <mergeCell ref="BU51:BZ52"/>
-    <mergeCell ref="BU53:BZ53"/>
-    <mergeCell ref="BX55:BZ55"/>
-    <mergeCell ref="BU56:BZ56"/>
-    <mergeCell ref="BU57:BZ57"/>
-    <mergeCell ref="BX59:BZ59"/>
-    <mergeCell ref="BU60:BZ62"/>
-    <mergeCell ref="BC56:BH56"/>
-    <mergeCell ref="BC57:BH57"/>
-    <mergeCell ref="BF59:BH59"/>
-    <mergeCell ref="BC60:BH62"/>
-    <mergeCell ref="AT13:AY13"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AT16:AY20"/>
-    <mergeCell ref="BC48:BH48"/>
-    <mergeCell ref="BF50:BH50"/>
-    <mergeCell ref="BC51:BH52"/>
-    <mergeCell ref="BC53:BH53"/>
-    <mergeCell ref="BF55:BH55"/>
-    <mergeCell ref="BD36:BH36"/>
-    <mergeCell ref="BD37:BH37"/>
-    <mergeCell ref="BC39:BH39"/>
-    <mergeCell ref="AT26:AY28"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="S31:X33"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="S38:X41"/>
+    <mergeCell ref="S28:X29"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S19:X20"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AK20:AP20"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AB14:AG15"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8505,54 +9745,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="S1" s="56" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="S1" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="55" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="AB1" s="66" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="AB1" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="68" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AK1" s="63" t="s">
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AK1" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -8623,40 +9863,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="65"/>
+      <c r="O3" s="64"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="65" t="s">
+      <c r="W3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="65"/>
+      <c r="X3" s="64"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="65" t="s">
+      <c r="AF3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="65"/>
+      <c r="AG3" s="64"/>
       <c r="AK3" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="65" t="s">
+      <c r="AO3" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="AP3" s="65"/>
+      <c r="AP3" s="64"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -8675,38 +9915,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="41"/>
+      <c r="O4" s="37"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="41"/>
+      <c r="X4" s="37"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="41" t="s">
+      <c r="AF4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="41"/>
+      <c r="AG4" s="37"/>
       <c r="AK4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -8717,90 +9957,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="S5" s="28" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="S5" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="AB5" s="28" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="AB5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AK5" s="28" t="s">
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AK5" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="S6" s="30" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="S6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="AB6" s="30" t="s">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="AB6" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AK6" s="36" t="s">
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AK6" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -8825,14 +10065,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="52" t="s">
+      <c r="AK7" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="52"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -8848,37 +10088,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="43" t="s">
+      <c r="V8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="43" t="s">
+      <c r="AE8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -8886,169 +10126,169 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="AB9" s="38" t="s">
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="AB9" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="47" t="s">
+      <c r="T10" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="47" t="s">
+      <c r="AC11" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="J12" s="48" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="J12" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="S12" s="36" t="s">
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="S12" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="47" t="s">
+      <c r="AC12" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -9057,62 +10297,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="S13" s="54" t="s">
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="S13" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="47" t="s">
+      <c r="AC13" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="J14" s="36" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="AB14" s="36" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="AB14" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
@@ -9123,30 +10363,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="S15" s="36" t="s">
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="S15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="AB15" s="54" t="s">
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="AB15" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -9154,161 +10394,190 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="S16" s="54" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="S16" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="AB17" s="36" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="AB17" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="AB18" s="52" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="AB18" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S13:X14"/>
+    <mergeCell ref="S16:X18"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A22:F23"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A20:F20"/>
@@ -9319,48 +10588,19 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="S13:X14"/>
-    <mergeCell ref="S16:X18"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AB15:AG16"/>
-    <mergeCell ref="AB9:AG10"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG20"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP10"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK5:AP5"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9AA81-7FE7-49BE-A734-5981C9690D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A81FB7-1E48-48C3-AFE2-D1B5F49E910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17130" yWindow="855" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="1845" yWindow="450" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="288">
   <si>
     <t>[Name]</t>
   </si>
@@ -5029,6 +5029,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Yslansh shifts up to her speed, uses Visions of Death, shifts up to her speed, and then uses Hear My Voice and Despair.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This ability counts as a petrifying eye beam ability for use with basilisk malice features.</t>
     </r>
   </si>
 </sst>
@@ -5226,7 +5249,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -5276,12 +5299,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5291,18 +5308,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -5314,18 +5327,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5339,39 +5402,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5387,21 +5420,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5751,16 +5771,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -5772,10 +5792,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -5901,50 +5921,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -6000,11 +6020,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -6013,125 +6033,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="L18" s="33" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="L18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -6157,115 +6177,102 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="L21" s="39" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="L21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="L23" s="41" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="L23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -6278,6 +6285,19 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6300,8 +6320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
   <dimension ref="A1:CI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ61" sqref="BJ61"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6322,46 +6342,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="J1" s="43" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="J1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="30" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="S1" s="43" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="S1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="30" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="AB1" s="48" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="AB1" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
       <c r="AK1" s="25" t="s">
         <v>198</v>
       </c>
@@ -6504,14 +6524,14 @@
       <c r="BQ2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BU2" s="73" t="s">
+      <c r="BU2" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
       <c r="CD2" s="21" t="s">
         <v>199</v>
       </c>
@@ -6598,12 +6618,12 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="5"/>
       <c r="BQ3" s="18"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="56"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
       <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
@@ -6694,14 +6714,14 @@
       <c r="BQ4" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="BU4" s="33" t="s">
+      <c r="BU4" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="33"/>
-      <c r="BZ4" s="33"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
       <c r="CD4" s="5" t="s">
         <v>73</v>
       </c>
@@ -6738,42 +6758,42 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="37" t="s">
+      <c r="AK5" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="BC5" s="31" t="s">
+      <c r="BC5" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
+      <c r="BD5" s="30"/>
+      <c r="BE5" s="30"/>
+      <c r="BF5" s="30"/>
+      <c r="BG5" s="30"/>
+      <c r="BH5" s="30"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
@@ -6782,14 +6802,14 @@
       <c r="BQ5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU5" s="54" t="s">
+      <c r="BU5" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="54"/>
-      <c r="BX5" s="54"/>
-      <c r="BY5" s="54"/>
-      <c r="BZ5" s="54"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="46"/>
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
       <c r="CD5" s="1"/>
       <c r="CE5" s="1"/>
       <c r="CF5" s="1"/>
@@ -6800,134 +6820,134 @@
       </c>
     </row>
     <row r="6" spans="1:87">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="J6" s="31" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="J6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="S6" s="31" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="S6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="AB6" s="31" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="AB6" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AK6" s="31" t="s">
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AK6" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AT6" s="31" t="s">
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AT6" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="BC6" s="33" t="s">
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="BC6" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="33"/>
-      <c r="BL6" s="31" t="s">
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BL6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BU6" s="56"/>
-      <c r="BV6" s="56"/>
-      <c r="BW6" s="56"/>
-      <c r="BX6" s="56"/>
-      <c r="BY6" s="56"/>
-      <c r="BZ6" s="56"/>
-      <c r="CD6" s="31" t="s">
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BU6" s="47"/>
+      <c r="BV6" s="47"/>
+      <c r="BW6" s="47"/>
+      <c r="BX6" s="47"/>
+      <c r="BY6" s="47"/>
+      <c r="BZ6" s="47"/>
+      <c r="CD6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="32"/>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="32"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="30"/>
+      <c r="CI6" s="30"/>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="S7" s="41" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="S7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="AB7" s="33" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="AB7" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AK7" s="33" t="s">
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AK7" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AT7" s="33" t="s">
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AT7" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
       <c r="BC7" s="5" t="s">
         <v>193</v>
       </c>
@@ -6936,30 +6956,30 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BL7" s="41" t="s">
+      <c r="BL7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="41"/>
-      <c r="BO7" s="41"/>
-      <c r="BP7" s="41"/>
-      <c r="BQ7" s="41"/>
-      <c r="BU7" s="33" t="s">
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="37"/>
+      <c r="BO7" s="37"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="37"/>
+      <c r="BU7" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="33"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="33"/>
-      <c r="BZ7" s="33"/>
-      <c r="CD7" s="33" t="s">
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CD7" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="CE7" s="33"/>
-      <c r="CF7" s="33"/>
-      <c r="CG7" s="33"/>
-      <c r="CH7" s="33"/>
-      <c r="CI7" s="33"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31"/>
+      <c r="CG7" s="31"/>
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="31"/>
     </row>
     <row r="8" spans="1:87">
       <c r="A8" s="5" t="s">
@@ -6978,14 +6998,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
       <c r="AB8" s="5" t="s">
         <v>193</v>
       </c>
@@ -7020,22 +7040,22 @@
       <c r="BH8" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="BL8" s="52" t="s">
+      <c r="BL8" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BU8" s="54" t="s">
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="48"/>
+      <c r="BO8" s="48"/>
+      <c r="BP8" s="48"/>
+      <c r="BQ8" s="48"/>
+      <c r="BU8" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="BV8" s="54"/>
-      <c r="BW8" s="54"/>
-      <c r="BX8" s="54"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="54"/>
+      <c r="BV8" s="46"/>
+      <c r="BW8" s="46"/>
+      <c r="BX8" s="46"/>
+      <c r="BY8" s="46"/>
+      <c r="BZ8" s="46"/>
       <c r="CD8" s="5" t="s">
         <v>43</v>
       </c>
@@ -7051,27 +7071,27 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
       <c r="AB9" s="5" t="s">
         <v>194</v>
       </c>
@@ -7105,311 +7125,311 @@
       <c r="BC9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD9" s="44" t="s">
+      <c r="BD9" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BL9" s="52"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="52"/>
-      <c r="BP9" s="52"/>
-      <c r="BQ9" s="52"/>
-      <c r="BU9" s="56"/>
-      <c r="BV9" s="56"/>
-      <c r="BW9" s="56"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="56"/>
-      <c r="BZ9" s="56"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="41"/>
+      <c r="BL9" s="48"/>
+      <c r="BM9" s="48"/>
+      <c r="BN9" s="48"/>
+      <c r="BO9" s="48"/>
+      <c r="BP9" s="48"/>
+      <c r="BQ9" s="48"/>
+      <c r="BU9" s="47"/>
+      <c r="BV9" s="47"/>
+      <c r="BW9" s="47"/>
+      <c r="BX9" s="47"/>
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="47"/>
       <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="53" t="s">
+      <c r="CG9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="CH9" s="53"/>
-      <c r="CI9" s="53"/>
+      <c r="CH9" s="44"/>
+      <c r="CI9" s="44"/>
     </row>
     <row r="10" spans="1:87">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="S10" s="52" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="S10" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="44" t="s">
+      <c r="AC10" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="44" t="s">
+      <c r="AL10" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="44" t="s">
+      <c r="AU10" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
       <c r="BC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD10" s="44" t="s">
+      <c r="BD10" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BL10" s="52" t="s">
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="41"/>
+      <c r="BL10" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="52"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BU10" s="33" t="s">
+      <c r="BM10" s="48"/>
+      <c r="BN10" s="48"/>
+      <c r="BO10" s="48"/>
+      <c r="BP10" s="48"/>
+      <c r="BQ10" s="48"/>
+      <c r="BU10" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="33"/>
-      <c r="BX10" s="33"/>
-      <c r="BY10" s="33"/>
-      <c r="BZ10" s="33"/>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31"/>
       <c r="CD10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE10" s="44" t="s">
+      <c r="CE10" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="CF10" s="34"/>
-      <c r="CG10" s="34"/>
-      <c r="CH10" s="34"/>
-      <c r="CI10" s="34"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="41"/>
     </row>
     <row r="11" spans="1:87">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="44" t="s">
+      <c r="AC11" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="44" t="s">
+      <c r="AL11" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="44" t="s">
+      <c r="AU11" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
       <c r="BC11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD11" s="47" t="s">
+      <c r="BD11" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BU11" s="73" t="s">
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="41"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="48"/>
+      <c r="BO11" s="48"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="48"/>
+      <c r="BU11" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="BV11" s="74"/>
-      <c r="BW11" s="74"/>
-      <c r="BX11" s="74"/>
-      <c r="BY11" s="74"/>
-      <c r="BZ11" s="74"/>
+      <c r="BV11" s="49"/>
+      <c r="BW11" s="49"/>
+      <c r="BX11" s="49"/>
+      <c r="BY11" s="49"/>
+      <c r="BZ11" s="49"/>
       <c r="CD11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE11" s="44" t="s">
+      <c r="CE11" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="CF11" s="34"/>
-      <c r="CG11" s="34"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="34"/>
+      <c r="CF11" s="41"/>
+      <c r="CG11" s="41"/>
+      <c r="CH11" s="41"/>
+      <c r="CI11" s="41"/>
     </row>
     <row r="12" spans="1:87">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="47" t="s">
+      <c r="AC12" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="44" t="s">
+      <c r="AL12" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="47" t="s">
+      <c r="AU12" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="BC12" s="35" t="s">
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="BC12" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="BD12" s="35"/>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="35"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BU12" s="74"/>
-      <c r="BV12" s="74"/>
-      <c r="BW12" s="74"/>
-      <c r="BX12" s="74"/>
-      <c r="BY12" s="74"/>
-      <c r="BZ12" s="74"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BL12" s="48"/>
+      <c r="BM12" s="48"/>
+      <c r="BN12" s="48"/>
+      <c r="BO12" s="48"/>
+      <c r="BP12" s="48"/>
+      <c r="BQ12" s="48"/>
+      <c r="BU12" s="49"/>
+      <c r="BV12" s="49"/>
+      <c r="BW12" s="49"/>
+      <c r="BX12" s="49"/>
+      <c r="BY12" s="49"/>
+      <c r="BZ12" s="49"/>
       <c r="CD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE12" s="44" t="s">
+      <c r="CE12" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="CF12" s="34"/>
-      <c r="CG12" s="34"/>
-      <c r="CH12" s="34"/>
-      <c r="CI12" s="34"/>
+      <c r="CF12" s="41"/>
+      <c r="CG12" s="41"/>
+      <c r="CH12" s="41"/>
+      <c r="CI12" s="41"/>
     </row>
     <row r="13" spans="1:87">
       <c r="A13" s="1"/>
@@ -7418,94 +7438,94 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="S13" s="33" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="S13" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="AB13" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AK13" s="41" t="s">
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="AB13" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AK13" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AT13" s="33" t="s">
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AT13" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="BC13" s="36"/>
-      <c r="BD13" s="36"/>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
-      <c r="BL13" s="33" t="s">
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="40"/>
+      <c r="BL13" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="BM13" s="33"/>
-      <c r="BN13" s="33"/>
-      <c r="BO13" s="33"/>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="33"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
       <c r="BU13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV13" s="44" t="s">
+      <c r="BV13" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="BW13" s="34"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="34"/>
-      <c r="BZ13" s="34"/>
-      <c r="CD13" s="35" t="s">
+      <c r="BW13" s="41"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="41"/>
+      <c r="CD13" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="CE13" s="35"/>
-      <c r="CF13" s="35"/>
-      <c r="CG13" s="35"/>
-      <c r="CH13" s="35"/>
-      <c r="CI13" s="35"/>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39"/>
+      <c r="CG13" s="39"/>
+      <c r="CH13" s="39"/>
+      <c r="CI13" s="39"/>
     </row>
     <row r="14" spans="1:87" ht="15" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -7514,14 +7534,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -7538,14 +7556,14 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="33" t="s">
+      <c r="BC14" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
       <c r="BL14" s="5" t="s">
         <v>43</v>
       </c>
@@ -7557,19 +7575,19 @@
       <c r="BU14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV14" s="44" t="s">
+      <c r="BV14" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
-      <c r="BZ14" s="34"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="36"/>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
+      <c r="BW14" s="41"/>
+      <c r="BX14" s="41"/>
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="41"/>
+      <c r="CD14" s="40"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="40"/>
+      <c r="CG14" s="40"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="40"/>
     </row>
     <row r="15" spans="1:87">
       <c r="A15" s="5" t="s">
@@ -7580,30 +7598,32 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="53" t="s">
+      <c r="V15" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="AB15" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -7619,11 +7639,11 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="53" t="s">
+      <c r="AW15" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="53"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44"/>
       <c r="BC15" s="5" t="s">
         <v>98</v>
       </c>
@@ -7637,29 +7657,29 @@
       </c>
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
-      <c r="BO15" s="53" t="s">
+      <c r="BO15" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="BP15" s="53"/>
-      <c r="BQ15" s="53"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
       <c r="BU15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BV15" s="44" t="s">
+      <c r="BV15" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="BW15" s="34"/>
-      <c r="BX15" s="34"/>
-      <c r="BY15" s="34"/>
-      <c r="BZ15" s="34"/>
-      <c r="CD15" s="33" t="s">
+      <c r="BW15" s="41"/>
+      <c r="BX15" s="41"/>
+      <c r="BY15" s="41"/>
+      <c r="BZ15" s="41"/>
+      <c r="CD15" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="CE15" s="33"/>
-      <c r="CF15" s="33"/>
-      <c r="CG15" s="33"/>
-      <c r="CH15" s="33"/>
-      <c r="CI15" s="33"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="31"/>
     </row>
     <row r="16" spans="1:87" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -7667,11 +7687,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -7683,29 +7703,37 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T16" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="AK16" s="54" t="s">
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="AB16" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AK16" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AT16" s="52" t="s">
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AT16" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="52"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
       <c r="BC16" s="5" t="s">
         <v>245</v>
       </c>
@@ -7719,21 +7747,21 @@
       <c r="BL16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM16" s="44" t="s">
+      <c r="BM16" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
-      <c r="BU16" s="33" t="s">
+      <c r="BN16" s="41"/>
+      <c r="BO16" s="41"/>
+      <c r="BP16" s="41"/>
+      <c r="BQ16" s="41"/>
+      <c r="BU16" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
       <c r="CD16" s="5" t="s">
         <v>62</v>
       </c>
@@ -7747,235 +7775,241 @@
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="44" t="s">
+      <c r="T17" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="52"/>
-      <c r="BC17" s="52" t="s">
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+      <c r="BC17" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="52"/>
+      <c r="BD17" s="48"/>
+      <c r="BE17" s="48"/>
+      <c r="BF17" s="48"/>
+      <c r="BG17" s="48"/>
+      <c r="BH17" s="48"/>
       <c r="BL17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM17" s="44" t="s">
+      <c r="BM17" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="BN17" s="34"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="34"/>
-      <c r="BU17" s="54"/>
-      <c r="BV17" s="52"/>
-      <c r="BW17" s="52"/>
-      <c r="BX17" s="52"/>
-      <c r="BY17" s="52"/>
-      <c r="BZ17" s="52"/>
+      <c r="BN17" s="41"/>
+      <c r="BO17" s="41"/>
+      <c r="BP17" s="41"/>
+      <c r="BQ17" s="41"/>
+      <c r="BU17" s="46"/>
+      <c r="BV17" s="48"/>
+      <c r="BW17" s="48"/>
+      <c r="BX17" s="48"/>
+      <c r="BY17" s="48"/>
+      <c r="BZ17" s="48"/>
       <c r="CD17" s="5" t="s">
         <v>131</v>
       </c>
       <c r="CE17" s="1"/>
       <c r="CF17" s="1"/>
-      <c r="CG17" s="53" t="s">
+      <c r="CG17" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="CH17" s="53"/>
-      <c r="CI17" s="53"/>
+      <c r="CH17" s="44"/>
+      <c r="CI17" s="44"/>
     </row>
     <row r="18" spans="1:87" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="J18" s="39" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="J18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="44" t="s">
+      <c r="T18" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="AK18" s="54" t="s">
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="AK18" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+      <c r="BC18" s="48"/>
+      <c r="BD18" s="48"/>
+      <c r="BE18" s="48"/>
+      <c r="BF18" s="48"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="48"/>
       <c r="BL18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM18" s="44" t="s">
+      <c r="BM18" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BU18" s="52"/>
-      <c r="BV18" s="52"/>
-      <c r="BW18" s="52"/>
-      <c r="BX18" s="52"/>
-      <c r="BY18" s="52"/>
-      <c r="BZ18" s="52"/>
+      <c r="BN18" s="41"/>
+      <c r="BO18" s="41"/>
+      <c r="BP18" s="41"/>
+      <c r="BQ18" s="41"/>
+      <c r="BU18" s="48"/>
+      <c r="BV18" s="48"/>
+      <c r="BW18" s="48"/>
+      <c r="BX18" s="48"/>
+      <c r="BY18" s="48"/>
+      <c r="BZ18" s="48"/>
       <c r="CD18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE18" s="44" t="s">
+      <c r="CE18" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="CF18" s="34"/>
-      <c r="CG18" s="34"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="34"/>
+      <c r="CF18" s="41"/>
+      <c r="CG18" s="41"/>
+      <c r="CH18" s="41"/>
+      <c r="CI18" s="41"/>
     </row>
     <row r="19" spans="1:87">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="J19" s="33" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="J19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="S19" s="35" t="s">
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="S19" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
-      <c r="BL19" s="35" t="s">
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
+      <c r="BL19" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="BM19" s="35"/>
-      <c r="BN19" s="35"/>
-      <c r="BO19" s="35"/>
-      <c r="BP19" s="35"/>
-      <c r="BQ19" s="35"/>
-      <c r="BU19" s="52"/>
-      <c r="BV19" s="52"/>
-      <c r="BW19" s="52"/>
-      <c r="BX19" s="52"/>
-      <c r="BY19" s="52"/>
-      <c r="BZ19" s="52"/>
+      <c r="BM19" s="39"/>
+      <c r="BN19" s="39"/>
+      <c r="BO19" s="39"/>
+      <c r="BP19" s="39"/>
+      <c r="BQ19" s="39"/>
+      <c r="BU19" s="48"/>
+      <c r="BV19" s="48"/>
+      <c r="BW19" s="48"/>
+      <c r="BX19" s="48"/>
+      <c r="BY19" s="48"/>
+      <c r="BZ19" s="48"/>
       <c r="CD19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE19" s="44" t="s">
+      <c r="CE19" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="CF19" s="34"/>
-      <c r="CG19" s="34"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="34"/>
+      <c r="CF19" s="41"/>
+      <c r="CG19" s="41"/>
+      <c r="CH19" s="41"/>
+      <c r="CI19" s="41"/>
     </row>
     <row r="20" spans="1:87">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -7984,118 +8018,118 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="AK20" s="41" t="s">
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="AK20" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="BC20" s="41" t="s">
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="BC20" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="42"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="36"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BL20" s="40"/>
+      <c r="BM20" s="40"/>
+      <c r="BN20" s="40"/>
+      <c r="BO20" s="40"/>
+      <c r="BP20" s="40"/>
+      <c r="BQ20" s="40"/>
       <c r="CD20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE20" s="44" t="s">
+      <c r="CE20" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="CF20" s="34"/>
-      <c r="CG20" s="34"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="34"/>
+      <c r="CF20" s="41"/>
+      <c r="CG20" s="41"/>
+      <c r="CH20" s="41"/>
+      <c r="CI20" s="41"/>
     </row>
     <row r="21" spans="1:87" ht="15" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="S21" s="33" t="s">
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="S21" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="AK21" s="45" t="s">
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="AK21" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AT21" s="41" t="s">
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AT21" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="BC21" s="45" t="s">
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="BC21" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="BD21" s="45"/>
-      <c r="BE21" s="45"/>
-      <c r="BF21" s="45"/>
-      <c r="BG21" s="45"/>
-      <c r="BH21" s="45"/>
-      <c r="BL21" s="33" t="s">
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="52"/>
+      <c r="BG21" s="52"/>
+      <c r="BH21" s="52"/>
+      <c r="BL21" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="BM21" s="33"/>
-      <c r="BN21" s="33"/>
-      <c r="BO21" s="33"/>
-      <c r="BP21" s="33"/>
-      <c r="BQ21" s="33"/>
-      <c r="CD21" s="41" t="s">
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
+      <c r="CD21" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="CE21" s="42"/>
-      <c r="CF21" s="42"/>
-      <c r="CG21" s="42"/>
-      <c r="CH21" s="42"/>
-      <c r="CI21" s="42"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
     </row>
     <row r="22" spans="1:87">
       <c r="A22" s="5" t="s">
@@ -8106,14 +8140,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
       <c r="S22" s="5" t="s">
         <v>62</v>
       </c>
@@ -8122,26 +8156,26 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AT22" s="45" t="s">
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="52"/>
+      <c r="AT22" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="45"/>
-      <c r="BE22" s="45"/>
-      <c r="BF22" s="45"/>
-      <c r="BG22" s="45"/>
-      <c r="BH22" s="45"/>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="52"/>
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="52"/>
+      <c r="AY22" s="52"/>
+      <c r="BC22" s="52"/>
+      <c r="BD22" s="52"/>
+      <c r="BE22" s="52"/>
+      <c r="BF22" s="52"/>
+      <c r="BG22" s="52"/>
+      <c r="BH22" s="52"/>
       <c r="BL22" s="5" t="s">
         <v>62</v>
       </c>
@@ -8150,14 +8184,14 @@
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
-      <c r="CD22" s="57" t="s">
+      <c r="CD22" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="CE22" s="57"/>
-      <c r="CF22" s="57"/>
-      <c r="CG22" s="57"/>
-      <c r="CH22" s="57"/>
-      <c r="CI22" s="57"/>
+      <c r="CE22" s="53"/>
+      <c r="CF22" s="53"/>
+      <c r="CG22" s="53"/>
+      <c r="CH22" s="53"/>
+      <c r="CI22" s="53"/>
     </row>
     <row r="23" spans="1:87">
       <c r="A23" s="5" t="s">
@@ -8165,19 +8199,19 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="J23" s="39" t="s">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="J23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
       <c r="S23" s="5" t="s">
         <v>131</v>
       </c>
@@ -8188,24 +8222,24 @@
       <c r="X23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="52"/>
+      <c r="AT23" s="52"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="52"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="52"/>
+      <c r="AY23" s="52"/>
+      <c r="BC23" s="52"/>
+      <c r="BD23" s="52"/>
+      <c r="BE23" s="52"/>
+      <c r="BF23" s="52"/>
+      <c r="BG23" s="52"/>
+      <c r="BH23" s="52"/>
       <c r="BL23" s="5" t="s">
         <v>131</v>
       </c>
@@ -8216,286 +8250,286 @@
       <c r="BQ23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="CD23" s="58"/>
-      <c r="CE23" s="58"/>
-      <c r="CF23" s="58"/>
-      <c r="CG23" s="58"/>
-      <c r="CH23" s="58"/>
-      <c r="CI23" s="58"/>
+      <c r="CD23" s="54"/>
+      <c r="CE23" s="54"/>
+      <c r="CF23" s="54"/>
+      <c r="CG23" s="54"/>
+      <c r="CH23" s="54"/>
+      <c r="CI23" s="54"/>
     </row>
     <row r="24" spans="1:87">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="J24" s="41" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="J24" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
       <c r="S24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="44" t="s">
+      <c r="T24" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="BC24" s="41" t="s">
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="BC24" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
-      <c r="BH24" s="33"/>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
       <c r="BL24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM24" s="44" t="s">
+      <c r="BM24" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="BN24" s="34"/>
-      <c r="BO24" s="34"/>
-      <c r="BP24" s="34"/>
-      <c r="BQ24" s="34"/>
-      <c r="CD24" s="41" t="s">
+      <c r="BN24" s="41"/>
+      <c r="BO24" s="41"/>
+      <c r="BP24" s="41"/>
+      <c r="BQ24" s="41"/>
+      <c r="CD24" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="CE24" s="33"/>
-      <c r="CF24" s="33"/>
-      <c r="CG24" s="33"/>
-      <c r="CH24" s="33"/>
-      <c r="CI24" s="33"/>
+      <c r="CE24" s="31"/>
+      <c r="CF24" s="31"/>
+      <c r="CG24" s="31"/>
+      <c r="CH24" s="31"/>
+      <c r="CI24" s="31"/>
     </row>
     <row r="25" spans="1:87">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="J25" s="46" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="J25" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
       <c r="S25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T25" s="44" t="s">
+      <c r="T25" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="AT25" s="41" t="s">
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="AT25" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="BC25" s="54" t="s">
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="38"/>
+      <c r="BC25" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="BD25" s="54"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="54"/>
-      <c r="BH25" s="54"/>
+      <c r="BD25" s="46"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="46"/>
       <c r="BL25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM25" s="44" t="s">
+      <c r="BM25" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="BN25" s="34"/>
-      <c r="BO25" s="34"/>
-      <c r="BP25" s="34"/>
-      <c r="BQ25" s="34"/>
-      <c r="CD25" s="54" t="s">
+      <c r="BN25" s="41"/>
+      <c r="BO25" s="41"/>
+      <c r="BP25" s="41"/>
+      <c r="BQ25" s="41"/>
+      <c r="CD25" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="CE25" s="54"/>
-      <c r="CF25" s="54"/>
-      <c r="CG25" s="54"/>
-      <c r="CH25" s="54"/>
-      <c r="CI25" s="54"/>
+      <c r="CE25" s="46"/>
+      <c r="CF25" s="46"/>
+      <c r="CG25" s="46"/>
+      <c r="CH25" s="46"/>
+      <c r="CI25" s="46"/>
     </row>
     <row r="26" spans="1:87" ht="15" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
       <c r="S26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="44" t="s">
+      <c r="T26" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="AT26" s="45" t="s">
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="AT26" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="BC26" s="54"/>
-      <c r="BD26" s="54"/>
-      <c r="BE26" s="54"/>
-      <c r="BF26" s="54"/>
-      <c r="BG26" s="54"/>
-      <c r="BH26" s="54"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
       <c r="BL26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM26" s="44" t="s">
+      <c r="BM26" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="BN26" s="34"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="34"/>
-      <c r="BQ26" s="34"/>
-      <c r="CD26" s="54"/>
-      <c r="CE26" s="54"/>
-      <c r="CF26" s="54"/>
-      <c r="CG26" s="54"/>
-      <c r="CH26" s="54"/>
-      <c r="CI26" s="54"/>
+      <c r="BN26" s="41"/>
+      <c r="BO26" s="41"/>
+      <c r="BP26" s="41"/>
+      <c r="BQ26" s="41"/>
+      <c r="CD26" s="46"/>
+      <c r="CE26" s="46"/>
+      <c r="CF26" s="46"/>
+      <c r="CG26" s="46"/>
+      <c r="CH26" s="46"/>
+      <c r="CI26" s="46"/>
     </row>
     <row r="27" spans="1:87">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="S27" s="41" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="S27" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
-      <c r="BL27" s="41" t="s">
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="BC27" s="47"/>
+      <c r="BD27" s="47"/>
+      <c r="BE27" s="47"/>
+      <c r="BF27" s="47"/>
+      <c r="BG27" s="47"/>
+      <c r="BH27" s="47"/>
+      <c r="BL27" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="BM27" s="42"/>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="42"/>
-      <c r="BP27" s="42"/>
-      <c r="BQ27" s="42"/>
-      <c r="CD27" s="56"/>
-      <c r="CE27" s="56"/>
-      <c r="CF27" s="56"/>
-      <c r="CG27" s="56"/>
-      <c r="CH27" s="56"/>
-      <c r="CI27" s="56"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+      <c r="BO27" s="38"/>
+      <c r="BP27" s="38"/>
+      <c r="BQ27" s="38"/>
+      <c r="CD27" s="47"/>
+      <c r="CE27" s="47"/>
+      <c r="CF27" s="47"/>
+      <c r="CG27" s="47"/>
+      <c r="CH27" s="47"/>
+      <c r="CI27" s="47"/>
     </row>
     <row r="28" spans="1:87" ht="15" customHeight="1">
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="S28" s="57" t="s">
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="S28" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="BC28" s="33" t="s">
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="BC28" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BL28" s="57" t="s">
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BL28" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
-      <c r="BP28" s="57"/>
-      <c r="BQ28" s="57"/>
-      <c r="CD28" s="33" t="s">
+      <c r="BM28" s="53"/>
+      <c r="BN28" s="53"/>
+      <c r="BO28" s="53"/>
+      <c r="BP28" s="53"/>
+      <c r="BQ28" s="53"/>
+      <c r="CD28" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="CE28" s="33"/>
-      <c r="CF28" s="33"/>
-      <c r="CG28" s="33"/>
-      <c r="CH28" s="33"/>
-      <c r="CI28" s="33"/>
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="31"/>
+      <c r="CH28" s="31"/>
+      <c r="CI28" s="31"/>
     </row>
     <row r="29" spans="1:87" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
@@ -8506,12 +8540,12 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
       <c r="BC29" s="5" t="s">
         <v>104</v>
       </c>
@@ -8520,12 +8554,12 @@
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
-      <c r="BL29" s="58"/>
-      <c r="BM29" s="58"/>
-      <c r="BN29" s="58"/>
-      <c r="BO29" s="58"/>
-      <c r="BP29" s="58"/>
-      <c r="BQ29" s="58"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="54"/>
+      <c r="BO29" s="54"/>
+      <c r="BP29" s="54"/>
+      <c r="BQ29" s="54"/>
       <c r="CD29" s="5" t="s">
         <v>43</v>
       </c>
@@ -8541,157 +8575,157 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="53" t="s">
+      <c r="M30" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="S30" s="41" t="s">
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="S30" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
       <c r="BC30" s="5" t="s">
         <v>250</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="53" t="s">
+      <c r="BF30" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="BG30" s="55"/>
-      <c r="BH30" s="55"/>
-      <c r="BL30" s="41" t="s">
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BL30" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="BM30" s="33"/>
-      <c r="BN30" s="33"/>
-      <c r="BO30" s="33"/>
-      <c r="BP30" s="33"/>
-      <c r="BQ30" s="33"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
       <c r="CD30" s="5" t="s">
         <v>134</v>
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
-      <c r="CG30" s="53" t="s">
+      <c r="CG30" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="CH30" s="55"/>
-      <c r="CI30" s="55"/>
+      <c r="CH30" s="45"/>
+      <c r="CI30" s="45"/>
     </row>
     <row r="31" spans="1:87">
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="S31" s="54" t="s">
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="S31" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="BC31" s="72" t="s">
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="BC31" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="BD31" s="72"/>
-      <c r="BE31" s="72"/>
-      <c r="BF31" s="72"/>
-      <c r="BG31" s="72"/>
-      <c r="BH31" s="72"/>
-      <c r="BL31" s="54" t="s">
+      <c r="BD31" s="55"/>
+      <c r="BE31" s="55"/>
+      <c r="BF31" s="55"/>
+      <c r="BG31" s="55"/>
+      <c r="BH31" s="55"/>
+      <c r="BL31" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="BM31" s="54"/>
-      <c r="BN31" s="54"/>
-      <c r="BO31" s="54"/>
-      <c r="BP31" s="54"/>
-      <c r="BQ31" s="54"/>
-      <c r="CD31" s="37" t="s">
+      <c r="BM31" s="46"/>
+      <c r="BN31" s="46"/>
+      <c r="BO31" s="46"/>
+      <c r="BP31" s="46"/>
+      <c r="BQ31" s="46"/>
+      <c r="CD31" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="CE31" s="37"/>
-      <c r="CF31" s="37"/>
-      <c r="CG31" s="37"/>
-      <c r="CH31" s="37"/>
-      <c r="CI31" s="37"/>
+      <c r="CE31" s="42"/>
+      <c r="CF31" s="42"/>
+      <c r="CG31" s="42"/>
+      <c r="CH31" s="42"/>
+      <c r="CI31" s="42"/>
     </row>
     <row r="32" spans="1:87" ht="15" customHeight="1">
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="BC32" s="72"/>
-      <c r="BD32" s="72"/>
-      <c r="BE32" s="72"/>
-      <c r="BF32" s="72"/>
-      <c r="BG32" s="72"/>
-      <c r="BH32" s="72"/>
-      <c r="BL32" s="54"/>
-      <c r="BM32" s="54"/>
-      <c r="BN32" s="54"/>
-      <c r="BO32" s="54"/>
-      <c r="BP32" s="54"/>
-      <c r="BQ32" s="54"/>
-      <c r="CD32" s="54" t="s">
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="BC32" s="55"/>
+      <c r="BD32" s="55"/>
+      <c r="BE32" s="55"/>
+      <c r="BF32" s="55"/>
+      <c r="BG32" s="55"/>
+      <c r="BH32" s="55"/>
+      <c r="BL32" s="46"/>
+      <c r="BM32" s="46"/>
+      <c r="BN32" s="46"/>
+      <c r="BO32" s="46"/>
+      <c r="BP32" s="46"/>
+      <c r="BQ32" s="46"/>
+      <c r="CD32" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="CE32" s="54"/>
-      <c r="CF32" s="54"/>
-      <c r="CG32" s="54"/>
-      <c r="CH32" s="54"/>
-      <c r="CI32" s="54"/>
+      <c r="CE32" s="46"/>
+      <c r="CF32" s="46"/>
+      <c r="CG32" s="46"/>
+      <c r="CH32" s="46"/>
+      <c r="CI32" s="46"/>
     </row>
     <row r="33" spans="10:87">
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="BC33" s="72"/>
-      <c r="BD33" s="72"/>
-      <c r="BE33" s="72"/>
-      <c r="BF33" s="72"/>
-      <c r="BG33" s="72"/>
-      <c r="BH33" s="72"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="56"/>
-      <c r="BN33" s="56"/>
-      <c r="BO33" s="56"/>
-      <c r="BP33" s="56"/>
-      <c r="BQ33" s="56"/>
-      <c r="CD33" s="54"/>
-      <c r="CE33" s="54"/>
-      <c r="CF33" s="54"/>
-      <c r="CG33" s="54"/>
-      <c r="CH33" s="54"/>
-      <c r="CI33" s="54"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="BC33" s="55"/>
+      <c r="BD33" s="55"/>
+      <c r="BE33" s="55"/>
+      <c r="BF33" s="55"/>
+      <c r="BG33" s="55"/>
+      <c r="BH33" s="55"/>
+      <c r="BL33" s="47"/>
+      <c r="BM33" s="47"/>
+      <c r="BN33" s="47"/>
+      <c r="BO33" s="47"/>
+      <c r="BP33" s="47"/>
+      <c r="BQ33" s="47"/>
+      <c r="CD33" s="46"/>
+      <c r="CE33" s="46"/>
+      <c r="CF33" s="46"/>
+      <c r="CG33" s="46"/>
+      <c r="CH33" s="46"/>
+      <c r="CI33" s="46"/>
     </row>
     <row r="34" spans="10:87">
       <c r="J34" s="5" t="s">
@@ -8702,36 +8736,36 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="33" t="s">
+      <c r="S34" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="BC34" s="54" t="s">
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="BC34" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="BD34" s="54"/>
-      <c r="BE34" s="54"/>
-      <c r="BF34" s="54"/>
-      <c r="BG34" s="54"/>
-      <c r="BH34" s="54"/>
-      <c r="BL34" s="33" t="s">
+      <c r="BD34" s="46"/>
+      <c r="BE34" s="46"/>
+      <c r="BF34" s="46"/>
+      <c r="BG34" s="46"/>
+      <c r="BH34" s="46"/>
+      <c r="BL34" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="BM34" s="33"/>
-      <c r="BN34" s="33"/>
-      <c r="BO34" s="33"/>
-      <c r="BP34" s="33"/>
-      <c r="BQ34" s="33"/>
-      <c r="CD34" s="54"/>
-      <c r="CE34" s="54"/>
-      <c r="CF34" s="54"/>
-      <c r="CG34" s="54"/>
-      <c r="CH34" s="54"/>
-      <c r="CI34" s="54"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31"/>
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
+      <c r="CD34" s="46"/>
+      <c r="CE34" s="46"/>
+      <c r="CF34" s="46"/>
+      <c r="CG34" s="46"/>
+      <c r="CH34" s="46"/>
+      <c r="CI34" s="46"/>
     </row>
     <row r="35" spans="10:87">
       <c r="J35" s="5" t="s">
@@ -8739,11 +8773,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="53" t="s">
+      <c r="M35" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
       <c r="S35" s="5" t="s">
         <v>43</v>
       </c>
@@ -8752,12 +8786,12 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="54"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="54"/>
-      <c r="BH35" s="54"/>
+      <c r="BC35" s="46"/>
+      <c r="BD35" s="46"/>
+      <c r="BE35" s="46"/>
+      <c r="BF35" s="46"/>
+      <c r="BG35" s="46"/>
+      <c r="BH35" s="46"/>
       <c r="BL35" s="5" t="s">
         <v>43</v>
       </c>
@@ -8766,102 +8800,102 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
-      <c r="CD35" s="54"/>
-      <c r="CE35" s="54"/>
-      <c r="CF35" s="54"/>
-      <c r="CG35" s="54"/>
-      <c r="CH35" s="54"/>
-      <c r="CI35" s="54"/>
+      <c r="CD35" s="46"/>
+      <c r="CE35" s="46"/>
+      <c r="CF35" s="46"/>
+      <c r="CG35" s="46"/>
+      <c r="CH35" s="46"/>
+      <c r="CI35" s="46"/>
     </row>
     <row r="36" spans="10:87" ht="15" customHeight="1">
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
       <c r="S36" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="53" t="s">
+      <c r="V36" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="BC36" s="54"/>
-      <c r="BD36" s="54"/>
-      <c r="BE36" s="54"/>
-      <c r="BF36" s="54"/>
-      <c r="BG36" s="54"/>
-      <c r="BH36" s="54"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="BC36" s="46"/>
+      <c r="BD36" s="46"/>
+      <c r="BE36" s="46"/>
+      <c r="BF36" s="46"/>
+      <c r="BG36" s="46"/>
+      <c r="BH36" s="46"/>
       <c r="BL36" s="5" t="s">
         <v>134</v>
       </c>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
-      <c r="BO36" s="53" t="s">
+      <c r="BO36" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="BP36" s="55"/>
-      <c r="BQ36" s="55"/>
+      <c r="BP36" s="45"/>
+      <c r="BQ36" s="45"/>
       <c r="CD36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE36" s="44" t="s">
+      <c r="CE36" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="CF36" s="34"/>
-      <c r="CG36" s="34"/>
-      <c r="CH36" s="34"/>
-      <c r="CI36" s="34"/>
+      <c r="CF36" s="41"/>
+      <c r="CG36" s="41"/>
+      <c r="CH36" s="41"/>
+      <c r="CI36" s="41"/>
     </row>
     <row r="37" spans="10:87">
-      <c r="J37" s="41" t="s">
+      <c r="J37" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="S37" s="37" t="s">
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="S37" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="BC37" s="33" t="s">
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="BC37" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="BD37" s="33"/>
-      <c r="BE37" s="33"/>
-      <c r="BF37" s="33"/>
-      <c r="BG37" s="33"/>
-      <c r="BH37" s="33"/>
-      <c r="BL37" s="37" t="s">
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BL37" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="BM37" s="37"/>
-      <c r="BN37" s="37"/>
-      <c r="BO37" s="37"/>
-      <c r="BP37" s="37"/>
-      <c r="BQ37" s="37"/>
+      <c r="BM37" s="42"/>
+      <c r="BN37" s="42"/>
+      <c r="BO37" s="42"/>
+      <c r="BP37" s="42"/>
+      <c r="BQ37" s="42"/>
       <c r="CD37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE37" s="44" t="s">
+      <c r="CE37" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="CF37" s="34"/>
-      <c r="CG37" s="34"/>
-      <c r="CH37" s="34"/>
-      <c r="CI37" s="34"/>
+      <c r="CF37" s="41"/>
+      <c r="CG37" s="41"/>
+      <c r="CH37" s="41"/>
+      <c r="CI37" s="41"/>
     </row>
     <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
@@ -8872,14 +8906,14 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="54" t="s">
+      <c r="S38" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
       <c r="BC38" s="5" t="s">
         <v>53</v>
       </c>
@@ -8888,14 +8922,14 @@
       <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
-      <c r="BL38" s="54" t="s">
+      <c r="BL38" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="BM38" s="54"/>
-      <c r="BN38" s="54"/>
-      <c r="BO38" s="54"/>
-      <c r="BP38" s="54"/>
-      <c r="BQ38" s="54"/>
+      <c r="BM38" s="46"/>
+      <c r="BN38" s="46"/>
+      <c r="BO38" s="46"/>
+      <c r="BP38" s="46"/>
+      <c r="BQ38" s="46"/>
       <c r="CD38" s="1" t="s">
         <v>7</v>
       </c>
@@ -8913,161 +8947,161 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="53" t="s">
+      <c r="M39" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
       <c r="BC39" s="5" t="s">
         <v>51</v>
       </c>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="53" t="s">
+      <c r="BF39" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BG39" s="55"/>
-      <c r="BH39" s="55"/>
-      <c r="BL39" s="54"/>
-      <c r="BM39" s="54"/>
-      <c r="BN39" s="54"/>
-      <c r="BO39" s="54"/>
-      <c r="BP39" s="54"/>
-      <c r="BQ39" s="54"/>
-      <c r="CD39" s="54" t="s">
+      <c r="BG39" s="45"/>
+      <c r="BH39" s="45"/>
+      <c r="BL39" s="46"/>
+      <c r="BM39" s="46"/>
+      <c r="BN39" s="46"/>
+      <c r="BO39" s="46"/>
+      <c r="BP39" s="46"/>
+      <c r="BQ39" s="46"/>
+      <c r="CD39" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="CE39" s="54"/>
-      <c r="CF39" s="54"/>
-      <c r="CG39" s="54"/>
-      <c r="CH39" s="54"/>
-      <c r="CI39" s="54"/>
+      <c r="CE39" s="46"/>
+      <c r="CF39" s="46"/>
+      <c r="CG39" s="46"/>
+      <c r="CH39" s="46"/>
+      <c r="CI39" s="46"/>
     </row>
     <row r="40" spans="10:87" ht="15" customHeight="1">
-      <c r="J40" s="35" t="s">
+      <c r="J40" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="BC40" s="37" t="s">
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="BC40" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
-      <c r="BL40" s="54"/>
-      <c r="BM40" s="54"/>
-      <c r="BN40" s="54"/>
-      <c r="BO40" s="54"/>
-      <c r="BP40" s="54"/>
-      <c r="BQ40" s="54"/>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="42"/>
+      <c r="BF40" s="42"/>
+      <c r="BG40" s="42"/>
+      <c r="BH40" s="42"/>
+      <c r="BL40" s="46"/>
+      <c r="BM40" s="46"/>
+      <c r="BN40" s="46"/>
+      <c r="BO40" s="46"/>
+      <c r="BP40" s="46"/>
+      <c r="BQ40" s="46"/>
     </row>
     <row r="41" spans="10:87">
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="BC41" s="54" t="s">
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="BC41" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="BD41" s="54"/>
-      <c r="BE41" s="54"/>
-      <c r="BF41" s="54"/>
-      <c r="BG41" s="54"/>
-      <c r="BH41" s="54"/>
-      <c r="BL41" s="54"/>
-      <c r="BM41" s="54"/>
-      <c r="BN41" s="54"/>
-      <c r="BO41" s="54"/>
-      <c r="BP41" s="54"/>
-      <c r="BQ41" s="54"/>
+      <c r="BD41" s="46"/>
+      <c r="BE41" s="46"/>
+      <c r="BF41" s="46"/>
+      <c r="BG41" s="46"/>
+      <c r="BH41" s="46"/>
+      <c r="BL41" s="46"/>
+      <c r="BM41" s="46"/>
+      <c r="BN41" s="46"/>
+      <c r="BO41" s="46"/>
+      <c r="BP41" s="46"/>
+      <c r="BQ41" s="46"/>
     </row>
     <row r="42" spans="10:87">
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
       <c r="S42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="44" t="s">
+      <c r="T42" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="BC42" s="54"/>
-      <c r="BD42" s="54"/>
-      <c r="BE42" s="54"/>
-      <c r="BF42" s="54"/>
-      <c r="BG42" s="54"/>
-      <c r="BH42" s="54"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="BC42" s="46"/>
+      <c r="BD42" s="46"/>
+      <c r="BE42" s="46"/>
+      <c r="BF42" s="46"/>
+      <c r="BG42" s="46"/>
+      <c r="BH42" s="46"/>
       <c r="BL42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM42" s="44" t="s">
+      <c r="BM42" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="BN42" s="34"/>
-      <c r="BO42" s="34"/>
-      <c r="BP42" s="34"/>
-      <c r="BQ42" s="34"/>
+      <c r="BN42" s="41"/>
+      <c r="BO42" s="41"/>
+      <c r="BP42" s="41"/>
+      <c r="BQ42" s="41"/>
     </row>
     <row r="43" spans="10:87" ht="15" customHeight="1">
       <c r="S43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T43" s="44" t="s">
+      <c r="T43" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="BC43" s="54"/>
-      <c r="BD43" s="54"/>
-      <c r="BE43" s="54"/>
-      <c r="BF43" s="54"/>
-      <c r="BG43" s="54"/>
-      <c r="BH43" s="54"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="BC43" s="46"/>
+      <c r="BD43" s="46"/>
+      <c r="BE43" s="46"/>
+      <c r="BF43" s="46"/>
+      <c r="BG43" s="46"/>
+      <c r="BH43" s="46"/>
       <c r="BL43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM43" s="44" t="s">
+      <c r="BM43" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="BN43" s="34"/>
-      <c r="BO43" s="34"/>
-      <c r="BP43" s="34"/>
-      <c r="BQ43" s="34"/>
+      <c r="BN43" s="41"/>
+      <c r="BO43" s="41"/>
+      <c r="BP43" s="41"/>
+      <c r="BQ43" s="41"/>
     </row>
     <row r="44" spans="10:87">
       <c r="S44" s="1" t="s">
@@ -9092,48 +9126,48 @@
       <c r="BQ44" s="7"/>
     </row>
     <row r="45" spans="10:87">
-      <c r="S45" s="54" t="s">
+      <c r="S45" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="BL45" s="54" t="s">
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="BL45" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="BM45" s="54"/>
-      <c r="BN45" s="54"/>
-      <c r="BO45" s="54"/>
-      <c r="BP45" s="54"/>
-      <c r="BQ45" s="54"/>
+      <c r="BM45" s="46"/>
+      <c r="BN45" s="46"/>
+      <c r="BO45" s="46"/>
+      <c r="BP45" s="46"/>
+      <c r="BQ45" s="46"/>
     </row>
     <row r="48" spans="10:87">
-      <c r="BC48" s="41" t="s">
+      <c r="BC48" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="BD48" s="41"/>
-      <c r="BE48" s="41"/>
-      <c r="BF48" s="41"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BL48" s="41" t="s">
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="37"/>
+      <c r="BF48" s="37"/>
+      <c r="BG48" s="37"/>
+      <c r="BH48" s="37"/>
+      <c r="BL48" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="BM48" s="41"/>
-      <c r="BN48" s="41"/>
-      <c r="BO48" s="41"/>
-      <c r="BP48" s="41"/>
-      <c r="BQ48" s="41"/>
-      <c r="CD48" s="41" t="s">
+      <c r="BM48" s="37"/>
+      <c r="BN48" s="37"/>
+      <c r="BO48" s="37"/>
+      <c r="BP48" s="37"/>
+      <c r="BQ48" s="37"/>
+      <c r="CD48" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="CE48" s="42"/>
-      <c r="CF48" s="42"/>
-      <c r="CG48" s="42"/>
-      <c r="CH48" s="42"/>
-      <c r="CI48" s="42"/>
+      <c r="CE48" s="38"/>
+      <c r="CF48" s="38"/>
+      <c r="CG48" s="38"/>
+      <c r="CH48" s="38"/>
+      <c r="CI48" s="38"/>
     </row>
     <row r="49" spans="55:87">
       <c r="BC49" s="5" t="s">
@@ -9167,103 +9201,103 @@
       </c>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="53" t="s">
+      <c r="BF50" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="BG50" s="53"/>
-      <c r="BH50" s="53"/>
+      <c r="BG50" s="44"/>
+      <c r="BH50" s="44"/>
       <c r="BL50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
-      <c r="BO50" s="53" t="s">
+      <c r="BO50" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="BP50" s="53"/>
-      <c r="BQ50" s="53"/>
+      <c r="BP50" s="44"/>
+      <c r="BQ50" s="44"/>
       <c r="CD50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" s="1"/>
-      <c r="CG50" s="53" t="s">
+      <c r="CG50" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="CH50" s="55"/>
-      <c r="CI50" s="55"/>
+      <c r="CH50" s="45"/>
+      <c r="CI50" s="45"/>
     </row>
     <row r="51" spans="55:87">
-      <c r="BC51" s="35" t="s">
+      <c r="BC51" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="BD51" s="35"/>
-      <c r="BE51" s="35"/>
-      <c r="BF51" s="35"/>
-      <c r="BG51" s="35"/>
-      <c r="BH51" s="35"/>
-      <c r="BL51" s="35" t="s">
+      <c r="BD51" s="39"/>
+      <c r="BE51" s="39"/>
+      <c r="BF51" s="39"/>
+      <c r="BG51" s="39"/>
+      <c r="BH51" s="39"/>
+      <c r="BL51" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="BM51" s="35"/>
-      <c r="BN51" s="35"/>
-      <c r="BO51" s="35"/>
-      <c r="BP51" s="35"/>
-      <c r="BQ51" s="35"/>
-      <c r="CD51" s="35" t="s">
+      <c r="BM51" s="39"/>
+      <c r="BN51" s="39"/>
+      <c r="BO51" s="39"/>
+      <c r="BP51" s="39"/>
+      <c r="BQ51" s="39"/>
+      <c r="CD51" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="CE51" s="35"/>
-      <c r="CF51" s="35"/>
-      <c r="CG51" s="35"/>
-      <c r="CH51" s="35"/>
-      <c r="CI51" s="35"/>
+      <c r="CE51" s="39"/>
+      <c r="CF51" s="39"/>
+      <c r="CG51" s="39"/>
+      <c r="CH51" s="39"/>
+      <c r="CI51" s="39"/>
     </row>
     <row r="52" spans="55:87">
-      <c r="BC52" s="36"/>
-      <c r="BD52" s="36"/>
-      <c r="BE52" s="36"/>
-      <c r="BF52" s="36"/>
-      <c r="BG52" s="36"/>
-      <c r="BH52" s="36"/>
-      <c r="BL52" s="36"/>
-      <c r="BM52" s="36"/>
-      <c r="BN52" s="36"/>
-      <c r="BO52" s="36"/>
-      <c r="BP52" s="36"/>
-      <c r="BQ52" s="36"/>
-      <c r="CD52" s="35"/>
-      <c r="CE52" s="35"/>
-      <c r="CF52" s="35"/>
-      <c r="CG52" s="35"/>
-      <c r="CH52" s="35"/>
-      <c r="CI52" s="35"/>
+      <c r="BC52" s="40"/>
+      <c r="BD52" s="40"/>
+      <c r="BE52" s="40"/>
+      <c r="BF52" s="40"/>
+      <c r="BG52" s="40"/>
+      <c r="BH52" s="40"/>
+      <c r="BL52" s="40"/>
+      <c r="BM52" s="40"/>
+      <c r="BN52" s="40"/>
+      <c r="BO52" s="40"/>
+      <c r="BP52" s="40"/>
+      <c r="BQ52" s="40"/>
+      <c r="CD52" s="39"/>
+      <c r="CE52" s="39"/>
+      <c r="CF52" s="39"/>
+      <c r="CG52" s="39"/>
+      <c r="CH52" s="39"/>
+      <c r="CI52" s="39"/>
     </row>
     <row r="53" spans="55:87">
-      <c r="BC53" s="41" t="s">
+      <c r="BC53" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="BD53" s="41"/>
-      <c r="BE53" s="41"/>
-      <c r="BF53" s="41"/>
-      <c r="BG53" s="41"/>
-      <c r="BH53" s="41"/>
-      <c r="BL53" s="41" t="s">
+      <c r="BD53" s="37"/>
+      <c r="BE53" s="37"/>
+      <c r="BF53" s="37"/>
+      <c r="BG53" s="37"/>
+      <c r="BH53" s="37"/>
+      <c r="BL53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="BM53" s="41"/>
-      <c r="BN53" s="41"/>
-      <c r="BO53" s="41"/>
-      <c r="BP53" s="41"/>
-      <c r="BQ53" s="41"/>
-      <c r="CD53" s="41" t="s">
+      <c r="BM53" s="37"/>
+      <c r="BN53" s="37"/>
+      <c r="BO53" s="37"/>
+      <c r="BP53" s="37"/>
+      <c r="BQ53" s="37"/>
+      <c r="CD53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="CE53" s="42"/>
-      <c r="CF53" s="42"/>
-      <c r="CG53" s="42"/>
-      <c r="CH53" s="42"/>
-      <c r="CI53" s="42"/>
+      <c r="CE53" s="38"/>
+      <c r="CF53" s="38"/>
+      <c r="CG53" s="38"/>
+      <c r="CH53" s="38"/>
+      <c r="CI53" s="38"/>
     </row>
     <row r="54" spans="55:87">
       <c r="BC54" s="5" t="s">
@@ -9297,91 +9331,91 @@
       </c>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="53" t="s">
+      <c r="BF55" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="BG55" s="53"/>
-      <c r="BH55" s="53"/>
+      <c r="BG55" s="44"/>
+      <c r="BH55" s="44"/>
       <c r="BL55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
-      <c r="BO55" s="53" t="s">
+      <c r="BO55" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="BP55" s="53"/>
-      <c r="BQ55" s="53"/>
+      <c r="BP55" s="44"/>
+      <c r="BQ55" s="44"/>
       <c r="CD55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" s="1"/>
-      <c r="CG55" s="53" t="s">
+      <c r="CG55" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="CH55" s="55"/>
-      <c r="CI55" s="55"/>
+      <c r="CH55" s="45"/>
+      <c r="CI55" s="45"/>
     </row>
     <row r="56" spans="55:87">
-      <c r="BC56" s="75" t="s">
+      <c r="BC56" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="BD56" s="75"/>
-      <c r="BE56" s="75"/>
-      <c r="BF56" s="75"/>
-      <c r="BG56" s="75"/>
-      <c r="BH56" s="75"/>
-      <c r="BL56" s="36" t="s">
+      <c r="BD56" s="39"/>
+      <c r="BE56" s="39"/>
+      <c r="BF56" s="39"/>
+      <c r="BG56" s="39"/>
+      <c r="BH56" s="39"/>
+      <c r="BL56" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="BM56" s="36"/>
-      <c r="BN56" s="36"/>
-      <c r="BO56" s="36"/>
-      <c r="BP56" s="36"/>
-      <c r="BQ56" s="36"/>
-      <c r="CD56" s="35" t="s">
+      <c r="BM56" s="40"/>
+      <c r="BN56" s="40"/>
+      <c r="BO56" s="40"/>
+      <c r="BP56" s="40"/>
+      <c r="BQ56" s="40"/>
+      <c r="CD56" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="CE56" s="35"/>
-      <c r="CF56" s="35"/>
-      <c r="CG56" s="35"/>
-      <c r="CH56" s="35"/>
-      <c r="CI56" s="35"/>
+      <c r="CE56" s="39"/>
+      <c r="CF56" s="39"/>
+      <c r="CG56" s="39"/>
+      <c r="CH56" s="39"/>
+      <c r="CI56" s="39"/>
     </row>
     <row r="57" spans="55:87">
-      <c r="BC57" s="36"/>
-      <c r="BD57" s="36"/>
-      <c r="BE57" s="36"/>
-      <c r="BF57" s="36"/>
-      <c r="BG57" s="36"/>
-      <c r="BH57" s="36"/>
-      <c r="BL57" s="41" t="s">
+      <c r="BC57" s="40"/>
+      <c r="BD57" s="40"/>
+      <c r="BE57" s="40"/>
+      <c r="BF57" s="40"/>
+      <c r="BG57" s="40"/>
+      <c r="BH57" s="40"/>
+      <c r="BL57" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="BM57" s="41"/>
-      <c r="BN57" s="41"/>
-      <c r="BO57" s="41"/>
-      <c r="BP57" s="41"/>
-      <c r="BQ57" s="41"/>
-      <c r="CD57" s="41" t="s">
+      <c r="BM57" s="37"/>
+      <c r="BN57" s="37"/>
+      <c r="BO57" s="37"/>
+      <c r="BP57" s="37"/>
+      <c r="BQ57" s="37"/>
+      <c r="CD57" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="CE57" s="42"/>
-      <c r="CF57" s="42"/>
-      <c r="CG57" s="42"/>
-      <c r="CH57" s="42"/>
-      <c r="CI57" s="42"/>
+      <c r="CE57" s="38"/>
+      <c r="CF57" s="38"/>
+      <c r="CG57" s="38"/>
+      <c r="CH57" s="38"/>
+      <c r="CI57" s="38"/>
     </row>
     <row r="58" spans="55:87">
-      <c r="BC58" s="41" t="s">
+      <c r="BC58" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="BD58" s="41"/>
-      <c r="BE58" s="41"/>
-      <c r="BF58" s="41"/>
-      <c r="BG58" s="41"/>
-      <c r="BH58" s="41"/>
+      <c r="BD58" s="37"/>
+      <c r="BE58" s="37"/>
+      <c r="BF58" s="37"/>
+      <c r="BG58" s="37"/>
+      <c r="BH58" s="37"/>
       <c r="BL58" s="5" t="s">
         <v>104</v>
       </c>
@@ -9413,21 +9447,21 @@
       </c>
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
-      <c r="BO59" s="53" t="s">
+      <c r="BO59" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="BP59" s="55"/>
-      <c r="BQ59" s="55"/>
+      <c r="BP59" s="45"/>
+      <c r="BQ59" s="45"/>
       <c r="CD59" s="5" t="s">
         <v>103</v>
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
-      <c r="CG59" s="53" t="s">
+      <c r="CG59" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="CH59" s="55"/>
-      <c r="CI59" s="55"/>
+      <c r="CH59" s="45"/>
+      <c r="CI59" s="45"/>
     </row>
     <row r="60" spans="55:87" ht="15" customHeight="1">
       <c r="BC60" s="5" t="s">
@@ -9435,183 +9469,168 @@
       </c>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-      <c r="BF60" s="53" t="s">
+      <c r="BF60" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BG60" s="55"/>
-      <c r="BH60" s="55"/>
-      <c r="BL60" s="35" t="s">
+      <c r="BG60" s="45"/>
+      <c r="BH60" s="45"/>
+      <c r="BL60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="BM60" s="35"/>
-      <c r="BN60" s="35"/>
-      <c r="BO60" s="35"/>
-      <c r="BP60" s="35"/>
-      <c r="BQ60" s="35"/>
-      <c r="CD60" s="35" t="s">
+      <c r="BM60" s="39"/>
+      <c r="BN60" s="39"/>
+      <c r="BO60" s="39"/>
+      <c r="BP60" s="39"/>
+      <c r="BQ60" s="39"/>
+      <c r="CD60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="CE60" s="35"/>
-      <c r="CF60" s="35"/>
-      <c r="CG60" s="35"/>
-      <c r="CH60" s="35"/>
-      <c r="CI60" s="35"/>
+      <c r="CE60" s="39"/>
+      <c r="CF60" s="39"/>
+      <c r="CG60" s="39"/>
+      <c r="CH60" s="39"/>
+      <c r="CI60" s="39"/>
     </row>
     <row r="61" spans="55:87">
-      <c r="BC61" s="35" t="s">
+      <c r="BC61" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="BD61" s="35"/>
-      <c r="BE61" s="35"/>
-      <c r="BF61" s="35"/>
-      <c r="BG61" s="35"/>
-      <c r="BH61" s="35"/>
-      <c r="BL61" s="35"/>
-      <c r="BM61" s="35"/>
-      <c r="BN61" s="35"/>
-      <c r="BO61" s="35"/>
-      <c r="BP61" s="35"/>
-      <c r="BQ61" s="35"/>
-      <c r="CD61" s="35"/>
-      <c r="CE61" s="35"/>
-      <c r="CF61" s="35"/>
-      <c r="CG61" s="35"/>
-      <c r="CH61" s="35"/>
-      <c r="CI61" s="35"/>
+      <c r="BD61" s="39"/>
+      <c r="BE61" s="39"/>
+      <c r="BF61" s="39"/>
+      <c r="BG61" s="39"/>
+      <c r="BH61" s="39"/>
+      <c r="BL61" s="39"/>
+      <c r="BM61" s="39"/>
+      <c r="BN61" s="39"/>
+      <c r="BO61" s="39"/>
+      <c r="BP61" s="39"/>
+      <c r="BQ61" s="39"/>
+      <c r="CD61" s="39"/>
+      <c r="CE61" s="39"/>
+      <c r="CF61" s="39"/>
+      <c r="CG61" s="39"/>
+      <c r="CH61" s="39"/>
+      <c r="CI61" s="39"/>
     </row>
     <row r="62" spans="55:87">
-      <c r="BC62" s="35"/>
-      <c r="BD62" s="35"/>
-      <c r="BE62" s="35"/>
-      <c r="BF62" s="35"/>
-      <c r="BG62" s="35"/>
-      <c r="BH62" s="35"/>
-      <c r="BL62" s="35"/>
-      <c r="BM62" s="35"/>
-      <c r="BN62" s="35"/>
-      <c r="BO62" s="35"/>
-      <c r="BP62" s="35"/>
-      <c r="BQ62" s="35"/>
-      <c r="CD62" s="35"/>
-      <c r="CE62" s="35"/>
-      <c r="CF62" s="35"/>
-      <c r="CG62" s="35"/>
-      <c r="CH62" s="35"/>
-      <c r="CI62" s="35"/>
+      <c r="BC62" s="39"/>
+      <c r="BD62" s="39"/>
+      <c r="BE62" s="39"/>
+      <c r="BF62" s="39"/>
+      <c r="BG62" s="39"/>
+      <c r="BH62" s="39"/>
+      <c r="BL62" s="39"/>
+      <c r="BM62" s="39"/>
+      <c r="BN62" s="39"/>
+      <c r="BO62" s="39"/>
+      <c r="BP62" s="39"/>
+      <c r="BQ62" s="39"/>
+      <c r="CD62" s="39"/>
+      <c r="CE62" s="39"/>
+      <c r="CF62" s="39"/>
+      <c r="CG62" s="39"/>
+      <c r="CH62" s="39"/>
+      <c r="CI62" s="39"/>
     </row>
     <row r="63" spans="55:87">
-      <c r="BC63" s="35"/>
-      <c r="BD63" s="35"/>
-      <c r="BE63" s="35"/>
-      <c r="BF63" s="35"/>
-      <c r="BG63" s="35"/>
-      <c r="BH63" s="35"/>
+      <c r="BC63" s="39"/>
+      <c r="BD63" s="39"/>
+      <c r="BE63" s="39"/>
+      <c r="BF63" s="39"/>
+      <c r="BG63" s="39"/>
+      <c r="BH63" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="BC56:BH57"/>
-    <mergeCell ref="BL48:BQ48"/>
-    <mergeCell ref="BO50:BQ50"/>
-    <mergeCell ref="BL51:BQ52"/>
-    <mergeCell ref="BL53:BQ53"/>
-    <mergeCell ref="BO55:BQ55"/>
-    <mergeCell ref="BL56:BQ56"/>
-    <mergeCell ref="BL57:BQ57"/>
-    <mergeCell ref="BO59:BQ59"/>
-    <mergeCell ref="BL60:BQ62"/>
-    <mergeCell ref="BU2:BZ3"/>
-    <mergeCell ref="BU16:BZ16"/>
-    <mergeCell ref="BU17:BZ19"/>
-    <mergeCell ref="BU11:BZ12"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BU4:BZ4"/>
-    <mergeCell ref="BU5:BZ6"/>
-    <mergeCell ref="BU7:BZ7"/>
-    <mergeCell ref="BU8:BZ9"/>
-    <mergeCell ref="BU10:BZ10"/>
-    <mergeCell ref="BV14:BZ14"/>
-    <mergeCell ref="BV15:BZ15"/>
-    <mergeCell ref="BC58:BH58"/>
-    <mergeCell ref="BF60:BH60"/>
-    <mergeCell ref="BC61:BH63"/>
-    <mergeCell ref="AT13:AY13"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AT16:AY20"/>
-    <mergeCell ref="BC48:BH48"/>
-    <mergeCell ref="BF50:BH50"/>
-    <mergeCell ref="BC51:BH52"/>
-    <mergeCell ref="BC53:BH53"/>
-    <mergeCell ref="BF55:BH55"/>
-    <mergeCell ref="AT26:AY28"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BC21:BH23"/>
-    <mergeCell ref="BC41:BH43"/>
-    <mergeCell ref="CD48:CI48"/>
-    <mergeCell ref="CG50:CI50"/>
-    <mergeCell ref="CD51:CI52"/>
-    <mergeCell ref="CD53:CI53"/>
-    <mergeCell ref="CG55:CI55"/>
-    <mergeCell ref="CD56:CI56"/>
-    <mergeCell ref="CD57:CI57"/>
-    <mergeCell ref="CG59:CI59"/>
-    <mergeCell ref="CD60:CI62"/>
-    <mergeCell ref="CE36:CI36"/>
-    <mergeCell ref="CE37:CI37"/>
-    <mergeCell ref="CD39:CI39"/>
-    <mergeCell ref="CD25:CI27"/>
-    <mergeCell ref="CD28:CI28"/>
-    <mergeCell ref="CG30:CI30"/>
-    <mergeCell ref="CD31:CI31"/>
-    <mergeCell ref="CD32:CI35"/>
-    <mergeCell ref="CE19:CI19"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CD21:CI21"/>
-    <mergeCell ref="CD22:CI23"/>
-    <mergeCell ref="CD24:CI24"/>
-    <mergeCell ref="BM42:BQ42"/>
-    <mergeCell ref="BM43:BQ43"/>
-    <mergeCell ref="BL45:BQ45"/>
-    <mergeCell ref="CD6:CI6"/>
-    <mergeCell ref="CD7:CI7"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="CE12:CI12"/>
-    <mergeCell ref="CD13:CI14"/>
-    <mergeCell ref="CD15:CI15"/>
-    <mergeCell ref="CG17:CI17"/>
-    <mergeCell ref="CE18:CI18"/>
-    <mergeCell ref="BL31:BQ33"/>
-    <mergeCell ref="BL34:BQ34"/>
-    <mergeCell ref="BO36:BQ36"/>
-    <mergeCell ref="BL37:BQ37"/>
-    <mergeCell ref="BL38:BQ41"/>
-    <mergeCell ref="BM25:BQ25"/>
-    <mergeCell ref="BM26:BQ26"/>
-    <mergeCell ref="BL27:BQ27"/>
-    <mergeCell ref="BL28:BQ29"/>
-    <mergeCell ref="BL30:BQ30"/>
-    <mergeCell ref="BL6:BQ6"/>
-    <mergeCell ref="BL7:BQ7"/>
-    <mergeCell ref="BL8:BQ9"/>
-    <mergeCell ref="BL10:BQ12"/>
-    <mergeCell ref="BL13:BQ13"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BM16:BQ16"/>
-    <mergeCell ref="BM17:BQ17"/>
-    <mergeCell ref="BM18:BQ18"/>
-    <mergeCell ref="BL19:BQ20"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="BM24:BQ24"/>
-    <mergeCell ref="BC25:BH27"/>
-    <mergeCell ref="BC37:BH37"/>
-    <mergeCell ref="BF39:BH39"/>
-    <mergeCell ref="BC40:BH40"/>
-    <mergeCell ref="BC24:BH24"/>
-    <mergeCell ref="BC28:BH28"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BC31:BH33"/>
-    <mergeCell ref="BC34:BH36"/>
+  <mergeCells count="215">
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB16:AG17"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AB13:AG14"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S19:X20"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="S31:X33"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="S38:X41"/>
+    <mergeCell ref="S28:X29"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J31:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J25:O27"/>
     <mergeCell ref="BC5:BH5"/>
     <mergeCell ref="AK16:AP17"/>
     <mergeCell ref="AK21:AP23"/>
@@ -9633,96 +9652,112 @@
     <mergeCell ref="AT7:AY7"/>
     <mergeCell ref="AU10:AY10"/>
     <mergeCell ref="AU11:AY11"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J31:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J25:O27"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="S34:X34"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="S31:X33"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="S38:X41"/>
-    <mergeCell ref="S28:X29"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S19:X20"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="S10:X12"/>
-    <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="AK20:AP20"/>
     <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AB14:AG15"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="CE18:CI18"/>
+    <mergeCell ref="BL31:BQ33"/>
+    <mergeCell ref="BL34:BQ34"/>
+    <mergeCell ref="BO36:BQ36"/>
+    <mergeCell ref="BL37:BQ37"/>
+    <mergeCell ref="BL38:BQ41"/>
+    <mergeCell ref="BM25:BQ25"/>
+    <mergeCell ref="BM26:BQ26"/>
+    <mergeCell ref="BL27:BQ27"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="BM18:BQ18"/>
+    <mergeCell ref="BL19:BQ20"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="BM24:BQ24"/>
+    <mergeCell ref="CD6:CI6"/>
+    <mergeCell ref="CD7:CI7"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="CE12:CI12"/>
+    <mergeCell ref="CD13:CI14"/>
+    <mergeCell ref="CD15:CI15"/>
+    <mergeCell ref="CG17:CI17"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
+    <mergeCell ref="CD31:CI31"/>
+    <mergeCell ref="CD32:CI35"/>
+    <mergeCell ref="CE19:CI19"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CD56:CI56"/>
+    <mergeCell ref="CD57:CI57"/>
+    <mergeCell ref="CG59:CI59"/>
+    <mergeCell ref="CD60:CI62"/>
+    <mergeCell ref="BF60:BH60"/>
+    <mergeCell ref="BC61:BH63"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AT16:AY20"/>
+    <mergeCell ref="BC48:BH48"/>
+    <mergeCell ref="BF50:BH50"/>
+    <mergeCell ref="BC51:BH52"/>
+    <mergeCell ref="BC53:BH53"/>
+    <mergeCell ref="BF55:BH55"/>
+    <mergeCell ref="AT26:AY28"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BC21:BH23"/>
+    <mergeCell ref="BC41:BH43"/>
+    <mergeCell ref="BC25:BH27"/>
+    <mergeCell ref="BC37:BH37"/>
+    <mergeCell ref="BF39:BH39"/>
+    <mergeCell ref="BC40:BH40"/>
+    <mergeCell ref="BC24:BH24"/>
+    <mergeCell ref="BC28:BH28"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BC31:BH33"/>
+    <mergeCell ref="BC34:BH36"/>
+    <mergeCell ref="BL60:BQ62"/>
+    <mergeCell ref="BU2:BZ3"/>
+    <mergeCell ref="BU16:BZ16"/>
+    <mergeCell ref="BU17:BZ19"/>
+    <mergeCell ref="BU11:BZ12"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BU4:BZ4"/>
+    <mergeCell ref="BU5:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BU8:BZ9"/>
+    <mergeCell ref="BU10:BZ10"/>
+    <mergeCell ref="BV14:BZ14"/>
+    <mergeCell ref="BV15:BZ15"/>
+    <mergeCell ref="BM42:BQ42"/>
+    <mergeCell ref="BM43:BQ43"/>
+    <mergeCell ref="BL45:BQ45"/>
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BL7:BQ7"/>
+    <mergeCell ref="BL8:BQ9"/>
+    <mergeCell ref="BL10:BQ12"/>
+    <mergeCell ref="BL13:BQ13"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BM16:BQ16"/>
+    <mergeCell ref="BM17:BQ17"/>
+    <mergeCell ref="BC56:BH57"/>
+    <mergeCell ref="BL48:BQ48"/>
+    <mergeCell ref="BO50:BQ50"/>
+    <mergeCell ref="BL51:BQ52"/>
+    <mergeCell ref="BL53:BQ53"/>
+    <mergeCell ref="BO55:BQ55"/>
+    <mergeCell ref="BL56:BQ56"/>
+    <mergeCell ref="BL57:BQ57"/>
+    <mergeCell ref="BO59:BQ59"/>
+    <mergeCell ref="BC58:BH58"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9745,54 +9780,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="J1" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="S1" s="62" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="S1" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="AB1" s="65" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="AB1" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67" t="s">
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AK1" s="70" t="s">
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AK1" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -9863,40 +9898,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="64"/>
+      <c r="O3" s="68"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="64"/>
+      <c r="X3" s="68"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="64" t="s">
+      <c r="AF3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="64"/>
+      <c r="AG3" s="68"/>
       <c r="AK3" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="64" t="s">
+      <c r="AO3" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="AP3" s="64"/>
+      <c r="AP3" s="68"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -9915,38 +9950,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="37"/>
+      <c r="O4" s="42"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="37"/>
+      <c r="X4" s="42"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="37" t="s">
+      <c r="AF4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="37"/>
+      <c r="AG4" s="42"/>
       <c r="AK4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -9957,90 +9992,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="S5" s="31" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="S5" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="AB5" s="31" t="s">
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="AB5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AK5" s="31" t="s">
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AK5" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="J6" s="33" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="J6" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="S6" s="33" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="S6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="AB6" s="33" t="s">
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="AB6" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AK6" s="41" t="s">
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AK6" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -10065,14 +10100,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="45" t="s">
+      <c r="AK7" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="45"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -10088,37 +10123,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="53" t="s">
+      <c r="V8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="53" t="s">
+      <c r="AE8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -10126,169 +10161,169 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="44" t="s">
+      <c r="T9" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="AB9" s="35" t="s">
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="AB9" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="44" t="s">
+      <c r="T10" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="45"/>
-      <c r="AP10" s="45"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="52"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="44" t="s">
+      <c r="T11" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="44" t="s">
+      <c r="AC11" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="J12" s="54" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="J12" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="S12" s="41" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="S12" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="44" t="s">
+      <c r="AC12" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -10297,62 +10332,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="S13" s="46" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="S13" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="44" t="s">
+      <c r="AC13" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="J14" s="41" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="J14" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="AB14" s="41" t="s">
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="AB14" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
@@ -10363,30 +10398,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="S15" s="41" t="s">
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="S15" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="AB15" s="46" t="s">
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="AB15" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -10394,190 +10429,161 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="S16" s="46" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="S16" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="AB17" s="41" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="AB17" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="AB18" s="45" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="AB18" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP10"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK5:AP5"/>
-    <mergeCell ref="AB15:AG16"/>
-    <mergeCell ref="AB9:AG10"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG20"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="S13:X14"/>
-    <mergeCell ref="S16:X18"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="A22:F23"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A20:F20"/>
@@ -10588,19 +10594,48 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S13:X14"/>
+    <mergeCell ref="S16:X18"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A81FB7-1E48-48C3-AFE2-D1B5F49E910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEFAF35-B114-4650-AEC6-421A0560BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="450" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="306">
   <si>
     <t>[Name]</t>
   </si>
@@ -5052,6 +5052,278 @@
         <scheme val="minor"/>
       </rPr>
       <t>This ability counts as a petrifying eye beam ability for use with basilisk malice features.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lizardfolk Deathshedder</t>
+  </si>
+  <si>
+    <t>Level 1 Horde Support</t>
+  </si>
+  <si>
+    <t>Humanoid, Lizardfolk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 (swim)</t>
+    </r>
+  </si>
+  <si>
+    <t>Reptilian Escape</t>
+  </si>
+  <si>
+    <t>While the deathshedder still has a tail, whenever the deathshedder is grabbed, slowed, weakened, or knocked prone, the deathshedder can lose their tail to immediately end the effect and shift 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might -1   Agility 0   Reason 0   Intuition 0   Presence +2 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 Burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All enemies in burst</t>
+    </r>
+  </si>
+  <si>
+    <t>Slough Off the Mortal Coil</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stamina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+  </si>
+  <si>
+    <t>3 psychic damage</t>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gain temporary Stamina equal to 4 times the number of targets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 psychic damage;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frightened (EoT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 psychic damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frightened (EoT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Death is All Around Us </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Action) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10 + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <t>The deathshedder cannot gain temporary Stamina in any way except by using Death is All Around Us. When the deathshedder's Stamina drops to 0, they do not die, they lose any conditions affecting them, shift 2, and use Death is All Around Us before dying. If the any target is killed or frightened by the ability, the deathshedder lives and their Stamina is reduced to 1 instead.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 (climb)</t>
     </r>
   </si>
 </sst>
@@ -5249,7 +5521,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -5299,6 +5571,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5308,14 +5586,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -5327,68 +5609,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5402,9 +5640,39 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5420,8 +5688,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5771,16 +6046,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -5792,10 +6067,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="32"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -5921,50 +6196,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -6020,11 +6295,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -6033,125 +6308,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="L14" s="39" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="L14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="L18" s="31" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="L18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -6177,102 +6452,115 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="L21" s="34" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="L21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="L23" s="37" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="L23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -6285,19 +6573,6 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6318,10 +6593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
-  <dimension ref="A1:CI63"/>
+  <dimension ref="A1:CR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6339,49 +6614,50 @@
     <col min="31" max="31" width="10.5703125" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
     <col min="51" max="51" width="11.7109375" customWidth="1"/>
+    <col min="87" max="87" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:96">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="J1" s="33" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="32" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="S1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="32" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="AB1" s="62" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="AB1" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
       <c r="AK1" s="25" t="s">
         <v>198</v>
       </c>
@@ -6442,8 +6718,18 @@
       <c r="CI1" s="22" t="s">
         <v>223</v>
       </c>
+      <c r="CM1" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="27" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:96">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -6524,14 +6810,14 @@
       <c r="BQ2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BU2" s="46" t="s">
+      <c r="BU2" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
+      <c r="BV2" s="48"/>
+      <c r="BW2" s="48"/>
+      <c r="BX2" s="48"/>
+      <c r="BY2" s="48"/>
+      <c r="BZ2" s="48"/>
       <c r="CD2" s="21" t="s">
         <v>199</v>
       </c>
@@ -6542,8 +6828,18 @@
       <c r="CI2" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="CM2" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="24" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:96">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -6618,12 +6914,12 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="5"/>
       <c r="BQ3" s="18"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49"/>
       <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
@@ -6632,8 +6928,18 @@
       <c r="CG3" s="1"/>
       <c r="CH3" s="5"/>
       <c r="CI3" s="18"/>
+      <c r="CM3" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:96">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -6675,7 +6981,7 @@
         <v>176</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -6685,7 +6991,7 @@
         <v>40</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -6714,14 +7020,14 @@
       <c r="BQ4" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="BU4" s="31" t="s">
+      <c r="BU4" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
       <c r="CD4" s="5" t="s">
         <v>73</v>
       </c>
@@ -6732,8 +7038,18 @@
       <c r="CI4" s="18" t="s">
         <v>149</v>
       </c>
+      <c r="CM4" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="18" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" ht="15" customHeight="1">
+    <row r="5" spans="1:96" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6758,42 +7074,42 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="42" t="s">
+      <c r="AK5" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="BC5" s="29" t="s">
+      <c r="BC5" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
@@ -6802,14 +7118,14 @@
       <c r="BQ5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU5" s="46" t="s">
+      <c r="BU5" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="46"/>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
       <c r="CD5" s="1"/>
       <c r="CE5" s="1"/>
       <c r="CF5" s="1"/>
@@ -6818,136 +7134,152 @@
       <c r="CI5" s="18" t="s">
         <v>81</v>
       </c>
+      <c r="CM5" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
     </row>
-    <row r="6" spans="1:87">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:96">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="J6" s="29" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="S6" s="29" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="S6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="AB6" s="29" t="s">
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="AB6" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AK6" s="29" t="s">
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AK6" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AT6" s="29" t="s">
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AT6" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
-      <c r="BC6" s="31" t="s">
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="BC6" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="BD6" s="31"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BL6" s="29" t="s">
+      <c r="BD6" s="33"/>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="33"/>
+      <c r="BH6" s="33"/>
+      <c r="BL6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="30"/>
-      <c r="BQ6" s="30"/>
-      <c r="BU6" s="47"/>
-      <c r="BV6" s="47"/>
-      <c r="BW6" s="47"/>
-      <c r="BX6" s="47"/>
-      <c r="BY6" s="47"/>
-      <c r="BZ6" s="47"/>
-      <c r="CD6" s="29" t="s">
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="49"/>
+      <c r="CD6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="CE6" s="30"/>
-      <c r="CF6" s="30"/>
-      <c r="CG6" s="30"/>
-      <c r="CH6" s="30"/>
-      <c r="CI6" s="30"/>
+      <c r="CE6" s="32"/>
+      <c r="CF6" s="32"/>
+      <c r="CG6" s="32"/>
+      <c r="CH6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CM6" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="33"/>
+      <c r="CP6" s="33"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="33"/>
     </row>
-    <row r="7" spans="1:87">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:96">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="S7" s="37" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="S7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="AB7" s="31" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="AB7" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AK7" s="31" t="s">
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AK7" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AT7" s="31" t="s">
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AT7" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
       <c r="BC7" s="5" t="s">
         <v>193</v>
       </c>
@@ -6956,32 +7288,40 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BL7" s="37" t="s">
+      <c r="BL7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="BM7" s="37"/>
-      <c r="BN7" s="37"/>
-      <c r="BO7" s="37"/>
-      <c r="BP7" s="37"/>
-      <c r="BQ7" s="37"/>
-      <c r="BU7" s="31" t="s">
+      <c r="BM7" s="41"/>
+      <c r="BN7" s="41"/>
+      <c r="BO7" s="41"/>
+      <c r="BP7" s="41"/>
+      <c r="BQ7" s="41"/>
+      <c r="BU7" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="BV7" s="31"/>
-      <c r="BW7" s="31"/>
-      <c r="BX7" s="31"/>
-      <c r="BY7" s="31"/>
-      <c r="BZ7" s="31"/>
-      <c r="CD7" s="31" t="s">
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CD7" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="CE7" s="31"/>
-      <c r="CF7" s="31"/>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="31"/>
-      <c r="CI7" s="31"/>
+      <c r="CE7" s="33"/>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="33"/>
+      <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
+      <c r="CM7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:96">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -6998,14 +7338,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="48" t="s">
+      <c r="S8" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
       <c r="AB8" s="5" t="s">
         <v>193</v>
       </c>
@@ -7040,22 +7380,22 @@
       <c r="BH8" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="BL8" s="48" t="s">
+      <c r="BL8" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="BM8" s="48"/>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="48"/>
-      <c r="BP8" s="48"/>
-      <c r="BQ8" s="48"/>
-      <c r="BU8" s="46" t="s">
+      <c r="BM8" s="54"/>
+      <c r="BN8" s="54"/>
+      <c r="BO8" s="54"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="54"/>
+      <c r="BU8" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="BV8" s="46"/>
-      <c r="BW8" s="46"/>
-      <c r="BX8" s="46"/>
-      <c r="BY8" s="46"/>
-      <c r="BZ8" s="46"/>
+      <c r="BV8" s="48"/>
+      <c r="BW8" s="48"/>
+      <c r="BX8" s="48"/>
+      <c r="BY8" s="48"/>
+      <c r="BZ8" s="48"/>
       <c r="CD8" s="5" t="s">
         <v>43</v>
       </c>
@@ -7064,34 +7404,44 @@
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
+      <c r="CM8" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="18"/>
+      <c r="CQ8" s="18"/>
+      <c r="CR8" s="18" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:96">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
       <c r="AB9" s="5" t="s">
         <v>194</v>
       </c>
@@ -7125,407 +7475,451 @@
       <c r="BC9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD9" s="50" t="s">
+      <c r="BD9" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BL9" s="48"/>
-      <c r="BM9" s="48"/>
-      <c r="BN9" s="48"/>
-      <c r="BO9" s="48"/>
-      <c r="BP9" s="48"/>
-      <c r="BQ9" s="48"/>
-      <c r="BU9" s="47"/>
-      <c r="BV9" s="47"/>
-      <c r="BW9" s="47"/>
-      <c r="BX9" s="47"/>
-      <c r="BY9" s="47"/>
-      <c r="BZ9" s="47"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BL9" s="54"/>
+      <c r="BM9" s="54"/>
+      <c r="BN9" s="54"/>
+      <c r="BO9" s="54"/>
+      <c r="BP9" s="54"/>
+      <c r="BQ9" s="54"/>
+      <c r="BU9" s="49"/>
+      <c r="BV9" s="49"/>
+      <c r="BW9" s="49"/>
+      <c r="BX9" s="49"/>
+      <c r="BY9" s="49"/>
+      <c r="BZ9" s="49"/>
       <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="44" t="s">
+      <c r="CG9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="CH9" s="44"/>
-      <c r="CI9" s="44"/>
+      <c r="CH9" s="55"/>
+      <c r="CI9" s="55"/>
+      <c r="CM9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN9" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:96">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="S10" s="48" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="S10" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="50" t="s">
+      <c r="AC10" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="50" t="s">
+      <c r="AL10" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="50" t="s">
+      <c r="AU10" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
       <c r="BC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD10" s="50" t="s">
+      <c r="BD10" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BL10" s="48" t="s">
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BL10" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="BM10" s="48"/>
-      <c r="BN10" s="48"/>
-      <c r="BO10" s="48"/>
-      <c r="BP10" s="48"/>
-      <c r="BQ10" s="48"/>
-      <c r="BU10" s="31" t="s">
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
+      <c r="BQ10" s="54"/>
+      <c r="BU10" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="BV10" s="31"/>
-      <c r="BW10" s="31"/>
-      <c r="BX10" s="31"/>
-      <c r="BY10" s="31"/>
-      <c r="BZ10" s="31"/>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="33"/>
       <c r="CD10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE10" s="50" t="s">
+      <c r="CE10" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="41"/>
+      <c r="CF10" s="34"/>
+      <c r="CG10" s="34"/>
+      <c r="CH10" s="34"/>
+      <c r="CI10" s="34"/>
+      <c r="CM10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN10" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO10" s="34"/>
+      <c r="CP10" s="34"/>
+      <c r="CQ10" s="34"/>
+      <c r="CR10" s="34"/>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:96">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="50" t="s">
+      <c r="AC11" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="50" t="s">
+      <c r="AL11" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="50" t="s">
+      <c r="AU11" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
       <c r="BC11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD11" s="56" t="s">
+      <c r="BD11" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="48"/>
-      <c r="BN11" s="48"/>
-      <c r="BO11" s="48"/>
-      <c r="BP11" s="48"/>
-      <c r="BQ11" s="48"/>
-      <c r="BU11" s="46" t="s">
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BL11" s="54"/>
+      <c r="BM11" s="54"/>
+      <c r="BN11" s="54"/>
+      <c r="BO11" s="54"/>
+      <c r="BP11" s="54"/>
+      <c r="BQ11" s="54"/>
+      <c r="BU11" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="BV11" s="49"/>
-      <c r="BW11" s="49"/>
-      <c r="BX11" s="49"/>
-      <c r="BY11" s="49"/>
-      <c r="BZ11" s="49"/>
+      <c r="BV11" s="65"/>
+      <c r="BW11" s="65"/>
+      <c r="BX11" s="65"/>
+      <c r="BY11" s="65"/>
+      <c r="BZ11" s="65"/>
       <c r="CD11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE11" s="50" t="s">
+      <c r="CE11" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="CF11" s="41"/>
-      <c r="CG11" s="41"/>
-      <c r="CH11" s="41"/>
-      <c r="CI11" s="41"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="34"/>
+      <c r="CI11" s="34"/>
+      <c r="CM11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN11" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO11" s="75"/>
+      <c r="CP11" s="75"/>
+      <c r="CQ11" s="75"/>
+      <c r="CR11" s="75"/>
     </row>
-    <row r="12" spans="1:87">
+    <row r="12" spans="1:96" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="56" t="s">
+      <c r="AC12" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="50" t="s">
+      <c r="AL12" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="BC12" s="39" t="s">
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="BC12" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BL12" s="48"/>
-      <c r="BM12" s="48"/>
-      <c r="BN12" s="48"/>
-      <c r="BO12" s="48"/>
-      <c r="BP12" s="48"/>
-      <c r="BQ12" s="48"/>
-      <c r="BU12" s="49"/>
-      <c r="BV12" s="49"/>
-      <c r="BW12" s="49"/>
-      <c r="BX12" s="49"/>
-      <c r="BY12" s="49"/>
-      <c r="BZ12" s="49"/>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="35"/>
+      <c r="BL12" s="54"/>
+      <c r="BM12" s="54"/>
+      <c r="BN12" s="54"/>
+      <c r="BO12" s="54"/>
+      <c r="BP12" s="54"/>
+      <c r="BQ12" s="54"/>
+      <c r="BU12" s="65"/>
+      <c r="BV12" s="65"/>
+      <c r="BW12" s="65"/>
+      <c r="BX12" s="65"/>
+      <c r="BY12" s="65"/>
+      <c r="BZ12" s="65"/>
       <c r="CD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE12" s="50" t="s">
+      <c r="CE12" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="CF12" s="41"/>
-      <c r="CG12" s="41"/>
-      <c r="CH12" s="41"/>
-      <c r="CI12" s="41"/>
+      <c r="CF12" s="34"/>
+      <c r="CG12" s="34"/>
+      <c r="CH12" s="34"/>
+      <c r="CI12" s="34"/>
+      <c r="CM12" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="CN12" s="74"/>
+      <c r="CO12" s="74"/>
+      <c r="CP12" s="74"/>
+      <c r="CQ12" s="74"/>
+      <c r="CR12" s="74"/>
     </row>
-    <row r="13" spans="1:87">
+    <row r="13" spans="1:96">
       <c r="A13" s="1"/>
       <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="S13" s="31" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="S13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="AB13" s="74" t="s">
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="AB13" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AK13" s="37" t="s">
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AK13" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AT13" s="31" t="s">
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AT13" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="40"/>
-      <c r="BF13" s="40"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="40"/>
-      <c r="BL13" s="31" t="s">
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BL13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="BM13" s="31"/>
-      <c r="BN13" s="31"/>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="31"/>
-      <c r="BQ13" s="31"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
       <c r="BU13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV13" s="50" t="s">
+      <c r="BV13" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="BW13" s="41"/>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="41"/>
-      <c r="CD13" s="39" t="s">
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="34"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CD13" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="CE13" s="39"/>
-      <c r="CF13" s="39"/>
-      <c r="CG13" s="39"/>
-      <c r="CH13" s="39"/>
-      <c r="CI13" s="39"/>
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="35"/>
+      <c r="CG13" s="35"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="35"/>
+      <c r="CM13" s="74"/>
+      <c r="CN13" s="74"/>
+      <c r="CO13" s="74"/>
+      <c r="CP13" s="74"/>
+      <c r="CQ13" s="74"/>
+      <c r="CR13" s="74"/>
     </row>
-    <row r="14" spans="1:87" ht="15" customHeight="1">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:96">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -7534,12 +7928,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -7556,14 +7950,14 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="31" t="s">
+      <c r="BC14" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
       <c r="BL14" s="5" t="s">
         <v>43</v>
       </c>
@@ -7575,21 +7969,29 @@
       <c r="BU14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV14" s="50" t="s">
+      <c r="BV14" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="BW14" s="41"/>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="41"/>
-      <c r="BZ14" s="41"/>
-      <c r="CD14" s="40"/>
-      <c r="CE14" s="40"/>
-      <c r="CF14" s="40"/>
-      <c r="CG14" s="40"/>
-      <c r="CH14" s="40"/>
-      <c r="CI14" s="40"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="36"/>
+      <c r="CF14" s="36"/>
+      <c r="CG14" s="36"/>
+      <c r="CH14" s="36"/>
+      <c r="CI14" s="36"/>
+      <c r="CM14" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="CN14" s="33"/>
+      <c r="CO14" s="33"/>
+      <c r="CP14" s="33"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="33"/>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:96">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7598,32 +8000,32 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="44" t="s">
+      <c r="V15" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="AB15" s="37" t="s">
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="AB15" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -7639,11 +8041,11 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="44" t="s">
+      <c r="AW15" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
       <c r="BC15" s="5" t="s">
         <v>98</v>
       </c>
@@ -7657,41 +8059,49 @@
       </c>
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
-      <c r="BO15" s="44" t="s">
+      <c r="BO15" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44"/>
+      <c r="BP15" s="55"/>
+      <c r="BQ15" s="55"/>
       <c r="BU15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BV15" s="50" t="s">
+      <c r="BV15" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="BW15" s="41"/>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="41"/>
-      <c r="BZ15" s="41"/>
-      <c r="CD15" s="31" t="s">
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="34"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CD15" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="CE15" s="31"/>
-      <c r="CF15" s="31"/>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="31"/>
-      <c r="CI15" s="31"/>
+      <c r="CE15" s="33"/>
+      <c r="CF15" s="33"/>
+      <c r="CG15" s="33"/>
+      <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
+      <c r="CM15" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="CN15" s="48"/>
+      <c r="CO15" s="48"/>
+      <c r="CP15" s="48"/>
+      <c r="CQ15" s="48"/>
+      <c r="CR15" s="48"/>
     </row>
-    <row r="16" spans="1:87" ht="15" customHeight="1">
+    <row r="16" spans="1:96" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -7703,37 +8113,37 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="50" t="s">
+      <c r="T16" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="AB16" s="52" t="s">
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="AB16" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AK16" s="46" t="s">
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AK16" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AT16" s="48" t="s">
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AT16" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
       <c r="BC16" s="5" t="s">
         <v>245</v>
       </c>
@@ -7747,21 +8157,21 @@
       <c r="BL16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM16" s="50" t="s">
+      <c r="BM16" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="BN16" s="41"/>
-      <c r="BO16" s="41"/>
-      <c r="BP16" s="41"/>
-      <c r="BQ16" s="41"/>
-      <c r="BU16" s="31" t="s">
+      <c r="BN16" s="34"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="34"/>
+      <c r="BU16" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="31"/>
-      <c r="BZ16" s="31"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
       <c r="CD16" s="5" t="s">
         <v>62</v>
       </c>
@@ -7770,246 +8180,272 @@
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
       <c r="CI16" s="1"/>
+      <c r="CM16" s="48"/>
+      <c r="CN16" s="48"/>
+      <c r="CO16" s="48"/>
+      <c r="CP16" s="48"/>
+      <c r="CQ16" s="48"/>
+      <c r="CR16" s="48"/>
     </row>
-    <row r="17" spans="1:87">
+    <row r="17" spans="1:96">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="BC17" s="48" t="s">
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="54"/>
+      <c r="BC17" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="48"/>
-      <c r="BG17" s="48"/>
-      <c r="BH17" s="48"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
       <c r="BL17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM17" s="50" t="s">
+      <c r="BM17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="BN17" s="41"/>
-      <c r="BO17" s="41"/>
-      <c r="BP17" s="41"/>
-      <c r="BQ17" s="41"/>
-      <c r="BU17" s="46"/>
-      <c r="BV17" s="48"/>
-      <c r="BW17" s="48"/>
-      <c r="BX17" s="48"/>
-      <c r="BY17" s="48"/>
-      <c r="BZ17" s="48"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="34"/>
+      <c r="BP17" s="34"/>
+      <c r="BQ17" s="34"/>
+      <c r="BU17" s="48"/>
+      <c r="BV17" s="54"/>
+      <c r="BW17" s="54"/>
+      <c r="BX17" s="54"/>
+      <c r="BY17" s="54"/>
+      <c r="BZ17" s="54"/>
       <c r="CD17" s="5" t="s">
         <v>131</v>
       </c>
       <c r="CE17" s="1"/>
       <c r="CF17" s="1"/>
-      <c r="CG17" s="44" t="s">
+      <c r="CG17" s="18"/>
+      <c r="CH17" s="18"/>
+      <c r="CI17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="CH17" s="44"/>
-      <c r="CI17" s="44"/>
+      <c r="CM17" s="48"/>
+      <c r="CN17" s="48"/>
+      <c r="CO17" s="48"/>
+      <c r="CP17" s="48"/>
+      <c r="CQ17" s="48"/>
+      <c r="CR17" s="48"/>
     </row>
-    <row r="18" spans="1:87" ht="15" customHeight="1">
+    <row r="18" spans="1:96" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="J18" s="34" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="J18" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="50" t="s">
+      <c r="T18" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="AK18" s="46" t="s">
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="AK18" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="48"/>
-      <c r="BE18" s="48"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
       <c r="BL18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM18" s="50" t="s">
+      <c r="BM18" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BN18" s="41"/>
-      <c r="BO18" s="41"/>
-      <c r="BP18" s="41"/>
-      <c r="BQ18" s="41"/>
-      <c r="BU18" s="48"/>
-      <c r="BV18" s="48"/>
-      <c r="BW18" s="48"/>
-      <c r="BX18" s="48"/>
-      <c r="BY18" s="48"/>
-      <c r="BZ18" s="48"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
+      <c r="BU18" s="54"/>
+      <c r="BV18" s="54"/>
+      <c r="BW18" s="54"/>
+      <c r="BX18" s="54"/>
+      <c r="BY18" s="54"/>
+      <c r="BZ18" s="54"/>
       <c r="CD18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE18" s="50" t="s">
+      <c r="CE18" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="CF18" s="41"/>
-      <c r="CG18" s="41"/>
-      <c r="CH18" s="41"/>
-      <c r="CI18" s="41"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
+      <c r="CM18" s="48"/>
+      <c r="CN18" s="48"/>
+      <c r="CO18" s="48"/>
+      <c r="CP18" s="48"/>
+      <c r="CQ18" s="48"/>
+      <c r="CR18" s="48"/>
     </row>
-    <row r="19" spans="1:87">
+    <row r="19" spans="1:96">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="J19" s="31" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="J19" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="S19" s="39" t="s">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="S19" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-      <c r="BL19" s="39" t="s">
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BL19" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BM19" s="39"/>
-      <c r="BN19" s="39"/>
-      <c r="BO19" s="39"/>
-      <c r="BP19" s="39"/>
-      <c r="BQ19" s="39"/>
-      <c r="BU19" s="48"/>
-      <c r="BV19" s="48"/>
-      <c r="BW19" s="48"/>
-      <c r="BX19" s="48"/>
-      <c r="BY19" s="48"/>
-      <c r="BZ19" s="48"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="35"/>
+      <c r="BQ19" s="35"/>
+      <c r="BU19" s="54"/>
+      <c r="BV19" s="54"/>
+      <c r="BW19" s="54"/>
+      <c r="BX19" s="54"/>
+      <c r="BY19" s="54"/>
+      <c r="BZ19" s="54"/>
       <c r="CD19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE19" s="50" t="s">
+      <c r="CE19" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="CF19" s="41"/>
-      <c r="CG19" s="41"/>
-      <c r="CH19" s="41"/>
-      <c r="CI19" s="41"/>
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="34"/>
+      <c r="CH19" s="34"/>
+      <c r="CI19" s="34"/>
+      <c r="CM19" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="33"/>
     </row>
-    <row r="20" spans="1:87">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:96" ht="15" customHeight="1">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -8018,120 +8454,134 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="AK20" s="37" t="s">
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="AK20" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="BC20" s="37" t="s">
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="BC20" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
-      <c r="BL20" s="40"/>
-      <c r="BM20" s="40"/>
-      <c r="BN20" s="40"/>
-      <c r="BO20" s="40"/>
-      <c r="BP20" s="40"/>
-      <c r="BQ20" s="40"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
       <c r="CD20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE20" s="50" t="s">
+      <c r="CE20" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="CF20" s="41"/>
-      <c r="CG20" s="41"/>
-      <c r="CH20" s="41"/>
-      <c r="CI20" s="41"/>
+      <c r="CF20" s="34"/>
+      <c r="CG20" s="34"/>
+      <c r="CH20" s="34"/>
+      <c r="CI20" s="34"/>
+      <c r="CM20" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="CN20" s="48"/>
+      <c r="CO20" s="48"/>
+      <c r="CP20" s="48"/>
+      <c r="CQ20" s="48"/>
+      <c r="CR20" s="48"/>
     </row>
-    <row r="21" spans="1:87" ht="15" customHeight="1">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:96" ht="15" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="S21" s="31" t="s">
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="S21" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="AK21" s="52" t="s">
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="AK21" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AT21" s="37" t="s">
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AT21" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="BC21" s="52" t="s">
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="BC21" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="52"/>
-      <c r="BH21" s="52"/>
-      <c r="BL21" s="31" t="s">
+      <c r="BD21" s="45"/>
+      <c r="BE21" s="45"/>
+      <c r="BF21" s="45"/>
+      <c r="BG21" s="45"/>
+      <c r="BH21" s="45"/>
+      <c r="BL21" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="31"/>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="31"/>
-      <c r="BQ21" s="31"/>
-      <c r="CD21" s="37" t="s">
+      <c r="BM21" s="33"/>
+      <c r="BN21" s="33"/>
+      <c r="BO21" s="33"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="33"/>
+      <c r="CD21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
+      <c r="CI21" s="42"/>
+      <c r="CM21" s="48"/>
+      <c r="CN21" s="48"/>
+      <c r="CO21" s="48"/>
+      <c r="CP21" s="48"/>
+      <c r="CQ21" s="48"/>
+      <c r="CR21" s="48"/>
     </row>
-    <row r="22" spans="1:87">
+    <row r="22" spans="1:96" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -8140,14 +8590,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
       <c r="S22" s="5" t="s">
         <v>62</v>
       </c>
@@ -8156,26 +8606,26 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="52"/>
-      <c r="AT22" s="52" t="s">
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AT22" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="52"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="52"/>
-      <c r="BG22" s="52"/>
-      <c r="BH22" s="52"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="BC22" s="45"/>
+      <c r="BD22" s="45"/>
+      <c r="BE22" s="45"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="45"/>
       <c r="BL22" s="5" t="s">
         <v>62</v>
       </c>
@@ -8184,34 +8634,40 @@
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
-      <c r="CD22" s="53" t="s">
+      <c r="CD22" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="CE22" s="53"/>
-      <c r="CF22" s="53"/>
-      <c r="CG22" s="53"/>
-      <c r="CH22" s="53"/>
-      <c r="CI22" s="53"/>
+      <c r="CE22" s="57"/>
+      <c r="CF22" s="57"/>
+      <c r="CG22" s="57"/>
+      <c r="CH22" s="57"/>
+      <c r="CI22" s="57"/>
+      <c r="CM22" s="48"/>
+      <c r="CN22" s="48"/>
+      <c r="CO22" s="48"/>
+      <c r="CP22" s="48"/>
+      <c r="CQ22" s="48"/>
+      <c r="CR22" s="48"/>
     </row>
-    <row r="23" spans="1:87">
+    <row r="23" spans="1:96">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="J23" s="34" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="J23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="S23" s="5" t="s">
         <v>131</v>
       </c>
@@ -8222,24 +8678,24 @@
       <c r="X23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AT23" s="52"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="52"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="BC23" s="52"/>
-      <c r="BD23" s="52"/>
-      <c r="BE23" s="52"/>
-      <c r="BF23" s="52"/>
-      <c r="BG23" s="52"/>
-      <c r="BH23" s="52"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
       <c r="BL23" s="5" t="s">
         <v>131</v>
       </c>
@@ -8250,288 +8706,312 @@
       <c r="BQ23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="CD23" s="54"/>
-      <c r="CE23" s="54"/>
-      <c r="CF23" s="54"/>
-      <c r="CG23" s="54"/>
-      <c r="CH23" s="54"/>
-      <c r="CI23" s="54"/>
+      <c r="CD23" s="58"/>
+      <c r="CE23" s="58"/>
+      <c r="CF23" s="58"/>
+      <c r="CG23" s="58"/>
+      <c r="CH23" s="58"/>
+      <c r="CI23" s="58"/>
+      <c r="CM23" s="48"/>
+      <c r="CN23" s="48"/>
+      <c r="CO23" s="48"/>
+      <c r="CP23" s="48"/>
+      <c r="CQ23" s="48"/>
+      <c r="CR23" s="48"/>
     </row>
-    <row r="24" spans="1:87">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:96" ht="15" customHeight="1">
+      <c r="A24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="J24" s="37" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="J24" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
       <c r="S24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="50" t="s">
+      <c r="T24" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="BC24" s="37" t="s">
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="BC24" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="33"/>
       <c r="BL24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM24" s="50" t="s">
+      <c r="BM24" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="BN24" s="41"/>
-      <c r="BO24" s="41"/>
-      <c r="BP24" s="41"/>
-      <c r="BQ24" s="41"/>
-      <c r="CD24" s="37" t="s">
+      <c r="BN24" s="34"/>
+      <c r="BO24" s="34"/>
+      <c r="BP24" s="34"/>
+      <c r="BQ24" s="34"/>
+      <c r="CD24" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="CE24" s="31"/>
-      <c r="CF24" s="31"/>
-      <c r="CG24" s="31"/>
-      <c r="CH24" s="31"/>
-      <c r="CI24" s="31"/>
+      <c r="CE24" s="33"/>
+      <c r="CF24" s="33"/>
+      <c r="CG24" s="33"/>
+      <c r="CH24" s="33"/>
+      <c r="CI24" s="33"/>
+      <c r="CM24" s="48"/>
+      <c r="CN24" s="48"/>
+      <c r="CO24" s="48"/>
+      <c r="CP24" s="48"/>
+      <c r="CQ24" s="48"/>
+      <c r="CR24" s="48"/>
     </row>
-    <row r="25" spans="1:87">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:96">
+      <c r="A25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="J25" s="57" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="J25" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
       <c r="S25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T25" s="50" t="s">
+      <c r="T25" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="AT25" s="37" t="s">
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="AT25" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="AU25" s="38"/>
-      <c r="AV25" s="38"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="38"/>
-      <c r="AY25" s="38"/>
-      <c r="BC25" s="46" t="s">
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
+      <c r="BC25" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="BD25" s="46"/>
-      <c r="BE25" s="46"/>
-      <c r="BF25" s="46"/>
-      <c r="BG25" s="46"/>
-      <c r="BH25" s="46"/>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="48"/>
+      <c r="BG25" s="48"/>
+      <c r="BH25" s="48"/>
       <c r="BL25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM25" s="50" t="s">
+      <c r="BM25" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="BN25" s="41"/>
-      <c r="BO25" s="41"/>
-      <c r="BP25" s="41"/>
-      <c r="BQ25" s="41"/>
-      <c r="CD25" s="46" t="s">
+      <c r="BN25" s="34"/>
+      <c r="BO25" s="34"/>
+      <c r="BP25" s="34"/>
+      <c r="BQ25" s="34"/>
+      <c r="CD25" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="CE25" s="46"/>
-      <c r="CF25" s="46"/>
-      <c r="CG25" s="46"/>
-      <c r="CH25" s="46"/>
-      <c r="CI25" s="46"/>
+      <c r="CE25" s="48"/>
+      <c r="CF25" s="48"/>
+      <c r="CG25" s="48"/>
+      <c r="CH25" s="48"/>
+      <c r="CI25" s="48"/>
+      <c r="CM25" s="48"/>
+      <c r="CN25" s="48"/>
+      <c r="CO25" s="48"/>
+      <c r="CP25" s="48"/>
+      <c r="CQ25" s="48"/>
+      <c r="CR25" s="48"/>
     </row>
-    <row r="26" spans="1:87" ht="15" customHeight="1">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:96" ht="15" customHeight="1">
+      <c r="A26" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
       <c r="S26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="50" t="s">
+      <c r="T26" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="AT26" s="52" t="s">
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="AT26" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="52"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="BC26" s="46"/>
-      <c r="BD26" s="46"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="46"/>
-      <c r="BG26" s="46"/>
-      <c r="BH26" s="46"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="BC26" s="48"/>
+      <c r="BD26" s="48"/>
+      <c r="BE26" s="48"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="48"/>
       <c r="BL26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM26" s="50" t="s">
+      <c r="BM26" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="BN26" s="41"/>
-      <c r="BO26" s="41"/>
-      <c r="BP26" s="41"/>
-      <c r="BQ26" s="41"/>
-      <c r="CD26" s="46"/>
-      <c r="CE26" s="46"/>
-      <c r="CF26" s="46"/>
-      <c r="CG26" s="46"/>
-      <c r="CH26" s="46"/>
-      <c r="CI26" s="46"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="CD26" s="48"/>
+      <c r="CE26" s="48"/>
+      <c r="CF26" s="48"/>
+      <c r="CG26" s="48"/>
+      <c r="CH26" s="48"/>
+      <c r="CI26" s="48"/>
+      <c r="CM26" s="48"/>
+      <c r="CN26" s="48"/>
+      <c r="CO26" s="48"/>
+      <c r="CP26" s="48"/>
+      <c r="CQ26" s="48"/>
+      <c r="CR26" s="48"/>
     </row>
-    <row r="27" spans="1:87">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="S27" s="37" t="s">
+    <row r="27" spans="1:96">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="S27" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="BC27" s="47"/>
-      <c r="BD27" s="47"/>
-      <c r="BE27" s="47"/>
-      <c r="BF27" s="47"/>
-      <c r="BG27" s="47"/>
-      <c r="BH27" s="47"/>
-      <c r="BL27" s="37" t="s">
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BL27" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="BM27" s="38"/>
-      <c r="BN27" s="38"/>
-      <c r="BO27" s="38"/>
-      <c r="BP27" s="38"/>
-      <c r="BQ27" s="38"/>
-      <c r="CD27" s="47"/>
-      <c r="CE27" s="47"/>
-      <c r="CF27" s="47"/>
-      <c r="CG27" s="47"/>
-      <c r="CH27" s="47"/>
-      <c r="CI27" s="47"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
+      <c r="BP27" s="42"/>
+      <c r="BQ27" s="42"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
+      <c r="CH27" s="49"/>
+      <c r="CI27" s="49"/>
     </row>
-    <row r="28" spans="1:87" ht="15" customHeight="1">
-      <c r="J28" s="37" t="s">
+    <row r="28" spans="1:96" ht="15" customHeight="1">
+      <c r="J28" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="S28" s="53" t="s">
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="S28" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="BC28" s="31" t="s">
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="BC28" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="31"/>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
-      <c r="BL28" s="53" t="s">
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BL28" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="BM28" s="53"/>
-      <c r="BN28" s="53"/>
-      <c r="BO28" s="53"/>
-      <c r="BP28" s="53"/>
-      <c r="BQ28" s="53"/>
-      <c r="CD28" s="31" t="s">
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
+      <c r="BP28" s="57"/>
+      <c r="BQ28" s="57"/>
+      <c r="CD28" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CE28" s="31"/>
-      <c r="CF28" s="31"/>
-      <c r="CG28" s="31"/>
-      <c r="CH28" s="31"/>
-      <c r="CI28" s="31"/>
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
+      <c r="CH28" s="33"/>
+      <c r="CI28" s="33"/>
     </row>
-    <row r="29" spans="1:87" ht="15" customHeight="1">
+    <row r="29" spans="1:96" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
         <v>62</v>
       </c>
@@ -8540,12 +9020,12 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
       <c r="BC29" s="5" t="s">
         <v>104</v>
       </c>
@@ -8554,12 +9034,12 @@
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
-      <c r="BL29" s="54"/>
-      <c r="BM29" s="54"/>
-      <c r="BN29" s="54"/>
-      <c r="BO29" s="54"/>
-      <c r="BP29" s="54"/>
-      <c r="BQ29" s="54"/>
+      <c r="BL29" s="58"/>
+      <c r="BM29" s="58"/>
+      <c r="BN29" s="58"/>
+      <c r="BO29" s="58"/>
+      <c r="BP29" s="58"/>
+      <c r="BQ29" s="58"/>
       <c r="CD29" s="5" t="s">
         <v>43</v>
       </c>
@@ -8569,163 +9049,163 @@
       <c r="CH29" s="1"/>
       <c r="CI29" s="1"/>
     </row>
-    <row r="30" spans="1:87" ht="15" customHeight="1">
+    <row r="30" spans="1:96" ht="15" customHeight="1">
       <c r="J30" s="5" t="s">
         <v>94</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="44" t="s">
+      <c r="M30" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="S30" s="37" t="s">
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="S30" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
       <c r="BC30" s="5" t="s">
         <v>250</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="44" t="s">
+      <c r="BF30" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="BG30" s="45"/>
-      <c r="BH30" s="45"/>
-      <c r="BL30" s="37" t="s">
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BL30" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="31"/>
-      <c r="BO30" s="31"/>
-      <c r="BP30" s="31"/>
-      <c r="BQ30" s="31"/>
+      <c r="BM30" s="33"/>
+      <c r="BN30" s="33"/>
+      <c r="BO30" s="33"/>
+      <c r="BP30" s="33"/>
+      <c r="BQ30" s="33"/>
       <c r="CD30" s="5" t="s">
         <v>134</v>
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
-      <c r="CG30" s="44" t="s">
+      <c r="CG30" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="CH30" s="45"/>
-      <c r="CI30" s="45"/>
+      <c r="CH30" s="56"/>
+      <c r="CI30" s="56"/>
     </row>
-    <row r="31" spans="1:87">
-      <c r="J31" s="39" t="s">
+    <row r="31" spans="1:96">
+      <c r="J31" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="S31" s="46" t="s">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="S31" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="BC31" s="55" t="s">
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="BC31" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="BD31" s="55"/>
-      <c r="BE31" s="55"/>
-      <c r="BF31" s="55"/>
-      <c r="BG31" s="55"/>
-      <c r="BH31" s="55"/>
-      <c r="BL31" s="46" t="s">
+      <c r="BD31" s="64"/>
+      <c r="BE31" s="64"/>
+      <c r="BF31" s="64"/>
+      <c r="BG31" s="64"/>
+      <c r="BH31" s="64"/>
+      <c r="BL31" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="BM31" s="46"/>
-      <c r="BN31" s="46"/>
-      <c r="BO31" s="46"/>
-      <c r="BP31" s="46"/>
-      <c r="BQ31" s="46"/>
-      <c r="CD31" s="42" t="s">
+      <c r="BM31" s="48"/>
+      <c r="BN31" s="48"/>
+      <c r="BO31" s="48"/>
+      <c r="BP31" s="48"/>
+      <c r="BQ31" s="48"/>
+      <c r="CD31" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="CE31" s="42"/>
-      <c r="CF31" s="42"/>
-      <c r="CG31" s="42"/>
-      <c r="CH31" s="42"/>
-      <c r="CI31" s="42"/>
+      <c r="CE31" s="37"/>
+      <c r="CF31" s="37"/>
+      <c r="CG31" s="37"/>
+      <c r="CH31" s="37"/>
+      <c r="CI31" s="37"/>
     </row>
-    <row r="32" spans="1:87" ht="15" customHeight="1">
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="BC32" s="55"/>
-      <c r="BD32" s="55"/>
-      <c r="BE32" s="55"/>
-      <c r="BF32" s="55"/>
-      <c r="BG32" s="55"/>
-      <c r="BH32" s="55"/>
-      <c r="BL32" s="46"/>
-      <c r="BM32" s="46"/>
-      <c r="BN32" s="46"/>
-      <c r="BO32" s="46"/>
-      <c r="BP32" s="46"/>
-      <c r="BQ32" s="46"/>
-      <c r="CD32" s="46" t="s">
+    <row r="32" spans="1:96" ht="15" customHeight="1">
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BL32" s="48"/>
+      <c r="BM32" s="48"/>
+      <c r="BN32" s="48"/>
+      <c r="BO32" s="48"/>
+      <c r="BP32" s="48"/>
+      <c r="BQ32" s="48"/>
+      <c r="CD32" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="CE32" s="46"/>
-      <c r="CF32" s="46"/>
-      <c r="CG32" s="46"/>
-      <c r="CH32" s="46"/>
-      <c r="CI32" s="46"/>
+      <c r="CE32" s="48"/>
+      <c r="CF32" s="48"/>
+      <c r="CG32" s="48"/>
+      <c r="CH32" s="48"/>
+      <c r="CI32" s="48"/>
     </row>
     <row r="33" spans="10:87">
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="BC33" s="55"/>
-      <c r="BD33" s="55"/>
-      <c r="BE33" s="55"/>
-      <c r="BF33" s="55"/>
-      <c r="BG33" s="55"/>
-      <c r="BH33" s="55"/>
-      <c r="BL33" s="47"/>
-      <c r="BM33" s="47"/>
-      <c r="BN33" s="47"/>
-      <c r="BO33" s="47"/>
-      <c r="BP33" s="47"/>
-      <c r="BQ33" s="47"/>
-      <c r="CD33" s="46"/>
-      <c r="CE33" s="46"/>
-      <c r="CF33" s="46"/>
-      <c r="CG33" s="46"/>
-      <c r="CH33" s="46"/>
-      <c r="CI33" s="46"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="BC33" s="64"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="64"/>
+      <c r="BH33" s="64"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="49"/>
+      <c r="CD33" s="48"/>
+      <c r="CE33" s="48"/>
+      <c r="CF33" s="48"/>
+      <c r="CG33" s="48"/>
+      <c r="CH33" s="48"/>
+      <c r="CI33" s="48"/>
     </row>
     <row r="34" spans="10:87">
       <c r="J34" s="5" t="s">
@@ -8736,36 +9216,36 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="31" t="s">
+      <c r="S34" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="BC34" s="46" t="s">
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="BC34" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="BD34" s="46"/>
-      <c r="BE34" s="46"/>
-      <c r="BF34" s="46"/>
-      <c r="BG34" s="46"/>
-      <c r="BH34" s="46"/>
-      <c r="BL34" s="31" t="s">
+      <c r="BD34" s="48"/>
+      <c r="BE34" s="48"/>
+      <c r="BF34" s="48"/>
+      <c r="BG34" s="48"/>
+      <c r="BH34" s="48"/>
+      <c r="BL34" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="BM34" s="31"/>
-      <c r="BN34" s="31"/>
-      <c r="BO34" s="31"/>
-      <c r="BP34" s="31"/>
-      <c r="BQ34" s="31"/>
-      <c r="CD34" s="46"/>
-      <c r="CE34" s="46"/>
-      <c r="CF34" s="46"/>
-      <c r="CG34" s="46"/>
-      <c r="CH34" s="46"/>
-      <c r="CI34" s="46"/>
+      <c r="BM34" s="33"/>
+      <c r="BN34" s="33"/>
+      <c r="BO34" s="33"/>
+      <c r="BP34" s="33"/>
+      <c r="BQ34" s="33"/>
+      <c r="CD34" s="48"/>
+      <c r="CE34" s="48"/>
+      <c r="CF34" s="48"/>
+      <c r="CG34" s="48"/>
+      <c r="CH34" s="48"/>
+      <c r="CI34" s="48"/>
     </row>
     <row r="35" spans="10:87">
       <c r="J35" s="5" t="s">
@@ -8773,11 +9253,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="44" t="s">
+      <c r="M35" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
       <c r="S35" s="5" t="s">
         <v>43</v>
       </c>
@@ -8786,12 +9266,12 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="BC35" s="46"/>
-      <c r="BD35" s="46"/>
-      <c r="BE35" s="46"/>
-      <c r="BF35" s="46"/>
-      <c r="BG35" s="46"/>
-      <c r="BH35" s="46"/>
+      <c r="BC35" s="48"/>
+      <c r="BD35" s="48"/>
+      <c r="BE35" s="48"/>
+      <c r="BF35" s="48"/>
+      <c r="BG35" s="48"/>
+      <c r="BH35" s="48"/>
       <c r="BL35" s="5" t="s">
         <v>43</v>
       </c>
@@ -8800,102 +9280,102 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
-      <c r="CD35" s="46"/>
-      <c r="CE35" s="46"/>
-      <c r="CF35" s="46"/>
-      <c r="CG35" s="46"/>
-      <c r="CH35" s="46"/>
-      <c r="CI35" s="46"/>
+      <c r="CD35" s="48"/>
+      <c r="CE35" s="48"/>
+      <c r="CF35" s="48"/>
+      <c r="CG35" s="48"/>
+      <c r="CH35" s="48"/>
+      <c r="CI35" s="48"/>
     </row>
     <row r="36" spans="10:87" ht="15" customHeight="1">
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
       <c r="S36" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="44" t="s">
+      <c r="V36" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="BC36" s="46"/>
-      <c r="BD36" s="46"/>
-      <c r="BE36" s="46"/>
-      <c r="BF36" s="46"/>
-      <c r="BG36" s="46"/>
-      <c r="BH36" s="46"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="BC36" s="48"/>
+      <c r="BD36" s="48"/>
+      <c r="BE36" s="48"/>
+      <c r="BF36" s="48"/>
+      <c r="BG36" s="48"/>
+      <c r="BH36" s="48"/>
       <c r="BL36" s="5" t="s">
         <v>134</v>
       </c>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
-      <c r="BO36" s="44" t="s">
+      <c r="BO36" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="BP36" s="45"/>
-      <c r="BQ36" s="45"/>
+      <c r="BP36" s="56"/>
+      <c r="BQ36" s="56"/>
       <c r="CD36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE36" s="50" t="s">
+      <c r="CE36" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="CF36" s="41"/>
-      <c r="CG36" s="41"/>
-      <c r="CH36" s="41"/>
-      <c r="CI36" s="41"/>
+      <c r="CF36" s="34"/>
+      <c r="CG36" s="34"/>
+      <c r="CH36" s="34"/>
+      <c r="CI36" s="34"/>
     </row>
     <row r="37" spans="10:87">
-      <c r="J37" s="37" t="s">
+      <c r="J37" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="S37" s="42" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="S37" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="BC37" s="31" t="s">
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="BC37" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
-      <c r="BH37" s="31"/>
-      <c r="BL37" s="42" t="s">
+      <c r="BD37" s="33"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="33"/>
+      <c r="BG37" s="33"/>
+      <c r="BH37" s="33"/>
+      <c r="BL37" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="BM37" s="42"/>
-      <c r="BN37" s="42"/>
-      <c r="BO37" s="42"/>
-      <c r="BP37" s="42"/>
-      <c r="BQ37" s="42"/>
+      <c r="BM37" s="37"/>
+      <c r="BN37" s="37"/>
+      <c r="BO37" s="37"/>
+      <c r="BP37" s="37"/>
+      <c r="BQ37" s="37"/>
       <c r="CD37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE37" s="50" t="s">
+      <c r="CE37" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="CF37" s="41"/>
-      <c r="CG37" s="41"/>
-      <c r="CH37" s="41"/>
-      <c r="CI37" s="41"/>
+      <c r="CF37" s="34"/>
+      <c r="CG37" s="34"/>
+      <c r="CH37" s="34"/>
+      <c r="CI37" s="34"/>
     </row>
     <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
@@ -8906,14 +9386,14 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="46" t="s">
+      <c r="S38" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
       <c r="BC38" s="5" t="s">
         <v>53</v>
       </c>
@@ -8922,14 +9402,14 @@
       <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
-      <c r="BL38" s="46" t="s">
+      <c r="BL38" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="BM38" s="46"/>
-      <c r="BN38" s="46"/>
-      <c r="BO38" s="46"/>
-      <c r="BP38" s="46"/>
-      <c r="BQ38" s="46"/>
+      <c r="BM38" s="48"/>
+      <c r="BN38" s="48"/>
+      <c r="BO38" s="48"/>
+      <c r="BP38" s="48"/>
+      <c r="BQ38" s="48"/>
       <c r="CD38" s="1" t="s">
         <v>7</v>
       </c>
@@ -8947,161 +9427,161 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
       <c r="BC39" s="5" t="s">
         <v>51</v>
       </c>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="44" t="s">
+      <c r="BF39" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BG39" s="45"/>
-      <c r="BH39" s="45"/>
-      <c r="BL39" s="46"/>
-      <c r="BM39" s="46"/>
-      <c r="BN39" s="46"/>
-      <c r="BO39" s="46"/>
-      <c r="BP39" s="46"/>
-      <c r="BQ39" s="46"/>
-      <c r="CD39" s="46" t="s">
+      <c r="BG39" s="56"/>
+      <c r="BH39" s="56"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="48"/>
+      <c r="BN39" s="48"/>
+      <c r="BO39" s="48"/>
+      <c r="BP39" s="48"/>
+      <c r="BQ39" s="48"/>
+      <c r="CD39" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="CE39" s="46"/>
-      <c r="CF39" s="46"/>
-      <c r="CG39" s="46"/>
-      <c r="CH39" s="46"/>
-      <c r="CI39" s="46"/>
+      <c r="CE39" s="48"/>
+      <c r="CF39" s="48"/>
+      <c r="CG39" s="48"/>
+      <c r="CH39" s="48"/>
+      <c r="CI39" s="48"/>
     </row>
     <row r="40" spans="10:87" ht="15" customHeight="1">
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="BC40" s="42" t="s">
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="BC40" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
-      <c r="BL40" s="46"/>
-      <c r="BM40" s="46"/>
-      <c r="BN40" s="46"/>
-      <c r="BO40" s="46"/>
-      <c r="BP40" s="46"/>
-      <c r="BQ40" s="46"/>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="37"/>
+      <c r="BG40" s="37"/>
+      <c r="BH40" s="37"/>
+      <c r="BL40" s="48"/>
+      <c r="BM40" s="48"/>
+      <c r="BN40" s="48"/>
+      <c r="BO40" s="48"/>
+      <c r="BP40" s="48"/>
+      <c r="BQ40" s="48"/>
     </row>
     <row r="41" spans="10:87">
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="BC41" s="46" t="s">
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="BC41" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="BD41" s="46"/>
-      <c r="BE41" s="46"/>
-      <c r="BF41" s="46"/>
-      <c r="BG41" s="46"/>
-      <c r="BH41" s="46"/>
-      <c r="BL41" s="46"/>
-      <c r="BM41" s="46"/>
-      <c r="BN41" s="46"/>
-      <c r="BO41" s="46"/>
-      <c r="BP41" s="46"/>
-      <c r="BQ41" s="46"/>
+      <c r="BD41" s="48"/>
+      <c r="BE41" s="48"/>
+      <c r="BF41" s="48"/>
+      <c r="BG41" s="48"/>
+      <c r="BH41" s="48"/>
+      <c r="BL41" s="48"/>
+      <c r="BM41" s="48"/>
+      <c r="BN41" s="48"/>
+      <c r="BO41" s="48"/>
+      <c r="BP41" s="48"/>
+      <c r="BQ41" s="48"/>
     </row>
     <row r="42" spans="10:87">
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
       <c r="S42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="50" t="s">
+      <c r="T42" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="BC42" s="46"/>
-      <c r="BD42" s="46"/>
-      <c r="BE42" s="46"/>
-      <c r="BF42" s="46"/>
-      <c r="BG42" s="46"/>
-      <c r="BH42" s="46"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="BC42" s="48"/>
+      <c r="BD42" s="48"/>
+      <c r="BE42" s="48"/>
+      <c r="BF42" s="48"/>
+      <c r="BG42" s="48"/>
+      <c r="BH42" s="48"/>
       <c r="BL42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM42" s="50" t="s">
+      <c r="BM42" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="BN42" s="41"/>
-      <c r="BO42" s="41"/>
-      <c r="BP42" s="41"/>
-      <c r="BQ42" s="41"/>
+      <c r="BN42" s="34"/>
+      <c r="BO42" s="34"/>
+      <c r="BP42" s="34"/>
+      <c r="BQ42" s="34"/>
     </row>
     <row r="43" spans="10:87" ht="15" customHeight="1">
       <c r="S43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T43" s="50" t="s">
+      <c r="T43" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="BC43" s="46"/>
-      <c r="BD43" s="46"/>
-      <c r="BE43" s="46"/>
-      <c r="BF43" s="46"/>
-      <c r="BG43" s="46"/>
-      <c r="BH43" s="46"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="BC43" s="48"/>
+      <c r="BD43" s="48"/>
+      <c r="BE43" s="48"/>
+      <c r="BF43" s="48"/>
+      <c r="BG43" s="48"/>
+      <c r="BH43" s="48"/>
       <c r="BL43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM43" s="50" t="s">
+      <c r="BM43" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="BN43" s="41"/>
-      <c r="BO43" s="41"/>
-      <c r="BP43" s="41"/>
-      <c r="BQ43" s="41"/>
+      <c r="BN43" s="34"/>
+      <c r="BO43" s="34"/>
+      <c r="BP43" s="34"/>
+      <c r="BQ43" s="34"/>
     </row>
     <row r="44" spans="10:87">
       <c r="S44" s="1" t="s">
@@ -9126,48 +9606,48 @@
       <c r="BQ44" s="7"/>
     </row>
     <row r="45" spans="10:87">
-      <c r="S45" s="46" t="s">
+      <c r="S45" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="BL45" s="46" t="s">
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="BL45" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="BM45" s="46"/>
-      <c r="BN45" s="46"/>
-      <c r="BO45" s="46"/>
-      <c r="BP45" s="46"/>
-      <c r="BQ45" s="46"/>
+      <c r="BM45" s="48"/>
+      <c r="BN45" s="48"/>
+      <c r="BO45" s="48"/>
+      <c r="BP45" s="48"/>
+      <c r="BQ45" s="48"/>
     </row>
     <row r="48" spans="10:87">
-      <c r="BC48" s="37" t="s">
+      <c r="BC48" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="BL48" s="37" t="s">
+      <c r="BD48" s="41"/>
+      <c r="BE48" s="41"/>
+      <c r="BF48" s="41"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="BL48" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="BM48" s="37"/>
-      <c r="BN48" s="37"/>
-      <c r="BO48" s="37"/>
-      <c r="BP48" s="37"/>
-      <c r="BQ48" s="37"/>
-      <c r="CD48" s="37" t="s">
+      <c r="BM48" s="41"/>
+      <c r="BN48" s="41"/>
+      <c r="BO48" s="41"/>
+      <c r="BP48" s="41"/>
+      <c r="BQ48" s="41"/>
+      <c r="CD48" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="CE48" s="38"/>
-      <c r="CF48" s="38"/>
-      <c r="CG48" s="38"/>
-      <c r="CH48" s="38"/>
-      <c r="CI48" s="38"/>
+      <c r="CE48" s="42"/>
+      <c r="CF48" s="42"/>
+      <c r="CG48" s="42"/>
+      <c r="CH48" s="42"/>
+      <c r="CI48" s="42"/>
     </row>
     <row r="49" spans="55:87">
       <c r="BC49" s="5" t="s">
@@ -9201,103 +9681,103 @@
       </c>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="44" t="s">
+      <c r="BF50" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="BG50" s="44"/>
-      <c r="BH50" s="44"/>
+      <c r="BG50" s="55"/>
+      <c r="BH50" s="55"/>
       <c r="BL50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
-      <c r="BO50" s="44" t="s">
+      <c r="BO50" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="BP50" s="44"/>
-      <c r="BQ50" s="44"/>
+      <c r="BP50" s="55"/>
+      <c r="BQ50" s="55"/>
       <c r="CD50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" s="1"/>
-      <c r="CG50" s="44" t="s">
+      <c r="CG50" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="CH50" s="45"/>
-      <c r="CI50" s="45"/>
+      <c r="CH50" s="56"/>
+      <c r="CI50" s="56"/>
     </row>
     <row r="51" spans="55:87">
-      <c r="BC51" s="39" t="s">
+      <c r="BC51" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="BD51" s="39"/>
-      <c r="BE51" s="39"/>
-      <c r="BF51" s="39"/>
-      <c r="BG51" s="39"/>
-      <c r="BH51" s="39"/>
-      <c r="BL51" s="39" t="s">
+      <c r="BD51" s="35"/>
+      <c r="BE51" s="35"/>
+      <c r="BF51" s="35"/>
+      <c r="BG51" s="35"/>
+      <c r="BH51" s="35"/>
+      <c r="BL51" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="BM51" s="39"/>
-      <c r="BN51" s="39"/>
-      <c r="BO51" s="39"/>
-      <c r="BP51" s="39"/>
-      <c r="BQ51" s="39"/>
-      <c r="CD51" s="39" t="s">
+      <c r="BM51" s="35"/>
+      <c r="BN51" s="35"/>
+      <c r="BO51" s="35"/>
+      <c r="BP51" s="35"/>
+      <c r="BQ51" s="35"/>
+      <c r="CD51" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CE51" s="39"/>
-      <c r="CF51" s="39"/>
-      <c r="CG51" s="39"/>
-      <c r="CH51" s="39"/>
-      <c r="CI51" s="39"/>
+      <c r="CE51" s="35"/>
+      <c r="CF51" s="35"/>
+      <c r="CG51" s="35"/>
+      <c r="CH51" s="35"/>
+      <c r="CI51" s="35"/>
     </row>
     <row r="52" spans="55:87">
-      <c r="BC52" s="40"/>
-      <c r="BD52" s="40"/>
-      <c r="BE52" s="40"/>
-      <c r="BF52" s="40"/>
-      <c r="BG52" s="40"/>
-      <c r="BH52" s="40"/>
-      <c r="BL52" s="40"/>
-      <c r="BM52" s="40"/>
-      <c r="BN52" s="40"/>
-      <c r="BO52" s="40"/>
-      <c r="BP52" s="40"/>
-      <c r="BQ52" s="40"/>
-      <c r="CD52" s="39"/>
-      <c r="CE52" s="39"/>
-      <c r="CF52" s="39"/>
-      <c r="CG52" s="39"/>
-      <c r="CH52" s="39"/>
-      <c r="CI52" s="39"/>
+      <c r="BC52" s="36"/>
+      <c r="BD52" s="36"/>
+      <c r="BE52" s="36"/>
+      <c r="BF52" s="36"/>
+      <c r="BG52" s="36"/>
+      <c r="BH52" s="36"/>
+      <c r="BL52" s="36"/>
+      <c r="BM52" s="36"/>
+      <c r="BN52" s="36"/>
+      <c r="BO52" s="36"/>
+      <c r="BP52" s="36"/>
+      <c r="BQ52" s="36"/>
+      <c r="CD52" s="35"/>
+      <c r="CE52" s="35"/>
+      <c r="CF52" s="35"/>
+      <c r="CG52" s="35"/>
+      <c r="CH52" s="35"/>
+      <c r="CI52" s="35"/>
     </row>
     <row r="53" spans="55:87">
-      <c r="BC53" s="37" t="s">
+      <c r="BC53" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="BD53" s="37"/>
-      <c r="BE53" s="37"/>
-      <c r="BF53" s="37"/>
-      <c r="BG53" s="37"/>
-      <c r="BH53" s="37"/>
-      <c r="BL53" s="37" t="s">
+      <c r="BD53" s="41"/>
+      <c r="BE53" s="41"/>
+      <c r="BF53" s="41"/>
+      <c r="BG53" s="41"/>
+      <c r="BH53" s="41"/>
+      <c r="BL53" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="BM53" s="37"/>
-      <c r="BN53" s="37"/>
-      <c r="BO53" s="37"/>
-      <c r="BP53" s="37"/>
-      <c r="BQ53" s="37"/>
-      <c r="CD53" s="37" t="s">
+      <c r="BM53" s="41"/>
+      <c r="BN53" s="41"/>
+      <c r="BO53" s="41"/>
+      <c r="BP53" s="41"/>
+      <c r="BQ53" s="41"/>
+      <c r="CD53" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="CE53" s="38"/>
-      <c r="CF53" s="38"/>
-      <c r="CG53" s="38"/>
-      <c r="CH53" s="38"/>
-      <c r="CI53" s="38"/>
+      <c r="CE53" s="42"/>
+      <c r="CF53" s="42"/>
+      <c r="CG53" s="42"/>
+      <c r="CH53" s="42"/>
+      <c r="CI53" s="42"/>
     </row>
     <row r="54" spans="55:87">
       <c r="BC54" s="5" t="s">
@@ -9331,91 +9811,91 @@
       </c>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="44" t="s">
+      <c r="BF55" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="BG55" s="44"/>
-      <c r="BH55" s="44"/>
+      <c r="BG55" s="55"/>
+      <c r="BH55" s="55"/>
       <c r="BL55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
-      <c r="BO55" s="44" t="s">
+      <c r="BO55" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="BP55" s="44"/>
-      <c r="BQ55" s="44"/>
+      <c r="BP55" s="55"/>
+      <c r="BQ55" s="55"/>
       <c r="CD55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" s="1"/>
-      <c r="CG55" s="44" t="s">
+      <c r="CG55" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="CH55" s="45"/>
-      <c r="CI55" s="45"/>
+      <c r="CH55" s="56"/>
+      <c r="CI55" s="56"/>
     </row>
     <row r="56" spans="55:87">
-      <c r="BC56" s="39" t="s">
+      <c r="BC56" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="BD56" s="39"/>
-      <c r="BE56" s="39"/>
-      <c r="BF56" s="39"/>
-      <c r="BG56" s="39"/>
-      <c r="BH56" s="39"/>
-      <c r="BL56" s="40" t="s">
+      <c r="BD56" s="35"/>
+      <c r="BE56" s="35"/>
+      <c r="BF56" s="35"/>
+      <c r="BG56" s="35"/>
+      <c r="BH56" s="35"/>
+      <c r="BL56" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BM56" s="40"/>
-      <c r="BN56" s="40"/>
-      <c r="BO56" s="40"/>
-      <c r="BP56" s="40"/>
-      <c r="BQ56" s="40"/>
-      <c r="CD56" s="39" t="s">
+      <c r="BM56" s="36"/>
+      <c r="BN56" s="36"/>
+      <c r="BO56" s="36"/>
+      <c r="BP56" s="36"/>
+      <c r="BQ56" s="36"/>
+      <c r="CD56" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CE56" s="39"/>
-      <c r="CF56" s="39"/>
-      <c r="CG56" s="39"/>
-      <c r="CH56" s="39"/>
-      <c r="CI56" s="39"/>
+      <c r="CE56" s="35"/>
+      <c r="CF56" s="35"/>
+      <c r="CG56" s="35"/>
+      <c r="CH56" s="35"/>
+      <c r="CI56" s="35"/>
     </row>
     <row r="57" spans="55:87">
-      <c r="BC57" s="40"/>
-      <c r="BD57" s="40"/>
-      <c r="BE57" s="40"/>
-      <c r="BF57" s="40"/>
-      <c r="BG57" s="40"/>
-      <c r="BH57" s="40"/>
-      <c r="BL57" s="37" t="s">
+      <c r="BC57" s="36"/>
+      <c r="BD57" s="36"/>
+      <c r="BE57" s="36"/>
+      <c r="BF57" s="36"/>
+      <c r="BG57" s="36"/>
+      <c r="BH57" s="36"/>
+      <c r="BL57" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="BM57" s="37"/>
-      <c r="BN57" s="37"/>
-      <c r="BO57" s="37"/>
-      <c r="BP57" s="37"/>
-      <c r="BQ57" s="37"/>
-      <c r="CD57" s="37" t="s">
+      <c r="BM57" s="41"/>
+      <c r="BN57" s="41"/>
+      <c r="BO57" s="41"/>
+      <c r="BP57" s="41"/>
+      <c r="BQ57" s="41"/>
+      <c r="CD57" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="CE57" s="38"/>
-      <c r="CF57" s="38"/>
-      <c r="CG57" s="38"/>
-      <c r="CH57" s="38"/>
-      <c r="CI57" s="38"/>
+      <c r="CE57" s="42"/>
+      <c r="CF57" s="42"/>
+      <c r="CG57" s="42"/>
+      <c r="CH57" s="42"/>
+      <c r="CI57" s="42"/>
     </row>
     <row r="58" spans="55:87">
-      <c r="BC58" s="37" t="s">
+      <c r="BC58" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="BD58" s="37"/>
-      <c r="BE58" s="37"/>
-      <c r="BF58" s="37"/>
-      <c r="BG58" s="37"/>
-      <c r="BH58" s="37"/>
+      <c r="BD58" s="41"/>
+      <c r="BE58" s="41"/>
+      <c r="BF58" s="41"/>
+      <c r="BG58" s="41"/>
+      <c r="BH58" s="41"/>
       <c r="BL58" s="5" t="s">
         <v>104</v>
       </c>
@@ -9447,21 +9927,21 @@
       </c>
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
-      <c r="BO59" s="44" t="s">
+      <c r="BO59" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="BP59" s="45"/>
-      <c r="BQ59" s="45"/>
+      <c r="BP59" s="56"/>
+      <c r="BQ59" s="56"/>
       <c r="CD59" s="5" t="s">
         <v>103</v>
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
-      <c r="CG59" s="44" t="s">
+      <c r="CG59" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="CH59" s="45"/>
-      <c r="CI59" s="45"/>
+      <c r="CH59" s="56"/>
+      <c r="CI59" s="56"/>
     </row>
     <row r="60" spans="55:87" ht="15" customHeight="1">
       <c r="BC60" s="5" t="s">
@@ -9469,168 +9949,191 @@
       </c>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-      <c r="BF60" s="44" t="s">
+      <c r="BF60" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BG60" s="45"/>
-      <c r="BH60" s="45"/>
-      <c r="BL60" s="39" t="s">
+      <c r="BG60" s="56"/>
+      <c r="BH60" s="56"/>
+      <c r="BL60" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="BM60" s="39"/>
-      <c r="BN60" s="39"/>
-      <c r="BO60" s="39"/>
-      <c r="BP60" s="39"/>
-      <c r="BQ60" s="39"/>
-      <c r="CD60" s="39" t="s">
+      <c r="BM60" s="35"/>
+      <c r="BN60" s="35"/>
+      <c r="BO60" s="35"/>
+      <c r="BP60" s="35"/>
+      <c r="BQ60" s="35"/>
+      <c r="CD60" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="CE60" s="39"/>
-      <c r="CF60" s="39"/>
-      <c r="CG60" s="39"/>
-      <c r="CH60" s="39"/>
-      <c r="CI60" s="39"/>
+      <c r="CE60" s="35"/>
+      <c r="CF60" s="35"/>
+      <c r="CG60" s="35"/>
+      <c r="CH60" s="35"/>
+      <c r="CI60" s="35"/>
     </row>
     <row r="61" spans="55:87">
-      <c r="BC61" s="39" t="s">
+      <c r="BC61" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="BD61" s="39"/>
-      <c r="BE61" s="39"/>
-      <c r="BF61" s="39"/>
-      <c r="BG61" s="39"/>
-      <c r="BH61" s="39"/>
-      <c r="BL61" s="39"/>
-      <c r="BM61" s="39"/>
-      <c r="BN61" s="39"/>
-      <c r="BO61" s="39"/>
-      <c r="BP61" s="39"/>
-      <c r="BQ61" s="39"/>
-      <c r="CD61" s="39"/>
-      <c r="CE61" s="39"/>
-      <c r="CF61" s="39"/>
-      <c r="CG61" s="39"/>
-      <c r="CH61" s="39"/>
-      <c r="CI61" s="39"/>
+      <c r="BD61" s="35"/>
+      <c r="BE61" s="35"/>
+      <c r="BF61" s="35"/>
+      <c r="BG61" s="35"/>
+      <c r="BH61" s="35"/>
+      <c r="BL61" s="35"/>
+      <c r="BM61" s="35"/>
+      <c r="BN61" s="35"/>
+      <c r="BO61" s="35"/>
+      <c r="BP61" s="35"/>
+      <c r="BQ61" s="35"/>
+      <c r="CD61" s="35"/>
+      <c r="CE61" s="35"/>
+      <c r="CF61" s="35"/>
+      <c r="CG61" s="35"/>
+      <c r="CH61" s="35"/>
+      <c r="CI61" s="35"/>
     </row>
     <row r="62" spans="55:87">
-      <c r="BC62" s="39"/>
-      <c r="BD62" s="39"/>
-      <c r="BE62" s="39"/>
-      <c r="BF62" s="39"/>
-      <c r="BG62" s="39"/>
-      <c r="BH62" s="39"/>
-      <c r="BL62" s="39"/>
-      <c r="BM62" s="39"/>
-      <c r="BN62" s="39"/>
-      <c r="BO62" s="39"/>
-      <c r="BP62" s="39"/>
-      <c r="BQ62" s="39"/>
-      <c r="CD62" s="39"/>
-      <c r="CE62" s="39"/>
-      <c r="CF62" s="39"/>
-      <c r="CG62" s="39"/>
-      <c r="CH62" s="39"/>
-      <c r="CI62" s="39"/>
+      <c r="BC62" s="35"/>
+      <c r="BD62" s="35"/>
+      <c r="BE62" s="35"/>
+      <c r="BF62" s="35"/>
+      <c r="BG62" s="35"/>
+      <c r="BH62" s="35"/>
+      <c r="BL62" s="35"/>
+      <c r="BM62" s="35"/>
+      <c r="BN62" s="35"/>
+      <c r="BO62" s="35"/>
+      <c r="BP62" s="35"/>
+      <c r="BQ62" s="35"/>
+      <c r="CD62" s="35"/>
+      <c r="CE62" s="35"/>
+      <c r="CF62" s="35"/>
+      <c r="CG62" s="35"/>
+      <c r="CH62" s="35"/>
+      <c r="CI62" s="35"/>
     </row>
     <row r="63" spans="55:87">
-      <c r="BC63" s="39"/>
-      <c r="BD63" s="39"/>
-      <c r="BE63" s="39"/>
-      <c r="BF63" s="39"/>
-      <c r="BG63" s="39"/>
-      <c r="BH63" s="39"/>
+      <c r="BC63" s="35"/>
+      <c r="BD63" s="35"/>
+      <c r="BE63" s="35"/>
+      <c r="BF63" s="35"/>
+      <c r="BG63" s="35"/>
+      <c r="BH63" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB16:AG17"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AB13:AG14"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="S10:X12"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S19:X20"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="S34:X34"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="S31:X33"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="S38:X41"/>
-    <mergeCell ref="S28:X29"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J31:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J25:O27"/>
+  <mergeCells count="223">
+    <mergeCell ref="CM20:CR26"/>
+    <mergeCell ref="BO59:BQ59"/>
+    <mergeCell ref="BC58:BH58"/>
+    <mergeCell ref="CM5:CR5"/>
+    <mergeCell ref="CM6:CR6"/>
+    <mergeCell ref="CN9:CR9"/>
+    <mergeCell ref="CM14:CR14"/>
+    <mergeCell ref="CM15:CR18"/>
+    <mergeCell ref="CN10:CR10"/>
+    <mergeCell ref="CM12:CR13"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BM16:BQ16"/>
+    <mergeCell ref="BM17:BQ17"/>
+    <mergeCell ref="BC56:BH57"/>
+    <mergeCell ref="BL48:BQ48"/>
+    <mergeCell ref="BO50:BQ50"/>
+    <mergeCell ref="BL51:BQ52"/>
+    <mergeCell ref="BL53:BQ53"/>
+    <mergeCell ref="BO55:BQ55"/>
+    <mergeCell ref="BL56:BQ56"/>
+    <mergeCell ref="BL57:BQ57"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BC31:BH33"/>
+    <mergeCell ref="BC34:BH36"/>
+    <mergeCell ref="BL60:BQ62"/>
+    <mergeCell ref="BU2:BZ3"/>
+    <mergeCell ref="BU16:BZ16"/>
+    <mergeCell ref="BU17:BZ19"/>
+    <mergeCell ref="BU11:BZ12"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BU4:BZ4"/>
+    <mergeCell ref="BU5:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BU8:BZ9"/>
+    <mergeCell ref="BU10:BZ10"/>
+    <mergeCell ref="BV14:BZ14"/>
+    <mergeCell ref="BV15:BZ15"/>
+    <mergeCell ref="BM42:BQ42"/>
+    <mergeCell ref="BM43:BQ43"/>
+    <mergeCell ref="BL45:BQ45"/>
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BL7:BQ7"/>
+    <mergeCell ref="BL8:BQ9"/>
+    <mergeCell ref="BL10:BQ12"/>
+    <mergeCell ref="BL13:BQ13"/>
+    <mergeCell ref="CD56:CI56"/>
+    <mergeCell ref="CD57:CI57"/>
+    <mergeCell ref="CG59:CI59"/>
+    <mergeCell ref="CD60:CI62"/>
+    <mergeCell ref="BF60:BH60"/>
+    <mergeCell ref="BC61:BH63"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AT16:AY20"/>
+    <mergeCell ref="BC48:BH48"/>
+    <mergeCell ref="BF50:BH50"/>
+    <mergeCell ref="BC51:BH52"/>
+    <mergeCell ref="BC53:BH53"/>
+    <mergeCell ref="BF55:BH55"/>
+    <mergeCell ref="AT26:AY28"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BC21:BH23"/>
+    <mergeCell ref="BC41:BH43"/>
+    <mergeCell ref="BC25:BH27"/>
+    <mergeCell ref="BC37:BH37"/>
+    <mergeCell ref="BF39:BH39"/>
+    <mergeCell ref="BC40:BH40"/>
+    <mergeCell ref="BC24:BH24"/>
+    <mergeCell ref="BC28:BH28"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CD6:CI6"/>
+    <mergeCell ref="CD7:CI7"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="CE12:CI12"/>
+    <mergeCell ref="CD13:CI14"/>
+    <mergeCell ref="CD15:CI15"/>
+    <mergeCell ref="CE18:CI18"/>
+    <mergeCell ref="BL31:BQ33"/>
+    <mergeCell ref="BL34:BQ34"/>
+    <mergeCell ref="BO36:BQ36"/>
+    <mergeCell ref="BL37:BQ37"/>
+    <mergeCell ref="BL38:BQ41"/>
+    <mergeCell ref="BM25:BQ25"/>
+    <mergeCell ref="BM26:BQ26"/>
+    <mergeCell ref="BL27:BQ27"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="BM18:BQ18"/>
+    <mergeCell ref="BL19:BQ20"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="BM24:BQ24"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
+    <mergeCell ref="CD31:CI31"/>
+    <mergeCell ref="CD32:CI35"/>
+    <mergeCell ref="CE19:CI19"/>
     <mergeCell ref="BC5:BH5"/>
     <mergeCell ref="AK16:AP17"/>
     <mergeCell ref="AK21:AP23"/>
@@ -9655,109 +10158,94 @@
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="AK20:AP20"/>
     <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="CE18:CI18"/>
-    <mergeCell ref="BL31:BQ33"/>
-    <mergeCell ref="BL34:BQ34"/>
-    <mergeCell ref="BO36:BQ36"/>
-    <mergeCell ref="BL37:BQ37"/>
-    <mergeCell ref="BL38:BQ41"/>
-    <mergeCell ref="BM25:BQ25"/>
-    <mergeCell ref="BM26:BQ26"/>
-    <mergeCell ref="BL27:BQ27"/>
-    <mergeCell ref="BL28:BQ29"/>
-    <mergeCell ref="BL30:BQ30"/>
-    <mergeCell ref="BM18:BQ18"/>
-    <mergeCell ref="BL19:BQ20"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="BM24:BQ24"/>
-    <mergeCell ref="CD6:CI6"/>
-    <mergeCell ref="CD7:CI7"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="CE12:CI12"/>
-    <mergeCell ref="CD13:CI14"/>
-    <mergeCell ref="CD15:CI15"/>
-    <mergeCell ref="CG17:CI17"/>
-    <mergeCell ref="CE36:CI36"/>
-    <mergeCell ref="CE37:CI37"/>
-    <mergeCell ref="CD39:CI39"/>
-    <mergeCell ref="CD25:CI27"/>
-    <mergeCell ref="CD28:CI28"/>
-    <mergeCell ref="CG30:CI30"/>
-    <mergeCell ref="CD31:CI31"/>
-    <mergeCell ref="CD32:CI35"/>
-    <mergeCell ref="CE19:CI19"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CD21:CI21"/>
-    <mergeCell ref="CD22:CI23"/>
-    <mergeCell ref="CD24:CI24"/>
-    <mergeCell ref="CD48:CI48"/>
-    <mergeCell ref="CG50:CI50"/>
-    <mergeCell ref="CD51:CI52"/>
-    <mergeCell ref="CD53:CI53"/>
-    <mergeCell ref="CG55:CI55"/>
-    <mergeCell ref="CD56:CI56"/>
-    <mergeCell ref="CD57:CI57"/>
-    <mergeCell ref="CG59:CI59"/>
-    <mergeCell ref="CD60:CI62"/>
-    <mergeCell ref="BF60:BH60"/>
-    <mergeCell ref="BC61:BH63"/>
-    <mergeCell ref="AT13:AY13"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AT16:AY20"/>
-    <mergeCell ref="BC48:BH48"/>
-    <mergeCell ref="BF50:BH50"/>
-    <mergeCell ref="BC51:BH52"/>
-    <mergeCell ref="BC53:BH53"/>
-    <mergeCell ref="BF55:BH55"/>
-    <mergeCell ref="AT26:AY28"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BC21:BH23"/>
-    <mergeCell ref="BC41:BH43"/>
-    <mergeCell ref="BC25:BH27"/>
-    <mergeCell ref="BC37:BH37"/>
-    <mergeCell ref="BF39:BH39"/>
-    <mergeCell ref="BC40:BH40"/>
-    <mergeCell ref="BC24:BH24"/>
-    <mergeCell ref="BC28:BH28"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BC31:BH33"/>
-    <mergeCell ref="BC34:BH36"/>
-    <mergeCell ref="BL60:BQ62"/>
-    <mergeCell ref="BU2:BZ3"/>
-    <mergeCell ref="BU16:BZ16"/>
-    <mergeCell ref="BU17:BZ19"/>
-    <mergeCell ref="BU11:BZ12"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BU4:BZ4"/>
-    <mergeCell ref="BU5:BZ6"/>
-    <mergeCell ref="BU7:BZ7"/>
-    <mergeCell ref="BU8:BZ9"/>
-    <mergeCell ref="BU10:BZ10"/>
-    <mergeCell ref="BV14:BZ14"/>
-    <mergeCell ref="BV15:BZ15"/>
-    <mergeCell ref="BM42:BQ42"/>
-    <mergeCell ref="BM43:BQ43"/>
-    <mergeCell ref="BL45:BQ45"/>
-    <mergeCell ref="BL6:BQ6"/>
-    <mergeCell ref="BL7:BQ7"/>
-    <mergeCell ref="BL8:BQ9"/>
-    <mergeCell ref="BL10:BQ12"/>
-    <mergeCell ref="BL13:BQ13"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BM16:BQ16"/>
-    <mergeCell ref="BM17:BQ17"/>
-    <mergeCell ref="BC56:BH57"/>
-    <mergeCell ref="BL48:BQ48"/>
-    <mergeCell ref="BO50:BQ50"/>
-    <mergeCell ref="BL51:BQ52"/>
-    <mergeCell ref="BL53:BQ53"/>
-    <mergeCell ref="BO55:BQ55"/>
-    <mergeCell ref="BL56:BQ56"/>
-    <mergeCell ref="BL57:BQ57"/>
-    <mergeCell ref="BO59:BQ59"/>
-    <mergeCell ref="BC58:BH58"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J31:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J25:O27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="S31:X33"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="S38:X41"/>
+    <mergeCell ref="S28:X29"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S19:X20"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB16:AG17"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AB13:AG14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9780,54 +10268,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="S1" s="59" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="S1" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="AB1" s="69" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="AB1" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="71" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AK1" s="66" t="s">
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AK1" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -9898,40 +10386,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="66"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="68" t="s">
+      <c r="W3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="68"/>
+      <c r="X3" s="66"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="68" t="s">
+      <c r="AF3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="68"/>
+      <c r="AG3" s="66"/>
       <c r="AK3" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="68" t="s">
+      <c r="AO3" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="AP3" s="68"/>
+      <c r="AP3" s="66"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -9950,38 +10438,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="37"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="42"/>
+      <c r="X4" s="37"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="42" t="s">
+      <c r="AF4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="42"/>
+      <c r="AG4" s="37"/>
       <c r="AK4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -9992,90 +10480,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="S5" s="29" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="S5" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="AB5" s="29" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="AB5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AK5" s="29" t="s">
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AK5" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="S6" s="31" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="S6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="AB6" s="31" t="s">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="AB6" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AK6" s="37" t="s">
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AK6" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -10100,14 +10588,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="52" t="s">
+      <c r="AK7" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="52"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -10123,37 +10611,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="44" t="s">
+      <c r="AE8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -10161,169 +10649,169 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="AB9" s="39" t="s">
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="AB9" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="50" t="s">
+      <c r="AC11" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="J12" s="46" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="J12" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="S12" s="37" t="s">
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="S12" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="50" t="s">
+      <c r="AC12" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -10332,62 +10820,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="S13" s="57" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="S13" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="50" t="s">
+      <c r="AC13" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="J14" s="37" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="AB14" s="37" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="AB14" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
@@ -10398,30 +10886,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="S15" s="37" t="s">
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="S15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="AB15" s="57" t="s">
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="AB15" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -10429,161 +10917,190 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="S16" s="57" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="S16" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="AB17" s="37" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="AB17" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="AB18" s="52" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="AB18" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S13:X14"/>
+    <mergeCell ref="S16:X18"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A22:F23"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A20:F20"/>
@@ -10594,48 +11111,19 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="S13:X14"/>
-    <mergeCell ref="S16:X18"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AB15:AG16"/>
-    <mergeCell ref="AB9:AG10"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG20"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP10"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK5:AP5"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5B80A8-4F3D-4F27-84B5-CC13CDEB1B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8BB19D-BBB9-4CCE-8A08-3BA5C4382A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="735" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="960" yWindow="1080" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="348">
   <si>
     <t>[Name]</t>
   </si>
@@ -6059,6 +6059,154 @@
         <scheme val="minor"/>
       </rPr>
       <t>prone on its surface.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 damage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grabbed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened and slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> weakened and slowed (save ends)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The horror can have up to four targets grabbed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Malice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The horror can vertical push 5 two creatures among either the targets or creatures it has grabbed.</t>
     </r>
   </si>
 </sst>
@@ -6256,7 +6404,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -6306,6 +6454,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6315,14 +6469,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -6334,68 +6492,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6409,9 +6514,48 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6427,8 +6571,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6778,16 +6923,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -6799,10 +6944,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="32"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -6928,50 +7073,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -7027,11 +7172,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -7040,125 +7185,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="L14" s="39" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="L14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="L18" s="31" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="L18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -7184,102 +7329,115 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="L21" s="34" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="L21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="L23" s="37" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="L23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -7292,19 +7450,6 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7327,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
   <dimension ref="A1:CR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BS15" sqref="BS15"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7342,6 +7487,7 @@
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="30" max="30" width="12.28515625" customWidth="1"/>
     <col min="31" max="31" width="10.5703125" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
@@ -7351,46 +7497,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="J1" s="33" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="32" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="S1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="32" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="AB1" s="62" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="AB1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
       <c r="AK1" s="25" t="s">
         <v>197</v>
       </c>
@@ -7649,12 +7795,12 @@
       <c r="BQ3" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
+      <c r="BU3" s="54"/>
+      <c r="BV3" s="54"/>
+      <c r="BW3" s="54"/>
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
       <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
@@ -7755,14 +7901,14 @@
       <c r="BQ4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU4" s="31" t="s">
+      <c r="BU4" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
       <c r="CD4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7809,50 +7955,50 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="42" t="s">
+      <c r="AK5" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="BC5" s="29" t="s">
+      <c r="BC5" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BL5" s="29" t="s">
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BL5" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
       <c r="BU5" s="44" t="s">
         <v>273</v>
       </c>
@@ -7869,152 +8015,152 @@
       <c r="CI5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="CM5" s="29" t="s">
+      <c r="CM5" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="CN5" s="30"/>
-      <c r="CO5" s="30"/>
-      <c r="CP5" s="30"/>
-      <c r="CQ5" s="30"/>
-      <c r="CR5" s="30"/>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
     </row>
     <row r="6" spans="1:96">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="J6" s="29" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="S6" s="29" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="S6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="AB6" s="29" t="s">
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="AB6" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AK6" s="29" t="s">
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AK6" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AT6" s="29" t="s">
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AT6" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
-      <c r="BC6" s="31" t="s">
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="BC6" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="BD6" s="31"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BL6" s="37" t="s">
+      <c r="BD6" s="33"/>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="33"/>
+      <c r="BH6" s="33"/>
+      <c r="BL6" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="BM6" s="37"/>
-      <c r="BN6" s="37"/>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
-      <c r="BQ6" s="37"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="49"/>
-      <c r="CD6" s="29" t="s">
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="41"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="54"/>
+      <c r="BW6" s="54"/>
+      <c r="BX6" s="54"/>
+      <c r="BY6" s="54"/>
+      <c r="BZ6" s="54"/>
+      <c r="CD6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="CE6" s="30"/>
-      <c r="CF6" s="30"/>
-      <c r="CG6" s="30"/>
-      <c r="CH6" s="30"/>
-      <c r="CI6" s="30"/>
-      <c r="CM6" s="31" t="s">
+      <c r="CE6" s="32"/>
+      <c r="CF6" s="32"/>
+      <c r="CG6" s="32"/>
+      <c r="CH6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CM6" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="CN6" s="31"/>
-      <c r="CO6" s="31"/>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="33"/>
+      <c r="CP6" s="33"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="33"/>
     </row>
     <row r="7" spans="1:96">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="S7" s="37" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="S7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="AB7" s="31" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="AB7" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AK7" s="31" t="s">
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AK7" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AT7" s="31" t="s">
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AT7" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
       <c r="BC7" s="5" t="s">
         <v>192</v>
       </c>
@@ -8023,30 +8169,30 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BL7" s="50" t="s">
+      <c r="BL7" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="BM7" s="50"/>
-      <c r="BN7" s="50"/>
-      <c r="BO7" s="50"/>
-      <c r="BP7" s="50"/>
-      <c r="BQ7" s="50"/>
-      <c r="BU7" s="31" t="s">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BU7" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="BV7" s="31"/>
-      <c r="BW7" s="31"/>
-      <c r="BX7" s="31"/>
-      <c r="BY7" s="31"/>
-      <c r="BZ7" s="31"/>
-      <c r="CD7" s="31" t="s">
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CD7" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="CE7" s="31"/>
-      <c r="CF7" s="31"/>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="31"/>
-      <c r="CI7" s="31"/>
+      <c r="CE7" s="33"/>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="33"/>
+      <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
       <c r="CM7" s="5" t="s">
         <v>62</v>
       </c>
@@ -8073,14 +8219,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
       <c r="AB8" s="5" t="s">
         <v>192</v>
       </c>
@@ -8115,12 +8261,12 @@
       <c r="BH8" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="BL8" s="50"/>
-      <c r="BM8" s="50"/>
-      <c r="BN8" s="50"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="50"/>
-      <c r="BQ8" s="50"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="45"/>
       <c r="BU8" s="44" t="s">
         <v>272</v>
       </c>
@@ -8154,27 +8300,27 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
       <c r="AB9" s="5" t="s">
         <v>193</v>
       </c>
@@ -8208,243 +8354,243 @@
       <c r="BC9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD9" s="47" t="s">
+      <c r="BD9" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BL9" s="50" t="s">
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BL9" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="BM9" s="50"/>
-      <c r="BN9" s="50"/>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="50"/>
-      <c r="BQ9" s="50"/>
-      <c r="BU9" s="49"/>
-      <c r="BV9" s="49"/>
-      <c r="BW9" s="49"/>
-      <c r="BX9" s="49"/>
-      <c r="BY9" s="49"/>
-      <c r="BZ9" s="49"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BU9" s="54"/>
+      <c r="BV9" s="54"/>
+      <c r="BW9" s="54"/>
+      <c r="BX9" s="54"/>
+      <c r="BY9" s="54"/>
+      <c r="BZ9" s="54"/>
       <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="45" t="s">
+      <c r="CG9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="CH9" s="45"/>
-      <c r="CI9" s="45"/>
+      <c r="CH9" s="55"/>
+      <c r="CI9" s="55"/>
       <c r="CM9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN9" s="47" t="s">
+      <c r="CN9" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="41"/>
-      <c r="CR9" s="41"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
     </row>
     <row r="10" spans="1:96">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="S10" s="50" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="S10" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="47" t="s">
+      <c r="AC10" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="47" t="s">
+      <c r="AL10" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="47" t="s">
+      <c r="AU10" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
       <c r="BC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD10" s="47" t="s">
+      <c r="BD10" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
-      <c r="BQ10" s="50"/>
-      <c r="BU10" s="31" t="s">
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BL10" s="45"/>
+      <c r="BM10" s="45"/>
+      <c r="BN10" s="45"/>
+      <c r="BO10" s="45"/>
+      <c r="BP10" s="45"/>
+      <c r="BQ10" s="45"/>
+      <c r="BU10" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="BV10" s="31"/>
-      <c r="BW10" s="31"/>
-      <c r="BX10" s="31"/>
-      <c r="BY10" s="31"/>
-      <c r="BZ10" s="31"/>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="33"/>
       <c r="CD10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE10" s="47" t="s">
+      <c r="CE10" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="41"/>
+      <c r="CF10" s="34"/>
+      <c r="CG10" s="34"/>
+      <c r="CH10" s="34"/>
+      <c r="CI10" s="34"/>
       <c r="CM10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CN10" s="47" t="s">
+      <c r="CN10" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="41"/>
-      <c r="CR10" s="41"/>
+      <c r="CO10" s="34"/>
+      <c r="CP10" s="34"/>
+      <c r="CQ10" s="34"/>
+      <c r="CR10" s="34"/>
     </row>
     <row r="11" spans="1:96">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="47" t="s">
+      <c r="AC11" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="47" t="s">
+      <c r="AL11" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="47" t="s">
+      <c r="AU11" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
       <c r="BC11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD11" s="56" t="s">
+      <c r="BD11" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BL11" s="50"/>
-      <c r="BM11" s="50"/>
-      <c r="BN11" s="50"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="50"/>
-      <c r="BQ11" s="50"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BL11" s="45"/>
+      <c r="BM11" s="45"/>
+      <c r="BN11" s="45"/>
+      <c r="BO11" s="45"/>
+      <c r="BP11" s="45"/>
+      <c r="BQ11" s="45"/>
       <c r="BU11" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="BV11" s="51"/>
-      <c r="BW11" s="51"/>
-      <c r="BX11" s="51"/>
-      <c r="BY11" s="51"/>
-      <c r="BZ11" s="51"/>
+      <c r="BV11" s="64"/>
+      <c r="BW11" s="64"/>
+      <c r="BX11" s="64"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="64"/>
       <c r="CD11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE11" s="47" t="s">
+      <c r="CE11" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="CF11" s="41"/>
-      <c r="CG11" s="41"/>
-      <c r="CH11" s="41"/>
-      <c r="CI11" s="41"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="34"/>
+      <c r="CI11" s="34"/>
       <c r="CM11" s="5" t="s">
         <v>7</v>
       </c>
@@ -8460,99 +8606,99 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="56" t="s">
+      <c r="AC12" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="47" t="s">
+      <c r="AL12" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="BC12" s="39" t="s">
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="BC12" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BL12" s="37" t="s">
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="35"/>
+      <c r="BL12" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="BM12" s="37"/>
-      <c r="BN12" s="37"/>
-      <c r="BO12" s="37"/>
-      <c r="BP12" s="37"/>
-      <c r="BQ12" s="37"/>
-      <c r="BU12" s="51"/>
-      <c r="BV12" s="51"/>
-      <c r="BW12" s="51"/>
-      <c r="BX12" s="51"/>
-      <c r="BY12" s="51"/>
-      <c r="BZ12" s="51"/>
+      <c r="BM12" s="41"/>
+      <c r="BN12" s="41"/>
+      <c r="BO12" s="41"/>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="41"/>
+      <c r="BU12" s="64"/>
+      <c r="BV12" s="64"/>
+      <c r="BW12" s="64"/>
+      <c r="BX12" s="64"/>
+      <c r="BY12" s="64"/>
+      <c r="BZ12" s="64"/>
       <c r="CD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE12" s="47" t="s">
+      <c r="CE12" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="CF12" s="41"/>
-      <c r="CG12" s="41"/>
-      <c r="CH12" s="41"/>
-      <c r="CI12" s="41"/>
-      <c r="CM12" s="39" t="s">
+      <c r="CF12" s="34"/>
+      <c r="CG12" s="34"/>
+      <c r="CH12" s="34"/>
+      <c r="CI12" s="34"/>
+      <c r="CM12" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="CN12" s="39"/>
-      <c r="CO12" s="39"/>
-      <c r="CP12" s="39"/>
-      <c r="CQ12" s="39"/>
-      <c r="CR12" s="39"/>
+      <c r="CN12" s="35"/>
+      <c r="CO12" s="35"/>
+      <c r="CP12" s="35"/>
+      <c r="CQ12" s="35"/>
+      <c r="CR12" s="35"/>
     </row>
     <row r="13" spans="1:96" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -8561,22 +8707,22 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="S13" s="31" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="S13" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
       <c r="AB13" s="44" t="s">
         <v>283</v>
       </c>
@@ -8585,76 +8731,76 @@
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
-      <c r="AK13" s="37" t="s">
+      <c r="AK13" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AT13" s="31" t="s">
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AT13" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="40"/>
-      <c r="BF13" s="40"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="40"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
       <c r="BL13" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="BM13" s="50"/>
-      <c r="BN13" s="50"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="50"/>
-      <c r="BQ13" s="50"/>
+      <c r="BM13" s="45"/>
+      <c r="BN13" s="45"/>
+      <c r="BO13" s="45"/>
+      <c r="BP13" s="45"/>
+      <c r="BQ13" s="45"/>
       <c r="BU13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV13" s="47" t="s">
+      <c r="BV13" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="BW13" s="41"/>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="41"/>
-      <c r="CD13" s="39" t="s">
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="34"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CD13" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="CE13" s="39"/>
-      <c r="CF13" s="39"/>
-      <c r="CG13" s="39"/>
-      <c r="CH13" s="39"/>
-      <c r="CI13" s="39"/>
-      <c r="CM13" s="39"/>
-      <c r="CN13" s="39"/>
-      <c r="CO13" s="39"/>
-      <c r="CP13" s="39"/>
-      <c r="CQ13" s="39"/>
-      <c r="CR13" s="39"/>
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="35"/>
+      <c r="CG13" s="35"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="35"/>
+      <c r="CM13" s="35"/>
+      <c r="CN13" s="35"/>
+      <c r="CO13" s="35"/>
+      <c r="CP13" s="35"/>
+      <c r="CQ13" s="35"/>
+      <c r="CR13" s="35"/>
     </row>
     <row r="14" spans="1:96">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -8663,12 +8809,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -8685,44 +8831,44 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="31" t="s">
+      <c r="BC14" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BL14" s="50"/>
-      <c r="BM14" s="50"/>
-      <c r="BN14" s="50"/>
-      <c r="BO14" s="50"/>
-      <c r="BP14" s="50"/>
-      <c r="BQ14" s="50"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="45"/>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="45"/>
+      <c r="BQ14" s="45"/>
       <c r="BU14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV14" s="47" t="s">
+      <c r="BV14" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="BW14" s="41"/>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="41"/>
-      <c r="BZ14" s="41"/>
-      <c r="CD14" s="40"/>
-      <c r="CE14" s="40"/>
-      <c r="CF14" s="40"/>
-      <c r="CG14" s="40"/>
-      <c r="CH14" s="40"/>
-      <c r="CI14" s="40"/>
-      <c r="CM14" s="37" t="s">
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="36"/>
+      <c r="CF14" s="36"/>
+      <c r="CG14" s="36"/>
+      <c r="CH14" s="36"/>
+      <c r="CI14" s="36"/>
+      <c r="CM14" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="CN14" s="31"/>
-      <c r="CO14" s="31"/>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="31"/>
-      <c r="CR14" s="31"/>
+      <c r="CN14" s="33"/>
+      <c r="CO14" s="33"/>
+      <c r="CP14" s="33"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="33"/>
     </row>
     <row r="15" spans="1:96">
       <c r="A15" s="5" t="s">
@@ -8733,32 +8879,32 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="45" t="s">
+      <c r="V15" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="AB15" s="37" t="s">
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="AB15" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -8774,11 +8920,11 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="45" t="s">
+      <c r="AW15" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
       <c r="BC15" s="5" t="s">
         <v>98</v>
       </c>
@@ -8787,32 +8933,32 @@
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
-      <c r="BL15" s="37" t="s">
+      <c r="BL15" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
+      <c r="BM15" s="41"/>
+      <c r="BN15" s="41"/>
+      <c r="BO15" s="41"/>
+      <c r="BP15" s="41"/>
+      <c r="BQ15" s="41"/>
       <c r="BU15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BV15" s="47" t="s">
+      <c r="BV15" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="BW15" s="41"/>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="41"/>
-      <c r="BZ15" s="41"/>
-      <c r="CD15" s="31" t="s">
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="34"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CD15" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="CE15" s="31"/>
-      <c r="CF15" s="31"/>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="31"/>
-      <c r="CI15" s="31"/>
+      <c r="CE15" s="33"/>
+      <c r="CF15" s="33"/>
+      <c r="CG15" s="33"/>
+      <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
       <c r="CM15" s="44" t="s">
         <v>289</v>
       </c>
@@ -8828,11 +8974,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -8844,21 +8990,21 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="AB16" s="53" t="s">
+      <c r="T16" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="AB16" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
       <c r="AK16" s="44" t="s">
         <v>207</v>
       </c>
@@ -8867,14 +9013,14 @@
       <c r="AN16" s="44"/>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
-      <c r="AT16" s="50" t="s">
+      <c r="AT16" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
       <c r="BC16" s="5" t="s">
         <v>243</v>
       </c>
@@ -8888,19 +9034,19 @@
       <c r="BL16" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="BM16" s="50"/>
-      <c r="BN16" s="50"/>
-      <c r="BO16" s="50"/>
-      <c r="BP16" s="50"/>
-      <c r="BQ16" s="50"/>
-      <c r="BU16" s="31" t="s">
+      <c r="BM16" s="45"/>
+      <c r="BN16" s="45"/>
+      <c r="BO16" s="45"/>
+      <c r="BP16" s="45"/>
+      <c r="BQ16" s="45"/>
+      <c r="BU16" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="31"/>
-      <c r="BZ16" s="31"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
       <c r="CD16" s="5" t="s">
         <v>62</v>
       </c>
@@ -8920,65 +9066,65 @@
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
+      <c r="T17" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
       <c r="AK17" s="44"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44"/>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
-      <c r="BC17" s="50" t="s">
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="BC17" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="BD17" s="50"/>
-      <c r="BE17" s="50"/>
-      <c r="BF17" s="50"/>
-      <c r="BG17" s="50"/>
-      <c r="BH17" s="50"/>
-      <c r="BL17" s="50"/>
-      <c r="BM17" s="50"/>
-      <c r="BN17" s="50"/>
-      <c r="BO17" s="50"/>
-      <c r="BP17" s="50"/>
-      <c r="BQ17" s="50"/>
+      <c r="BD17" s="45"/>
+      <c r="BE17" s="45"/>
+      <c r="BF17" s="45"/>
+      <c r="BG17" s="45"/>
+      <c r="BH17" s="45"/>
+      <c r="BL17" s="45"/>
+      <c r="BM17" s="45"/>
+      <c r="BN17" s="45"/>
+      <c r="BO17" s="45"/>
+      <c r="BP17" s="45"/>
+      <c r="BQ17" s="45"/>
       <c r="BU17" s="44" t="s">
         <v>309</v>
       </c>
@@ -9008,31 +9154,31 @@
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="J18" s="34" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="J18" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
+      <c r="T18" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
       <c r="AK18" s="44" t="s">
         <v>213</v>
       </c>
@@ -9041,26 +9187,26 @@
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
       <c r="AP18" s="44"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BL18" s="31" t="s">
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="BC18" s="45"/>
+      <c r="BD18" s="45"/>
+      <c r="BE18" s="45"/>
+      <c r="BF18" s="45"/>
+      <c r="BG18" s="45"/>
+      <c r="BH18" s="45"/>
+      <c r="BL18" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
+      <c r="BM18" s="33"/>
+      <c r="BN18" s="33"/>
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
       <c r="BU18" s="44"/>
       <c r="BV18" s="44"/>
       <c r="BW18" s="44"/>
@@ -9070,13 +9216,13 @@
       <c r="CD18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE18" s="47" t="s">
+      <c r="CE18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="CF18" s="41"/>
-      <c r="CG18" s="41"/>
-      <c r="CH18" s="41"/>
-      <c r="CI18" s="41"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
       <c r="CM18" s="44"/>
       <c r="CN18" s="44"/>
       <c r="CO18" s="44"/>
@@ -9088,47 +9234,47 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="J19" s="31" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="J19" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="S19" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="S19" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
       <c r="BL19" s="5" t="s">
         <v>327</v>
       </c>
@@ -9146,31 +9292,31 @@
       <c r="CD19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE19" s="47" t="s">
+      <c r="CE19" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="CF19" s="41"/>
-      <c r="CG19" s="41"/>
-      <c r="CH19" s="41"/>
-      <c r="CI19" s="41"/>
-      <c r="CM19" s="37" t="s">
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="34"/>
+      <c r="CH19" s="34"/>
+      <c r="CI19" s="34"/>
+      <c r="CM19" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="CN19" s="31"/>
-      <c r="CO19" s="31"/>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="31"/>
-      <c r="CR19" s="31"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="33"/>
     </row>
     <row r="20" spans="1:96" ht="15" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -9179,44 +9325,44 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="AK20" s="37" t="s">
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="AK20" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="BC20" s="37" t="s">
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="BC20" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
       <c r="BL20" s="5" t="s">
         <v>291</v>
       </c>
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
-      <c r="BO20" s="45" t="s">
+      <c r="BO20" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="BP20" s="45"/>
-      <c r="BQ20" s="45"/>
+      <c r="BP20" s="55"/>
+      <c r="BQ20" s="55"/>
       <c r="BU20" s="44"/>
       <c r="BV20" s="44"/>
       <c r="BW20" s="44"/>
@@ -9226,13 +9372,13 @@
       <c r="CD20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE20" s="47" t="s">
+      <c r="CE20" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="CF20" s="41"/>
-      <c r="CG20" s="41"/>
-      <c r="CH20" s="41"/>
-      <c r="CI20" s="41"/>
+      <c r="CF20" s="34"/>
+      <c r="CG20" s="34"/>
+      <c r="CH20" s="34"/>
+      <c r="CI20" s="34"/>
       <c r="CM20" s="44" t="s">
         <v>300</v>
       </c>
@@ -9243,80 +9389,78 @@
       <c r="CR20" s="44"/>
     </row>
     <row r="21" spans="1:96" ht="15" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="S21" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="AK21" s="53" t="s">
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="AK21" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AT21" s="37" t="s">
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AT21" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="BC21" s="53" t="s">
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="BC21" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="53"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
       <c r="BL21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM21" s="47" t="s">
+      <c r="BM21" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="BN21" s="47"/>
-      <c r="BO21" s="47"/>
-      <c r="BP21" s="47"/>
-      <c r="BQ21" s="47"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="46"/>
+      <c r="BP21" s="46"/>
+      <c r="BQ21" s="46"/>
       <c r="BU21" s="44"/>
       <c r="BV21" s="44"/>
       <c r="BW21" s="44"/>
       <c r="BX21" s="44"/>
       <c r="BY21" s="44"/>
       <c r="BZ21" s="44"/>
-      <c r="CD21" s="37" t="s">
+      <c r="CD21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
+      <c r="CI21" s="42"/>
       <c r="CM21" s="44"/>
       <c r="CN21" s="44"/>
       <c r="CO21" s="44"/>
@@ -9333,66 +9477,66 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="S22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AT22" s="53" t="s">
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="S22" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AT22" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
       <c r="BL22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM22" s="47" t="s">
+      <c r="BM22" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="BN22" s="47"/>
-      <c r="BO22" s="47"/>
-      <c r="BP22" s="47"/>
-      <c r="BQ22" s="47"/>
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="46"/>
       <c r="BU22" s="44"/>
       <c r="BV22" s="44"/>
       <c r="BW22" s="44"/>
       <c r="BX22" s="44"/>
       <c r="BY22" s="44"/>
       <c r="BZ22" s="44"/>
-      <c r="CD22" s="54" t="s">
+      <c r="CD22" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="CE22" s="54"/>
-      <c r="CF22" s="54"/>
-      <c r="CG22" s="54"/>
-      <c r="CH22" s="54"/>
-      <c r="CI22" s="54"/>
+      <c r="CE22" s="57"/>
+      <c r="CF22" s="57"/>
+      <c r="CG22" s="57"/>
+      <c r="CH22" s="57"/>
+      <c r="CI22" s="57"/>
       <c r="CM22" s="44"/>
       <c r="CN22" s="44"/>
       <c r="CO22" s="44"/>
@@ -9406,69 +9550,67 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="J23" s="34" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="J23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="S23" s="5" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="53"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
       <c r="BL23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM23" s="47" t="s">
+      <c r="BM23" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="41"/>
-      <c r="BQ23" s="41"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="34"/>
+      <c r="BP23" s="34"/>
+      <c r="BQ23" s="34"/>
       <c r="BU23" s="44"/>
       <c r="BV23" s="44"/>
       <c r="BW23" s="44"/>
       <c r="BX23" s="44"/>
       <c r="BY23" s="44"/>
       <c r="BZ23" s="44"/>
-      <c r="CD23" s="55"/>
-      <c r="CE23" s="55"/>
-      <c r="CF23" s="55"/>
-      <c r="CG23" s="55"/>
-      <c r="CH23" s="55"/>
-      <c r="CI23" s="55"/>
+      <c r="CD23" s="58"/>
+      <c r="CE23" s="58"/>
+      <c r="CF23" s="58"/>
+      <c r="CG23" s="58"/>
+      <c r="CH23" s="58"/>
+      <c r="CI23" s="58"/>
       <c r="CM23" s="44"/>
       <c r="CN23" s="44"/>
       <c r="CO23" s="44"/>
@@ -9477,62 +9619,62 @@
       <c r="CR23" s="44"/>
     </row>
     <row r="24" spans="1:96" ht="15" customHeight="1">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="J24" s="37" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="J24" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="S24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="BC24" s="37" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="S24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="BC24" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BL24" s="40" t="s">
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="33"/>
+      <c r="BL24" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="BM24" s="40"/>
-      <c r="BN24" s="40"/>
-      <c r="BO24" s="40"/>
-      <c r="BP24" s="40"/>
-      <c r="BQ24" s="40"/>
-      <c r="CD24" s="37" t="s">
+      <c r="BM24" s="36"/>
+      <c r="BN24" s="36"/>
+      <c r="BO24" s="36"/>
+      <c r="BP24" s="36"/>
+      <c r="BQ24" s="36"/>
+      <c r="CD24" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="CE24" s="31"/>
-      <c r="CF24" s="31"/>
-      <c r="CG24" s="31"/>
-      <c r="CH24" s="31"/>
-      <c r="CI24" s="31"/>
+      <c r="CE24" s="33"/>
+      <c r="CF24" s="33"/>
+      <c r="CG24" s="33"/>
+      <c r="CH24" s="33"/>
+      <c r="CI24" s="33"/>
       <c r="CM24" s="44"/>
       <c r="CN24" s="44"/>
       <c r="CO24" s="44"/>
@@ -9541,40 +9683,40 @@
       <c r="CR24" s="44"/>
     </row>
     <row r="25" spans="1:96">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="J25" s="57" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="J25" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
       <c r="S25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="AT25" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="AT25" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="AU25" s="38"/>
-      <c r="AV25" s="38"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="38"/>
-      <c r="AY25" s="38"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
       <c r="BC25" s="44" t="s">
         <v>239</v>
       </c>
@@ -9583,14 +9725,14 @@
       <c r="BF25" s="44"/>
       <c r="BG25" s="44"/>
       <c r="BH25" s="44"/>
-      <c r="BL25" s="31" t="s">
+      <c r="BL25" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="BM25" s="31"/>
-      <c r="BN25" s="31"/>
-      <c r="BO25" s="31"/>
-      <c r="BP25" s="31"/>
-      <c r="BQ25" s="31"/>
+      <c r="BM25" s="33"/>
+      <c r="BN25" s="33"/>
+      <c r="BO25" s="33"/>
+      <c r="BP25" s="33"/>
+      <c r="BQ25" s="33"/>
       <c r="CD25" s="44" t="s">
         <v>140</v>
       </c>
@@ -9607,38 +9749,38 @@
       <c r="CR25" s="44"/>
     </row>
     <row r="26" spans="1:96" ht="15" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="S26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T26" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="AT26" s="53" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="S26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="AT26" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="53"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
       <c r="BC26" s="44"/>
       <c r="BD26" s="44"/>
       <c r="BE26" s="44"/>
@@ -9667,38 +9809,40 @@
       <c r="CR26" s="44"/>
     </row>
     <row r="27" spans="1:96">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="S27" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="53"/>
-      <c r="AW27" s="53"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="53"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="S27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="BC27" s="54"/>
+      <c r="BD27" s="54"/>
+      <c r="BE27" s="54"/>
+      <c r="BF27" s="54"/>
+      <c r="BG27" s="54"/>
+      <c r="BH27" s="54"/>
       <c r="BL27" s="5" t="s">
         <v>51</v>
       </c>
@@ -9709,44 +9853,44 @@
       <c r="BQ27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CD27" s="49"/>
-      <c r="CE27" s="49"/>
-      <c r="CF27" s="49"/>
-      <c r="CG27" s="49"/>
-      <c r="CH27" s="49"/>
-      <c r="CI27" s="49"/>
+      <c r="CD27" s="54"/>
+      <c r="CE27" s="54"/>
+      <c r="CF27" s="54"/>
+      <c r="CG27" s="54"/>
+      <c r="CH27" s="54"/>
+      <c r="CI27" s="54"/>
     </row>
     <row r="28" spans="1:96" ht="15" customHeight="1">
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="S28" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="BC28" s="31" t="s">
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="S28" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="BC28" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="31"/>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
       <c r="BL28" s="44" t="s">
         <v>333</v>
       </c>
@@ -9755,14 +9899,14 @@
       <c r="BO28" s="44"/>
       <c r="BP28" s="44"/>
       <c r="BQ28" s="44"/>
-      <c r="CD28" s="31" t="s">
+      <c r="CD28" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CE28" s="31"/>
-      <c r="CF28" s="31"/>
-      <c r="CG28" s="31"/>
-      <c r="CH28" s="31"/>
-      <c r="CI28" s="31"/>
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
+      <c r="CH28" s="33"/>
+      <c r="CI28" s="33"/>
     </row>
     <row r="29" spans="1:96" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
@@ -9773,12 +9917,14 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
+      <c r="S29" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
       <c r="BC29" s="5" t="s">
         <v>104</v>
       </c>
@@ -9808,73 +9954,71 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="S30" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
       <c r="BC30" s="5" t="s">
         <v>248</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="45" t="s">
+      <c r="BF30" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="BG30" s="46"/>
-      <c r="BH30" s="46"/>
-      <c r="BL30" s="31" t="s">
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BL30" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="31"/>
-      <c r="BO30" s="31"/>
-      <c r="BP30" s="31"/>
-      <c r="BQ30" s="31"/>
+      <c r="BM30" s="33"/>
+      <c r="BN30" s="33"/>
+      <c r="BO30" s="33"/>
+      <c r="BP30" s="33"/>
+      <c r="BQ30" s="33"/>
       <c r="CD30" s="5" t="s">
         <v>134</v>
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
-      <c r="CG30" s="45" t="s">
+      <c r="CG30" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="CH30" s="46"/>
-      <c r="CI30" s="46"/>
+      <c r="CH30" s="56"/>
+      <c r="CI30" s="56"/>
     </row>
     <row r="31" spans="1:96">
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="S31" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="BC31" s="48" t="s">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="S31" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="BC31" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
-      <c r="BG31" s="48"/>
-      <c r="BH31" s="48"/>
+      <c r="BD31" s="65"/>
+      <c r="BE31" s="65"/>
+      <c r="BF31" s="65"/>
+      <c r="BG31" s="65"/>
+      <c r="BH31" s="65"/>
       <c r="BL31" s="5" t="s">
         <v>323</v>
       </c>
@@ -9883,44 +10027,46 @@
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
-      <c r="CD31" s="42" t="s">
+      <c r="CD31" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="CE31" s="42"/>
-      <c r="CF31" s="42"/>
-      <c r="CG31" s="42"/>
-      <c r="CH31" s="42"/>
-      <c r="CI31" s="42"/>
+      <c r="CE31" s="37"/>
+      <c r="CF31" s="37"/>
+      <c r="CG31" s="37"/>
+      <c r="CH31" s="37"/>
+      <c r="CI31" s="37"/>
     </row>
     <row r="32" spans="1:96" ht="15" customHeight="1">
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="S32" s="44"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="S32" s="44" t="s">
+        <v>140</v>
+      </c>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
-      <c r="BC32" s="48"/>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48"/>
-      <c r="BF32" s="48"/>
-      <c r="BG32" s="48"/>
-      <c r="BH32" s="48"/>
+      <c r="BC32" s="65"/>
+      <c r="BD32" s="65"/>
+      <c r="BE32" s="65"/>
+      <c r="BF32" s="65"/>
+      <c r="BG32" s="65"/>
+      <c r="BH32" s="65"/>
       <c r="BL32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
-      <c r="BO32" s="45" t="s">
+      <c r="BO32" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BP32" s="46"/>
-      <c r="BQ32" s="46"/>
+      <c r="BP32" s="56"/>
+      <c r="BQ32" s="56"/>
       <c r="CD32" s="44" t="s">
         <v>150</v>
       </c>
@@ -9931,34 +10077,34 @@
       <c r="CI32" s="44"/>
     </row>
     <row r="33" spans="10:87">
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="BC33" s="48"/>
-      <c r="BD33" s="48"/>
-      <c r="BE33" s="48"/>
-      <c r="BF33" s="48"/>
-      <c r="BG33" s="48"/>
-      <c r="BH33" s="48"/>
-      <c r="BL33" s="42" t="s">
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="BC33" s="65"/>
+      <c r="BD33" s="65"/>
+      <c r="BE33" s="65"/>
+      <c r="BF33" s="65"/>
+      <c r="BG33" s="65"/>
+      <c r="BH33" s="65"/>
+      <c r="BL33" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="BM33" s="42"/>
-      <c r="BN33" s="42"/>
-      <c r="BO33" s="42"/>
-      <c r="BP33" s="42"/>
-      <c r="BQ33" s="42"/>
+      <c r="BM33" s="37"/>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="37"/>
       <c r="CD33" s="44"/>
       <c r="CE33" s="44"/>
       <c r="CF33" s="44"/>
@@ -9975,14 +10121,12 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
       <c r="BC34" s="44" t="s">
         <v>252</v>
       </c>
@@ -10012,19 +10156,19 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="45" t="s">
+      <c r="M35" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="S35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="S35" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
       <c r="BC35" s="44"/>
       <c r="BD35" s="44"/>
       <c r="BE35" s="44"/>
@@ -10045,24 +10189,22 @@
       <c r="CI35" s="44"/>
     </row>
     <row r="36" spans="10:87" ht="15" customHeight="1">
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
       <c r="S36" s="5" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
       <c r="BC36" s="44"/>
       <c r="BD36" s="44"/>
       <c r="BE36" s="44"/>
@@ -10072,49 +10214,51 @@
       <c r="CD36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE36" s="47" t="s">
+      <c r="CE36" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="CF36" s="41"/>
-      <c r="CG36" s="41"/>
-      <c r="CH36" s="41"/>
-      <c r="CI36" s="41"/>
+      <c r="CF36" s="34"/>
+      <c r="CG36" s="34"/>
+      <c r="CH36" s="34"/>
+      <c r="CI36" s="34"/>
     </row>
     <row r="37" spans="10:87">
-      <c r="J37" s="37" t="s">
+      <c r="J37" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="S37" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="BC37" s="31" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="S37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="BC37" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
-      <c r="BH37" s="31"/>
+      <c r="BD37" s="33"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="33"/>
+      <c r="BG37" s="33"/>
+      <c r="BH37" s="33"/>
       <c r="CD37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE37" s="47" t="s">
+      <c r="CE37" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="CF37" s="41"/>
-      <c r="CG37" s="41"/>
-      <c r="CH37" s="41"/>
-      <c r="CI37" s="41"/>
+      <c r="CF37" s="34"/>
+      <c r="CG37" s="34"/>
+      <c r="CH37" s="34"/>
+      <c r="CI37" s="34"/>
     </row>
     <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
@@ -10125,14 +10269,14 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
+      <c r="S38" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
       <c r="BC38" s="5" t="s">
         <v>53</v>
       </c>
@@ -10158,12 +10302,14 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="S39" s="44"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="S39" s="44" t="s">
+        <v>150</v>
+      </c>
       <c r="T39" s="44"/>
       <c r="U39" s="44"/>
       <c r="V39" s="44"/>
@@ -10174,11 +10320,11 @@
       </c>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="45" t="s">
+      <c r="BF39" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BG39" s="46"/>
-      <c r="BH39" s="46"/>
+      <c r="BG39" s="56"/>
+      <c r="BH39" s="56"/>
       <c r="CD39" s="44" t="s">
         <v>139</v>
       </c>
@@ -10189,36 +10335,36 @@
       <c r="CI39" s="44"/>
     </row>
     <row r="40" spans="10:87" ht="15" customHeight="1">
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="44"/>
       <c r="V40" s="44"/>
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
-      <c r="BC40" s="42" t="s">
+      <c r="BC40" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="37"/>
+      <c r="BG40" s="37"/>
+      <c r="BH40" s="37"/>
     </row>
     <row r="41" spans="10:87">
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
@@ -10235,22 +10381,18 @@
       <c r="BH41" s="44"/>
     </row>
     <row r="42" spans="10:87">
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="S42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
       <c r="BC42" s="44"/>
       <c r="BD42" s="44"/>
       <c r="BE42" s="44"/>
@@ -10260,15 +10402,15 @@
     </row>
     <row r="43" spans="10:87" ht="15" customHeight="1">
       <c r="S43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="T43" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="T43" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
       <c r="BC43" s="44"/>
       <c r="BD43" s="44"/>
       <c r="BE43" s="44"/>
@@ -10277,44 +10419,56 @@
       <c r="BH43" s="44"/>
     </row>
     <row r="44" spans="10:87">
-      <c r="S44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T44" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
+      <c r="S44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
     </row>
     <row r="45" spans="10:87">
-      <c r="S45" s="44" t="s">
+      <c r="S45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+    </row>
+    <row r="46" spans="10:87">
+      <c r="S46" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
     </row>
     <row r="48" spans="10:87">
-      <c r="BC48" s="37" t="s">
+      <c r="BC48" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="CD48" s="37" t="s">
+      <c r="BD48" s="41"/>
+      <c r="BE48" s="41"/>
+      <c r="BF48" s="41"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="CD48" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="CE48" s="38"/>
-      <c r="CF48" s="38"/>
-      <c r="CG48" s="38"/>
-      <c r="CH48" s="38"/>
-      <c r="CI48" s="38"/>
+      <c r="CE48" s="42"/>
+      <c r="CF48" s="42"/>
+      <c r="CG48" s="42"/>
+      <c r="CH48" s="42"/>
+      <c r="CI48" s="42"/>
     </row>
     <row r="49" spans="55:87">
       <c r="BC49" s="5" t="s">
@@ -10340,55 +10494,55 @@
       </c>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="45" t="s">
+      <c r="BF50" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="BG50" s="45"/>
-      <c r="BH50" s="45"/>
+      <c r="BG50" s="55"/>
+      <c r="BH50" s="55"/>
       <c r="CD50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" s="1"/>
-      <c r="CG50" s="45" t="s">
+      <c r="CG50" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="CH50" s="46"/>
-      <c r="CI50" s="46"/>
+      <c r="CH50" s="56"/>
+      <c r="CI50" s="56"/>
     </row>
     <row r="51" spans="55:87" ht="15" customHeight="1">
-      <c r="BC51" s="39" t="s">
+      <c r="BC51" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="BD51" s="39"/>
-      <c r="BE51" s="39"/>
-      <c r="BF51" s="39"/>
-      <c r="BG51" s="39"/>
-      <c r="BH51" s="39"/>
-      <c r="BL51" s="37" t="s">
+      <c r="BD51" s="35"/>
+      <c r="BE51" s="35"/>
+      <c r="BF51" s="35"/>
+      <c r="BG51" s="35"/>
+      <c r="BH51" s="35"/>
+      <c r="BL51" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="BM51" s="37"/>
-      <c r="BN51" s="37"/>
-      <c r="BO51" s="37"/>
-      <c r="BP51" s="37"/>
-      <c r="BQ51" s="37"/>
-      <c r="CD51" s="39" t="s">
+      <c r="BM51" s="41"/>
+      <c r="BN51" s="41"/>
+      <c r="BO51" s="41"/>
+      <c r="BP51" s="41"/>
+      <c r="BQ51" s="41"/>
+      <c r="CD51" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CE51" s="39"/>
-      <c r="CF51" s="39"/>
-      <c r="CG51" s="39"/>
-      <c r="CH51" s="39"/>
-      <c r="CI51" s="39"/>
+      <c r="CE51" s="35"/>
+      <c r="CF51" s="35"/>
+      <c r="CG51" s="35"/>
+      <c r="CH51" s="35"/>
+      <c r="CI51" s="35"/>
     </row>
     <row r="52" spans="55:87">
-      <c r="BC52" s="40"/>
-      <c r="BD52" s="40"/>
-      <c r="BE52" s="40"/>
-      <c r="BF52" s="40"/>
-      <c r="BG52" s="40"/>
-      <c r="BH52" s="40"/>
+      <c r="BC52" s="36"/>
+      <c r="BD52" s="36"/>
+      <c r="BE52" s="36"/>
+      <c r="BF52" s="36"/>
+      <c r="BG52" s="36"/>
+      <c r="BH52" s="36"/>
       <c r="BL52" s="5" t="s">
         <v>98</v>
       </c>
@@ -10397,22 +10551,22 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
       <c r="BQ52" s="1"/>
-      <c r="CD52" s="39"/>
-      <c r="CE52" s="39"/>
-      <c r="CF52" s="39"/>
-      <c r="CG52" s="39"/>
-      <c r="CH52" s="39"/>
-      <c r="CI52" s="39"/>
+      <c r="CD52" s="35"/>
+      <c r="CE52" s="35"/>
+      <c r="CF52" s="35"/>
+      <c r="CG52" s="35"/>
+      <c r="CH52" s="35"/>
+      <c r="CI52" s="35"/>
     </row>
     <row r="53" spans="55:87">
-      <c r="BC53" s="37" t="s">
+      <c r="BC53" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="BD53" s="37"/>
-      <c r="BE53" s="37"/>
-      <c r="BF53" s="37"/>
-      <c r="BG53" s="37"/>
-      <c r="BH53" s="37"/>
+      <c r="BD53" s="41"/>
+      <c r="BE53" s="41"/>
+      <c r="BF53" s="41"/>
+      <c r="BG53" s="41"/>
+      <c r="BH53" s="41"/>
       <c r="BL53" s="5" t="s">
         <v>310</v>
       </c>
@@ -10423,14 +10577,14 @@
       <c r="BQ53" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="CD53" s="37" t="s">
+      <c r="CD53" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="CE53" s="38"/>
-      <c r="CF53" s="38"/>
-      <c r="CG53" s="38"/>
-      <c r="CH53" s="38"/>
-      <c r="CI53" s="38"/>
+      <c r="CE53" s="42"/>
+      <c r="CF53" s="42"/>
+      <c r="CG53" s="42"/>
+      <c r="CH53" s="42"/>
+      <c r="CI53" s="42"/>
     </row>
     <row r="54" spans="55:87">
       <c r="BC54" s="5" t="s">
@@ -10441,14 +10595,14 @@
       <c r="BF54" s="1"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
-      <c r="BL54" s="39" t="s">
+      <c r="BL54" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="BM54" s="39"/>
-      <c r="BN54" s="39"/>
-      <c r="BO54" s="39"/>
-      <c r="BP54" s="39"/>
-      <c r="BQ54" s="39"/>
+      <c r="BM54" s="35"/>
+      <c r="BN54" s="35"/>
+      <c r="BO54" s="35"/>
+      <c r="BP54" s="35"/>
+      <c r="BQ54" s="35"/>
       <c r="CD54" s="5" t="s">
         <v>98</v>
       </c>
@@ -10464,67 +10618,67 @@
       </c>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="45" t="s">
+      <c r="BF55" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="BG55" s="45"/>
-      <c r="BH55" s="45"/>
+      <c r="BG55" s="55"/>
+      <c r="BH55" s="55"/>
       <c r="BL55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM55" s="47" t="s">
+      <c r="BM55" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="BN55" s="41"/>
-      <c r="BO55" s="41"/>
-      <c r="BP55" s="41"/>
-      <c r="BQ55" s="41"/>
+      <c r="BN55" s="34"/>
+      <c r="BO55" s="34"/>
+      <c r="BP55" s="34"/>
+      <c r="BQ55" s="34"/>
       <c r="CD55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" s="1"/>
-      <c r="CG55" s="45" t="s">
+      <c r="CG55" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="CH55" s="46"/>
-      <c r="CI55" s="46"/>
+      <c r="CH55" s="56"/>
+      <c r="CI55" s="56"/>
     </row>
     <row r="56" spans="55:87">
-      <c r="BC56" s="39" t="s">
+      <c r="BC56" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="BD56" s="39"/>
-      <c r="BE56" s="39"/>
-      <c r="BF56" s="39"/>
-      <c r="BG56" s="39"/>
-      <c r="BH56" s="39"/>
+      <c r="BD56" s="35"/>
+      <c r="BE56" s="35"/>
+      <c r="BF56" s="35"/>
+      <c r="BG56" s="35"/>
+      <c r="BH56" s="35"/>
       <c r="BL56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM56" s="47" t="s">
+      <c r="BM56" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="BN56" s="41"/>
-      <c r="BO56" s="41"/>
-      <c r="BP56" s="41"/>
-      <c r="BQ56" s="41"/>
-      <c r="CD56" s="39" t="s">
+      <c r="BN56" s="34"/>
+      <c r="BO56" s="34"/>
+      <c r="BP56" s="34"/>
+      <c r="BQ56" s="34"/>
+      <c r="CD56" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CE56" s="39"/>
-      <c r="CF56" s="39"/>
-      <c r="CG56" s="39"/>
-      <c r="CH56" s="39"/>
-      <c r="CI56" s="39"/>
+      <c r="CE56" s="35"/>
+      <c r="CF56" s="35"/>
+      <c r="CG56" s="35"/>
+      <c r="CH56" s="35"/>
+      <c r="CI56" s="35"/>
     </row>
     <row r="57" spans="55:87">
-      <c r="BC57" s="40"/>
-      <c r="BD57" s="40"/>
-      <c r="BE57" s="40"/>
-      <c r="BF57" s="40"/>
-      <c r="BG57" s="40"/>
-      <c r="BH57" s="40"/>
+      <c r="BC57" s="36"/>
+      <c r="BD57" s="36"/>
+      <c r="BE57" s="36"/>
+      <c r="BF57" s="36"/>
+      <c r="BG57" s="36"/>
+      <c r="BH57" s="36"/>
       <c r="BL57" s="1" t="s">
         <v>7</v>
       </c>
@@ -10535,32 +10689,32 @@
       <c r="BO57" s="7"/>
       <c r="BP57" s="7"/>
       <c r="BQ57" s="7"/>
-      <c r="CD57" s="37" t="s">
+      <c r="CD57" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="CE57" s="38"/>
-      <c r="CF57" s="38"/>
-      <c r="CG57" s="38"/>
-      <c r="CH57" s="38"/>
-      <c r="CI57" s="38"/>
+      <c r="CE57" s="42"/>
+      <c r="CF57" s="42"/>
+      <c r="CG57" s="42"/>
+      <c r="CH57" s="42"/>
+      <c r="CI57" s="42"/>
     </row>
     <row r="58" spans="55:87" ht="15" customHeight="1">
-      <c r="BC58" s="37" t="s">
+      <c r="BC58" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="BD58" s="37"/>
-      <c r="BE58" s="37"/>
-      <c r="BF58" s="37"/>
-      <c r="BG58" s="37"/>
-      <c r="BH58" s="37"/>
-      <c r="BL58" s="37" t="s">
+      <c r="BD58" s="41"/>
+      <c r="BE58" s="41"/>
+      <c r="BF58" s="41"/>
+      <c r="BG58" s="41"/>
+      <c r="BH58" s="41"/>
+      <c r="BL58" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="BM58" s="37"/>
-      <c r="BN58" s="37"/>
-      <c r="BO58" s="37"/>
-      <c r="BP58" s="37"/>
-      <c r="BQ58" s="37"/>
+      <c r="BM58" s="41"/>
+      <c r="BN58" s="41"/>
+      <c r="BO58" s="41"/>
+      <c r="BP58" s="41"/>
+      <c r="BQ58" s="41"/>
       <c r="CD58" s="5" t="s">
         <v>104</v>
       </c>
@@ -10592,11 +10746,11 @@
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
-      <c r="CG59" s="45" t="s">
+      <c r="CG59" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="CH59" s="46"/>
-      <c r="CI59" s="46"/>
+      <c r="CH59" s="56"/>
+      <c r="CI59" s="56"/>
     </row>
     <row r="60" spans="55:87" ht="15" customHeight="1">
       <c r="BC60" s="5" t="s">
@@ -10604,97 +10758,97 @@
       </c>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-      <c r="BF60" s="45" t="s">
+      <c r="BF60" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BG60" s="46"/>
-      <c r="BH60" s="46"/>
+      <c r="BG60" s="56"/>
+      <c r="BH60" s="56"/>
       <c r="BL60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="45" t="s">
+      <c r="BO60" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BP60" s="45"/>
-      <c r="BQ60" s="45"/>
-      <c r="CD60" s="39" t="s">
+      <c r="BP60" s="55"/>
+      <c r="BQ60" s="55"/>
+      <c r="CD60" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="CE60" s="39"/>
-      <c r="CF60" s="39"/>
-      <c r="CG60" s="39"/>
-      <c r="CH60" s="39"/>
-      <c r="CI60" s="39"/>
+      <c r="CE60" s="35"/>
+      <c r="CF60" s="35"/>
+      <c r="CG60" s="35"/>
+      <c r="CH60" s="35"/>
+      <c r="CI60" s="35"/>
     </row>
     <row r="61" spans="55:87">
-      <c r="BC61" s="39" t="s">
+      <c r="BC61" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="BD61" s="39"/>
-      <c r="BE61" s="39"/>
-      <c r="BF61" s="39"/>
-      <c r="BG61" s="39"/>
-      <c r="BH61" s="39"/>
-      <c r="BL61" s="74" t="s">
+      <c r="BD61" s="35"/>
+      <c r="BE61" s="35"/>
+      <c r="BF61" s="35"/>
+      <c r="BG61" s="35"/>
+      <c r="BH61" s="35"/>
+      <c r="BL61" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="BM61" s="74"/>
-      <c r="BN61" s="74"/>
-      <c r="BO61" s="74"/>
-      <c r="BP61" s="74"/>
-      <c r="BQ61" s="74"/>
-      <c r="CD61" s="39"/>
-      <c r="CE61" s="39"/>
-      <c r="CF61" s="39"/>
-      <c r="CG61" s="39"/>
-      <c r="CH61" s="39"/>
-      <c r="CI61" s="39"/>
+      <c r="BM61" s="35"/>
+      <c r="BN61" s="35"/>
+      <c r="BO61" s="35"/>
+      <c r="BP61" s="35"/>
+      <c r="BQ61" s="35"/>
+      <c r="CD61" s="35"/>
+      <c r="CE61" s="35"/>
+      <c r="CF61" s="35"/>
+      <c r="CG61" s="35"/>
+      <c r="CH61" s="35"/>
+      <c r="CI61" s="35"/>
     </row>
     <row r="62" spans="55:87">
-      <c r="BC62" s="39"/>
-      <c r="BD62" s="39"/>
-      <c r="BE62" s="39"/>
-      <c r="BF62" s="39"/>
-      <c r="BG62" s="39"/>
-      <c r="BH62" s="39"/>
-      <c r="BL62" s="74"/>
-      <c r="BM62" s="74"/>
-      <c r="BN62" s="74"/>
-      <c r="BO62" s="74"/>
-      <c r="BP62" s="74"/>
-      <c r="BQ62" s="74"/>
-      <c r="CD62" s="39"/>
-      <c r="CE62" s="39"/>
-      <c r="CF62" s="39"/>
-      <c r="CG62" s="39"/>
-      <c r="CH62" s="39"/>
-      <c r="CI62" s="39"/>
+      <c r="BC62" s="35"/>
+      <c r="BD62" s="35"/>
+      <c r="BE62" s="35"/>
+      <c r="BF62" s="35"/>
+      <c r="BG62" s="35"/>
+      <c r="BH62" s="35"/>
+      <c r="BL62" s="35"/>
+      <c r="BM62" s="35"/>
+      <c r="BN62" s="35"/>
+      <c r="BO62" s="35"/>
+      <c r="BP62" s="35"/>
+      <c r="BQ62" s="35"/>
+      <c r="CD62" s="35"/>
+      <c r="CE62" s="35"/>
+      <c r="CF62" s="35"/>
+      <c r="CG62" s="35"/>
+      <c r="CH62" s="35"/>
+      <c r="CI62" s="35"/>
     </row>
     <row r="63" spans="55:87">
-      <c r="BC63" s="39"/>
-      <c r="BD63" s="39"/>
-      <c r="BE63" s="39"/>
-      <c r="BF63" s="39"/>
-      <c r="BG63" s="39"/>
-      <c r="BH63" s="39"/>
-      <c r="BL63" s="40"/>
-      <c r="BM63" s="40"/>
-      <c r="BN63" s="40"/>
-      <c r="BO63" s="40"/>
-      <c r="BP63" s="40"/>
-      <c r="BQ63" s="40"/>
+      <c r="BC63" s="35"/>
+      <c r="BD63" s="35"/>
+      <c r="BE63" s="35"/>
+      <c r="BF63" s="35"/>
+      <c r="BG63" s="35"/>
+      <c r="BH63" s="35"/>
+      <c r="BL63" s="36"/>
+      <c r="BM63" s="36"/>
+      <c r="BN63" s="36"/>
+      <c r="BO63" s="36"/>
+      <c r="BP63" s="36"/>
+      <c r="BQ63" s="36"/>
     </row>
     <row r="64" spans="55:87" ht="15" customHeight="1">
-      <c r="BL64" s="37" t="s">
+      <c r="BL64" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="BM64" s="37"/>
-      <c r="BN64" s="37"/>
-      <c r="BO64" s="37"/>
-      <c r="BP64" s="37"/>
-      <c r="BQ64" s="37"/>
+      <c r="BM64" s="41"/>
+      <c r="BN64" s="41"/>
+      <c r="BO64" s="41"/>
+      <c r="BP64" s="41"/>
+      <c r="BQ64" s="41"/>
     </row>
     <row r="65" spans="64:69">
       <c r="BL65" s="5" t="s">
@@ -10712,159 +10866,144 @@
       </c>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
-      <c r="BO66" s="45" t="s">
+      <c r="BO66" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BP66" s="46"/>
-      <c r="BQ66" s="46"/>
+      <c r="BP66" s="56"/>
+      <c r="BQ66" s="56"/>
     </row>
     <row r="67" spans="64:69">
-      <c r="BL67" s="39" t="s">
+      <c r="BL67" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="BM67" s="39"/>
-      <c r="BN67" s="39"/>
-      <c r="BO67" s="39"/>
-      <c r="BP67" s="39"/>
-      <c r="BQ67" s="39"/>
+      <c r="BM67" s="35"/>
+      <c r="BN67" s="35"/>
+      <c r="BO67" s="35"/>
+      <c r="BP67" s="35"/>
+      <c r="BQ67" s="35"/>
     </row>
     <row r="68" spans="64:69">
-      <c r="BL68" s="39"/>
-      <c r="BM68" s="39"/>
-      <c r="BN68" s="39"/>
-      <c r="BO68" s="39"/>
-      <c r="BP68" s="39"/>
-      <c r="BQ68" s="39"/>
+      <c r="BL68" s="35"/>
+      <c r="BM68" s="35"/>
+      <c r="BN68" s="35"/>
+      <c r="BO68" s="35"/>
+      <c r="BP68" s="35"/>
+      <c r="BQ68" s="35"/>
     </row>
     <row r="69" spans="64:69">
-      <c r="BL69" s="39"/>
-      <c r="BM69" s="39"/>
-      <c r="BN69" s="39"/>
-      <c r="BO69" s="39"/>
-      <c r="BP69" s="39"/>
-      <c r="BQ69" s="39"/>
+      <c r="BL69" s="35"/>
+      <c r="BM69" s="35"/>
+      <c r="BN69" s="35"/>
+      <c r="BO69" s="35"/>
+      <c r="BP69" s="35"/>
+      <c r="BQ69" s="35"/>
     </row>
     <row r="70" spans="64:69">
-      <c r="BL70" s="39"/>
-      <c r="BM70" s="39"/>
-      <c r="BN70" s="39"/>
-      <c r="BO70" s="39"/>
-      <c r="BP70" s="39"/>
-      <c r="BQ70" s="39"/>
+      <c r="BL70" s="35"/>
+      <c r="BM70" s="35"/>
+      <c r="BN70" s="35"/>
+      <c r="BO70" s="35"/>
+      <c r="BP70" s="35"/>
+      <c r="BQ70" s="35"/>
     </row>
     <row r="71" spans="64:69">
-      <c r="BL71" s="39"/>
-      <c r="BM71" s="39"/>
-      <c r="BN71" s="39"/>
-      <c r="BO71" s="39"/>
-      <c r="BP71" s="39"/>
-      <c r="BQ71" s="39"/>
+      <c r="BL71" s="35"/>
+      <c r="BM71" s="35"/>
+      <c r="BN71" s="35"/>
+      <c r="BO71" s="35"/>
+      <c r="BP71" s="35"/>
+      <c r="BQ71" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="BL67:BQ71"/>
-    <mergeCell ref="BL12:BQ12"/>
-    <mergeCell ref="BL13:BQ14"/>
-    <mergeCell ref="BU17:BZ23"/>
-    <mergeCell ref="BL54:BQ54"/>
-    <mergeCell ref="BM55:BQ55"/>
-    <mergeCell ref="BM56:BQ56"/>
-    <mergeCell ref="BL9:BQ11"/>
-    <mergeCell ref="BL15:BQ15"/>
-    <mergeCell ref="BL16:BQ17"/>
-    <mergeCell ref="BL34:BQ35"/>
-    <mergeCell ref="BL24:BQ24"/>
-    <mergeCell ref="BL28:BQ29"/>
-    <mergeCell ref="BL61:BQ63"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="S10:X12"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB16:AG17"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AB13:AG14"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="S34:X34"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="S31:X33"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="S38:X41"/>
-    <mergeCell ref="S28:X29"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J31:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J25:O27"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S19:X20"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="CM20:CR26"/>
+    <mergeCell ref="BO66:BQ66"/>
+    <mergeCell ref="BC58:BH58"/>
+    <mergeCell ref="CM5:CR5"/>
+    <mergeCell ref="CM6:CR6"/>
+    <mergeCell ref="CN9:CR9"/>
+    <mergeCell ref="CM14:CR14"/>
+    <mergeCell ref="CM15:CR18"/>
+    <mergeCell ref="CN10:CR10"/>
+    <mergeCell ref="CM12:CR13"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="BO20:BQ20"/>
+    <mergeCell ref="BM21:BQ21"/>
+    <mergeCell ref="BM22:BQ22"/>
+    <mergeCell ref="BC56:BH57"/>
+    <mergeCell ref="BL51:BQ51"/>
+    <mergeCell ref="BL58:BQ58"/>
+    <mergeCell ref="BO60:BQ60"/>
+    <mergeCell ref="BL64:BQ64"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BC31:BH33"/>
+    <mergeCell ref="BC34:BH36"/>
+    <mergeCell ref="BU2:BZ3"/>
+    <mergeCell ref="BU16:BZ16"/>
+    <mergeCell ref="BU11:BZ12"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BU4:BZ4"/>
+    <mergeCell ref="BU5:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BU8:BZ9"/>
+    <mergeCell ref="BU10:BZ10"/>
+    <mergeCell ref="BV14:BZ14"/>
+    <mergeCell ref="BV15:BZ15"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BL7:BQ8"/>
+    <mergeCell ref="BL18:BQ18"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="CD56:CI56"/>
+    <mergeCell ref="CD57:CI57"/>
+    <mergeCell ref="CG59:CI59"/>
+    <mergeCell ref="CD60:CI62"/>
+    <mergeCell ref="BF60:BH60"/>
+    <mergeCell ref="BC61:BH63"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AT16:AY20"/>
+    <mergeCell ref="BC48:BH48"/>
+    <mergeCell ref="BF50:BH50"/>
+    <mergeCell ref="BC51:BH52"/>
+    <mergeCell ref="BC53:BH53"/>
+    <mergeCell ref="BF55:BH55"/>
+    <mergeCell ref="AT26:AY28"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BC21:BH23"/>
+    <mergeCell ref="BC41:BH43"/>
+    <mergeCell ref="BC25:BH27"/>
+    <mergeCell ref="BC37:BH37"/>
+    <mergeCell ref="BF39:BH39"/>
+    <mergeCell ref="BC40:BH40"/>
+    <mergeCell ref="BC24:BH24"/>
+    <mergeCell ref="BC28:BH28"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
+    <mergeCell ref="CD31:CI31"/>
+    <mergeCell ref="CD32:CI35"/>
+    <mergeCell ref="CD6:CI6"/>
+    <mergeCell ref="CD7:CI7"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="CE12:CI12"/>
+    <mergeCell ref="CD13:CI14"/>
+    <mergeCell ref="CD15:CI15"/>
+    <mergeCell ref="CE18:CI18"/>
     <mergeCell ref="CE19:CI19"/>
     <mergeCell ref="BC5:BH5"/>
     <mergeCell ref="AK16:AP17"/>
@@ -10889,98 +11028,113 @@
     <mergeCell ref="AU11:AY11"/>
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="AK20:AP20"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="S19:X21"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J31:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J25:O27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="S32:X34"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="S39:X42"/>
+    <mergeCell ref="S29:X30"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB16:AG17"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AB13:AG14"/>
+    <mergeCell ref="BL67:BQ71"/>
+    <mergeCell ref="BL12:BQ12"/>
+    <mergeCell ref="BL13:BQ14"/>
+    <mergeCell ref="BU17:BZ23"/>
+    <mergeCell ref="BL54:BQ54"/>
+    <mergeCell ref="BM55:BQ55"/>
+    <mergeCell ref="BM56:BQ56"/>
+    <mergeCell ref="BL9:BQ11"/>
+    <mergeCell ref="BL15:BQ15"/>
+    <mergeCell ref="BL16:BQ17"/>
+    <mergeCell ref="BL34:BQ35"/>
+    <mergeCell ref="BL24:BQ24"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL61:BQ63"/>
     <mergeCell ref="BO32:BQ32"/>
     <mergeCell ref="BL33:BQ33"/>
     <mergeCell ref="BM23:BQ23"/>
     <mergeCell ref="BL25:BQ25"/>
-    <mergeCell ref="CD6:CI6"/>
-    <mergeCell ref="CD7:CI7"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="CE12:CI12"/>
-    <mergeCell ref="CD13:CI14"/>
-    <mergeCell ref="CD15:CI15"/>
-    <mergeCell ref="CE18:CI18"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CD21:CI21"/>
-    <mergeCell ref="CD22:CI23"/>
-    <mergeCell ref="CD24:CI24"/>
-    <mergeCell ref="CD48:CI48"/>
-    <mergeCell ref="CG50:CI50"/>
-    <mergeCell ref="CD51:CI52"/>
-    <mergeCell ref="CD53:CI53"/>
-    <mergeCell ref="CG55:CI55"/>
-    <mergeCell ref="CE36:CI36"/>
-    <mergeCell ref="CE37:CI37"/>
-    <mergeCell ref="CD39:CI39"/>
-    <mergeCell ref="CD25:CI27"/>
-    <mergeCell ref="CD28:CI28"/>
-    <mergeCell ref="CG30:CI30"/>
-    <mergeCell ref="CD31:CI31"/>
-    <mergeCell ref="CD32:CI35"/>
-    <mergeCell ref="CD56:CI56"/>
-    <mergeCell ref="CD57:CI57"/>
-    <mergeCell ref="CG59:CI59"/>
-    <mergeCell ref="CD60:CI62"/>
-    <mergeCell ref="BF60:BH60"/>
-    <mergeCell ref="BC61:BH63"/>
-    <mergeCell ref="AT13:AY13"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AT16:AY20"/>
-    <mergeCell ref="BC48:BH48"/>
-    <mergeCell ref="BF50:BH50"/>
-    <mergeCell ref="BC51:BH52"/>
-    <mergeCell ref="BC53:BH53"/>
-    <mergeCell ref="BF55:BH55"/>
-    <mergeCell ref="AT26:AY28"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BC21:BH23"/>
-    <mergeCell ref="BC41:BH43"/>
-    <mergeCell ref="BC25:BH27"/>
-    <mergeCell ref="BC37:BH37"/>
-    <mergeCell ref="BF39:BH39"/>
-    <mergeCell ref="BC40:BH40"/>
-    <mergeCell ref="BC24:BH24"/>
-    <mergeCell ref="BC28:BH28"/>
-    <mergeCell ref="BC34:BH36"/>
-    <mergeCell ref="BU2:BZ3"/>
-    <mergeCell ref="BU16:BZ16"/>
-    <mergeCell ref="BU11:BZ12"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BU4:BZ4"/>
-    <mergeCell ref="BU5:BZ6"/>
-    <mergeCell ref="BU7:BZ7"/>
-    <mergeCell ref="BU8:BZ9"/>
-    <mergeCell ref="BU10:BZ10"/>
-    <mergeCell ref="BV14:BZ14"/>
-    <mergeCell ref="BV15:BZ15"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
-    <mergeCell ref="BL7:BQ8"/>
-    <mergeCell ref="BL18:BQ18"/>
-    <mergeCell ref="BL30:BQ30"/>
-    <mergeCell ref="CM20:CR26"/>
-    <mergeCell ref="BO66:BQ66"/>
-    <mergeCell ref="BC58:BH58"/>
-    <mergeCell ref="CM5:CR5"/>
-    <mergeCell ref="CM6:CR6"/>
-    <mergeCell ref="CN9:CR9"/>
-    <mergeCell ref="CM14:CR14"/>
-    <mergeCell ref="CM15:CR18"/>
-    <mergeCell ref="CN10:CR10"/>
-    <mergeCell ref="CM12:CR13"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="BO20:BQ20"/>
-    <mergeCell ref="BM21:BQ21"/>
-    <mergeCell ref="BM22:BQ22"/>
-    <mergeCell ref="BC56:BH57"/>
-    <mergeCell ref="BL51:BQ51"/>
-    <mergeCell ref="BL58:BQ58"/>
-    <mergeCell ref="BO60:BQ60"/>
-    <mergeCell ref="BL64:BQ64"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BC31:BH33"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11003,54 +11157,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="S1" s="59" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="S1" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="AB1" s="69" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="AB1" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="71" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AK1" s="66" t="s">
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AK1" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -11121,40 +11275,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="66"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="68" t="s">
+      <c r="W3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="68"/>
+      <c r="X3" s="66"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="68" t="s">
+      <c r="AF3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="68"/>
+      <c r="AG3" s="66"/>
       <c r="AK3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="68" t="s">
+      <c r="AO3" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="AP3" s="68"/>
+      <c r="AP3" s="66"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -11173,38 +11327,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="37"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="42"/>
+      <c r="X4" s="37"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="42" t="s">
+      <c r="AF4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="42"/>
+      <c r="AG4" s="37"/>
       <c r="AK4" s="5" t="s">
         <v>179</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -11215,90 +11369,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="S5" s="29" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="S5" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="AB5" s="29" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="AB5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AK5" s="29" t="s">
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AK5" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="S6" s="31" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="S6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="AB6" s="31" t="s">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="AB6" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AK6" s="37" t="s">
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AK6" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -11323,14 +11477,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="53" t="s">
+      <c r="AK7" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -11346,37 +11500,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="45" t="s">
+      <c r="V8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="45" t="s">
+      <c r="AE8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -11384,169 +11538,169 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="AB9" s="39" t="s">
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="AB9" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="47" t="s">
+      <c r="T10" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="47" t="s">
+      <c r="AC11" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="J12" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="S12" s="37" t="s">
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="S12" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="47" t="s">
+      <c r="AC12" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -11555,62 +11709,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="S13" s="57" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="S13" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="47" t="s">
+      <c r="AC13" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="J14" s="37" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="AB14" s="37" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="AB14" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
     </row>
     <row r="15" spans="1:42" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -11621,30 +11775,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="S15" s="37" t="s">
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="S15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="AB15" s="57" t="s">
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="AB15" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -11652,193 +11806,213 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="S16" s="57" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="S16" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="AB17" s="37" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="AB17" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="AB18" s="53" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="AB18" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="AB21" s="37" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="AB21" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="AB22" s="53" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="AB22" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AB22:AG24"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A22:F23"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A20:F20"/>
@@ -11849,19 +12023,21 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AB22:AG24"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W3:X3"/>
     <mergeCell ref="S15:X15"/>
     <mergeCell ref="S13:X14"/>
     <mergeCell ref="S16:X18"/>
@@ -11869,28 +12045,6 @@
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="S12:X12"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AB15:AG16"/>
-    <mergeCell ref="AB9:AG10"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG20"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP10"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK5:AP5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8BB19D-BBB9-4CCE-8A08-3BA5C4382A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F88BDF3-2BA9-471B-BD82-23D6BC284318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1080" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="1050" yWindow="735" windowWidth="20475" windowHeight="14100" activeTab="3" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -3024,21 +3024,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Effect </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bleddyn and her mentor, if they're within 5 squares from Bleddyn, can shift 2 before the ability is used.</t>
-    </r>
-  </si>
-  <si>
     <t>Unwavering in the Storm</t>
   </si>
   <si>
@@ -6207,6 +6192,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>The horror can vertical push 5 two creatures among either the targets or creatures it has grabbed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bleddyn and their mentor, if they're within 5 squares from Bleddyn, can shift 2 before the ability is used.</t>
     </r>
   </si>
 </sst>
@@ -6502,6 +6502,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6525,12 +6531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7472,7 +7472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
   <dimension ref="A1:CR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="L7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
@@ -7527,85 +7527,85 @@
       </c>
       <c r="W1" s="30"/>
       <c r="X1" s="30"/>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
       <c r="AK1" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="25"/>
       <c r="AO1" s="25"/>
       <c r="AP1" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AT1" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU1" s="17"/>
       <c r="AV1" s="17"/>
       <c r="AW1" s="17"/>
       <c r="AX1" s="17"/>
       <c r="AY1" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="22"/>
       <c r="BG1" s="22"/>
       <c r="BH1" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
       <c r="BO1" s="22"/>
       <c r="BP1" s="22"/>
       <c r="BQ1" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BU1" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BV1" s="3"/>
       <c r="BW1" s="3"/>
       <c r="BX1" s="22"/>
       <c r="BY1" s="22"/>
       <c r="BZ1" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CD1" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CE1" s="3"/>
       <c r="CF1" s="3"/>
       <c r="CG1" s="22"/>
       <c r="CH1" s="22"/>
       <c r="CI1" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CM1" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CN1" s="17"/>
       <c r="CO1" s="17"/>
       <c r="CP1" s="17"/>
       <c r="CQ1" s="17"/>
       <c r="CR1" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:96">
@@ -7640,57 +7640,57 @@
         <v>148</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AT2" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BC2" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BL2" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BU2" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BV2" s="44"/>
       <c r="BW2" s="44"/>
@@ -7698,7 +7698,7 @@
       <c r="BY2" s="44"/>
       <c r="BZ2" s="44"/>
       <c r="CD2" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CE2" s="2"/>
       <c r="CF2" s="2"/>
@@ -7708,14 +7708,14 @@
         <v>148</v>
       </c>
       <c r="CM2" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CN2" s="2"/>
       <c r="CO2" s="2"/>
       <c r="CP2" s="2"/>
       <c r="CQ2" s="4"/>
       <c r="CR2" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:96">
@@ -7746,37 +7746,37 @@
       <c r="W3" s="5"/>
       <c r="X3" s="18"/>
       <c r="AB3" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="5"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BC3" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="5"/>
@@ -7786,21 +7786,21 @@
         <v>40</v>
       </c>
       <c r="BL3" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="5"/>
       <c r="BQ3" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="BU3" s="54"/>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="54"/>
-      <c r="BX3" s="54"/>
-      <c r="BY3" s="54"/>
-      <c r="BZ3" s="54"/>
+        <v>319</v>
+      </c>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="56"/>
+      <c r="BZ3" s="56"/>
       <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="CH3" s="5"/>
       <c r="CI3" s="18"/>
       <c r="CM3" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="CN3" s="1"/>
       <c r="CO3" s="5"/>
@@ -7859,10 +7859,10 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -7872,7 +7872,7 @@
         <v>40</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -7902,7 +7902,7 @@
         <v>81</v>
       </c>
       <c r="BU4" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BV4" s="33"/>
       <c r="BW4" s="33"/>
@@ -7920,7 +7920,7 @@
         <v>149</v>
       </c>
       <c r="CM4" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
@@ -7956,7 +7956,7 @@
         <v>81</v>
       </c>
       <c r="AB5" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC5" s="37"/>
       <c r="AD5" s="37"/>
@@ -7966,14 +7966,14 @@
         <v>39</v>
       </c>
       <c r="AK5" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL5" s="37"/>
       <c r="AM5" s="37"/>
       <c r="AN5" s="37"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AT5" s="37"/>
       <c r="AU5" s="37"/>
@@ -7984,7 +7984,7 @@
         <v>118</v>
       </c>
       <c r="BC5" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BD5" s="32"/>
       <c r="BE5" s="32"/>
@@ -7992,7 +7992,7 @@
       <c r="BG5" s="32"/>
       <c r="BH5" s="32"/>
       <c r="BL5" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BM5" s="32"/>
       <c r="BN5" s="32"/>
@@ -8000,7 +8000,7 @@
       <c r="BP5" s="32"/>
       <c r="BQ5" s="32"/>
       <c r="BU5" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BV5" s="44"/>
       <c r="BW5" s="44"/>
@@ -8016,7 +8016,7 @@
         <v>81</v>
       </c>
       <c r="CM5" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="CN5" s="32"/>
       <c r="CO5" s="32"/>
@@ -8050,7 +8050,7 @@
       <c r="W6" s="32"/>
       <c r="X6" s="32"/>
       <c r="AB6" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC6" s="32"/>
       <c r="AD6" s="32"/>
@@ -8058,7 +8058,7 @@
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
       <c r="AK6" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL6" s="32"/>
       <c r="AM6" s="32"/>
@@ -8066,7 +8066,7 @@
       <c r="AO6" s="32"/>
       <c r="AP6" s="32"/>
       <c r="AT6" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AU6" s="32"/>
       <c r="AV6" s="32"/>
@@ -8074,7 +8074,7 @@
       <c r="AX6" s="32"/>
       <c r="AY6" s="32"/>
       <c r="BC6" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BD6" s="33"/>
       <c r="BE6" s="33"/>
@@ -8089,12 +8089,12 @@
       <c r="BO6" s="41"/>
       <c r="BP6" s="41"/>
       <c r="BQ6" s="41"/>
-      <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="54"/>
-      <c r="BY6" s="54"/>
-      <c r="BZ6" s="54"/>
+      <c r="BU6" s="56"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="56"/>
+      <c r="BZ6" s="56"/>
       <c r="CD6" s="31" t="s">
         <v>145</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="CH6" s="32"/>
       <c r="CI6" s="32"/>
       <c r="CM6" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="CN6" s="33"/>
       <c r="CO6" s="33"/>
@@ -8138,7 +8138,7 @@
       <c r="W7" s="41"/>
       <c r="X7" s="41"/>
       <c r="AB7" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC7" s="33"/>
       <c r="AD7" s="33"/>
@@ -8146,7 +8146,7 @@
       <c r="AF7" s="33"/>
       <c r="AG7" s="33"/>
       <c r="AK7" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL7" s="33"/>
       <c r="AM7" s="33"/>
@@ -8154,7 +8154,7 @@
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AT7" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AU7" s="33"/>
       <c r="AV7" s="33"/>
@@ -8162,7 +8162,7 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="BC7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
@@ -8178,7 +8178,7 @@
       <c r="BP7" s="45"/>
       <c r="BQ7" s="45"/>
       <c r="BU7" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -8186,7 +8186,7 @@
       <c r="BY7" s="33"/>
       <c r="BZ7" s="33"/>
       <c r="CD7" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="CE7" s="33"/>
       <c r="CF7" s="33"/>
@@ -8228,7 +8228,7 @@
       <c r="W8" s="45"/>
       <c r="X8" s="45"/>
       <c r="AB8" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -8244,7 +8244,7 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AT8" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
@@ -8259,7 +8259,7 @@
       <c r="BF8" s="18"/>
       <c r="BG8" s="18"/>
       <c r="BH8" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BL8" s="45"/>
       <c r="BM8" s="45"/>
@@ -8268,7 +8268,7 @@
       <c r="BP8" s="45"/>
       <c r="BQ8" s="45"/>
       <c r="BU8" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BV8" s="44"/>
       <c r="BW8" s="44"/>
@@ -8284,14 +8284,14 @@
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
       <c r="CM8" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="18"/>
       <c r="CQ8" s="18"/>
       <c r="CR8" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:96">
@@ -8300,21 +8300,21 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
@@ -8322,14 +8322,14 @@
       <c r="W9" s="45"/>
       <c r="X9" s="45"/>
       <c r="AB9" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
       <c r="AG9" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK9" s="5" t="s">
         <v>123</v>
@@ -8339,7 +8339,7 @@
       <c r="AN9" s="18"/>
       <c r="AO9" s="18"/>
       <c r="AP9" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AT9" s="5" t="s">
         <v>103</v>
@@ -8349,13 +8349,13 @@
       <c r="AW9" s="18"/>
       <c r="AX9" s="18"/>
       <c r="AY9" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BC9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BD9" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BE9" s="34"/>
       <c r="BF9" s="34"/>
@@ -8369,27 +8369,27 @@
       <c r="BO9" s="45"/>
       <c r="BP9" s="45"/>
       <c r="BQ9" s="45"/>
-      <c r="BU9" s="54"/>
-      <c r="BV9" s="54"/>
-      <c r="BW9" s="54"/>
-      <c r="BX9" s="54"/>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="54"/>
+      <c r="BU9" s="56"/>
+      <c r="BV9" s="56"/>
+      <c r="BW9" s="56"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="56"/>
+      <c r="BZ9" s="56"/>
       <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="55" t="s">
+      <c r="CG9" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="CH9" s="55"/>
-      <c r="CI9" s="55"/>
+      <c r="CH9" s="47"/>
+      <c r="CI9" s="47"/>
       <c r="CM9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="CN9" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="CO9" s="34"/>
       <c r="CP9" s="34"/>
@@ -8429,7 +8429,7 @@
         <v>8</v>
       </c>
       <c r="AC10" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
@@ -8449,7 +8449,7 @@
         <v>8</v>
       </c>
       <c r="AU10" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AV10" s="34"/>
       <c r="AW10" s="34"/>
@@ -8459,7 +8459,7 @@
         <v>9</v>
       </c>
       <c r="BD10" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE10" s="34"/>
       <c r="BF10" s="34"/>
@@ -8472,7 +8472,7 @@
       <c r="BP10" s="45"/>
       <c r="BQ10" s="45"/>
       <c r="BU10" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BV10" s="33"/>
       <c r="BW10" s="33"/>
@@ -8493,7 +8493,7 @@
         <v>9</v>
       </c>
       <c r="CN10" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="CO10" s="34"/>
       <c r="CP10" s="34"/>
@@ -8531,7 +8531,7 @@
         <v>9</v>
       </c>
       <c r="AC11" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
@@ -8541,7 +8541,7 @@
         <v>9</v>
       </c>
       <c r="AL11" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM11" s="34"/>
       <c r="AN11" s="34"/>
@@ -8551,7 +8551,7 @@
         <v>9</v>
       </c>
       <c r="AU11" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AV11" s="34"/>
       <c r="AW11" s="34"/>
@@ -8560,8 +8560,8 @@
       <c r="BC11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD11" s="53" t="s">
-        <v>255</v>
+      <c r="BD11" s="55" t="s">
+        <v>254</v>
       </c>
       <c r="BE11" s="34"/>
       <c r="BF11" s="34"/>
@@ -8574,7 +8574,7 @@
       <c r="BP11" s="45"/>
       <c r="BQ11" s="45"/>
       <c r="BU11" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BV11" s="64"/>
       <c r="BW11" s="64"/>
@@ -8595,7 +8595,7 @@
         <v>7</v>
       </c>
       <c r="CN11" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CO11" s="20"/>
       <c r="CP11" s="20"/>
@@ -8606,7 +8606,7 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="34"/>
@@ -8616,7 +8616,7 @@
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="55" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="34"/>
@@ -8632,8 +8632,8 @@
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="53" t="s">
-        <v>196</v>
+      <c r="AC12" s="55" t="s">
+        <v>195</v>
       </c>
       <c r="AD12" s="34"/>
       <c r="AE12" s="34"/>
@@ -8643,7 +8643,7 @@
         <v>7</v>
       </c>
       <c r="AL12" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AM12" s="34"/>
       <c r="AN12" s="34"/>
@@ -8652,15 +8652,15 @@
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="53" t="s">
-        <v>232</v>
+      <c r="AU12" s="55" t="s">
+        <v>231</v>
       </c>
       <c r="AV12" s="34"/>
       <c r="AW12" s="34"/>
       <c r="AX12" s="34"/>
       <c r="AY12" s="34"/>
       <c r="BC12" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BD12" s="35"/>
       <c r="BE12" s="35"/>
@@ -8668,7 +8668,7 @@
       <c r="BG12" s="35"/>
       <c r="BH12" s="35"/>
       <c r="BL12" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BM12" s="41"/>
       <c r="BN12" s="41"/>
@@ -8692,7 +8692,7 @@
       <c r="CH12" s="34"/>
       <c r="CI12" s="34"/>
       <c r="CM12" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="CN12" s="35"/>
       <c r="CO12" s="35"/>
@@ -8716,7 +8716,7 @@
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
       <c r="S13" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
@@ -8724,7 +8724,7 @@
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="AB13" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
@@ -8732,7 +8732,7 @@
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
       <c r="AK13" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL13" s="42"/>
       <c r="AM13" s="42"/>
@@ -8740,7 +8740,7 @@
       <c r="AO13" s="42"/>
       <c r="AP13" s="42"/>
       <c r="AT13" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AU13" s="33"/>
       <c r="AV13" s="33"/>
@@ -8754,7 +8754,7 @@
       <c r="BG13" s="36"/>
       <c r="BH13" s="36"/>
       <c r="BL13" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BM13" s="45"/>
       <c r="BN13" s="45"/>
@@ -8765,7 +8765,7 @@
         <v>8</v>
       </c>
       <c r="BV13" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BW13" s="34"/>
       <c r="BX13" s="34"/>
@@ -8809,12 +8809,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -8832,7 +8832,7 @@
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="BC14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
@@ -8849,7 +8849,7 @@
         <v>9</v>
       </c>
       <c r="BV14" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BW14" s="34"/>
       <c r="BX14" s="34"/>
@@ -8862,7 +8862,7 @@
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CM14" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="CN14" s="33"/>
       <c r="CO14" s="33"/>
@@ -8892,13 +8892,13 @@
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="55" t="s">
+      <c r="V15" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
       <c r="AB15" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC15" s="42"/>
       <c r="AD15" s="42"/>
@@ -8920,11 +8920,11 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="55" t="s">
+      <c r="AW15" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="55"/>
-      <c r="AY15" s="55"/>
+      <c r="AX15" s="47"/>
+      <c r="AY15" s="47"/>
       <c r="BC15" s="5" t="s">
         <v>98</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
       <c r="BL15" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BM15" s="41"/>
       <c r="BN15" s="41"/>
@@ -8945,14 +8945,14 @@
         <v>7</v>
       </c>
       <c r="BV15" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BW15" s="34"/>
       <c r="BX15" s="34"/>
       <c r="BY15" s="34"/>
       <c r="BZ15" s="34"/>
       <c r="CD15" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CE15" s="33"/>
       <c r="CF15" s="33"/>
@@ -8960,7 +8960,7 @@
       <c r="CH15" s="33"/>
       <c r="CI15" s="33"/>
       <c r="CM15" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="CN15" s="44"/>
       <c r="CO15" s="44"/>
@@ -8974,11 +8974,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -8991,22 +8991,22 @@
         <v>8</v>
       </c>
       <c r="T16" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
-      <c r="AB16" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
+      <c r="AB16" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
       <c r="AK16" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
@@ -9014,7 +9014,7 @@
       <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
       <c r="AT16" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AU16" s="45"/>
       <c r="AV16" s="45"/>
@@ -9022,17 +9022,17 @@
       <c r="AX16" s="45"/>
       <c r="AY16" s="45"/>
       <c r="BC16" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="18"/>
       <c r="BG16" s="28"/>
       <c r="BH16" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL16" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BM16" s="45"/>
       <c r="BN16" s="45"/>
@@ -9040,7 +9040,7 @@
       <c r="BP16" s="45"/>
       <c r="BQ16" s="45"/>
       <c r="BU16" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BV16" s="33"/>
       <c r="BW16" s="33"/>
@@ -9078,11 +9078,11 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
@@ -9093,12 +9093,12 @@
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
       <c r="AK17" s="44"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
@@ -9112,7 +9112,7 @@
       <c r="AX17" s="45"/>
       <c r="AY17" s="45"/>
       <c r="BC17" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BD17" s="45"/>
       <c r="BE17" s="45"/>
@@ -9126,7 +9126,7 @@
       <c r="BP17" s="45"/>
       <c r="BQ17" s="45"/>
       <c r="BU17" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BV17" s="44"/>
       <c r="BW17" s="44"/>
@@ -9173,14 +9173,14 @@
         <v>7</v>
       </c>
       <c r="T18" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U18" s="34"/>
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
       <c r="AK18" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44"/>
@@ -9200,7 +9200,7 @@
       <c r="BG18" s="45"/>
       <c r="BH18" s="45"/>
       <c r="BL18" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BM18" s="33"/>
       <c r="BN18" s="33"/>
@@ -9250,19 +9250,19 @@
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
       <c r="S19" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
       <c r="AT19" s="45"/>
       <c r="AU19" s="45"/>
       <c r="AV19" s="45"/>
@@ -9276,7 +9276,7 @@
       <c r="BG19" s="63"/>
       <c r="BH19" s="63"/>
       <c r="BL19" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
@@ -9300,7 +9300,7 @@
       <c r="CH19" s="34"/>
       <c r="CI19" s="34"/>
       <c r="CM19" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="CN19" s="33"/>
       <c r="CO19" s="33"/>
@@ -9332,7 +9332,7 @@
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="AK20" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL20" s="42"/>
       <c r="AM20" s="42"/>
@@ -9346,7 +9346,7 @@
       <c r="AX20" s="63"/>
       <c r="AY20" s="63"/>
       <c r="BC20" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
@@ -9354,15 +9354,15 @@
       <c r="BG20" s="42"/>
       <c r="BH20" s="42"/>
       <c r="BL20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
-      <c r="BO20" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="BP20" s="55"/>
-      <c r="BQ20" s="55"/>
+      <c r="BO20" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="BP20" s="47"/>
+      <c r="BQ20" s="47"/>
       <c r="BU20" s="44"/>
       <c r="BV20" s="44"/>
       <c r="BW20" s="44"/>
@@ -9380,7 +9380,7 @@
       <c r="CH20" s="34"/>
       <c r="CI20" s="34"/>
       <c r="CM20" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="CN20" s="44"/>
       <c r="CO20" s="44"/>
@@ -9402,46 +9402,46 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="55" t="s">
+      <c r="M21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
       <c r="S21" s="36"/>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
-      <c r="AK21" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
+      <c r="AK21" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
       <c r="AT21" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AU21" s="42"/>
       <c r="AV21" s="42"/>
       <c r="AW21" s="42"/>
       <c r="AX21" s="42"/>
       <c r="AY21" s="42"/>
-      <c r="BC21" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
+      <c r="BC21" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD21" s="53"/>
+      <c r="BE21" s="53"/>
+      <c r="BF21" s="53"/>
+      <c r="BG21" s="53"/>
+      <c r="BH21" s="53"/>
       <c r="BL21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BM21" s="46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BN21" s="46"/>
       <c r="BO21" s="46"/>
@@ -9486,38 +9486,38 @@
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
       <c r="S22" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
       <c r="V22" s="33"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AT22" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AT22" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
       <c r="BL22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BM22" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BN22" s="46"/>
       <c r="BO22" s="46"/>
@@ -9550,11 +9550,11 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
       <c r="J23" s="39" t="s">
         <v>84</v>
       </c>
@@ -9571,29 +9571,29 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="51"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="BC23" s="51"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="51"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="51"/>
-      <c r="BH23" s="51"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="BC23" s="53"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="53"/>
+      <c r="BH23" s="53"/>
       <c r="BL23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BM23" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BN23" s="34"/>
       <c r="BO23" s="34"/>
@@ -9645,14 +9645,14 @@
       <c r="X24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="53"/>
       <c r="BC24" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BD24" s="33"/>
       <c r="BE24" s="33"/>
@@ -9660,7 +9660,7 @@
       <c r="BG24" s="33"/>
       <c r="BH24" s="33"/>
       <c r="BL24" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BM24" s="36"/>
       <c r="BN24" s="36"/>
@@ -9691,26 +9691,26 @@
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
-      <c r="J25" s="52" t="s">
+      <c r="J25" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
       <c r="S25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="T25" s="46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
       <c r="X25" s="34"/>
       <c r="AT25" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU25" s="42"/>
       <c r="AV25" s="42"/>
@@ -9718,7 +9718,7 @@
       <c r="AX25" s="42"/>
       <c r="AY25" s="42"/>
       <c r="BC25" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BD25" s="44"/>
       <c r="BE25" s="44"/>
@@ -9726,7 +9726,7 @@
       <c r="BG25" s="44"/>
       <c r="BH25" s="44"/>
       <c r="BL25" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BM25" s="33"/>
       <c r="BN25" s="33"/>
@@ -9749,38 +9749,38 @@
       <c r="CR25" s="44"/>
     </row>
     <row r="26" spans="1:96" ht="15" customHeight="1">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
       <c r="S26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="T26" s="46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U26" s="34"/>
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
-      <c r="AT26" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
+      <c r="AT26" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
       <c r="BC26" s="44"/>
       <c r="BD26" s="44"/>
       <c r="BE26" s="44"/>
@@ -9809,40 +9809,40 @@
       <c r="CR26" s="44"/>
     </row>
     <row r="27" spans="1:96">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
       <c r="S27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="T27" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U27" s="34"/>
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
       <c r="X27" s="34"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="51"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="BC27" s="54"/>
-      <c r="BD27" s="54"/>
-      <c r="BE27" s="54"/>
-      <c r="BF27" s="54"/>
-      <c r="BG27" s="54"/>
-      <c r="BH27" s="54"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="53"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
       <c r="BL27" s="5" t="s">
         <v>51</v>
       </c>
@@ -9853,12 +9853,12 @@
       <c r="BQ27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CD27" s="54"/>
-      <c r="CE27" s="54"/>
-      <c r="CF27" s="54"/>
-      <c r="CG27" s="54"/>
-      <c r="CH27" s="54"/>
-      <c r="CI27" s="54"/>
+      <c r="CD27" s="56"/>
+      <c r="CE27" s="56"/>
+      <c r="CF27" s="56"/>
+      <c r="CG27" s="56"/>
+      <c r="CH27" s="56"/>
+      <c r="CI27" s="56"/>
     </row>
     <row r="28" spans="1:96" ht="15" customHeight="1">
       <c r="J28" s="41" t="s">
@@ -9877,14 +9877,14 @@
       <c r="V28" s="42"/>
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="51"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
       <c r="BC28" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BD28" s="33"/>
       <c r="BE28" s="33"/>
@@ -9892,7 +9892,7 @@
       <c r="BG28" s="33"/>
       <c r="BH28" s="33"/>
       <c r="BL28" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BM28" s="44"/>
       <c r="BN28" s="44"/>
@@ -9954,11 +9954,11 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="55" t="s">
+      <c r="M30" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
       <c r="S30" s="58"/>
       <c r="T30" s="58"/>
       <c r="U30" s="58"/>
@@ -9966,17 +9966,17 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="BC30" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG30" s="56"/>
-      <c r="BH30" s="56"/>
+      <c r="BF30" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG30" s="48"/>
+      <c r="BH30" s="48"/>
       <c r="BL30" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BM30" s="33"/>
       <c r="BN30" s="33"/>
@@ -9988,11 +9988,11 @@
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
-      <c r="CG30" s="55" t="s">
+      <c r="CG30" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="CH30" s="56"/>
-      <c r="CI30" s="56"/>
+      <c r="CH30" s="48"/>
+      <c r="CI30" s="48"/>
     </row>
     <row r="31" spans="1:96">
       <c r="J31" s="35" t="s">
@@ -10012,7 +10012,7 @@
       <c r="W31" s="33"/>
       <c r="X31" s="33"/>
       <c r="BC31" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD31" s="65"/>
       <c r="BE31" s="65"/>
@@ -10020,7 +10020,7 @@
       <c r="BG31" s="65"/>
       <c r="BH31" s="65"/>
       <c r="BL31" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
-      <c r="BO32" s="55" t="s">
+      <c r="BO32" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BP32" s="56"/>
-      <c r="BQ32" s="56"/>
+      <c r="BP32" s="48"/>
+      <c r="BQ32" s="48"/>
       <c r="CD32" s="44" t="s">
         <v>150</v>
       </c>
@@ -10098,7 +10098,7 @@
       <c r="BG33" s="65"/>
       <c r="BH33" s="65"/>
       <c r="BL33" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BM33" s="37"/>
       <c r="BN33" s="37"/>
@@ -10121,14 +10121,14 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
       <c r="BC34" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BD34" s="44"/>
       <c r="BE34" s="44"/>
@@ -10136,7 +10136,7 @@
       <c r="BG34" s="44"/>
       <c r="BH34" s="44"/>
       <c r="BL34" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BM34" s="44"/>
       <c r="BN34" s="44"/>
@@ -10156,11 +10156,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="55" t="s">
+      <c r="M35" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
       <c r="S35" s="33" t="s">
         <v>141</v>
       </c>
@@ -10236,13 +10236,13 @@
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="55" t="s">
+      <c r="V37" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
       <c r="BC37" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BD37" s="33"/>
       <c r="BE37" s="33"/>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
       <c r="S39" s="44" t="s">
         <v>150</v>
       </c>
@@ -10320,11 +10320,11 @@
       </c>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="55" t="s">
+      <c r="BF39" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BG39" s="56"/>
-      <c r="BH39" s="56"/>
+      <c r="BG39" s="48"/>
+      <c r="BH39" s="48"/>
       <c r="CD39" s="44" t="s">
         <v>139</v>
       </c>
@@ -10350,7 +10350,7 @@
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
       <c r="BC40" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BD40" s="37"/>
       <c r="BE40" s="37"/>
@@ -10372,7 +10372,7 @@
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
       <c r="BC41" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BD41" s="44"/>
       <c r="BE41" s="44"/>
@@ -10454,7 +10454,7 @@
     </row>
     <row r="48" spans="10:87">
       <c r="BC48" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BD48" s="41"/>
       <c r="BE48" s="41"/>
@@ -10462,7 +10462,7 @@
       <c r="BG48" s="41"/>
       <c r="BH48" s="41"/>
       <c r="CD48" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CE48" s="42"/>
       <c r="CF48" s="42"/>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="49" spans="55:87">
       <c r="BC49" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
@@ -10494,25 +10494,25 @@
       </c>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="BG50" s="55"/>
-      <c r="BH50" s="55"/>
+      <c r="BF50" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG50" s="47"/>
+      <c r="BH50" s="47"/>
       <c r="CD50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" s="1"/>
-      <c r="CG50" s="55" t="s">
+      <c r="CG50" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="CH50" s="56"/>
-      <c r="CI50" s="56"/>
+      <c r="CH50" s="48"/>
+      <c r="CI50" s="48"/>
     </row>
     <row r="51" spans="55:87" ht="15" customHeight="1">
       <c r="BC51" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BD51" s="35"/>
       <c r="BE51" s="35"/>
@@ -10520,7 +10520,7 @@
       <c r="BG51" s="35"/>
       <c r="BH51" s="35"/>
       <c r="BL51" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BM51" s="41"/>
       <c r="BN51" s="41"/>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="53" spans="55:87">
       <c r="BC53" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BD53" s="41"/>
       <c r="BE53" s="41"/>
@@ -10568,14 +10568,14 @@
       <c r="BG53" s="41"/>
       <c r="BH53" s="41"/>
       <c r="BL53" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="18"/>
       <c r="BP53" s="18"/>
       <c r="BQ53" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CD53" s="41" t="s">
         <v>97</v>
@@ -10596,7 +10596,7 @@
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
       <c r="BL54" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BM54" s="35"/>
       <c r="BN54" s="35"/>
@@ -10614,20 +10614,20 @@
     </row>
     <row r="55" spans="55:87" ht="15" customHeight="1">
       <c r="BC55" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="55" t="s">
+      <c r="BF55" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="BG55" s="55"/>
-      <c r="BH55" s="55"/>
+      <c r="BG55" s="47"/>
+      <c r="BH55" s="47"/>
       <c r="BL55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BM55" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BN55" s="34"/>
       <c r="BO55" s="34"/>
@@ -10638,15 +10638,15 @@
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" s="1"/>
-      <c r="CG55" s="55" t="s">
+      <c r="CG55" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="CH55" s="56"/>
-      <c r="CI55" s="56"/>
+      <c r="CH55" s="48"/>
+      <c r="CI55" s="48"/>
     </row>
     <row r="56" spans="55:87">
       <c r="BC56" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BD56" s="35"/>
       <c r="BE56" s="35"/>
@@ -10657,7 +10657,7 @@
         <v>9</v>
       </c>
       <c r="BM56" s="46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BN56" s="34"/>
       <c r="BO56" s="34"/>
@@ -10683,7 +10683,7 @@
         <v>7</v>
       </c>
       <c r="BM57" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BN57" s="7"/>
       <c r="BO57" s="7"/>
@@ -10700,7 +10700,7 @@
     </row>
     <row r="58" spans="55:87" ht="15" customHeight="1">
       <c r="BC58" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BD58" s="41"/>
       <c r="BE58" s="41"/>
@@ -10708,7 +10708,7 @@
       <c r="BG58" s="41"/>
       <c r="BH58" s="41"/>
       <c r="BL58" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BM58" s="41"/>
       <c r="BN58" s="41"/>
@@ -10734,7 +10734,7 @@
       <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
       <c r="BL59" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
@@ -10746,11 +10746,11 @@
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
-      <c r="CG59" s="55" t="s">
+      <c r="CG59" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="CH59" s="56"/>
-      <c r="CI59" s="56"/>
+      <c r="CH59" s="48"/>
+      <c r="CI59" s="48"/>
     </row>
     <row r="60" spans="55:87" ht="15" customHeight="1">
       <c r="BC60" s="5" t="s">
@@ -10758,21 +10758,21 @@
       </c>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-      <c r="BF60" s="55" t="s">
+      <c r="BF60" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BG60" s="56"/>
-      <c r="BH60" s="56"/>
+      <c r="BG60" s="48"/>
+      <c r="BH60" s="48"/>
       <c r="BL60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="55" t="s">
+      <c r="BO60" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BP60" s="55"/>
-      <c r="BQ60" s="55"/>
+      <c r="BP60" s="47"/>
+      <c r="BQ60" s="47"/>
       <c r="CD60" s="35" t="s">
         <v>106</v>
       </c>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="61" spans="55:87">
       <c r="BC61" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BD61" s="35"/>
       <c r="BE61" s="35"/>
@@ -10792,7 +10792,7 @@
       <c r="BG61" s="35"/>
       <c r="BH61" s="35"/>
       <c r="BL61" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BM61" s="35"/>
       <c r="BN61" s="35"/>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="64" spans="55:87" ht="15" customHeight="1">
       <c r="BL64" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BM64" s="41"/>
       <c r="BN64" s="41"/>
@@ -10866,15 +10866,15 @@
       </c>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
-      <c r="BO66" s="55" t="s">
+      <c r="BO66" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BP66" s="56"/>
-      <c r="BQ66" s="56"/>
+      <c r="BP66" s="48"/>
+      <c r="BQ66" s="48"/>
     </row>
     <row r="67" spans="64:69">
       <c r="BL67" s="35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BM67" s="35"/>
       <c r="BN67" s="35"/>
@@ -10938,6 +10938,8 @@
     <mergeCell ref="BF30:BH30"/>
     <mergeCell ref="BC31:BH33"/>
     <mergeCell ref="BC34:BH36"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
     <mergeCell ref="BU2:BZ3"/>
     <mergeCell ref="BU16:BZ16"/>
     <mergeCell ref="BU11:BZ12"/>
@@ -10949,8 +10951,6 @@
     <mergeCell ref="BU10:BZ10"/>
     <mergeCell ref="BV14:BZ14"/>
     <mergeCell ref="BV15:BZ15"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
     <mergeCell ref="BL7:BQ8"/>
     <mergeCell ref="BL18:BQ18"/>
     <mergeCell ref="BL30:BQ30"/>
@@ -10960,6 +10960,21 @@
     <mergeCell ref="CD60:CI62"/>
     <mergeCell ref="BF60:BH60"/>
     <mergeCell ref="BC61:BH63"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
     <mergeCell ref="AT13:AY13"/>
     <mergeCell ref="AW15:AY15"/>
     <mergeCell ref="AT16:AY20"/>
@@ -10978,21 +10993,6 @@
     <mergeCell ref="BC40:BH40"/>
     <mergeCell ref="BC24:BH24"/>
     <mergeCell ref="BC28:BH28"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CD21:CI21"/>
-    <mergeCell ref="CD22:CI23"/>
-    <mergeCell ref="CD24:CI24"/>
-    <mergeCell ref="CD48:CI48"/>
-    <mergeCell ref="CG50:CI50"/>
-    <mergeCell ref="CD51:CI52"/>
-    <mergeCell ref="CD53:CI53"/>
-    <mergeCell ref="CG55:CI55"/>
-    <mergeCell ref="CE36:CI36"/>
-    <mergeCell ref="CE37:CI37"/>
-    <mergeCell ref="CD39:CI39"/>
-    <mergeCell ref="CD25:CI27"/>
-    <mergeCell ref="CD28:CI28"/>
-    <mergeCell ref="CG30:CI30"/>
     <mergeCell ref="CD31:CI31"/>
     <mergeCell ref="CD32:CI35"/>
     <mergeCell ref="CD6:CI6"/>
@@ -11029,22 +11029,6 @@
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="AK20:AP20"/>
     <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S22:X22"/>
     <mergeCell ref="AK7:AP7"/>
     <mergeCell ref="AL10:AP10"/>
     <mergeCell ref="AL11:AP11"/>
@@ -11059,6 +11043,16 @@
     <mergeCell ref="J31:O32"/>
     <mergeCell ref="J33:O33"/>
     <mergeCell ref="J25:O27"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="T27:X27"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="J6:O6"/>
@@ -11117,6 +11111,12 @@
     <mergeCell ref="AC11:AG11"/>
     <mergeCell ref="AC12:AG12"/>
     <mergeCell ref="AB13:AG14"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S22:X22"/>
     <mergeCell ref="BL67:BQ71"/>
     <mergeCell ref="BL12:BQ12"/>
     <mergeCell ref="BL13:BQ14"/>
@@ -11146,8 +11146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DFD280-CB3F-4A45-8F62-9CF1F8B27A7E}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ23" sqref="AJ23"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11198,7 +11198,7 @@
       <c r="AF1" s="69"/>
       <c r="AG1" s="69"/>
       <c r="AK1" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL1" s="72"/>
       <c r="AM1" s="72"/>
@@ -11218,7 +11218,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -11248,7 +11248,7 @@
         <v>37</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
@@ -11300,13 +11300,13 @@
       </c>
       <c r="AG3" s="66"/>
       <c r="AK3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AP3" s="66"/>
     </row>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="AG4" s="37"/>
       <c r="AK4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -11378,7 +11378,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
       <c r="S5" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
@@ -11394,7 +11394,7 @@
       <c r="AF5" s="32"/>
       <c r="AG5" s="32"/>
       <c r="AK5" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL5" s="32"/>
       <c r="AM5" s="32"/>
@@ -11436,7 +11436,7 @@
       <c r="AF6" s="33"/>
       <c r="AG6" s="33"/>
       <c r="AK6" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
@@ -11477,14 +11477,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
+      <c r="AK7" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -11500,37 +11500,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="55" t="s">
+      <c r="V8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="55" t="s">
+      <c r="AE8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -11538,11 +11538,11 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
@@ -11564,19 +11564,19 @@
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
+        <v>347</v>
+      </c>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -11609,18 +11609,18 @@
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
       <c r="X10" s="34"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
@@ -11668,7 +11668,7 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="34"/>
@@ -11715,14 +11715,14 @@
       <c r="M13" s="71"/>
       <c r="N13" s="71"/>
       <c r="O13" s="71"/>
-      <c r="S13" s="52" t="s">
+      <c r="S13" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
@@ -11751,12 +11751,12 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
       <c r="AB14" s="41" t="s">
         <v>111</v>
       </c>
@@ -11775,14 +11775,14 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
       <c r="S15" s="41" t="s">
         <v>116</v>
       </c>
@@ -11791,14 +11791,14 @@
       <c r="V15" s="42"/>
       <c r="W15" s="42"/>
       <c r="X15" s="42"/>
-      <c r="AB15" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
+      <c r="AB15" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -11806,31 +11806,31 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="S16" s="52" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="S16" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -11843,14 +11843,14 @@
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
       <c r="AB17" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC17" s="41"/>
       <c r="AD17" s="41"/>
@@ -11869,20 +11869,20 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="AB18" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="AB18" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
@@ -11895,12 +11895,12 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
       <c r="A20" s="59" t="s">
@@ -11911,12 +11911,12 @@
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="41" t="s">
@@ -11928,7 +11928,7 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="AB21" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC21" s="41"/>
       <c r="AD21" s="41"/>
@@ -11937,44 +11937,44 @@
       <c r="AG21" s="41"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="AB22" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="AB22" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -12048,6 +12048,6 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F88BDF3-2BA9-471B-BD82-23D6BC284318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD969ED7-77B2-4DB9-A632-117866E699B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="735" windowWidth="20475" windowHeight="14100" activeTab="3" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="1290" yWindow="1455" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -3833,21 +3833,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The target grows miniature faces all over its body. The next time it is damaged, the faces shriek and and burst. The damage is halved and enemies adjacent to the target are frightened (save ends) of the target. If the target is a minion, all minions in the squad share the effect.</t>
-    </r>
-  </si>
-  <si>
     <t>EV 4</t>
   </si>
   <si>
@@ -6207,6 +6192,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>Bleddyn and their mentor, if they're within 5 squares from Bleddyn, can shift 2 before the ability is used.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The target grows miniature faces all over its body. The next time it is damaged, the faces shriek and and burst. The damage is halved and enemies adjacent to the target are frightened (save ends) of the target. If the target is a minion, all minions in the squad share the effect, and when one minion's faces burst, all of them burst.</t>
     </r>
   </si>
 </sst>
@@ -6454,12 +6454,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6469,18 +6463,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -6492,21 +6482,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6520,42 +6557,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6570,10 +6574,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6923,16 +6923,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -6944,10 +6944,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -7073,50 +7073,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -7172,11 +7172,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -7185,125 +7185,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="L18" s="33" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="L18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -7329,115 +7329,102 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="L21" s="39" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="L21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="L23" s="41" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="L23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -7450,6 +7437,19 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7472,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
   <dimension ref="A1:CR71"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7497,46 +7497,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="J1" s="43" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="J1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="30" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="S1" s="43" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="S1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="30" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="AB1" s="49" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="AB1" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51" t="s">
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
       <c r="AK1" s="25" t="s">
         <v>196</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="AW1" s="17"/>
       <c r="AX1" s="17"/>
       <c r="AY1" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BC1" s="3" t="s">
         <v>217</v>
@@ -7578,14 +7578,14 @@
         <v>216</v>
       </c>
       <c r="BU1" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BV1" s="3"/>
       <c r="BW1" s="3"/>
       <c r="BX1" s="22"/>
       <c r="BY1" s="22"/>
       <c r="BZ1" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CD1" s="3" t="s">
         <v>219</v>
@@ -7598,14 +7598,14 @@
         <v>221</v>
       </c>
       <c r="CM1" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CN1" s="17"/>
       <c r="CO1" s="17"/>
       <c r="CP1" s="17"/>
       <c r="CQ1" s="17"/>
       <c r="CR1" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:96">
@@ -7667,30 +7667,30 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BC2" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BL2" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BU2" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BV2" s="44"/>
       <c r="BW2" s="44"/>
@@ -7708,14 +7708,14 @@
         <v>148</v>
       </c>
       <c r="CM2" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CN2" s="2"/>
       <c r="CO2" s="2"/>
       <c r="CP2" s="2"/>
       <c r="CQ2" s="4"/>
       <c r="CR2" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:96">
@@ -7766,7 +7766,7 @@
         <v>202</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="5"/>
@@ -7776,7 +7776,7 @@
         <v>202</v>
       </c>
       <c r="BC3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="5"/>
@@ -7786,21 +7786,21 @@
         <v>40</v>
       </c>
       <c r="BL3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="5"/>
       <c r="BQ3" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="56"/>
+        <v>318</v>
+      </c>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49"/>
       <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="CH3" s="5"/>
       <c r="CI3" s="18"/>
       <c r="CM3" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="CN3" s="1"/>
       <c r="CO3" s="5"/>
@@ -7862,7 +7862,7 @@
         <v>174</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -7872,7 +7872,7 @@
         <v>40</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -7901,14 +7901,14 @@
       <c r="BQ4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU4" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="33"/>
-      <c r="BZ4" s="33"/>
+      <c r="BU4" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
       <c r="CD4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>149</v>
       </c>
       <c r="CM4" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
@@ -7955,52 +7955,52 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="37" t="s">
+      <c r="AK5" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="BC5" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BL5" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
+      <c r="BC5" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="BD5" s="30"/>
+      <c r="BE5" s="30"/>
+      <c r="BF5" s="30"/>
+      <c r="BG5" s="30"/>
+      <c r="BH5" s="30"/>
+      <c r="BL5" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="BM5" s="30"/>
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="30"/>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30"/>
       <c r="BU5" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BV5" s="44"/>
       <c r="BW5" s="44"/>
@@ -8015,152 +8015,152 @@
       <c r="CI5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="CM5" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="32"/>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="32"/>
+      <c r="CM5" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="CN5" s="30"/>
+      <c r="CO5" s="30"/>
+      <c r="CP5" s="30"/>
+      <c r="CQ5" s="30"/>
+      <c r="CR5" s="30"/>
     </row>
     <row r="6" spans="1:96">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="J6" s="31" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="J6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="S6" s="31" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="S6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="AB6" s="31" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="AB6" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AK6" s="31" t="s">
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AK6" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AT6" s="31" t="s">
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AT6" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="BC6" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="33"/>
-      <c r="BL6" s="41" t="s">
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="BC6" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BL6" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="41"/>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
-      <c r="BQ6" s="41"/>
-      <c r="BU6" s="56"/>
-      <c r="BV6" s="56"/>
-      <c r="BW6" s="56"/>
-      <c r="BX6" s="56"/>
-      <c r="BY6" s="56"/>
-      <c r="BZ6" s="56"/>
-      <c r="CD6" s="31" t="s">
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="49"/>
+      <c r="CD6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="32"/>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="32"/>
-      <c r="CM6" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="CN6" s="33"/>
-      <c r="CO6" s="33"/>
-      <c r="CP6" s="33"/>
-      <c r="CQ6" s="33"/>
-      <c r="CR6" s="33"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="30"/>
+      <c r="CI6" s="30"/>
+      <c r="CM6" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="CN6" s="31"/>
+      <c r="CO6" s="31"/>
+      <c r="CP6" s="31"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
     </row>
     <row r="7" spans="1:96">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="S7" s="41" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="S7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="AB7" s="33" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="AB7" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AK7" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AT7" s="33" t="s">
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AK7" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AT7" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
       <c r="BC7" s="5" t="s">
         <v>191</v>
       </c>
@@ -8169,30 +8169,30 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BL7" s="45" t="s">
+      <c r="BL7" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BU7" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="33"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="33"/>
-      <c r="BZ7" s="33"/>
-      <c r="CD7" s="33" t="s">
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="51"/>
+      <c r="BO7" s="51"/>
+      <c r="BP7" s="51"/>
+      <c r="BQ7" s="51"/>
+      <c r="BU7" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CD7" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="CE7" s="33"/>
-      <c r="CF7" s="33"/>
-      <c r="CG7" s="33"/>
-      <c r="CH7" s="33"/>
-      <c r="CI7" s="33"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31"/>
+      <c r="CG7" s="31"/>
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="31"/>
       <c r="CM7" s="5" t="s">
         <v>62</v>
       </c>
@@ -8219,14 +8219,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
       <c r="AB8" s="5" t="s">
         <v>191</v>
       </c>
@@ -8259,16 +8259,16 @@
       <c r="BF8" s="18"/>
       <c r="BG8" s="18"/>
       <c r="BH8" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="45"/>
+        <v>232</v>
+      </c>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="51"/>
+      <c r="BN8" s="51"/>
+      <c r="BO8" s="51"/>
+      <c r="BP8" s="51"/>
+      <c r="BQ8" s="51"/>
       <c r="BU8" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BV8" s="44"/>
       <c r="BW8" s="44"/>
@@ -8284,14 +8284,14 @@
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
       <c r="CM8" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="18"/>
       <c r="CQ8" s="18"/>
       <c r="CR8" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:96">
@@ -8300,27 +8300,27 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
       <c r="AB9" s="5" t="s">
         <v>192</v>
       </c>
@@ -8349,253 +8349,253 @@
       <c r="AW9" s="18"/>
       <c r="AX9" s="18"/>
       <c r="AY9" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BC9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD9" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BL9" s="45" t="s">
+      <c r="BD9" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="41"/>
+      <c r="BL9" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BU9" s="56"/>
-      <c r="BV9" s="56"/>
-      <c r="BW9" s="56"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="56"/>
-      <c r="BZ9" s="56"/>
+      <c r="BM9" s="51"/>
+      <c r="BN9" s="51"/>
+      <c r="BO9" s="51"/>
+      <c r="BP9" s="51"/>
+      <c r="BQ9" s="51"/>
+      <c r="BU9" s="49"/>
+      <c r="BV9" s="49"/>
+      <c r="BW9" s="49"/>
+      <c r="BX9" s="49"/>
+      <c r="BY9" s="49"/>
+      <c r="BZ9" s="49"/>
       <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="47" t="s">
+      <c r="CG9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="CH9" s="47"/>
-      <c r="CI9" s="47"/>
+      <c r="CH9" s="45"/>
+      <c r="CI9" s="45"/>
       <c r="CM9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN9" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34"/>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
+      <c r="CN9" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="41"/>
+      <c r="CR9" s="41"/>
     </row>
     <row r="10" spans="1:96">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="S10" s="45" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="S10" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="46" t="s">
+      <c r="AC10" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="46" t="s">
+      <c r="AL10" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
+      <c r="AU10" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
       <c r="BC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD10" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BL10" s="45"/>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="45"/>
-      <c r="BU10" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="33"/>
-      <c r="BX10" s="33"/>
-      <c r="BY10" s="33"/>
-      <c r="BZ10" s="33"/>
+      <c r="BD10" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="41"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="51"/>
+      <c r="BN10" s="51"/>
+      <c r="BO10" s="51"/>
+      <c r="BP10" s="51"/>
+      <c r="BQ10" s="51"/>
+      <c r="BU10" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31"/>
       <c r="CD10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE10" s="46" t="s">
+      <c r="CE10" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="CF10" s="34"/>
-      <c r="CG10" s="34"/>
-      <c r="CH10" s="34"/>
-      <c r="CI10" s="34"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="41"/>
       <c r="CM10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CN10" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="CO10" s="34"/>
-      <c r="CP10" s="34"/>
-      <c r="CQ10" s="34"/>
-      <c r="CR10" s="34"/>
+      <c r="CN10" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="41"/>
+      <c r="CR10" s="41"/>
     </row>
     <row r="11" spans="1:96">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="46" t="s">
+      <c r="AC11" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="46" t="s">
+      <c r="AL11" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
+      <c r="AU11" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
       <c r="BC11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD11" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="45"/>
-      <c r="BO11" s="45"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
+      <c r="BD11" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="41"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="51"/>
+      <c r="BN11" s="51"/>
+      <c r="BO11" s="51"/>
+      <c r="BP11" s="51"/>
+      <c r="BQ11" s="51"/>
       <c r="BU11" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="BV11" s="64"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
+        <v>265</v>
+      </c>
+      <c r="BV11" s="50"/>
+      <c r="BW11" s="50"/>
+      <c r="BX11" s="50"/>
+      <c r="BY11" s="50"/>
+      <c r="BZ11" s="50"/>
       <c r="CD11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE11" s="46" t="s">
+      <c r="CE11" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="CF11" s="34"/>
-      <c r="CG11" s="34"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="34"/>
+      <c r="CF11" s="41"/>
+      <c r="CG11" s="41"/>
+      <c r="CH11" s="41"/>
+      <c r="CI11" s="41"/>
       <c r="CM11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="CN11" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="CO11" s="20"/>
       <c r="CP11" s="20"/>
@@ -8606,99 +8606,99 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="55" t="s">
+      <c r="AC12" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="46" t="s">
+      <c r="AL12" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="BC12" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="BD12" s="35"/>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="35"/>
-      <c r="BL12" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM12" s="41"/>
-      <c r="BN12" s="41"/>
-      <c r="BO12" s="41"/>
-      <c r="BP12" s="41"/>
-      <c r="BQ12" s="41"/>
-      <c r="BU12" s="64"/>
-      <c r="BV12" s="64"/>
-      <c r="BW12" s="64"/>
-      <c r="BX12" s="64"/>
-      <c r="BY12" s="64"/>
-      <c r="BZ12" s="64"/>
+      <c r="AU12" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="BC12" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BL12" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="BM12" s="37"/>
+      <c r="BN12" s="37"/>
+      <c r="BO12" s="37"/>
+      <c r="BP12" s="37"/>
+      <c r="BQ12" s="37"/>
+      <c r="BU12" s="50"/>
+      <c r="BV12" s="50"/>
+      <c r="BW12" s="50"/>
+      <c r="BX12" s="50"/>
+      <c r="BY12" s="50"/>
+      <c r="BZ12" s="50"/>
       <c r="CD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE12" s="46" t="s">
+      <c r="CE12" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="CF12" s="34"/>
-      <c r="CG12" s="34"/>
-      <c r="CH12" s="34"/>
-      <c r="CI12" s="34"/>
-      <c r="CM12" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="CN12" s="35"/>
-      <c r="CO12" s="35"/>
-      <c r="CP12" s="35"/>
-      <c r="CQ12" s="35"/>
-      <c r="CR12" s="35"/>
+      <c r="CF12" s="41"/>
+      <c r="CG12" s="41"/>
+      <c r="CH12" s="41"/>
+      <c r="CI12" s="41"/>
+      <c r="CM12" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="CN12" s="39"/>
+      <c r="CO12" s="39"/>
+      <c r="CP12" s="39"/>
+      <c r="CQ12" s="39"/>
+      <c r="CR12" s="39"/>
     </row>
     <row r="13" spans="1:96" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -8707,100 +8707,100 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="S13" s="33" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="S13" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
       <c r="AB13" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AK13" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AT13" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="BC13" s="36"/>
-      <c r="BD13" s="36"/>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AT13" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="40"/>
       <c r="BL13" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="45"/>
-      <c r="BO13" s="45"/>
-      <c r="BP13" s="45"/>
-      <c r="BQ13" s="45"/>
+        <v>317</v>
+      </c>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
+      <c r="BP13" s="51"/>
+      <c r="BQ13" s="51"/>
       <c r="BU13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV13" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="BW13" s="34"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="34"/>
-      <c r="BZ13" s="34"/>
-      <c r="CD13" s="35" t="s">
+      <c r="BV13" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="BW13" s="41"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="41"/>
+      <c r="CD13" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="CE13" s="35"/>
-      <c r="CF13" s="35"/>
-      <c r="CG13" s="35"/>
-      <c r="CH13" s="35"/>
-      <c r="CI13" s="35"/>
-      <c r="CM13" s="35"/>
-      <c r="CN13" s="35"/>
-      <c r="CO13" s="35"/>
-      <c r="CP13" s="35"/>
-      <c r="CQ13" s="35"/>
-      <c r="CR13" s="35"/>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39"/>
+      <c r="CG13" s="39"/>
+      <c r="CH13" s="39"/>
+      <c r="CI13" s="39"/>
+      <c r="CM13" s="39"/>
+      <c r="CN13" s="39"/>
+      <c r="CO13" s="39"/>
+      <c r="CP13" s="39"/>
+      <c r="CQ13" s="39"/>
+      <c r="CR13" s="39"/>
     </row>
     <row r="14" spans="1:96">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -8809,12 +8809,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -8831,44 +8831,44 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
-      <c r="BL14" s="45"/>
-      <c r="BM14" s="45"/>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="45"/>
-      <c r="BP14" s="45"/>
-      <c r="BQ14" s="45"/>
+      <c r="BC14" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+      <c r="BN14" s="51"/>
+      <c r="BO14" s="51"/>
+      <c r="BP14" s="51"/>
+      <c r="BQ14" s="51"/>
       <c r="BU14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV14" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
-      <c r="BZ14" s="34"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="36"/>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
-      <c r="CM14" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="CN14" s="33"/>
-      <c r="CO14" s="33"/>
-      <c r="CP14" s="33"/>
-      <c r="CQ14" s="33"/>
-      <c r="CR14" s="33"/>
+      <c r="BV14" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="BW14" s="41"/>
+      <c r="BX14" s="41"/>
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="41"/>
+      <c r="CD14" s="40"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="40"/>
+      <c r="CG14" s="40"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="40"/>
+      <c r="CM14" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="31"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
     </row>
     <row r="15" spans="1:96">
       <c r="A15" s="5" t="s">
@@ -8879,32 +8879,32 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="47" t="s">
+      <c r="V15" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="AB15" s="41" t="s">
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="AB15" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -8920,11 +8920,11 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="47" t="s">
+      <c r="AW15" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="47"/>
-      <c r="AY15" s="47"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
       <c r="BC15" s="5" t="s">
         <v>98</v>
       </c>
@@ -8933,34 +8933,34 @@
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
-      <c r="BL15" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="BM15" s="41"/>
-      <c r="BN15" s="41"/>
-      <c r="BO15" s="41"/>
-      <c r="BP15" s="41"/>
-      <c r="BQ15" s="41"/>
+      <c r="BL15" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="37"/>
+      <c r="BO15" s="37"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
       <c r="BU15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BV15" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="BW15" s="34"/>
-      <c r="BX15" s="34"/>
-      <c r="BY15" s="34"/>
-      <c r="BZ15" s="34"/>
-      <c r="CD15" s="33" t="s">
+      <c r="BV15" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="BW15" s="41"/>
+      <c r="BX15" s="41"/>
+      <c r="BY15" s="41"/>
+      <c r="BZ15" s="41"/>
+      <c r="CD15" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="CE15" s="33"/>
-      <c r="CF15" s="33"/>
-      <c r="CG15" s="33"/>
-      <c r="CH15" s="33"/>
-      <c r="CI15" s="33"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="31"/>
       <c r="CM15" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="CN15" s="44"/>
       <c r="CO15" s="44"/>
@@ -8974,11 +8974,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -8990,21 +8990,21 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="AB16" s="53" t="s">
+      <c r="T16" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="AB16" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
       <c r="AK16" s="44" t="s">
         <v>206</v>
       </c>
@@ -9013,40 +9013,40 @@
       <c r="AN16" s="44"/>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
-      <c r="AT16" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
+      <c r="AT16" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
       <c r="BC16" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="18"/>
       <c r="BG16" s="28"/>
       <c r="BH16" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL16" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="BM16" s="45"/>
-      <c r="BN16" s="45"/>
-      <c r="BO16" s="45"/>
-      <c r="BP16" s="45"/>
-      <c r="BQ16" s="45"/>
-      <c r="BU16" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
+        <v>339</v>
+      </c>
+      <c r="BM16" s="51"/>
+      <c r="BN16" s="51"/>
+      <c r="BO16" s="51"/>
+      <c r="BP16" s="51"/>
+      <c r="BQ16" s="51"/>
+      <c r="BU16" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
       <c r="CD16" s="5" t="s">
         <v>62</v>
       </c>
@@ -9066,67 +9066,67 @@
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="46" t="s">
+      <c r="T17" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
       <c r="AK17" s="44"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44"/>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="BC17" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="BD17" s="45"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="45"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="45"/>
-      <c r="BL17" s="45"/>
-      <c r="BM17" s="45"/>
-      <c r="BN17" s="45"/>
-      <c r="BO17" s="45"/>
-      <c r="BP17" s="45"/>
-      <c r="BQ17" s="45"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="BC17" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="51"/>
+      <c r="BQ17" s="51"/>
       <c r="BU17" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BV17" s="44"/>
       <c r="BW17" s="44"/>
@@ -9154,31 +9154,31 @@
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="J18" s="39" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="J18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
+      <c r="T18" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
       <c r="AK18" s="44" t="s">
         <v>212</v>
       </c>
@@ -9187,26 +9187,26 @@
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
       <c r="AP18" s="44"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="BC18" s="45"/>
-      <c r="BD18" s="45"/>
-      <c r="BE18" s="45"/>
-      <c r="BF18" s="45"/>
-      <c r="BG18" s="45"/>
-      <c r="BH18" s="45"/>
-      <c r="BL18" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="BM18" s="33"/>
-      <c r="BN18" s="33"/>
-      <c r="BO18" s="33"/>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BL18" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
       <c r="BU18" s="44"/>
       <c r="BV18" s="44"/>
       <c r="BW18" s="44"/>
@@ -9216,13 +9216,13 @@
       <c r="CD18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE18" s="46" t="s">
+      <c r="CE18" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="CF18" s="34"/>
-      <c r="CG18" s="34"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="34"/>
+      <c r="CF18" s="41"/>
+      <c r="CG18" s="41"/>
+      <c r="CH18" s="41"/>
+      <c r="CI18" s="41"/>
       <c r="CM18" s="44"/>
       <c r="CN18" s="44"/>
       <c r="CO18" s="44"/>
@@ -9234,49 +9234,49 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="J19" s="33" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="J19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="S19" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="S19" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AY19" s="51"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="54"/>
       <c r="BL19" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
@@ -9292,31 +9292,31 @@
       <c r="CD19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE19" s="46" t="s">
+      <c r="CE19" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="CF19" s="34"/>
-      <c r="CG19" s="34"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="34"/>
-      <c r="CM19" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="CN19" s="33"/>
-      <c r="CO19" s="33"/>
-      <c r="CP19" s="33"/>
-      <c r="CQ19" s="33"/>
-      <c r="CR19" s="33"/>
+      <c r="CF19" s="41"/>
+      <c r="CG19" s="41"/>
+      <c r="CH19" s="41"/>
+      <c r="CI19" s="41"/>
+      <c r="CM19" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="31"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
     </row>
     <row r="20" spans="1:96" ht="15" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -9325,44 +9325,44 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="AK20" s="41" t="s">
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="AK20" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="BC20" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="42"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="BC20" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
       <c r="BL20" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
-      <c r="BO20" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="BP20" s="47"/>
-      <c r="BQ20" s="47"/>
+      <c r="BO20" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP20" s="45"/>
+      <c r="BQ20" s="45"/>
       <c r="BU20" s="44"/>
       <c r="BV20" s="44"/>
       <c r="BW20" s="44"/>
@@ -9372,15 +9372,15 @@
       <c r="CD20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE20" s="46" t="s">
+      <c r="CE20" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="CF20" s="34"/>
-      <c r="CG20" s="34"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="34"/>
+      <c r="CF20" s="41"/>
+      <c r="CG20" s="41"/>
+      <c r="CH20" s="41"/>
+      <c r="CI20" s="41"/>
       <c r="CM20" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="CN20" s="44"/>
       <c r="CO20" s="44"/>
@@ -9389,78 +9389,76 @@
       <c r="CR20" s="44"/>
     </row>
     <row r="21" spans="1:96" ht="15" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="AK21" s="53" t="s">
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="AK21" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="BC21" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AT21" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="BC21" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="53"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
       <c r="BL21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM21" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BN21" s="46"/>
-      <c r="BO21" s="46"/>
-      <c r="BP21" s="46"/>
-      <c r="BQ21" s="46"/>
+      <c r="BM21" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="BN21" s="47"/>
+      <c r="BO21" s="47"/>
+      <c r="BP21" s="47"/>
+      <c r="BQ21" s="47"/>
       <c r="BU21" s="44"/>
       <c r="BV21" s="44"/>
       <c r="BW21" s="44"/>
       <c r="BX21" s="44"/>
       <c r="BY21" s="44"/>
       <c r="BZ21" s="44"/>
-      <c r="CD21" s="41" t="s">
+      <c r="CD21" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="CE21" s="42"/>
-      <c r="CF21" s="42"/>
-      <c r="CG21" s="42"/>
-      <c r="CH21" s="42"/>
-      <c r="CI21" s="42"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
       <c r="CM21" s="44"/>
       <c r="CN21" s="44"/>
       <c r="CO21" s="44"/>
@@ -9477,66 +9475,66 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="S22" s="33" t="s">
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="S22" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AT22" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AT22" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="55"/>
+      <c r="BF22" s="55"/>
+      <c r="BG22" s="55"/>
+      <c r="BH22" s="55"/>
       <c r="BL22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM22" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="BN22" s="46"/>
-      <c r="BO22" s="46"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="46"/>
+      <c r="BM22" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN22" s="47"/>
+      <c r="BO22" s="47"/>
+      <c r="BP22" s="47"/>
+      <c r="BQ22" s="47"/>
       <c r="BU22" s="44"/>
       <c r="BV22" s="44"/>
       <c r="BW22" s="44"/>
       <c r="BX22" s="44"/>
       <c r="BY22" s="44"/>
       <c r="BZ22" s="44"/>
-      <c r="CD22" s="57" t="s">
+      <c r="CD22" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="CE22" s="57"/>
-      <c r="CF22" s="57"/>
-      <c r="CG22" s="57"/>
-      <c r="CH22" s="57"/>
-      <c r="CI22" s="57"/>
+      <c r="CE22" s="52"/>
+      <c r="CF22" s="52"/>
+      <c r="CG22" s="52"/>
+      <c r="CH22" s="52"/>
+      <c r="CI22" s="52"/>
       <c r="CM22" s="44"/>
       <c r="CN22" s="44"/>
       <c r="CO22" s="44"/>
@@ -9550,19 +9548,19 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="J23" s="39" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="J23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
       <c r="S23" s="5" t="s">
         <v>62</v>
       </c>
@@ -9571,46 +9569,48 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="53"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="55"/>
+      <c r="AT23" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="BC23" s="55"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="55"/>
+      <c r="BF23" s="55"/>
+      <c r="BG23" s="55"/>
+      <c r="BH23" s="55"/>
       <c r="BL23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM23" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="34"/>
-      <c r="BP23" s="34"/>
-      <c r="BQ23" s="34"/>
+      <c r="BM23" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN23" s="41"/>
+      <c r="BO23" s="41"/>
+      <c r="BP23" s="41"/>
+      <c r="BQ23" s="41"/>
       <c r="BU23" s="44"/>
       <c r="BV23" s="44"/>
       <c r="BW23" s="44"/>
       <c r="BX23" s="44"/>
       <c r="BY23" s="44"/>
       <c r="BZ23" s="44"/>
-      <c r="CD23" s="58"/>
-      <c r="CE23" s="58"/>
-      <c r="CF23" s="58"/>
-      <c r="CG23" s="58"/>
-      <c r="CH23" s="58"/>
-      <c r="CI23" s="58"/>
+      <c r="CD23" s="53"/>
+      <c r="CE23" s="53"/>
+      <c r="CF23" s="53"/>
+      <c r="CG23" s="53"/>
+      <c r="CH23" s="53"/>
+      <c r="CI23" s="53"/>
       <c r="CM23" s="44"/>
       <c r="CN23" s="44"/>
       <c r="CO23" s="44"/>
@@ -9619,22 +9619,22 @@
       <c r="CR23" s="44"/>
     </row>
     <row r="24" spans="1:96" ht="15" customHeight="1">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="J24" s="41" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="J24" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
       <c r="S24" s="5" t="s">
         <v>131</v>
       </c>
@@ -9645,36 +9645,36 @@
       <c r="X24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="BC24" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
-      <c r="BH24" s="33"/>
-      <c r="BL24" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="36"/>
-      <c r="BO24" s="36"/>
-      <c r="BP24" s="36"/>
-      <c r="BQ24" s="36"/>
-      <c r="CD24" s="41" t="s">
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="BC24" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BL24" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="BM24" s="40"/>
+      <c r="BN24" s="40"/>
+      <c r="BO24" s="40"/>
+      <c r="BP24" s="40"/>
+      <c r="BQ24" s="40"/>
+      <c r="CD24" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="CE24" s="33"/>
-      <c r="CF24" s="33"/>
-      <c r="CG24" s="33"/>
-      <c r="CH24" s="33"/>
-      <c r="CI24" s="33"/>
+      <c r="CE24" s="31"/>
+      <c r="CF24" s="31"/>
+      <c r="CG24" s="31"/>
+      <c r="CH24" s="31"/>
+      <c r="CI24" s="31"/>
       <c r="CM24" s="44"/>
       <c r="CN24" s="44"/>
       <c r="CO24" s="44"/>
@@ -9683,56 +9683,54 @@
       <c r="CR24" s="44"/>
     </row>
     <row r="25" spans="1:96">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="J25" s="54" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="J25" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
       <c r="S25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="AT25" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
+      <c r="T25" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
       <c r="BC25" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BD25" s="44"/>
       <c r="BE25" s="44"/>
       <c r="BF25" s="44"/>
       <c r="BG25" s="44"/>
       <c r="BH25" s="44"/>
-      <c r="BL25" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM25" s="33"/>
-      <c r="BN25" s="33"/>
-      <c r="BO25" s="33"/>
-      <c r="BP25" s="33"/>
-      <c r="BQ25" s="33"/>
+      <c r="BL25" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
       <c r="CD25" s="44" t="s">
         <v>140</v>
       </c>
@@ -9749,38 +9747,38 @@
       <c r="CR25" s="44"/>
     </row>
     <row r="26" spans="1:96" ht="15" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
       <c r="S26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="AT26" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="53"/>
+      <c r="T26" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="AT26" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
       <c r="BC26" s="44"/>
       <c r="BD26" s="44"/>
       <c r="BE26" s="44"/>
@@ -9809,40 +9807,42 @@
       <c r="CR26" s="44"/>
     </row>
     <row r="27" spans="1:96">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
       <c r="S27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="53"/>
-      <c r="AW27" s="53"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="53"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
+      <c r="T27" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="AT27" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU27" s="55"/>
+      <c r="AV27" s="55"/>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="55"/>
+      <c r="AY27" s="55"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
       <c r="BL27" s="5" t="s">
         <v>51</v>
       </c>
@@ -9853,60 +9853,60 @@
       <c r="BQ27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CD27" s="56"/>
-      <c r="CE27" s="56"/>
-      <c r="CF27" s="56"/>
-      <c r="CG27" s="56"/>
-      <c r="CH27" s="56"/>
-      <c r="CI27" s="56"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
+      <c r="CH27" s="49"/>
+      <c r="CI27" s="49"/>
     </row>
     <row r="28" spans="1:96" ht="15" customHeight="1">
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="S28" s="41" t="s">
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="S28" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="BC28" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="55"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="55"/>
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="BC28" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
       <c r="BL28" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BM28" s="44"/>
       <c r="BN28" s="44"/>
       <c r="BO28" s="44"/>
       <c r="BP28" s="44"/>
       <c r="BQ28" s="44"/>
-      <c r="CD28" s="33" t="s">
+      <c r="CD28" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="CE28" s="33"/>
-      <c r="CF28" s="33"/>
-      <c r="CG28" s="33"/>
-      <c r="CH28" s="33"/>
-      <c r="CI28" s="33"/>
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="31"/>
+      <c r="CH28" s="31"/>
+      <c r="CI28" s="31"/>
     </row>
     <row r="29" spans="1:96" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
@@ -9917,14 +9917,20 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="57" t="s">
+      <c r="S29" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
+      <c r="AY29" s="55"/>
       <c r="BC29" s="5" t="s">
         <v>104</v>
       </c>
@@ -9954,95 +9960,95 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="47" t="s">
+      <c r="M30" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
       <c r="BC30" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="BG30" s="48"/>
-      <c r="BH30" s="48"/>
-      <c r="BL30" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="BM30" s="33"/>
-      <c r="BN30" s="33"/>
-      <c r="BO30" s="33"/>
-      <c r="BP30" s="33"/>
-      <c r="BQ30" s="33"/>
+      <c r="BF30" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="BG30" s="46"/>
+      <c r="BH30" s="46"/>
+      <c r="BL30" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
       <c r="CD30" s="5" t="s">
         <v>134</v>
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
-      <c r="CG30" s="47" t="s">
+      <c r="CG30" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="CH30" s="48"/>
-      <c r="CI30" s="48"/>
+      <c r="CH30" s="46"/>
+      <c r="CI30" s="46"/>
     </row>
     <row r="31" spans="1:96">
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="S31" s="41" t="s">
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="S31" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="BC31" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="BD31" s="65"/>
-      <c r="BE31" s="65"/>
-      <c r="BF31" s="65"/>
-      <c r="BG31" s="65"/>
-      <c r="BH31" s="65"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="BC31" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD31" s="48"/>
+      <c r="BE31" s="48"/>
+      <c r="BF31" s="48"/>
+      <c r="BG31" s="48"/>
+      <c r="BH31" s="48"/>
       <c r="BL31" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
-      <c r="CD31" s="37" t="s">
+      <c r="CD31" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="CE31" s="37"/>
-      <c r="CF31" s="37"/>
-      <c r="CG31" s="37"/>
-      <c r="CH31" s="37"/>
-      <c r="CI31" s="37"/>
+      <c r="CE31" s="42"/>
+      <c r="CF31" s="42"/>
+      <c r="CG31" s="42"/>
+      <c r="CH31" s="42"/>
+      <c r="CI31" s="42"/>
     </row>
     <row r="32" spans="1:96" ht="15" customHeight="1">
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
       <c r="S32" s="44" t="s">
         <v>140</v>
       </c>
@@ -10051,22 +10057,22 @@
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
-      <c r="BC32" s="65"/>
-      <c r="BD32" s="65"/>
-      <c r="BE32" s="65"/>
-      <c r="BF32" s="65"/>
-      <c r="BG32" s="65"/>
-      <c r="BH32" s="65"/>
+      <c r="BC32" s="48"/>
+      <c r="BD32" s="48"/>
+      <c r="BE32" s="48"/>
+      <c r="BF32" s="48"/>
+      <c r="BG32" s="48"/>
+      <c r="BH32" s="48"/>
       <c r="BL32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
-      <c r="BO32" s="47" t="s">
+      <c r="BO32" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BP32" s="48"/>
-      <c r="BQ32" s="48"/>
+      <c r="BP32" s="46"/>
+      <c r="BQ32" s="46"/>
       <c r="CD32" s="44" t="s">
         <v>150</v>
       </c>
@@ -10077,34 +10083,34 @@
       <c r="CI32" s="44"/>
     </row>
     <row r="33" spans="10:87">
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
       <c r="X33" s="44"/>
-      <c r="BC33" s="65"/>
-      <c r="BD33" s="65"/>
-      <c r="BE33" s="65"/>
-      <c r="BF33" s="65"/>
-      <c r="BG33" s="65"/>
-      <c r="BH33" s="65"/>
-      <c r="BL33" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="BM33" s="37"/>
-      <c r="BN33" s="37"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="37"/>
-      <c r="BQ33" s="37"/>
+      <c r="BC33" s="48"/>
+      <c r="BD33" s="48"/>
+      <c r="BE33" s="48"/>
+      <c r="BF33" s="48"/>
+      <c r="BG33" s="48"/>
+      <c r="BH33" s="48"/>
+      <c r="BL33" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="BM33" s="42"/>
+      <c r="BN33" s="42"/>
+      <c r="BO33" s="42"/>
+      <c r="BP33" s="42"/>
+      <c r="BQ33" s="42"/>
       <c r="CD33" s="44"/>
       <c r="CE33" s="44"/>
       <c r="CF33" s="44"/>
@@ -10121,14 +10127,14 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
       <c r="BC34" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD34" s="44"/>
       <c r="BE34" s="44"/>
@@ -10136,7 +10142,7 @@
       <c r="BG34" s="44"/>
       <c r="BH34" s="44"/>
       <c r="BL34" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BM34" s="44"/>
       <c r="BN34" s="44"/>
@@ -10156,19 +10162,19 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="47" t="s">
+      <c r="M35" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="S35" s="33" t="s">
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="S35" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
       <c r="BC35" s="44"/>
       <c r="BD35" s="44"/>
       <c r="BE35" s="44"/>
@@ -10189,14 +10195,14 @@
       <c r="CI35" s="44"/>
     </row>
     <row r="36" spans="10:87" ht="15" customHeight="1">
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
       <c r="S36" s="5" t="s">
         <v>43</v>
       </c>
@@ -10214,51 +10220,51 @@
       <c r="CD36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE36" s="46" t="s">
+      <c r="CE36" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="CF36" s="34"/>
-      <c r="CG36" s="34"/>
-      <c r="CH36" s="34"/>
-      <c r="CI36" s="34"/>
+      <c r="CF36" s="41"/>
+      <c r="CG36" s="41"/>
+      <c r="CH36" s="41"/>
+      <c r="CI36" s="41"/>
     </row>
     <row r="37" spans="10:87">
-      <c r="J37" s="41" t="s">
+      <c r="J37" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
       <c r="S37" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="47" t="s">
+      <c r="V37" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="BC37" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD37" s="33"/>
-      <c r="BE37" s="33"/>
-      <c r="BF37" s="33"/>
-      <c r="BG37" s="33"/>
-      <c r="BH37" s="33"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="BC37" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
       <c r="CD37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE37" s="46" t="s">
+      <c r="CE37" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="CF37" s="34"/>
-      <c r="CG37" s="34"/>
-      <c r="CH37" s="34"/>
-      <c r="CI37" s="34"/>
+      <c r="CF37" s="41"/>
+      <c r="CG37" s="41"/>
+      <c r="CH37" s="41"/>
+      <c r="CI37" s="41"/>
     </row>
     <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
@@ -10269,14 +10275,14 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="37" t="s">
+      <c r="S38" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
       <c r="BC38" s="5" t="s">
         <v>53</v>
       </c>
@@ -10302,11 +10308,11 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="47" t="s">
+      <c r="M39" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
       <c r="S39" s="44" t="s">
         <v>150</v>
       </c>
@@ -10320,11 +10326,11 @@
       </c>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="47" t="s">
+      <c r="BF39" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BG39" s="48"/>
-      <c r="BH39" s="48"/>
+      <c r="BG39" s="46"/>
+      <c r="BH39" s="46"/>
       <c r="CD39" s="44" t="s">
         <v>139</v>
       </c>
@@ -10335,36 +10341,36 @@
       <c r="CI39" s="44"/>
     </row>
     <row r="40" spans="10:87" ht="15" customHeight="1">
-      <c r="J40" s="35" t="s">
+      <c r="J40" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="44"/>
       <c r="V40" s="44"/>
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
-      <c r="BC40" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
+      <c r="BC40" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="42"/>
+      <c r="BF40" s="42"/>
+      <c r="BG40" s="42"/>
+      <c r="BH40" s="42"/>
     </row>
     <row r="41" spans="10:87">
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
@@ -10372,7 +10378,7 @@
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
       <c r="BC41" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BD41" s="44"/>
       <c r="BE41" s="44"/>
@@ -10381,12 +10387,12 @@
       <c r="BH41" s="44"/>
     </row>
     <row r="42" spans="10:87">
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
@@ -10404,13 +10410,13 @@
       <c r="S43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="46" t="s">
+      <c r="T43" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
       <c r="BC43" s="44"/>
       <c r="BD43" s="44"/>
       <c r="BE43" s="44"/>
@@ -10422,13 +10428,13 @@
       <c r="S44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T44" s="46" t="s">
+      <c r="T44" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
     </row>
     <row r="45" spans="10:87">
       <c r="S45" s="1" t="s">
@@ -10453,26 +10459,26 @@
       <c r="X46" s="44"/>
     </row>
     <row r="48" spans="10:87">
-      <c r="BC48" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD48" s="41"/>
-      <c r="BE48" s="41"/>
-      <c r="BF48" s="41"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="CD48" s="41" t="s">
+      <c r="BC48" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="37"/>
+      <c r="BF48" s="37"/>
+      <c r="BG48" s="37"/>
+      <c r="BH48" s="37"/>
+      <c r="CD48" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="CE48" s="42"/>
-      <c r="CF48" s="42"/>
-      <c r="CG48" s="42"/>
-      <c r="CH48" s="42"/>
-      <c r="CI48" s="42"/>
+      <c r="CE48" s="38"/>
+      <c r="CF48" s="38"/>
+      <c r="CG48" s="38"/>
+      <c r="CH48" s="38"/>
+      <c r="CI48" s="38"/>
     </row>
     <row r="49" spans="55:87">
       <c r="BC49" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
@@ -10494,55 +10500,55 @@
       </c>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="BG50" s="47"/>
-      <c r="BH50" s="47"/>
+      <c r="BF50" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="BG50" s="45"/>
+      <c r="BH50" s="45"/>
       <c r="CD50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" s="1"/>
-      <c r="CG50" s="47" t="s">
+      <c r="CG50" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="CH50" s="48"/>
-      <c r="CI50" s="48"/>
+      <c r="CH50" s="46"/>
+      <c r="CI50" s="46"/>
     </row>
     <row r="51" spans="55:87" ht="15" customHeight="1">
-      <c r="BC51" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="BD51" s="35"/>
-      <c r="BE51" s="35"/>
-      <c r="BF51" s="35"/>
-      <c r="BG51" s="35"/>
-      <c r="BH51" s="35"/>
-      <c r="BL51" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="BM51" s="41"/>
-      <c r="BN51" s="41"/>
-      <c r="BO51" s="41"/>
-      <c r="BP51" s="41"/>
-      <c r="BQ51" s="41"/>
-      <c r="CD51" s="35" t="s">
+      <c r="BC51" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="BD51" s="39"/>
+      <c r="BE51" s="39"/>
+      <c r="BF51" s="39"/>
+      <c r="BG51" s="39"/>
+      <c r="BH51" s="39"/>
+      <c r="BL51" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM51" s="37"/>
+      <c r="BN51" s="37"/>
+      <c r="BO51" s="37"/>
+      <c r="BP51" s="37"/>
+      <c r="BQ51" s="37"/>
+      <c r="CD51" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="CE51" s="35"/>
-      <c r="CF51" s="35"/>
-      <c r="CG51" s="35"/>
-      <c r="CH51" s="35"/>
-      <c r="CI51" s="35"/>
+      <c r="CE51" s="39"/>
+      <c r="CF51" s="39"/>
+      <c r="CG51" s="39"/>
+      <c r="CH51" s="39"/>
+      <c r="CI51" s="39"/>
     </row>
     <row r="52" spans="55:87">
-      <c r="BC52" s="36"/>
-      <c r="BD52" s="36"/>
-      <c r="BE52" s="36"/>
-      <c r="BF52" s="36"/>
-      <c r="BG52" s="36"/>
-      <c r="BH52" s="36"/>
+      <c r="BC52" s="40"/>
+      <c r="BD52" s="40"/>
+      <c r="BE52" s="40"/>
+      <c r="BF52" s="40"/>
+      <c r="BG52" s="40"/>
+      <c r="BH52" s="40"/>
       <c r="BL52" s="5" t="s">
         <v>98</v>
       </c>
@@ -10551,40 +10557,40 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
       <c r="BQ52" s="1"/>
-      <c r="CD52" s="35"/>
-      <c r="CE52" s="35"/>
-      <c r="CF52" s="35"/>
-      <c r="CG52" s="35"/>
-      <c r="CH52" s="35"/>
-      <c r="CI52" s="35"/>
+      <c r="CD52" s="39"/>
+      <c r="CE52" s="39"/>
+      <c r="CF52" s="39"/>
+      <c r="CG52" s="39"/>
+      <c r="CH52" s="39"/>
+      <c r="CI52" s="39"/>
     </row>
     <row r="53" spans="55:87">
-      <c r="BC53" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="BD53" s="41"/>
-      <c r="BE53" s="41"/>
-      <c r="BF53" s="41"/>
-      <c r="BG53" s="41"/>
-      <c r="BH53" s="41"/>
+      <c r="BC53" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="BD53" s="37"/>
+      <c r="BE53" s="37"/>
+      <c r="BF53" s="37"/>
+      <c r="BG53" s="37"/>
+      <c r="BH53" s="37"/>
       <c r="BL53" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="18"/>
       <c r="BP53" s="18"/>
       <c r="BQ53" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="CD53" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="CD53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="CE53" s="42"/>
-      <c r="CF53" s="42"/>
-      <c r="CG53" s="42"/>
-      <c r="CH53" s="42"/>
-      <c r="CI53" s="42"/>
+      <c r="CE53" s="38"/>
+      <c r="CF53" s="38"/>
+      <c r="CG53" s="38"/>
+      <c r="CH53" s="38"/>
+      <c r="CI53" s="38"/>
     </row>
     <row r="54" spans="55:87">
       <c r="BC54" s="5" t="s">
@@ -10595,14 +10601,14 @@
       <c r="BF54" s="1"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
-      <c r="BL54" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="BM54" s="35"/>
-      <c r="BN54" s="35"/>
-      <c r="BO54" s="35"/>
-      <c r="BP54" s="35"/>
-      <c r="BQ54" s="35"/>
+      <c r="BL54" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM54" s="39"/>
+      <c r="BN54" s="39"/>
+      <c r="BO54" s="39"/>
+      <c r="BP54" s="39"/>
+      <c r="BQ54" s="39"/>
       <c r="CD54" s="5" t="s">
         <v>98</v>
       </c>
@@ -10614,107 +10620,107 @@
     </row>
     <row r="55" spans="55:87" ht="15" customHeight="1">
       <c r="BC55" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="47" t="s">
+      <c r="BF55" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="BG55" s="47"/>
-      <c r="BH55" s="47"/>
+      <c r="BG55" s="45"/>
+      <c r="BH55" s="45"/>
       <c r="BL55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM55" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="BN55" s="34"/>
-      <c r="BO55" s="34"/>
-      <c r="BP55" s="34"/>
-      <c r="BQ55" s="34"/>
+      <c r="BM55" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN55" s="41"/>
+      <c r="BO55" s="41"/>
+      <c r="BP55" s="41"/>
+      <c r="BQ55" s="41"/>
       <c r="CD55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" s="1"/>
-      <c r="CG55" s="47" t="s">
+      <c r="CG55" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="CH55" s="48"/>
-      <c r="CI55" s="48"/>
+      <c r="CH55" s="46"/>
+      <c r="CI55" s="46"/>
     </row>
     <row r="56" spans="55:87">
-      <c r="BC56" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="BD56" s="35"/>
-      <c r="BE56" s="35"/>
-      <c r="BF56" s="35"/>
-      <c r="BG56" s="35"/>
-      <c r="BH56" s="35"/>
+      <c r="BC56" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD56" s="39"/>
+      <c r="BE56" s="39"/>
+      <c r="BF56" s="39"/>
+      <c r="BG56" s="39"/>
+      <c r="BH56" s="39"/>
       <c r="BL56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM56" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="BN56" s="34"/>
-      <c r="BO56" s="34"/>
-      <c r="BP56" s="34"/>
-      <c r="BQ56" s="34"/>
-      <c r="CD56" s="35" t="s">
+      <c r="BM56" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN56" s="41"/>
+      <c r="BO56" s="41"/>
+      <c r="BP56" s="41"/>
+      <c r="BQ56" s="41"/>
+      <c r="CD56" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="CE56" s="35"/>
-      <c r="CF56" s="35"/>
-      <c r="CG56" s="35"/>
-      <c r="CH56" s="35"/>
-      <c r="CI56" s="35"/>
+      <c r="CE56" s="39"/>
+      <c r="CF56" s="39"/>
+      <c r="CG56" s="39"/>
+      <c r="CH56" s="39"/>
+      <c r="CI56" s="39"/>
     </row>
     <row r="57" spans="55:87">
-      <c r="BC57" s="36"/>
-      <c r="BD57" s="36"/>
-      <c r="BE57" s="36"/>
-      <c r="BF57" s="36"/>
-      <c r="BG57" s="36"/>
-      <c r="BH57" s="36"/>
+      <c r="BC57" s="40"/>
+      <c r="BD57" s="40"/>
+      <c r="BE57" s="40"/>
+      <c r="BF57" s="40"/>
+      <c r="BG57" s="40"/>
+      <c r="BH57" s="40"/>
       <c r="BL57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BM57" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BN57" s="7"/>
       <c r="BO57" s="7"/>
       <c r="BP57" s="7"/>
       <c r="BQ57" s="7"/>
-      <c r="CD57" s="41" t="s">
+      <c r="CD57" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="CE57" s="42"/>
-      <c r="CF57" s="42"/>
-      <c r="CG57" s="42"/>
-      <c r="CH57" s="42"/>
-      <c r="CI57" s="42"/>
+      <c r="CE57" s="38"/>
+      <c r="CF57" s="38"/>
+      <c r="CG57" s="38"/>
+      <c r="CH57" s="38"/>
+      <c r="CI57" s="38"/>
     </row>
     <row r="58" spans="55:87" ht="15" customHeight="1">
-      <c r="BC58" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="BD58" s="41"/>
-      <c r="BE58" s="41"/>
-      <c r="BF58" s="41"/>
-      <c r="BG58" s="41"/>
-      <c r="BH58" s="41"/>
-      <c r="BL58" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM58" s="41"/>
-      <c r="BN58" s="41"/>
-      <c r="BO58" s="41"/>
-      <c r="BP58" s="41"/>
-      <c r="BQ58" s="41"/>
+      <c r="BC58" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD58" s="37"/>
+      <c r="BE58" s="37"/>
+      <c r="BF58" s="37"/>
+      <c r="BG58" s="37"/>
+      <c r="BH58" s="37"/>
+      <c r="BL58" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM58" s="37"/>
+      <c r="BN58" s="37"/>
+      <c r="BO58" s="37"/>
+      <c r="BP58" s="37"/>
+      <c r="BQ58" s="37"/>
       <c r="CD58" s="5" t="s">
         <v>104</v>
       </c>
@@ -10734,7 +10740,7 @@
       <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
       <c r="BL59" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
@@ -10746,11 +10752,11 @@
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
-      <c r="CG59" s="47" t="s">
+      <c r="CG59" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="CH59" s="48"/>
-      <c r="CI59" s="48"/>
+      <c r="CH59" s="46"/>
+      <c r="CI59" s="46"/>
     </row>
     <row r="60" spans="55:87" ht="15" customHeight="1">
       <c r="BC60" s="5" t="s">
@@ -10758,97 +10764,97 @@
       </c>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-      <c r="BF60" s="47" t="s">
+      <c r="BF60" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BG60" s="48"/>
-      <c r="BH60" s="48"/>
+      <c r="BG60" s="46"/>
+      <c r="BH60" s="46"/>
       <c r="BL60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="47" t="s">
+      <c r="BO60" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BP60" s="47"/>
-      <c r="BQ60" s="47"/>
-      <c r="CD60" s="35" t="s">
+      <c r="BP60" s="45"/>
+      <c r="BQ60" s="45"/>
+      <c r="CD60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="CE60" s="35"/>
-      <c r="CF60" s="35"/>
-      <c r="CG60" s="35"/>
-      <c r="CH60" s="35"/>
-      <c r="CI60" s="35"/>
+      <c r="CE60" s="39"/>
+      <c r="CF60" s="39"/>
+      <c r="CG60" s="39"/>
+      <c r="CH60" s="39"/>
+      <c r="CI60" s="39"/>
     </row>
     <row r="61" spans="55:87">
-      <c r="BC61" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="BD61" s="35"/>
-      <c r="BE61" s="35"/>
-      <c r="BF61" s="35"/>
-      <c r="BG61" s="35"/>
-      <c r="BH61" s="35"/>
-      <c r="BL61" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="BM61" s="35"/>
-      <c r="BN61" s="35"/>
-      <c r="BO61" s="35"/>
-      <c r="BP61" s="35"/>
-      <c r="BQ61" s="35"/>
-      <c r="CD61" s="35"/>
-      <c r="CE61" s="35"/>
-      <c r="CF61" s="35"/>
-      <c r="CG61" s="35"/>
-      <c r="CH61" s="35"/>
-      <c r="CI61" s="35"/>
+      <c r="BC61" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD61" s="39"/>
+      <c r="BE61" s="39"/>
+      <c r="BF61" s="39"/>
+      <c r="BG61" s="39"/>
+      <c r="BH61" s="39"/>
+      <c r="BL61" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="BM61" s="39"/>
+      <c r="BN61" s="39"/>
+      <c r="BO61" s="39"/>
+      <c r="BP61" s="39"/>
+      <c r="BQ61" s="39"/>
+      <c r="CD61" s="39"/>
+      <c r="CE61" s="39"/>
+      <c r="CF61" s="39"/>
+      <c r="CG61" s="39"/>
+      <c r="CH61" s="39"/>
+      <c r="CI61" s="39"/>
     </row>
     <row r="62" spans="55:87">
-      <c r="BC62" s="35"/>
-      <c r="BD62" s="35"/>
-      <c r="BE62" s="35"/>
-      <c r="BF62" s="35"/>
-      <c r="BG62" s="35"/>
-      <c r="BH62" s="35"/>
-      <c r="BL62" s="35"/>
-      <c r="BM62" s="35"/>
-      <c r="BN62" s="35"/>
-      <c r="BO62" s="35"/>
-      <c r="BP62" s="35"/>
-      <c r="BQ62" s="35"/>
-      <c r="CD62" s="35"/>
-      <c r="CE62" s="35"/>
-      <c r="CF62" s="35"/>
-      <c r="CG62" s="35"/>
-      <c r="CH62" s="35"/>
-      <c r="CI62" s="35"/>
+      <c r="BC62" s="39"/>
+      <c r="BD62" s="39"/>
+      <c r="BE62" s="39"/>
+      <c r="BF62" s="39"/>
+      <c r="BG62" s="39"/>
+      <c r="BH62" s="39"/>
+      <c r="BL62" s="39"/>
+      <c r="BM62" s="39"/>
+      <c r="BN62" s="39"/>
+      <c r="BO62" s="39"/>
+      <c r="BP62" s="39"/>
+      <c r="BQ62" s="39"/>
+      <c r="CD62" s="39"/>
+      <c r="CE62" s="39"/>
+      <c r="CF62" s="39"/>
+      <c r="CG62" s="39"/>
+      <c r="CH62" s="39"/>
+      <c r="CI62" s="39"/>
     </row>
     <row r="63" spans="55:87">
-      <c r="BC63" s="35"/>
-      <c r="BD63" s="35"/>
-      <c r="BE63" s="35"/>
-      <c r="BF63" s="35"/>
-      <c r="BG63" s="35"/>
-      <c r="BH63" s="35"/>
-      <c r="BL63" s="36"/>
-      <c r="BM63" s="36"/>
-      <c r="BN63" s="36"/>
-      <c r="BO63" s="36"/>
-      <c r="BP63" s="36"/>
-      <c r="BQ63" s="36"/>
+      <c r="BC63" s="39"/>
+      <c r="BD63" s="39"/>
+      <c r="BE63" s="39"/>
+      <c r="BF63" s="39"/>
+      <c r="BG63" s="39"/>
+      <c r="BH63" s="39"/>
+      <c r="BL63" s="40"/>
+      <c r="BM63" s="40"/>
+      <c r="BN63" s="40"/>
+      <c r="BO63" s="40"/>
+      <c r="BP63" s="40"/>
+      <c r="BQ63" s="40"/>
     </row>
     <row r="64" spans="55:87" ht="15" customHeight="1">
-      <c r="BL64" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="BM64" s="41"/>
-      <c r="BN64" s="41"/>
-      <c r="BO64" s="41"/>
-      <c r="BP64" s="41"/>
-      <c r="BQ64" s="41"/>
+      <c r="BL64" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="BM64" s="37"/>
+      <c r="BN64" s="37"/>
+      <c r="BO64" s="37"/>
+      <c r="BP64" s="37"/>
+      <c r="BQ64" s="37"/>
     </row>
     <row r="65" spans="64:69">
       <c r="BL65" s="5" t="s">
@@ -10866,56 +10872,251 @@
       </c>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
-      <c r="BO66" s="47" t="s">
+      <c r="BO66" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BP66" s="48"/>
-      <c r="BQ66" s="48"/>
+      <c r="BP66" s="46"/>
+      <c r="BQ66" s="46"/>
     </row>
     <row r="67" spans="64:69">
-      <c r="BL67" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM67" s="35"/>
-      <c r="BN67" s="35"/>
-      <c r="BO67" s="35"/>
-      <c r="BP67" s="35"/>
-      <c r="BQ67" s="35"/>
+      <c r="BL67" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="BM67" s="39"/>
+      <c r="BN67" s="39"/>
+      <c r="BO67" s="39"/>
+      <c r="BP67" s="39"/>
+      <c r="BQ67" s="39"/>
     </row>
     <row r="68" spans="64:69">
-      <c r="BL68" s="35"/>
-      <c r="BM68" s="35"/>
-      <c r="BN68" s="35"/>
-      <c r="BO68" s="35"/>
-      <c r="BP68" s="35"/>
-      <c r="BQ68" s="35"/>
+      <c r="BL68" s="39"/>
+      <c r="BM68" s="39"/>
+      <c r="BN68" s="39"/>
+      <c r="BO68" s="39"/>
+      <c r="BP68" s="39"/>
+      <c r="BQ68" s="39"/>
     </row>
     <row r="69" spans="64:69">
-      <c r="BL69" s="35"/>
-      <c r="BM69" s="35"/>
-      <c r="BN69" s="35"/>
-      <c r="BO69" s="35"/>
-      <c r="BP69" s="35"/>
-      <c r="BQ69" s="35"/>
+      <c r="BL69" s="39"/>
+      <c r="BM69" s="39"/>
+      <c r="BN69" s="39"/>
+      <c r="BO69" s="39"/>
+      <c r="BP69" s="39"/>
+      <c r="BQ69" s="39"/>
     </row>
     <row r="70" spans="64:69">
-      <c r="BL70" s="35"/>
-      <c r="BM70" s="35"/>
-      <c r="BN70" s="35"/>
-      <c r="BO70" s="35"/>
-      <c r="BP70" s="35"/>
-      <c r="BQ70" s="35"/>
+      <c r="BL70" s="39"/>
+      <c r="BM70" s="39"/>
+      <c r="BN70" s="39"/>
+      <c r="BO70" s="39"/>
+      <c r="BP70" s="39"/>
+      <c r="BQ70" s="39"/>
     </row>
     <row r="71" spans="64:69">
-      <c r="BL71" s="35"/>
-      <c r="BM71" s="35"/>
-      <c r="BN71" s="35"/>
-      <c r="BO71" s="35"/>
-      <c r="BP71" s="35"/>
-      <c r="BQ71" s="35"/>
+      <c r="BL71" s="39"/>
+      <c r="BM71" s="39"/>
+      <c r="BN71" s="39"/>
+      <c r="BO71" s="39"/>
+      <c r="BP71" s="39"/>
+      <c r="BQ71" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="219">
+    <mergeCell ref="BL67:BQ71"/>
+    <mergeCell ref="BL12:BQ12"/>
+    <mergeCell ref="BL13:BQ14"/>
+    <mergeCell ref="BU17:BZ23"/>
+    <mergeCell ref="BL54:BQ54"/>
+    <mergeCell ref="BM55:BQ55"/>
+    <mergeCell ref="BM56:BQ56"/>
+    <mergeCell ref="BL9:BQ11"/>
+    <mergeCell ref="BL15:BQ15"/>
+    <mergeCell ref="BL16:BQ17"/>
+    <mergeCell ref="BL34:BQ35"/>
+    <mergeCell ref="BL24:BQ24"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL61:BQ63"/>
+    <mergeCell ref="BO32:BQ32"/>
+    <mergeCell ref="BL33:BQ33"/>
+    <mergeCell ref="BM23:BQ23"/>
+    <mergeCell ref="BL25:BQ25"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB16:AG17"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AB13:AG14"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="S32:X34"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="S39:X42"/>
+    <mergeCell ref="S29:X30"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="S19:X21"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J31:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J25:O27"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="BC5:BH5"/>
+    <mergeCell ref="AK16:AP17"/>
+    <mergeCell ref="AK21:AP23"/>
+    <mergeCell ref="AT23:AY25"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK18:AP19"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AT26:AY26"/>
+    <mergeCell ref="AT22:AY22"/>
+    <mergeCell ref="BD11:BH11"/>
+    <mergeCell ref="BC12:BH13"/>
+    <mergeCell ref="BC14:BH14"/>
+    <mergeCell ref="BC6:BH6"/>
+    <mergeCell ref="BD9:BH9"/>
+    <mergeCell ref="BD10:BH10"/>
+    <mergeCell ref="BC17:BH19"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AT6:AY6"/>
+    <mergeCell ref="AT7:AY7"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AK20:AP20"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="CD31:CI31"/>
+    <mergeCell ref="CD32:CI35"/>
+    <mergeCell ref="CD6:CI6"/>
+    <mergeCell ref="CD7:CI7"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="CE12:CI12"/>
+    <mergeCell ref="CD13:CI14"/>
+    <mergeCell ref="CD15:CI15"/>
+    <mergeCell ref="CE18:CI18"/>
+    <mergeCell ref="CE19:CI19"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="BC48:BH48"/>
+    <mergeCell ref="BF50:BH50"/>
+    <mergeCell ref="BC51:BH52"/>
+    <mergeCell ref="BC53:BH53"/>
+    <mergeCell ref="BF55:BH55"/>
+    <mergeCell ref="AT27:AY29"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BC21:BH23"/>
+    <mergeCell ref="BC41:BH43"/>
+    <mergeCell ref="BC25:BH27"/>
+    <mergeCell ref="BC37:BH37"/>
+    <mergeCell ref="BF39:BH39"/>
+    <mergeCell ref="BC40:BH40"/>
+    <mergeCell ref="BC24:BH24"/>
+    <mergeCell ref="BC28:BH28"/>
+    <mergeCell ref="AT16:AY21"/>
+    <mergeCell ref="BL7:BQ8"/>
+    <mergeCell ref="BL18:BQ18"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="CD56:CI56"/>
+    <mergeCell ref="CD57:CI57"/>
+    <mergeCell ref="CG59:CI59"/>
+    <mergeCell ref="CD60:CI62"/>
+    <mergeCell ref="BF60:BH60"/>
+    <mergeCell ref="BC61:BH63"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
+    <mergeCell ref="BU2:BZ3"/>
+    <mergeCell ref="BU16:BZ16"/>
+    <mergeCell ref="BU11:BZ12"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BU4:BZ4"/>
+    <mergeCell ref="BU5:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BU8:BZ9"/>
+    <mergeCell ref="BU10:BZ10"/>
+    <mergeCell ref="BV14:BZ14"/>
+    <mergeCell ref="BV15:BZ15"/>
     <mergeCell ref="CM20:CR26"/>
     <mergeCell ref="BO66:BQ66"/>
     <mergeCell ref="BC58:BH58"/>
@@ -10940,201 +11141,6 @@
     <mergeCell ref="BC34:BH36"/>
     <mergeCell ref="BL5:BQ5"/>
     <mergeCell ref="BL6:BQ6"/>
-    <mergeCell ref="BU2:BZ3"/>
-    <mergeCell ref="BU16:BZ16"/>
-    <mergeCell ref="BU11:BZ12"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BU4:BZ4"/>
-    <mergeCell ref="BU5:BZ6"/>
-    <mergeCell ref="BU7:BZ7"/>
-    <mergeCell ref="BU8:BZ9"/>
-    <mergeCell ref="BU10:BZ10"/>
-    <mergeCell ref="BV14:BZ14"/>
-    <mergeCell ref="BV15:BZ15"/>
-    <mergeCell ref="BL7:BQ8"/>
-    <mergeCell ref="BL18:BQ18"/>
-    <mergeCell ref="BL30:BQ30"/>
-    <mergeCell ref="CD56:CI56"/>
-    <mergeCell ref="CD57:CI57"/>
-    <mergeCell ref="CG59:CI59"/>
-    <mergeCell ref="CD60:CI62"/>
-    <mergeCell ref="BF60:BH60"/>
-    <mergeCell ref="BC61:BH63"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CD21:CI21"/>
-    <mergeCell ref="CD22:CI23"/>
-    <mergeCell ref="CD24:CI24"/>
-    <mergeCell ref="CD48:CI48"/>
-    <mergeCell ref="CG50:CI50"/>
-    <mergeCell ref="CD51:CI52"/>
-    <mergeCell ref="CD53:CI53"/>
-    <mergeCell ref="CG55:CI55"/>
-    <mergeCell ref="CE36:CI36"/>
-    <mergeCell ref="CE37:CI37"/>
-    <mergeCell ref="CD39:CI39"/>
-    <mergeCell ref="CD25:CI27"/>
-    <mergeCell ref="CD28:CI28"/>
-    <mergeCell ref="CG30:CI30"/>
-    <mergeCell ref="AT13:AY13"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AT16:AY20"/>
-    <mergeCell ref="BC48:BH48"/>
-    <mergeCell ref="BF50:BH50"/>
-    <mergeCell ref="BC51:BH52"/>
-    <mergeCell ref="BC53:BH53"/>
-    <mergeCell ref="BF55:BH55"/>
-    <mergeCell ref="AT26:AY28"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BC21:BH23"/>
-    <mergeCell ref="BC41:BH43"/>
-    <mergeCell ref="BC25:BH27"/>
-    <mergeCell ref="BC37:BH37"/>
-    <mergeCell ref="BF39:BH39"/>
-    <mergeCell ref="BC40:BH40"/>
-    <mergeCell ref="BC24:BH24"/>
-    <mergeCell ref="BC28:BH28"/>
-    <mergeCell ref="CD31:CI31"/>
-    <mergeCell ref="CD32:CI35"/>
-    <mergeCell ref="CD6:CI6"/>
-    <mergeCell ref="CD7:CI7"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="CE12:CI12"/>
-    <mergeCell ref="CD13:CI14"/>
-    <mergeCell ref="CD15:CI15"/>
-    <mergeCell ref="CE18:CI18"/>
-    <mergeCell ref="CE19:CI19"/>
-    <mergeCell ref="BC5:BH5"/>
-    <mergeCell ref="AK16:AP17"/>
-    <mergeCell ref="AK21:AP23"/>
-    <mergeCell ref="AT22:AY24"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK18:AP19"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AT25:AY25"/>
-    <mergeCell ref="AT21:AY21"/>
-    <mergeCell ref="BD11:BH11"/>
-    <mergeCell ref="BC12:BH13"/>
-    <mergeCell ref="BC14:BH14"/>
-    <mergeCell ref="BC6:BH6"/>
-    <mergeCell ref="BD9:BH9"/>
-    <mergeCell ref="BD10:BH10"/>
-    <mergeCell ref="BC17:BH19"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AT6:AY6"/>
-    <mergeCell ref="AT7:AY7"/>
-    <mergeCell ref="AU10:AY10"/>
-    <mergeCell ref="AU11:AY11"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AK20:AP20"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="S19:X21"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J31:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J25:O27"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="S32:X34"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="S39:X42"/>
-    <mergeCell ref="S29:X30"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="S10:X12"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB16:AG17"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AB13:AG14"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="BL67:BQ71"/>
-    <mergeCell ref="BL12:BQ12"/>
-    <mergeCell ref="BL13:BQ14"/>
-    <mergeCell ref="BU17:BZ23"/>
-    <mergeCell ref="BL54:BQ54"/>
-    <mergeCell ref="BM55:BQ55"/>
-    <mergeCell ref="BM56:BQ56"/>
-    <mergeCell ref="BL9:BQ11"/>
-    <mergeCell ref="BL15:BQ15"/>
-    <mergeCell ref="BL16:BQ17"/>
-    <mergeCell ref="BL34:BQ35"/>
-    <mergeCell ref="BL24:BQ24"/>
-    <mergeCell ref="BL28:BQ29"/>
-    <mergeCell ref="BL61:BQ63"/>
-    <mergeCell ref="BO32:BQ32"/>
-    <mergeCell ref="BL33:BQ33"/>
-    <mergeCell ref="BM23:BQ23"/>
-    <mergeCell ref="BL25:BQ25"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11146,7 +11152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DFD280-CB3F-4A45-8F62-9CF1F8B27A7E}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
@@ -11157,54 +11163,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="J1" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="S1" s="62" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="S1" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="AB1" s="67" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="AB1" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69" t="s">
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AK1" s="72" t="s">
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AK1" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -11275,40 +11281,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="66"/>
+      <c r="O3" s="68"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="66" t="s">
+      <c r="W3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="66"/>
+      <c r="X3" s="68"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="66" t="s">
+      <c r="AF3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="66"/>
+      <c r="AG3" s="68"/>
       <c r="AK3" s="5" t="s">
         <v>173</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="66" t="s">
+      <c r="AO3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="AP3" s="66"/>
+      <c r="AP3" s="68"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -11327,38 +11333,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="37"/>
+      <c r="O4" s="42"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="37"/>
+      <c r="X4" s="42"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="37" t="s">
+      <c r="AF4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="37"/>
+      <c r="AG4" s="42"/>
       <c r="AK4" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -11369,90 +11375,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="S5" s="31" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="S5" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="AB5" s="31" t="s">
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="AB5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AK5" s="31" t="s">
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AK5" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="J6" s="33" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="J6" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="S6" s="33" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="S6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="AB6" s="33" t="s">
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="AB6" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AK6" s="41" t="s">
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AK6" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -11477,14 +11483,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="53" t="s">
+      <c r="AK7" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="55"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -11500,37 +11506,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="47" t="s">
+      <c r="V8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="47" t="s">
+      <c r="AE8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -11538,169 +11544,169 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="AB9" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="AB9" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="55"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="T10" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="46" t="s">
+      <c r="AC11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="J12" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="S12" s="41" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="S12" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="46" t="s">
+      <c r="AC12" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -11709,62 +11715,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="S13" s="54" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="S13" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="46" t="s">
+      <c r="AC13" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="J14" s="41" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="J14" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="AB14" s="41" t="s">
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="AB14" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
     </row>
     <row r="15" spans="1:42" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -11775,30 +11781,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="S15" s="41" t="s">
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="S15" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="AB15" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="AB15" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -11806,229 +11812,178 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="S16" s="54" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="S16" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="AB17" s="41" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="AB17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="AB18" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="AB18" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="AB21" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="AB21" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="AB22" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="AB22" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP10"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK5:AP5"/>
-    <mergeCell ref="AB15:AG16"/>
-    <mergeCell ref="AB9:AG10"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG20"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
     <mergeCell ref="AB21:AG21"/>
     <mergeCell ref="AB22:AG24"/>
     <mergeCell ref="S6:X6"/>
@@ -12045,6 +12000,57 @@
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="S12:X12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD969ED7-77B2-4DB9-A632-117866E699B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205658DF-EE16-4A74-9965-EA1C1F21EF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1455" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="570" yWindow="780" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="348">
   <si>
     <t>[Name]</t>
   </si>
@@ -6454,6 +6454,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6463,14 +6469,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -6482,68 +6492,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6557,9 +6520,42 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6574,6 +6570,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6923,16 +6923,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -6944,10 +6944,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="32"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -7073,50 +7073,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -7172,11 +7172,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -7185,125 +7185,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="L14" s="39" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="L14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="L18" s="31" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="L18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -7329,102 +7329,115 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="L21" s="34" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="L21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="L23" s="37" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="L23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -7437,19 +7450,6 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7472,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
   <dimension ref="A1:CR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ21" sqref="AZ21"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ10" sqref="BJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7497,46 +7497,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="J1" s="33" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="32" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="S1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="32" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="AB1" s="62" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="AB1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64" t="s">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
       <c r="AK1" s="25" t="s">
         <v>196</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="BF3" s="1"/>
       <c r="BG3" s="5"/>
       <c r="BH3" s="18" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="BL3" s="5" t="s">
         <v>335</v>
@@ -7795,12 +7795,12 @@
       <c r="BQ3" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="56"/>
+      <c r="BZ3" s="56"/>
       <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
@@ -7885,11 +7885,11 @@
         <v>73</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
+      <c r="BE4" s="5"/>
       <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
+      <c r="BG4" s="5"/>
       <c r="BH4" s="18" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="BL4" s="5" t="s">
         <v>73</v>
@@ -7901,14 +7901,14 @@
       <c r="BQ4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU4" s="31" t="s">
+      <c r="BU4" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
       <c r="CD4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7955,50 +7955,50 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="42" t="s">
+      <c r="AK5" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="BC5" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BL5" s="29" t="s">
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL5" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
       <c r="BU5" s="44" t="s">
         <v>271</v>
       </c>
@@ -8015,184 +8015,184 @@
       <c r="CI5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="CM5" s="29" t="s">
+      <c r="CM5" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="CN5" s="30"/>
-      <c r="CO5" s="30"/>
-      <c r="CP5" s="30"/>
-      <c r="CQ5" s="30"/>
-      <c r="CR5" s="30"/>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
     </row>
     <row r="6" spans="1:96">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="J6" s="29" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="S6" s="29" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="S6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="AB6" s="29" t="s">
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="AB6" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AK6" s="29" t="s">
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AK6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AT6" s="29" t="s">
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AT6" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
       <c r="BC6" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="BD6" s="31"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BL6" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BL6" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="BM6" s="37"/>
-      <c r="BN6" s="37"/>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
-      <c r="BQ6" s="37"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="49"/>
-      <c r="CD6" s="29" t="s">
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="41"/>
+      <c r="BU6" s="56"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="56"/>
+      <c r="BZ6" s="56"/>
+      <c r="CD6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="CE6" s="30"/>
-      <c r="CF6" s="30"/>
-      <c r="CG6" s="30"/>
-      <c r="CH6" s="30"/>
-      <c r="CI6" s="30"/>
-      <c r="CM6" s="31" t="s">
+      <c r="CE6" s="32"/>
+      <c r="CF6" s="32"/>
+      <c r="CG6" s="32"/>
+      <c r="CH6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CM6" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="CN6" s="31"/>
-      <c r="CO6" s="31"/>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="33"/>
+      <c r="CP6" s="33"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="33"/>
     </row>
     <row r="7" spans="1:96">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="S7" s="37" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="S7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="AB7" s="31" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="AB7" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AK7" s="31" t="s">
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AK7" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AT7" s="31" t="s">
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AT7" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="BC7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BL7" s="51" t="s">
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="BC7" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BL7" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="BM7" s="51"/>
-      <c r="BN7" s="51"/>
-      <c r="BO7" s="51"/>
-      <c r="BP7" s="51"/>
-      <c r="BQ7" s="51"/>
-      <c r="BU7" s="31" t="s">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BU7" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="BV7" s="31"/>
-      <c r="BW7" s="31"/>
-      <c r="BX7" s="31"/>
-      <c r="BY7" s="31"/>
-      <c r="BZ7" s="31"/>
-      <c r="CD7" s="31" t="s">
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CD7" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="CE7" s="31"/>
-      <c r="CF7" s="31"/>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="31"/>
-      <c r="CI7" s="31"/>
+      <c r="CE7" s="33"/>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="33"/>
+      <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
       <c r="CM7" s="5" t="s">
         <v>62</v>
       </c>
@@ -8219,14 +8219,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
       <c r="AB8" s="5" t="s">
         <v>191</v>
       </c>
@@ -8252,21 +8252,19 @@
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
       <c r="BC8" s="5" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
-      <c r="BF8" s="18"/>
-      <c r="BG8" s="18"/>
-      <c r="BH8" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL8" s="51"/>
-      <c r="BM8" s="51"/>
-      <c r="BN8" s="51"/>
-      <c r="BO8" s="51"/>
-      <c r="BP8" s="51"/>
-      <c r="BQ8" s="51"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="45"/>
       <c r="BU8" s="44" t="s">
         <v>270</v>
       </c>
@@ -8300,27 +8298,27 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
       <c r="AB9" s="5" t="s">
         <v>192</v>
       </c>
@@ -8351,246 +8349,246 @@
       <c r="AY9" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="BC9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD9" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BL9" s="51" t="s">
+      <c r="BC9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL9" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="BM9" s="51"/>
-      <c r="BN9" s="51"/>
-      <c r="BO9" s="51"/>
-      <c r="BP9" s="51"/>
-      <c r="BQ9" s="51"/>
-      <c r="BU9" s="49"/>
-      <c r="BV9" s="49"/>
-      <c r="BW9" s="49"/>
-      <c r="BX9" s="49"/>
-      <c r="BY9" s="49"/>
-      <c r="BZ9" s="49"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BU9" s="56"/>
+      <c r="BV9" s="56"/>
+      <c r="BW9" s="56"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="56"/>
+      <c r="BZ9" s="56"/>
       <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="45" t="s">
+      <c r="CG9" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="CH9" s="45"/>
-      <c r="CI9" s="45"/>
+      <c r="CH9" s="47"/>
+      <c r="CI9" s="47"/>
       <c r="CM9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN9" s="47" t="s">
+      <c r="CN9" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="41"/>
-      <c r="CR9" s="41"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
     </row>
     <row r="10" spans="1:96">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="S10" s="51" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="S10" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="47" t="s">
+      <c r="AC10" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="47" t="s">
+      <c r="AL10" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="47" t="s">
+      <c r="AU10" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
       <c r="BC10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD10" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BL10" s="51"/>
-      <c r="BM10" s="51"/>
-      <c r="BN10" s="51"/>
-      <c r="BO10" s="51"/>
-      <c r="BP10" s="51"/>
-      <c r="BQ10" s="51"/>
-      <c r="BU10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BL10" s="45"/>
+      <c r="BM10" s="45"/>
+      <c r="BN10" s="45"/>
+      <c r="BO10" s="45"/>
+      <c r="BP10" s="45"/>
+      <c r="BQ10" s="45"/>
+      <c r="BU10" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="BV10" s="31"/>
-      <c r="BW10" s="31"/>
-      <c r="BX10" s="31"/>
-      <c r="BY10" s="31"/>
-      <c r="BZ10" s="31"/>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="33"/>
       <c r="CD10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE10" s="47" t="s">
+      <c r="CE10" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="41"/>
+      <c r="CF10" s="34"/>
+      <c r="CG10" s="34"/>
+      <c r="CH10" s="34"/>
+      <c r="CI10" s="34"/>
       <c r="CM10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CN10" s="47" t="s">
+      <c r="CN10" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="41"/>
-      <c r="CR10" s="41"/>
+      <c r="CO10" s="34"/>
+      <c r="CP10" s="34"/>
+      <c r="CQ10" s="34"/>
+      <c r="CR10" s="34"/>
     </row>
     <row r="11" spans="1:96">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="47" t="s">
+      <c r="AC11" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="47" t="s">
+      <c r="AL11" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="47" t="s">
+      <c r="AU11" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="BC11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD11" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BL11" s="51"/>
-      <c r="BM11" s="51"/>
-      <c r="BN11" s="51"/>
-      <c r="BO11" s="51"/>
-      <c r="BP11" s="51"/>
-      <c r="BQ11" s="51"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="BC11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD11" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BL11" s="45"/>
+      <c r="BM11" s="45"/>
+      <c r="BN11" s="45"/>
+      <c r="BO11" s="45"/>
+      <c r="BP11" s="45"/>
+      <c r="BQ11" s="45"/>
       <c r="BU11" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="BV11" s="50"/>
-      <c r="BW11" s="50"/>
-      <c r="BX11" s="50"/>
-      <c r="BY11" s="50"/>
-      <c r="BZ11" s="50"/>
+      <c r="BV11" s="64"/>
+      <c r="BW11" s="64"/>
+      <c r="BX11" s="64"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="64"/>
       <c r="CD11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE11" s="47" t="s">
+      <c r="CE11" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="CF11" s="41"/>
-      <c r="CG11" s="41"/>
-      <c r="CH11" s="41"/>
-      <c r="CI11" s="41"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="34"/>
+      <c r="CI11" s="34"/>
       <c r="CM11" s="5" t="s">
         <v>7</v>
       </c>
@@ -8606,99 +8604,101 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="56" t="s">
+      <c r="AC12" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="47" t="s">
+      <c r="AL12" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="BC12" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BL12" s="37" t="s">
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="BC12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD12" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+      <c r="BL12" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="BM12" s="37"/>
-      <c r="BN12" s="37"/>
-      <c r="BO12" s="37"/>
-      <c r="BP12" s="37"/>
-      <c r="BQ12" s="37"/>
-      <c r="BU12" s="50"/>
-      <c r="BV12" s="50"/>
-      <c r="BW12" s="50"/>
-      <c r="BX12" s="50"/>
-      <c r="BY12" s="50"/>
-      <c r="BZ12" s="50"/>
+      <c r="BM12" s="41"/>
+      <c r="BN12" s="41"/>
+      <c r="BO12" s="41"/>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="41"/>
+      <c r="BU12" s="64"/>
+      <c r="BV12" s="64"/>
+      <c r="BW12" s="64"/>
+      <c r="BX12" s="64"/>
+      <c r="BY12" s="64"/>
+      <c r="BZ12" s="64"/>
       <c r="CD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE12" s="47" t="s">
+      <c r="CE12" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="CF12" s="41"/>
-      <c r="CG12" s="41"/>
-      <c r="CH12" s="41"/>
-      <c r="CI12" s="41"/>
-      <c r="CM12" s="39" t="s">
+      <c r="CF12" s="34"/>
+      <c r="CG12" s="34"/>
+      <c r="CH12" s="34"/>
+      <c r="CI12" s="34"/>
+      <c r="CM12" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="CN12" s="39"/>
-      <c r="CO12" s="39"/>
-      <c r="CP12" s="39"/>
-      <c r="CQ12" s="39"/>
-      <c r="CR12" s="39"/>
+      <c r="CN12" s="35"/>
+      <c r="CO12" s="35"/>
+      <c r="CP12" s="35"/>
+      <c r="CQ12" s="35"/>
+      <c r="CR12" s="35"/>
     </row>
     <row r="13" spans="1:96" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -8707,22 +8707,22 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="S13" s="31" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="S13" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
       <c r="AB13" s="44" t="s">
         <v>281</v>
       </c>
@@ -8731,76 +8731,78 @@
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
-      <c r="AK13" s="37" t="s">
+      <c r="AK13" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AT13" s="31" t="s">
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AT13" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="40"/>
-      <c r="BF13" s="40"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="40"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="BC13" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
       <c r="BL13" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
-      <c r="BP13" s="51"/>
-      <c r="BQ13" s="51"/>
+      <c r="BM13" s="45"/>
+      <c r="BN13" s="45"/>
+      <c r="BO13" s="45"/>
+      <c r="BP13" s="45"/>
+      <c r="BQ13" s="45"/>
       <c r="BU13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV13" s="47" t="s">
+      <c r="BV13" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="BW13" s="41"/>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="41"/>
-      <c r="CD13" s="39" t="s">
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="34"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CD13" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="CE13" s="39"/>
-      <c r="CF13" s="39"/>
-      <c r="CG13" s="39"/>
-      <c r="CH13" s="39"/>
-      <c r="CI13" s="39"/>
-      <c r="CM13" s="39"/>
-      <c r="CN13" s="39"/>
-      <c r="CO13" s="39"/>
-      <c r="CP13" s="39"/>
-      <c r="CQ13" s="39"/>
-      <c r="CR13" s="39"/>
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="35"/>
+      <c r="CG13" s="35"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="35"/>
+      <c r="CM13" s="35"/>
+      <c r="CN13" s="35"/>
+      <c r="CO13" s="35"/>
+      <c r="CP13" s="35"/>
+      <c r="CQ13" s="35"/>
+      <c r="CR13" s="35"/>
     </row>
     <row r="14" spans="1:96">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -8809,12 +8811,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -8831,44 +8833,42 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="51"/>
-      <c r="BN14" s="51"/>
-      <c r="BO14" s="51"/>
-      <c r="BP14" s="51"/>
-      <c r="BQ14" s="51"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="36"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="36"/>
+      <c r="BH14" s="36"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="45"/>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="45"/>
+      <c r="BQ14" s="45"/>
       <c r="BU14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV14" s="47" t="s">
+      <c r="BV14" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="BW14" s="41"/>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="41"/>
-      <c r="BZ14" s="41"/>
-      <c r="CD14" s="40"/>
-      <c r="CE14" s="40"/>
-      <c r="CF14" s="40"/>
-      <c r="CG14" s="40"/>
-      <c r="CH14" s="40"/>
-      <c r="CI14" s="40"/>
-      <c r="CM14" s="37" t="s">
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="36"/>
+      <c r="CF14" s="36"/>
+      <c r="CG14" s="36"/>
+      <c r="CH14" s="36"/>
+      <c r="CI14" s="36"/>
+      <c r="CM14" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="CN14" s="31"/>
-      <c r="CO14" s="31"/>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="31"/>
-      <c r="CR14" s="31"/>
+      <c r="CN14" s="33"/>
+      <c r="CO14" s="33"/>
+      <c r="CP14" s="33"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="33"/>
     </row>
     <row r="15" spans="1:96">
       <c r="A15" s="5" t="s">
@@ -8879,32 +8879,32 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="45" t="s">
+      <c r="V15" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="AB15" s="37" t="s">
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="AB15" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -8920,45 +8920,45 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="45" t="s">
+      <c r="AW15" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
-      <c r="BC15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BL15" s="37" t="s">
+      <c r="AX15" s="47"/>
+      <c r="AY15" s="47"/>
+      <c r="BC15" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BL15" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
+      <c r="BM15" s="41"/>
+      <c r="BN15" s="41"/>
+      <c r="BO15" s="41"/>
+      <c r="BP15" s="41"/>
+      <c r="BQ15" s="41"/>
       <c r="BU15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BV15" s="47" t="s">
+      <c r="BV15" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="BW15" s="41"/>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="41"/>
-      <c r="BZ15" s="41"/>
-      <c r="CD15" s="31" t="s">
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="34"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CD15" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="CE15" s="31"/>
-      <c r="CF15" s="31"/>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="31"/>
-      <c r="CI15" s="31"/>
+      <c r="CE15" s="33"/>
+      <c r="CF15" s="33"/>
+      <c r="CG15" s="33"/>
+      <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
       <c r="CM15" s="44" t="s">
         <v>287</v>
       </c>
@@ -8974,11 +8974,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -8990,21 +8990,21 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="47" t="s">
+      <c r="T16" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="AB16" s="55" t="s">
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="AB16" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
       <c r="AK16" s="44" t="s">
         <v>206</v>
       </c>
@@ -9013,40 +9013,38 @@
       <c r="AN16" s="44"/>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
-      <c r="AT16" s="51" t="s">
+      <c r="AT16" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
       <c r="BC16" s="5" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="18"/>
-      <c r="BG16" s="28"/>
-      <c r="BH16" s="18" t="s">
-        <v>243</v>
-      </c>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
       <c r="BL16" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="BM16" s="51"/>
-      <c r="BN16" s="51"/>
-      <c r="BO16" s="51"/>
-      <c r="BP16" s="51"/>
-      <c r="BQ16" s="51"/>
-      <c r="BU16" s="31" t="s">
+      <c r="BM16" s="45"/>
+      <c r="BN16" s="45"/>
+      <c r="BO16" s="45"/>
+      <c r="BP16" s="45"/>
+      <c r="BQ16" s="45"/>
+      <c r="BU16" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="31"/>
-      <c r="BZ16" s="31"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
       <c r="CD16" s="5" t="s">
         <v>62</v>
       </c>
@@ -9066,65 +9064,67 @@
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="47" t="s">
+      <c r="T17" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
       <c r="AK17" s="44"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44"/>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="BC17" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BL17" s="51"/>
-      <c r="BM17" s="51"/>
-      <c r="BN17" s="51"/>
-      <c r="BO17" s="51"/>
-      <c r="BP17" s="51"/>
-      <c r="BQ17" s="51"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="BC17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="28"/>
+      <c r="BH17" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="BL17" s="45"/>
+      <c r="BM17" s="45"/>
+      <c r="BN17" s="45"/>
+      <c r="BO17" s="45"/>
+      <c r="BP17" s="45"/>
+      <c r="BQ17" s="45"/>
       <c r="BU17" s="44" t="s">
         <v>307</v>
       </c>
@@ -9154,31 +9154,31 @@
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="J18" s="34" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="J18" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="47" t="s">
+      <c r="T18" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
       <c r="AK18" s="44" t="s">
         <v>212</v>
       </c>
@@ -9187,26 +9187,28 @@
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
       <c r="AP18" s="44"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BL18" s="31" t="s">
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="BC18" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD18" s="45"/>
+      <c r="BE18" s="45"/>
+      <c r="BF18" s="45"/>
+      <c r="BG18" s="45"/>
+      <c r="BH18" s="45"/>
+      <c r="BL18" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
+      <c r="BM18" s="33"/>
+      <c r="BN18" s="33"/>
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
       <c r="BU18" s="44"/>
       <c r="BV18" s="44"/>
       <c r="BW18" s="44"/>
@@ -9216,13 +9218,13 @@
       <c r="CD18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE18" s="47" t="s">
+      <c r="CE18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="CF18" s="41"/>
-      <c r="CG18" s="41"/>
-      <c r="CH18" s="41"/>
-      <c r="CI18" s="41"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
       <c r="CM18" s="44"/>
       <c r="CN18" s="44"/>
       <c r="CO18" s="44"/>
@@ -9234,47 +9236,47 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="J19" s="31" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="J19" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="S19" s="39" t="s">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="S19" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="BC19" s="54"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="54"/>
-      <c r="BF19" s="54"/>
-      <c r="BG19" s="54"/>
-      <c r="BH19" s="54"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
       <c r="BL19" s="5" t="s">
         <v>325</v>
       </c>
@@ -9292,31 +9294,31 @@
       <c r="CD19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE19" s="47" t="s">
+      <c r="CE19" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="CF19" s="41"/>
-      <c r="CG19" s="41"/>
-      <c r="CH19" s="41"/>
-      <c r="CI19" s="41"/>
-      <c r="CM19" s="37" t="s">
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="34"/>
+      <c r="CH19" s="34"/>
+      <c r="CI19" s="34"/>
+      <c r="CM19" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="CN19" s="31"/>
-      <c r="CO19" s="31"/>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="31"/>
-      <c r="CR19" s="31"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="33"/>
     </row>
     <row r="20" spans="1:96" ht="15" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -9325,44 +9327,42 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="AK20" s="37" t="s">
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="AK20" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="BC20" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
       <c r="BL20" s="5" t="s">
         <v>289</v>
       </c>
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
-      <c r="BO20" s="45" t="s">
+      <c r="BO20" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="BP20" s="45"/>
-      <c r="BQ20" s="45"/>
+      <c r="BP20" s="47"/>
+      <c r="BQ20" s="47"/>
       <c r="BU20" s="44"/>
       <c r="BV20" s="44"/>
       <c r="BW20" s="44"/>
@@ -9372,13 +9372,13 @@
       <c r="CD20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE20" s="47" t="s">
+      <c r="CE20" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="CF20" s="41"/>
-      <c r="CG20" s="41"/>
-      <c r="CH20" s="41"/>
-      <c r="CI20" s="41"/>
+      <c r="CF20" s="34"/>
+      <c r="CG20" s="34"/>
+      <c r="CH20" s="34"/>
+      <c r="CI20" s="34"/>
       <c r="CM20" s="44" t="s">
         <v>298</v>
       </c>
@@ -9389,76 +9389,76 @@
       <c r="CR20" s="44"/>
     </row>
     <row r="21" spans="1:96" ht="15" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="AK21" s="55" t="s">
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="AK21" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="BC21" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="BD21" s="55"/>
-      <c r="BE21" s="55"/>
-      <c r="BF21" s="55"/>
-      <c r="BG21" s="55"/>
-      <c r="BH21" s="55"/>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="BC21" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
       <c r="BL21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM21" s="47" t="s">
+      <c r="BM21" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="BN21" s="47"/>
-      <c r="BO21" s="47"/>
-      <c r="BP21" s="47"/>
-      <c r="BQ21" s="47"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="46"/>
+      <c r="BP21" s="46"/>
+      <c r="BQ21" s="46"/>
       <c r="BU21" s="44"/>
       <c r="BV21" s="44"/>
       <c r="BW21" s="44"/>
       <c r="BX21" s="44"/>
       <c r="BY21" s="44"/>
       <c r="BZ21" s="44"/>
-      <c r="CD21" s="37" t="s">
+      <c r="CD21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
+      <c r="CI21" s="42"/>
       <c r="CM21" s="44"/>
       <c r="CN21" s="44"/>
       <c r="CO21" s="44"/>
@@ -9475,66 +9475,68 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="S22" s="31" t="s">
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="S22" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55"/>
-      <c r="AT22" s="37" t="s">
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AT22" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="38"/>
-      <c r="AY22" s="38"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="55"/>
-      <c r="BE22" s="55"/>
-      <c r="BF22" s="55"/>
-      <c r="BG22" s="55"/>
-      <c r="BH22" s="55"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="42"/>
+      <c r="BC22" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
       <c r="BL22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM22" s="47" t="s">
+      <c r="BM22" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="BN22" s="47"/>
-      <c r="BO22" s="47"/>
-      <c r="BP22" s="47"/>
-      <c r="BQ22" s="47"/>
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="46"/>
       <c r="BU22" s="44"/>
       <c r="BV22" s="44"/>
       <c r="BW22" s="44"/>
       <c r="BX22" s="44"/>
       <c r="BY22" s="44"/>
       <c r="BZ22" s="44"/>
-      <c r="CD22" s="52" t="s">
+      <c r="CD22" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="CE22" s="52"/>
-      <c r="CF22" s="52"/>
-      <c r="CG22" s="52"/>
-      <c r="CH22" s="52"/>
-      <c r="CI22" s="52"/>
+      <c r="CE22" s="57"/>
+      <c r="CF22" s="57"/>
+      <c r="CG22" s="57"/>
+      <c r="CH22" s="57"/>
+      <c r="CI22" s="57"/>
       <c r="CM22" s="44"/>
       <c r="CN22" s="44"/>
       <c r="CO22" s="44"/>
@@ -9548,19 +9550,19 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="J23" s="34" t="s">
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="J23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="S23" s="5" t="s">
         <v>62</v>
       </c>
@@ -9569,48 +9571,48 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="55"/>
-      <c r="AT23" s="55" t="s">
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AT23" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="55"/>
-      <c r="AW23" s="55"/>
-      <c r="AX23" s="55"/>
-      <c r="AY23" s="55"/>
-      <c r="BC23" s="55"/>
-      <c r="BD23" s="55"/>
-      <c r="BE23" s="55"/>
-      <c r="BF23" s="55"/>
-      <c r="BG23" s="55"/>
-      <c r="BH23" s="55"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="BC23" s="53"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="53"/>
+      <c r="BH23" s="53"/>
       <c r="BL23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM23" s="47" t="s">
+      <c r="BM23" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="41"/>
-      <c r="BQ23" s="41"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="34"/>
+      <c r="BP23" s="34"/>
+      <c r="BQ23" s="34"/>
       <c r="BU23" s="44"/>
       <c r="BV23" s="44"/>
       <c r="BW23" s="44"/>
       <c r="BX23" s="44"/>
       <c r="BY23" s="44"/>
       <c r="BZ23" s="44"/>
-      <c r="CD23" s="53"/>
-      <c r="CE23" s="53"/>
-      <c r="CF23" s="53"/>
-      <c r="CG23" s="53"/>
-      <c r="CH23" s="53"/>
-      <c r="CI23" s="53"/>
+      <c r="CD23" s="58"/>
+      <c r="CE23" s="58"/>
+      <c r="CF23" s="58"/>
+      <c r="CG23" s="58"/>
+      <c r="CH23" s="58"/>
+      <c r="CI23" s="58"/>
       <c r="CM23" s="44"/>
       <c r="CN23" s="44"/>
       <c r="CO23" s="44"/>
@@ -9619,22 +9621,22 @@
       <c r="CR23" s="44"/>
     </row>
     <row r="24" spans="1:96" ht="15" customHeight="1">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="J24" s="37" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="J24" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
       <c r="S24" s="5" t="s">
         <v>131</v>
       </c>
@@ -9645,36 +9647,34 @@
       <c r="X24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="55"/>
-      <c r="AW24" s="55"/>
-      <c r="AX24" s="55"/>
-      <c r="AY24" s="55"/>
-      <c r="BC24" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BL24" s="40" t="s">
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="53"/>
+      <c r="BC24" s="53"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
+      <c r="BF24" s="53"/>
+      <c r="BG24" s="53"/>
+      <c r="BH24" s="53"/>
+      <c r="BL24" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="BM24" s="40"/>
-      <c r="BN24" s="40"/>
-      <c r="BO24" s="40"/>
-      <c r="BP24" s="40"/>
-      <c r="BQ24" s="40"/>
-      <c r="CD24" s="37" t="s">
+      <c r="BM24" s="36"/>
+      <c r="BN24" s="36"/>
+      <c r="BO24" s="36"/>
+      <c r="BP24" s="36"/>
+      <c r="BQ24" s="36"/>
+      <c r="CD24" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="CE24" s="31"/>
-      <c r="CF24" s="31"/>
-      <c r="CG24" s="31"/>
-      <c r="CH24" s="31"/>
-      <c r="CI24" s="31"/>
+      <c r="CE24" s="33"/>
+      <c r="CF24" s="33"/>
+      <c r="CG24" s="33"/>
+      <c r="CH24" s="33"/>
+      <c r="CI24" s="33"/>
       <c r="CM24" s="44"/>
       <c r="CN24" s="44"/>
       <c r="CO24" s="44"/>
@@ -9683,54 +9683,54 @@
       <c r="CR24" s="44"/>
     </row>
     <row r="25" spans="1:96">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="J25" s="57" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="J25" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
       <c r="S25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="47" t="s">
+      <c r="T25" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="AT25" s="55"/>
-      <c r="AU25" s="55"/>
-      <c r="AV25" s="55"/>
-      <c r="AW25" s="55"/>
-      <c r="AX25" s="55"/>
-      <c r="AY25" s="55"/>
-      <c r="BC25" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BL25" s="31" t="s">
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="BC25" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD25" s="33"/>
+      <c r="BE25" s="33"/>
+      <c r="BF25" s="33"/>
+      <c r="BG25" s="33"/>
+      <c r="BH25" s="33"/>
+      <c r="BL25" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="BM25" s="31"/>
-      <c r="BN25" s="31"/>
-      <c r="BO25" s="31"/>
-      <c r="BP25" s="31"/>
-      <c r="BQ25" s="31"/>
+      <c r="BM25" s="33"/>
+      <c r="BN25" s="33"/>
+      <c r="BO25" s="33"/>
+      <c r="BP25" s="33"/>
+      <c r="BQ25" s="33"/>
       <c r="CD25" s="44" t="s">
         <v>140</v>
       </c>
@@ -9747,39 +9747,41 @@
       <c r="CR25" s="44"/>
     </row>
     <row r="26" spans="1:96" ht="15" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
       <c r="S26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="47" t="s">
+      <c r="T26" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="AT26" s="37" t="s">
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="AT26" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="BC26" s="44"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
+      <c r="BC26" s="44" t="s">
+        <v>237</v>
+      </c>
       <c r="BD26" s="44"/>
       <c r="BE26" s="44"/>
       <c r="BF26" s="44"/>
@@ -9807,42 +9809,42 @@
       <c r="CR26" s="44"/>
     </row>
     <row r="27" spans="1:96">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
       <c r="S27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="47" t="s">
+      <c r="T27" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="AT27" s="55" t="s">
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="AT27" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="AU27" s="55"/>
-      <c r="AV27" s="55"/>
-      <c r="AW27" s="55"/>
-      <c r="AX27" s="55"/>
-      <c r="AY27" s="55"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="53"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
       <c r="BL27" s="5" t="s">
         <v>51</v>
       </c>
@@ -9853,44 +9855,42 @@
       <c r="BQ27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CD27" s="49"/>
-      <c r="CE27" s="49"/>
-      <c r="CF27" s="49"/>
-      <c r="CG27" s="49"/>
-      <c r="CH27" s="49"/>
-      <c r="CI27" s="49"/>
+      <c r="CD27" s="56"/>
+      <c r="CE27" s="56"/>
+      <c r="CF27" s="56"/>
+      <c r="CG27" s="56"/>
+      <c r="CH27" s="56"/>
+      <c r="CI27" s="56"/>
     </row>
     <row r="28" spans="1:96" ht="15" customHeight="1">
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="S28" s="37" t="s">
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="S28" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="AT28" s="55"/>
-      <c r="AU28" s="55"/>
-      <c r="AV28" s="55"/>
-      <c r="AW28" s="55"/>
-      <c r="AX28" s="55"/>
-      <c r="AY28" s="55"/>
-      <c r="BC28" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="31"/>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
       <c r="BL28" s="44" t="s">
         <v>331</v>
       </c>
@@ -9899,14 +9899,14 @@
       <c r="BO28" s="44"/>
       <c r="BP28" s="44"/>
       <c r="BQ28" s="44"/>
-      <c r="CD28" s="31" t="s">
+      <c r="CD28" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CE28" s="31"/>
-      <c r="CF28" s="31"/>
-      <c r="CG28" s="31"/>
-      <c r="CH28" s="31"/>
-      <c r="CI28" s="31"/>
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
+      <c r="CH28" s="33"/>
+      <c r="CI28" s="33"/>
     </row>
     <row r="29" spans="1:96" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
@@ -9917,28 +9917,28 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="52" t="s">
+      <c r="S29" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="AT29" s="55"/>
-      <c r="AU29" s="55"/>
-      <c r="AV29" s="55"/>
-      <c r="AW29" s="55"/>
-      <c r="AX29" s="55"/>
-      <c r="AY29" s="55"/>
-      <c r="BC29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="BC29" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD29" s="33"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="33"/>
+      <c r="BH29" s="33"/>
       <c r="BL29" s="44"/>
       <c r="BM29" s="44"/>
       <c r="BN29" s="44"/>
@@ -9960,69 +9960,69 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
       <c r="BC30" s="5" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="BG30" s="46"/>
-      <c r="BH30" s="46"/>
-      <c r="BL30" s="31" t="s">
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BL30" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="31"/>
-      <c r="BO30" s="31"/>
-      <c r="BP30" s="31"/>
-      <c r="BQ30" s="31"/>
+      <c r="BM30" s="33"/>
+      <c r="BN30" s="33"/>
+      <c r="BO30" s="33"/>
+      <c r="BP30" s="33"/>
+      <c r="BQ30" s="33"/>
       <c r="CD30" s="5" t="s">
         <v>134</v>
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
-      <c r="CG30" s="45" t="s">
+      <c r="CG30" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="CH30" s="46"/>
-      <c r="CI30" s="46"/>
+      <c r="CH30" s="48"/>
+      <c r="CI30" s="48"/>
     </row>
     <row r="31" spans="1:96">
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="S31" s="37" t="s">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="S31" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="BC31" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="BC31" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="47" t="s">
+        <v>248</v>
+      </c>
       <c r="BG31" s="48"/>
       <c r="BH31" s="48"/>
       <c r="BL31" s="5" t="s">
@@ -10033,22 +10033,22 @@
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
-      <c r="CD31" s="42" t="s">
+      <c r="CD31" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="CE31" s="42"/>
-      <c r="CF31" s="42"/>
-      <c r="CG31" s="42"/>
-      <c r="CH31" s="42"/>
-      <c r="CI31" s="42"/>
+      <c r="CE31" s="37"/>
+      <c r="CF31" s="37"/>
+      <c r="CG31" s="37"/>
+      <c r="CH31" s="37"/>
+      <c r="CI31" s="37"/>
     </row>
     <row r="32" spans="1:96" ht="15" customHeight="1">
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
       <c r="S32" s="44" t="s">
         <v>140</v>
       </c>
@@ -10057,22 +10057,24 @@
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
-      <c r="BC32" s="48"/>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48"/>
-      <c r="BF32" s="48"/>
-      <c r="BG32" s="48"/>
-      <c r="BH32" s="48"/>
+      <c r="BC32" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD32" s="65"/>
+      <c r="BE32" s="65"/>
+      <c r="BF32" s="65"/>
+      <c r="BG32" s="65"/>
+      <c r="BH32" s="65"/>
       <c r="BL32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
-      <c r="BO32" s="45" t="s">
+      <c r="BO32" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BP32" s="46"/>
-      <c r="BQ32" s="46"/>
+      <c r="BP32" s="48"/>
+      <c r="BQ32" s="48"/>
       <c r="CD32" s="44" t="s">
         <v>150</v>
       </c>
@@ -10083,34 +10085,34 @@
       <c r="CI32" s="44"/>
     </row>
     <row r="33" spans="10:87">
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
       <c r="X33" s="44"/>
-      <c r="BC33" s="48"/>
-      <c r="BD33" s="48"/>
-      <c r="BE33" s="48"/>
-      <c r="BF33" s="48"/>
-      <c r="BG33" s="48"/>
-      <c r="BH33" s="48"/>
-      <c r="BL33" s="42" t="s">
+      <c r="BC33" s="65"/>
+      <c r="BD33" s="65"/>
+      <c r="BE33" s="65"/>
+      <c r="BF33" s="65"/>
+      <c r="BG33" s="65"/>
+      <c r="BH33" s="65"/>
+      <c r="BL33" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="BM33" s="42"/>
-      <c r="BN33" s="42"/>
-      <c r="BO33" s="42"/>
-      <c r="BP33" s="42"/>
-      <c r="BQ33" s="42"/>
+      <c r="BM33" s="37"/>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="37"/>
       <c r="CD33" s="44"/>
       <c r="CE33" s="44"/>
       <c r="CF33" s="44"/>
@@ -10127,20 +10129,18 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="BC34" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="44"/>
-      <c r="BH34" s="44"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="BC34" s="65"/>
+      <c r="BD34" s="65"/>
+      <c r="BE34" s="65"/>
+      <c r="BF34" s="65"/>
+      <c r="BG34" s="65"/>
+      <c r="BH34" s="65"/>
       <c r="BL34" s="44" t="s">
         <v>323</v>
       </c>
@@ -10162,20 +10162,22 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="45" t="s">
+      <c r="M35" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="S35" s="31" t="s">
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="S35" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="BC35" s="44"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="BC35" s="44" t="s">
+        <v>250</v>
+      </c>
       <c r="BD35" s="44"/>
       <c r="BE35" s="44"/>
       <c r="BF35" s="44"/>
@@ -10195,14 +10197,14 @@
       <c r="CI35" s="44"/>
     </row>
     <row r="36" spans="10:87" ht="15" customHeight="1">
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
       <c r="S36" s="5" t="s">
         <v>43</v>
       </c>
@@ -10220,51 +10222,49 @@
       <c r="CD36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE36" s="47" t="s">
+      <c r="CE36" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="CF36" s="41"/>
-      <c r="CG36" s="41"/>
-      <c r="CH36" s="41"/>
-      <c r="CI36" s="41"/>
+      <c r="CF36" s="34"/>
+      <c r="CG36" s="34"/>
+      <c r="CH36" s="34"/>
+      <c r="CI36" s="34"/>
     </row>
     <row r="37" spans="10:87">
-      <c r="J37" s="37" t="s">
+      <c r="J37" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
       <c r="S37" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="45" t="s">
+      <c r="V37" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="BC37" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
-      <c r="BH37" s="31"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="BC37" s="44"/>
+      <c r="BD37" s="44"/>
+      <c r="BE37" s="44"/>
+      <c r="BF37" s="44"/>
+      <c r="BG37" s="44"/>
+      <c r="BH37" s="44"/>
       <c r="CD37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE37" s="47" t="s">
+      <c r="CE37" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="CF37" s="41"/>
-      <c r="CG37" s="41"/>
-      <c r="CH37" s="41"/>
-      <c r="CI37" s="41"/>
+      <c r="CF37" s="34"/>
+      <c r="CG37" s="34"/>
+      <c r="CH37" s="34"/>
+      <c r="CI37" s="34"/>
     </row>
     <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
@@ -10275,22 +10275,22 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="42" t="s">
+      <c r="S38" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="BC38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="BC38" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="33"/>
+      <c r="BF38" s="33"/>
+      <c r="BG38" s="33"/>
+      <c r="BH38" s="33"/>
       <c r="CD38" s="1" t="s">
         <v>7</v>
       </c>
@@ -10308,11 +10308,11 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
       <c r="S39" s="44" t="s">
         <v>150</v>
       </c>
@@ -10322,15 +10322,13 @@
       <c r="W39" s="44"/>
       <c r="X39" s="44"/>
       <c r="BC39" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG39" s="46"/>
-      <c r="BH39" s="46"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
       <c r="CD39" s="44" t="s">
         <v>139</v>
       </c>
@@ -10341,65 +10339,69 @@
       <c r="CI39" s="44"/>
     </row>
     <row r="40" spans="10:87" ht="15" customHeight="1">
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="44"/>
       <c r="V40" s="44"/>
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
-      <c r="BC40" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
+      <c r="BC40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG40" s="48"/>
+      <c r="BH40" s="48"/>
     </row>
     <row r="41" spans="10:87">
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
       <c r="V41" s="44"/>
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
-      <c r="BC41" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="BD41" s="44"/>
-      <c r="BE41" s="44"/>
-      <c r="BF41" s="44"/>
-      <c r="BG41" s="44"/>
-      <c r="BH41" s="44"/>
+      <c r="BC41" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD41" s="37"/>
+      <c r="BE41" s="37"/>
+      <c r="BF41" s="37"/>
+      <c r="BG41" s="37"/>
+      <c r="BH41" s="37"/>
     </row>
     <row r="42" spans="10:87">
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
       <c r="V42" s="44"/>
       <c r="W42" s="44"/>
       <c r="X42" s="44"/>
-      <c r="BC42" s="44"/>
+      <c r="BC42" s="44" t="s">
+        <v>242</v>
+      </c>
       <c r="BD42" s="44"/>
       <c r="BE42" s="44"/>
       <c r="BF42" s="44"/>
@@ -10410,13 +10412,13 @@
       <c r="S43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="47" t="s">
+      <c r="T43" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
       <c r="BC43" s="44"/>
       <c r="BD43" s="44"/>
       <c r="BE43" s="44"/>
@@ -10428,13 +10430,19 @@
       <c r="S44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T44" s="47" t="s">
+      <c r="T44" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="BC44" s="44"/>
+      <c r="BD44" s="44"/>
+      <c r="BE44" s="44"/>
+      <c r="BF44" s="44"/>
+      <c r="BG44" s="44"/>
+      <c r="BH44" s="44"/>
     </row>
     <row r="45" spans="10:87">
       <c r="S45" s="1" t="s">
@@ -10459,32 +10467,24 @@
       <c r="X46" s="44"/>
     </row>
     <row r="48" spans="10:87">
-      <c r="BC48" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="CD48" s="37" t="s">
+      <c r="CD48" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="CE48" s="38"/>
-      <c r="CF48" s="38"/>
-      <c r="CG48" s="38"/>
-      <c r="CH48" s="38"/>
-      <c r="CI48" s="38"/>
+      <c r="CE48" s="42"/>
+      <c r="CF48" s="42"/>
+      <c r="CG48" s="42"/>
+      <c r="CH48" s="42"/>
+      <c r="CI48" s="42"/>
     </row>
     <row r="49" spans="55:87">
-      <c r="BC49" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="1"/>
-      <c r="BH49" s="1"/>
+      <c r="BC49" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD49" s="41"/>
+      <c r="BE49" s="41"/>
+      <c r="BF49" s="41"/>
+      <c r="BG49" s="41"/>
+      <c r="BH49" s="41"/>
       <c r="CD49" s="5" t="s">
         <v>62</v>
       </c>
@@ -10496,59 +10496,61 @@
     </row>
     <row r="50" spans="55:87">
       <c r="BC50" s="5" t="s">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="BG50" s="45"/>
-      <c r="BH50" s="45"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
       <c r="CD50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" s="1"/>
-      <c r="CG50" s="45" t="s">
+      <c r="CG50" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="CH50" s="46"/>
-      <c r="CI50" s="46"/>
+      <c r="CH50" s="48"/>
+      <c r="CI50" s="48"/>
     </row>
     <row r="51" spans="55:87" ht="15" customHeight="1">
-      <c r="BC51" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="BD51" s="39"/>
-      <c r="BE51" s="39"/>
-      <c r="BF51" s="39"/>
-      <c r="BG51" s="39"/>
-      <c r="BH51" s="39"/>
-      <c r="BL51" s="37" t="s">
+      <c r="BC51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="BG51" s="47"/>
+      <c r="BH51" s="47"/>
+      <c r="BL51" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="BM51" s="37"/>
-      <c r="BN51" s="37"/>
-      <c r="BO51" s="37"/>
-      <c r="BP51" s="37"/>
-      <c r="BQ51" s="37"/>
-      <c r="CD51" s="39" t="s">
+      <c r="BM51" s="41"/>
+      <c r="BN51" s="41"/>
+      <c r="BO51" s="41"/>
+      <c r="BP51" s="41"/>
+      <c r="BQ51" s="41"/>
+      <c r="CD51" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CE51" s="39"/>
-      <c r="CF51" s="39"/>
-      <c r="CG51" s="39"/>
-      <c r="CH51" s="39"/>
-      <c r="CI51" s="39"/>
+      <c r="CE51" s="35"/>
+      <c r="CF51" s="35"/>
+      <c r="CG51" s="35"/>
+      <c r="CH51" s="35"/>
+      <c r="CI51" s="35"/>
     </row>
     <row r="52" spans="55:87">
-      <c r="BC52" s="40"/>
-      <c r="BD52" s="40"/>
-      <c r="BE52" s="40"/>
-      <c r="BF52" s="40"/>
-      <c r="BG52" s="40"/>
-      <c r="BH52" s="40"/>
+      <c r="BC52" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="BD52" s="35"/>
+      <c r="BE52" s="35"/>
+      <c r="BF52" s="35"/>
+      <c r="BG52" s="35"/>
+      <c r="BH52" s="35"/>
       <c r="BL52" s="5" t="s">
         <v>98</v>
       </c>
@@ -10557,22 +10559,20 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
       <c r="BQ52" s="1"/>
-      <c r="CD52" s="39"/>
-      <c r="CE52" s="39"/>
-      <c r="CF52" s="39"/>
-      <c r="CG52" s="39"/>
-      <c r="CH52" s="39"/>
-      <c r="CI52" s="39"/>
+      <c r="CD52" s="35"/>
+      <c r="CE52" s="35"/>
+      <c r="CF52" s="35"/>
+      <c r="CG52" s="35"/>
+      <c r="CH52" s="35"/>
+      <c r="CI52" s="35"/>
     </row>
     <row r="53" spans="55:87">
-      <c r="BC53" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="BD53" s="37"/>
-      <c r="BE53" s="37"/>
-      <c r="BF53" s="37"/>
-      <c r="BG53" s="37"/>
-      <c r="BH53" s="37"/>
+      <c r="BC53" s="36"/>
+      <c r="BD53" s="36"/>
+      <c r="BE53" s="36"/>
+      <c r="BF53" s="36"/>
+      <c r="BG53" s="36"/>
+      <c r="BH53" s="36"/>
       <c r="BL53" s="5" t="s">
         <v>308</v>
       </c>
@@ -10583,32 +10583,32 @@
       <c r="BQ53" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="CD53" s="37" t="s">
+      <c r="CD53" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="CE53" s="38"/>
-      <c r="CF53" s="38"/>
-      <c r="CG53" s="38"/>
-      <c r="CH53" s="38"/>
-      <c r="CI53" s="38"/>
+      <c r="CE53" s="42"/>
+      <c r="CF53" s="42"/>
+      <c r="CG53" s="42"/>
+      <c r="CH53" s="42"/>
+      <c r="CI53" s="42"/>
     </row>
     <row r="54" spans="55:87">
-      <c r="BC54" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD54" s="1"/>
-      <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
-      <c r="BG54" s="1"/>
-      <c r="BH54" s="1"/>
-      <c r="BL54" s="39" t="s">
+      <c r="BC54" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="BD54" s="41"/>
+      <c r="BE54" s="41"/>
+      <c r="BF54" s="41"/>
+      <c r="BG54" s="41"/>
+      <c r="BH54" s="41"/>
+      <c r="BL54" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="BM54" s="39"/>
-      <c r="BN54" s="39"/>
-      <c r="BO54" s="39"/>
-      <c r="BP54" s="39"/>
-      <c r="BQ54" s="39"/>
+      <c r="BM54" s="35"/>
+      <c r="BN54" s="35"/>
+      <c r="BO54" s="35"/>
+      <c r="BP54" s="35"/>
+      <c r="BQ54" s="35"/>
       <c r="CD54" s="5" t="s">
         <v>98</v>
       </c>
@@ -10620,71 +10620,73 @@
     </row>
     <row r="55" spans="55:87" ht="15" customHeight="1">
       <c r="BC55" s="5" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG55" s="45"/>
-      <c r="BH55" s="45"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
       <c r="BL55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM55" s="47" t="s">
+      <c r="BM55" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="BN55" s="41"/>
-      <c r="BO55" s="41"/>
-      <c r="BP55" s="41"/>
-      <c r="BQ55" s="41"/>
+      <c r="BN55" s="34"/>
+      <c r="BO55" s="34"/>
+      <c r="BP55" s="34"/>
+      <c r="BQ55" s="34"/>
       <c r="CD55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" s="1"/>
-      <c r="CG55" s="45" t="s">
+      <c r="CG55" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="CH55" s="46"/>
-      <c r="CI55" s="46"/>
+      <c r="CH55" s="48"/>
+      <c r="CI55" s="48"/>
     </row>
     <row r="56" spans="55:87">
-      <c r="BC56" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="BD56" s="39"/>
-      <c r="BE56" s="39"/>
-      <c r="BF56" s="39"/>
-      <c r="BG56" s="39"/>
-      <c r="BH56" s="39"/>
+      <c r="BC56" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG56" s="47"/>
+      <c r="BH56" s="47"/>
       <c r="BL56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM56" s="47" t="s">
+      <c r="BM56" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="BN56" s="41"/>
-      <c r="BO56" s="41"/>
-      <c r="BP56" s="41"/>
-      <c r="BQ56" s="41"/>
-      <c r="CD56" s="39" t="s">
+      <c r="BN56" s="34"/>
+      <c r="BO56" s="34"/>
+      <c r="BP56" s="34"/>
+      <c r="BQ56" s="34"/>
+      <c r="CD56" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CE56" s="39"/>
-      <c r="CF56" s="39"/>
-      <c r="CG56" s="39"/>
-      <c r="CH56" s="39"/>
-      <c r="CI56" s="39"/>
+      <c r="CE56" s="35"/>
+      <c r="CF56" s="35"/>
+      <c r="CG56" s="35"/>
+      <c r="CH56" s="35"/>
+      <c r="CI56" s="35"/>
     </row>
     <row r="57" spans="55:87">
-      <c r="BC57" s="40"/>
-      <c r="BD57" s="40"/>
-      <c r="BE57" s="40"/>
-      <c r="BF57" s="40"/>
-      <c r="BG57" s="40"/>
-      <c r="BH57" s="40"/>
+      <c r="BC57" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD57" s="35"/>
+      <c r="BE57" s="35"/>
+      <c r="BF57" s="35"/>
+      <c r="BG57" s="35"/>
+      <c r="BH57" s="35"/>
       <c r="BL57" s="1" t="s">
         <v>7</v>
       </c>
@@ -10695,32 +10697,30 @@
       <c r="BO57" s="7"/>
       <c r="BP57" s="7"/>
       <c r="BQ57" s="7"/>
-      <c r="CD57" s="37" t="s">
+      <c r="CD57" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="CE57" s="38"/>
-      <c r="CF57" s="38"/>
-      <c r="CG57" s="38"/>
-      <c r="CH57" s="38"/>
-      <c r="CI57" s="38"/>
+      <c r="CE57" s="42"/>
+      <c r="CF57" s="42"/>
+      <c r="CG57" s="42"/>
+      <c r="CH57" s="42"/>
+      <c r="CI57" s="42"/>
     </row>
     <row r="58" spans="55:87" ht="15" customHeight="1">
-      <c r="BC58" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="BD58" s="37"/>
-      <c r="BE58" s="37"/>
-      <c r="BF58" s="37"/>
-      <c r="BG58" s="37"/>
-      <c r="BH58" s="37"/>
-      <c r="BL58" s="37" t="s">
+      <c r="BC58" s="36"/>
+      <c r="BD58" s="36"/>
+      <c r="BE58" s="36"/>
+      <c r="BF58" s="36"/>
+      <c r="BG58" s="36"/>
+      <c r="BH58" s="36"/>
+      <c r="BL58" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="BM58" s="37"/>
-      <c r="BN58" s="37"/>
-      <c r="BO58" s="37"/>
-      <c r="BP58" s="37"/>
-      <c r="BQ58" s="37"/>
+      <c r="BM58" s="41"/>
+      <c r="BN58" s="41"/>
+      <c r="BO58" s="41"/>
+      <c r="BP58" s="41"/>
+      <c r="BQ58" s="41"/>
       <c r="CD58" s="5" t="s">
         <v>104</v>
       </c>
@@ -10731,14 +10731,14 @@
       <c r="CI58" s="1"/>
     </row>
     <row r="59" spans="55:87">
-      <c r="BC59" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD59" s="1"/>
-      <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
-      <c r="BG59" s="1"/>
-      <c r="BH59" s="1"/>
+      <c r="BC59" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD59" s="41"/>
+      <c r="BE59" s="41"/>
+      <c r="BF59" s="41"/>
+      <c r="BG59" s="41"/>
+      <c r="BH59" s="41"/>
       <c r="BL59" s="5" t="s">
         <v>333</v>
       </c>
@@ -10752,109 +10752,117 @@
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
-      <c r="CG59" s="45" t="s">
+      <c r="CG59" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="CH59" s="46"/>
-      <c r="CI59" s="46"/>
+      <c r="CH59" s="48"/>
+      <c r="CI59" s="48"/>
     </row>
     <row r="60" spans="55:87" ht="15" customHeight="1">
       <c r="BC60" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-      <c r="BF60" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG60" s="46"/>
-      <c r="BH60" s="46"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
       <c r="BL60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="45" t="s">
+      <c r="BO60" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BP60" s="45"/>
-      <c r="BQ60" s="45"/>
-      <c r="CD60" s="39" t="s">
+      <c r="BP60" s="47"/>
+      <c r="BQ60" s="47"/>
+      <c r="CD60" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="CE60" s="39"/>
-      <c r="CF60" s="39"/>
-      <c r="CG60" s="39"/>
-      <c r="CH60" s="39"/>
-      <c r="CI60" s="39"/>
+      <c r="CE60" s="35"/>
+      <c r="CF60" s="35"/>
+      <c r="CG60" s="35"/>
+      <c r="CH60" s="35"/>
+      <c r="CI60" s="35"/>
     </row>
     <row r="61" spans="55:87">
-      <c r="BC61" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="BD61" s="39"/>
-      <c r="BE61" s="39"/>
-      <c r="BF61" s="39"/>
-      <c r="BG61" s="39"/>
-      <c r="BH61" s="39"/>
-      <c r="BL61" s="39" t="s">
+      <c r="BC61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG61" s="48"/>
+      <c r="BH61" s="48"/>
+      <c r="BL61" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="BM61" s="39"/>
-      <c r="BN61" s="39"/>
-      <c r="BO61" s="39"/>
-      <c r="BP61" s="39"/>
-      <c r="BQ61" s="39"/>
-      <c r="CD61" s="39"/>
-      <c r="CE61" s="39"/>
-      <c r="CF61" s="39"/>
-      <c r="CG61" s="39"/>
-      <c r="CH61" s="39"/>
-      <c r="CI61" s="39"/>
+      <c r="BM61" s="35"/>
+      <c r="BN61" s="35"/>
+      <c r="BO61" s="35"/>
+      <c r="BP61" s="35"/>
+      <c r="BQ61" s="35"/>
+      <c r="CD61" s="35"/>
+      <c r="CE61" s="35"/>
+      <c r="CF61" s="35"/>
+      <c r="CG61" s="35"/>
+      <c r="CH61" s="35"/>
+      <c r="CI61" s="35"/>
     </row>
     <row r="62" spans="55:87">
-      <c r="BC62" s="39"/>
-      <c r="BD62" s="39"/>
-      <c r="BE62" s="39"/>
-      <c r="BF62" s="39"/>
-      <c r="BG62" s="39"/>
-      <c r="BH62" s="39"/>
-      <c r="BL62" s="39"/>
-      <c r="BM62" s="39"/>
-      <c r="BN62" s="39"/>
-      <c r="BO62" s="39"/>
-      <c r="BP62" s="39"/>
-      <c r="BQ62" s="39"/>
-      <c r="CD62" s="39"/>
-      <c r="CE62" s="39"/>
-      <c r="CF62" s="39"/>
-      <c r="CG62" s="39"/>
-      <c r="CH62" s="39"/>
-      <c r="CI62" s="39"/>
+      <c r="BC62" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD62" s="35"/>
+      <c r="BE62" s="35"/>
+      <c r="BF62" s="35"/>
+      <c r="BG62" s="35"/>
+      <c r="BH62" s="35"/>
+      <c r="BL62" s="35"/>
+      <c r="BM62" s="35"/>
+      <c r="BN62" s="35"/>
+      <c r="BO62" s="35"/>
+      <c r="BP62" s="35"/>
+      <c r="BQ62" s="35"/>
+      <c r="CD62" s="35"/>
+      <c r="CE62" s="35"/>
+      <c r="CF62" s="35"/>
+      <c r="CG62" s="35"/>
+      <c r="CH62" s="35"/>
+      <c r="CI62" s="35"/>
     </row>
     <row r="63" spans="55:87">
-      <c r="BC63" s="39"/>
-      <c r="BD63" s="39"/>
-      <c r="BE63" s="39"/>
-      <c r="BF63" s="39"/>
-      <c r="BG63" s="39"/>
-      <c r="BH63" s="39"/>
-      <c r="BL63" s="40"/>
-      <c r="BM63" s="40"/>
-      <c r="BN63" s="40"/>
-      <c r="BO63" s="40"/>
-      <c r="BP63" s="40"/>
-      <c r="BQ63" s="40"/>
+      <c r="BC63" s="35"/>
+      <c r="BD63" s="35"/>
+      <c r="BE63" s="35"/>
+      <c r="BF63" s="35"/>
+      <c r="BG63" s="35"/>
+      <c r="BH63" s="35"/>
+      <c r="BL63" s="36"/>
+      <c r="BM63" s="36"/>
+      <c r="BN63" s="36"/>
+      <c r="BO63" s="36"/>
+      <c r="BP63" s="36"/>
+      <c r="BQ63" s="36"/>
     </row>
     <row r="64" spans="55:87" ht="15" customHeight="1">
-      <c r="BL64" s="37" t="s">
+      <c r="BC64" s="35"/>
+      <c r="BD64" s="35"/>
+      <c r="BE64" s="35"/>
+      <c r="BF64" s="35"/>
+      <c r="BG64" s="35"/>
+      <c r="BH64" s="35"/>
+      <c r="BL64" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="BM64" s="37"/>
-      <c r="BN64" s="37"/>
-      <c r="BO64" s="37"/>
-      <c r="BP64" s="37"/>
-      <c r="BQ64" s="37"/>
+      <c r="BM64" s="41"/>
+      <c r="BN64" s="41"/>
+      <c r="BO64" s="41"/>
+      <c r="BP64" s="41"/>
+      <c r="BQ64" s="41"/>
     </row>
     <row r="65" spans="64:69">
       <c r="BL65" s="5" t="s">
@@ -10872,74 +10880,233 @@
       </c>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
-      <c r="BO66" s="45" t="s">
+      <c r="BO66" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BP66" s="46"/>
-      <c r="BQ66" s="46"/>
+      <c r="BP66" s="48"/>
+      <c r="BQ66" s="48"/>
     </row>
     <row r="67" spans="64:69">
-      <c r="BL67" s="39" t="s">
+      <c r="BL67" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="BM67" s="39"/>
-      <c r="BN67" s="39"/>
-      <c r="BO67" s="39"/>
-      <c r="BP67" s="39"/>
-      <c r="BQ67" s="39"/>
+      <c r="BM67" s="35"/>
+      <c r="BN67" s="35"/>
+      <c r="BO67" s="35"/>
+      <c r="BP67" s="35"/>
+      <c r="BQ67" s="35"/>
     </row>
     <row r="68" spans="64:69">
-      <c r="BL68" s="39"/>
-      <c r="BM68" s="39"/>
-      <c r="BN68" s="39"/>
-      <c r="BO68" s="39"/>
-      <c r="BP68" s="39"/>
-      <c r="BQ68" s="39"/>
+      <c r="BL68" s="35"/>
+      <c r="BM68" s="35"/>
+      <c r="BN68" s="35"/>
+      <c r="BO68" s="35"/>
+      <c r="BP68" s="35"/>
+      <c r="BQ68" s="35"/>
     </row>
     <row r="69" spans="64:69">
-      <c r="BL69" s="39"/>
-      <c r="BM69" s="39"/>
-      <c r="BN69" s="39"/>
-      <c r="BO69" s="39"/>
-      <c r="BP69" s="39"/>
-      <c r="BQ69" s="39"/>
+      <c r="BL69" s="35"/>
+      <c r="BM69" s="35"/>
+      <c r="BN69" s="35"/>
+      <c r="BO69" s="35"/>
+      <c r="BP69" s="35"/>
+      <c r="BQ69" s="35"/>
     </row>
     <row r="70" spans="64:69">
-      <c r="BL70" s="39"/>
-      <c r="BM70" s="39"/>
-      <c r="BN70" s="39"/>
-      <c r="BO70" s="39"/>
-      <c r="BP70" s="39"/>
-      <c r="BQ70" s="39"/>
+      <c r="BL70" s="35"/>
+      <c r="BM70" s="35"/>
+      <c r="BN70" s="35"/>
+      <c r="BO70" s="35"/>
+      <c r="BP70" s="35"/>
+      <c r="BQ70" s="35"/>
     </row>
     <row r="71" spans="64:69">
-      <c r="BL71" s="39"/>
-      <c r="BM71" s="39"/>
-      <c r="BN71" s="39"/>
-      <c r="BO71" s="39"/>
-      <c r="BP71" s="39"/>
-      <c r="BQ71" s="39"/>
+      <c r="BL71" s="35"/>
+      <c r="BM71" s="35"/>
+      <c r="BN71" s="35"/>
+      <c r="BO71" s="35"/>
+      <c r="BP71" s="35"/>
+      <c r="BQ71" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="BL67:BQ71"/>
-    <mergeCell ref="BL12:BQ12"/>
-    <mergeCell ref="BL13:BQ14"/>
-    <mergeCell ref="BU17:BZ23"/>
-    <mergeCell ref="BL54:BQ54"/>
-    <mergeCell ref="BM55:BQ55"/>
-    <mergeCell ref="BM56:BQ56"/>
-    <mergeCell ref="BL9:BQ11"/>
-    <mergeCell ref="BL15:BQ15"/>
-    <mergeCell ref="BL16:BQ17"/>
-    <mergeCell ref="BL34:BQ35"/>
-    <mergeCell ref="BL24:BQ24"/>
-    <mergeCell ref="BL28:BQ29"/>
-    <mergeCell ref="BL61:BQ63"/>
-    <mergeCell ref="BO32:BQ32"/>
-    <mergeCell ref="BL33:BQ33"/>
-    <mergeCell ref="BM23:BQ23"/>
-    <mergeCell ref="BL25:BQ25"/>
+    <mergeCell ref="CM20:CR26"/>
+    <mergeCell ref="BO66:BQ66"/>
+    <mergeCell ref="BC59:BH59"/>
+    <mergeCell ref="CM5:CR5"/>
+    <mergeCell ref="CM6:CR6"/>
+    <mergeCell ref="CN9:CR9"/>
+    <mergeCell ref="CM14:CR14"/>
+    <mergeCell ref="CM15:CR18"/>
+    <mergeCell ref="CN10:CR10"/>
+    <mergeCell ref="CM12:CR13"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="BO20:BQ20"/>
+    <mergeCell ref="BM21:BQ21"/>
+    <mergeCell ref="BM22:BQ22"/>
+    <mergeCell ref="BC57:BH58"/>
+    <mergeCell ref="BL51:BQ51"/>
+    <mergeCell ref="BL58:BQ58"/>
+    <mergeCell ref="BO60:BQ60"/>
+    <mergeCell ref="BL64:BQ64"/>
+    <mergeCell ref="BF31:BH31"/>
+    <mergeCell ref="BC32:BH34"/>
+    <mergeCell ref="BC35:BH37"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BU2:BZ3"/>
+    <mergeCell ref="BU16:BZ16"/>
+    <mergeCell ref="BU11:BZ12"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BU4:BZ4"/>
+    <mergeCell ref="BU5:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BU8:BZ9"/>
+    <mergeCell ref="BU10:BZ10"/>
+    <mergeCell ref="BV14:BZ14"/>
+    <mergeCell ref="BV15:BZ15"/>
+    <mergeCell ref="BL7:BQ8"/>
+    <mergeCell ref="BL18:BQ18"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="CD56:CI56"/>
+    <mergeCell ref="CD57:CI57"/>
+    <mergeCell ref="CG59:CI59"/>
+    <mergeCell ref="CD60:CI62"/>
+    <mergeCell ref="BF61:BH61"/>
+    <mergeCell ref="BC62:BH64"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="BC49:BH49"/>
+    <mergeCell ref="BF51:BH51"/>
+    <mergeCell ref="BC52:BH53"/>
+    <mergeCell ref="BC54:BH54"/>
+    <mergeCell ref="BF56:BH56"/>
+    <mergeCell ref="AT27:AY29"/>
+    <mergeCell ref="BC21:BH21"/>
+    <mergeCell ref="BC22:BH24"/>
+    <mergeCell ref="BC42:BH44"/>
+    <mergeCell ref="BC26:BH28"/>
+    <mergeCell ref="BC38:BH38"/>
+    <mergeCell ref="BF40:BH40"/>
+    <mergeCell ref="BC41:BH41"/>
+    <mergeCell ref="BC25:BH25"/>
+    <mergeCell ref="BC29:BH29"/>
+    <mergeCell ref="AT16:AY21"/>
+    <mergeCell ref="CD31:CI31"/>
+    <mergeCell ref="CD32:CI35"/>
+    <mergeCell ref="CD6:CI6"/>
+    <mergeCell ref="CD7:CI7"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="CE12:CI12"/>
+    <mergeCell ref="CD13:CI14"/>
+    <mergeCell ref="CD15:CI15"/>
+    <mergeCell ref="CE18:CI18"/>
+    <mergeCell ref="CE19:CI19"/>
+    <mergeCell ref="BC6:BH6"/>
+    <mergeCell ref="AK16:AP17"/>
+    <mergeCell ref="AK21:AP23"/>
+    <mergeCell ref="AT23:AY25"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK18:AP19"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AT26:AY26"/>
+    <mergeCell ref="AT22:AY22"/>
+    <mergeCell ref="BD12:BH12"/>
+    <mergeCell ref="BC13:BH14"/>
+    <mergeCell ref="BC15:BH15"/>
+    <mergeCell ref="BC7:BH7"/>
+    <mergeCell ref="BD10:BH10"/>
+    <mergeCell ref="BD11:BH11"/>
+    <mergeCell ref="BC18:BH20"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AT6:AY6"/>
+    <mergeCell ref="AT7:AY7"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AK20:AP20"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="S19:X21"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J31:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J25:O27"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="S32:X34"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="S39:X42"/>
+    <mergeCell ref="S29:X30"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AB6:AG6"/>
@@ -10964,183 +11131,24 @@
     <mergeCell ref="T17:X17"/>
     <mergeCell ref="T18:X18"/>
     <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="S32:X34"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="S39:X42"/>
-    <mergeCell ref="S29:X30"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="S19:X21"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J31:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J25:O27"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="BC5:BH5"/>
-    <mergeCell ref="AK16:AP17"/>
-    <mergeCell ref="AK21:AP23"/>
-    <mergeCell ref="AT23:AY25"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK18:AP19"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AT26:AY26"/>
-    <mergeCell ref="AT22:AY22"/>
-    <mergeCell ref="BD11:BH11"/>
-    <mergeCell ref="BC12:BH13"/>
-    <mergeCell ref="BC14:BH14"/>
-    <mergeCell ref="BC6:BH6"/>
-    <mergeCell ref="BD9:BH9"/>
-    <mergeCell ref="BD10:BH10"/>
-    <mergeCell ref="BC17:BH19"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AT6:AY6"/>
-    <mergeCell ref="AT7:AY7"/>
-    <mergeCell ref="AU10:AY10"/>
-    <mergeCell ref="AU11:AY11"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AK20:AP20"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="CD31:CI31"/>
-    <mergeCell ref="CD32:CI35"/>
-    <mergeCell ref="CD6:CI6"/>
-    <mergeCell ref="CD7:CI7"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="CE12:CI12"/>
-    <mergeCell ref="CD13:CI14"/>
-    <mergeCell ref="CD15:CI15"/>
-    <mergeCell ref="CE18:CI18"/>
-    <mergeCell ref="CE19:CI19"/>
-    <mergeCell ref="AT13:AY13"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="BC48:BH48"/>
-    <mergeCell ref="BF50:BH50"/>
-    <mergeCell ref="BC51:BH52"/>
-    <mergeCell ref="BC53:BH53"/>
-    <mergeCell ref="BF55:BH55"/>
-    <mergeCell ref="AT27:AY29"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BC21:BH23"/>
-    <mergeCell ref="BC41:BH43"/>
-    <mergeCell ref="BC25:BH27"/>
-    <mergeCell ref="BC37:BH37"/>
-    <mergeCell ref="BF39:BH39"/>
-    <mergeCell ref="BC40:BH40"/>
-    <mergeCell ref="BC24:BH24"/>
-    <mergeCell ref="BC28:BH28"/>
-    <mergeCell ref="AT16:AY21"/>
-    <mergeCell ref="BL7:BQ8"/>
-    <mergeCell ref="BL18:BQ18"/>
-    <mergeCell ref="BL30:BQ30"/>
-    <mergeCell ref="CD56:CI56"/>
-    <mergeCell ref="CD57:CI57"/>
-    <mergeCell ref="CG59:CI59"/>
-    <mergeCell ref="CD60:CI62"/>
-    <mergeCell ref="BF60:BH60"/>
-    <mergeCell ref="BC61:BH63"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CD21:CI21"/>
-    <mergeCell ref="CD22:CI23"/>
-    <mergeCell ref="CD24:CI24"/>
-    <mergeCell ref="CD48:CI48"/>
-    <mergeCell ref="CG50:CI50"/>
-    <mergeCell ref="CD51:CI52"/>
-    <mergeCell ref="CD53:CI53"/>
-    <mergeCell ref="CG55:CI55"/>
-    <mergeCell ref="CE36:CI36"/>
-    <mergeCell ref="CE37:CI37"/>
-    <mergeCell ref="CD39:CI39"/>
-    <mergeCell ref="CD25:CI27"/>
-    <mergeCell ref="CD28:CI28"/>
-    <mergeCell ref="CG30:CI30"/>
-    <mergeCell ref="BU2:BZ3"/>
-    <mergeCell ref="BU16:BZ16"/>
-    <mergeCell ref="BU11:BZ12"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BU4:BZ4"/>
-    <mergeCell ref="BU5:BZ6"/>
-    <mergeCell ref="BU7:BZ7"/>
-    <mergeCell ref="BU8:BZ9"/>
-    <mergeCell ref="BU10:BZ10"/>
-    <mergeCell ref="BV14:BZ14"/>
-    <mergeCell ref="BV15:BZ15"/>
-    <mergeCell ref="CM20:CR26"/>
-    <mergeCell ref="BO66:BQ66"/>
-    <mergeCell ref="BC58:BH58"/>
-    <mergeCell ref="CM5:CR5"/>
-    <mergeCell ref="CM6:CR6"/>
-    <mergeCell ref="CN9:CR9"/>
-    <mergeCell ref="CM14:CR14"/>
-    <mergeCell ref="CM15:CR18"/>
-    <mergeCell ref="CN10:CR10"/>
-    <mergeCell ref="CM12:CR13"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="BO20:BQ20"/>
-    <mergeCell ref="BM21:BQ21"/>
-    <mergeCell ref="BM22:BQ22"/>
-    <mergeCell ref="BC56:BH57"/>
-    <mergeCell ref="BL51:BQ51"/>
-    <mergeCell ref="BL58:BQ58"/>
-    <mergeCell ref="BO60:BQ60"/>
-    <mergeCell ref="BL64:BQ64"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BC31:BH33"/>
-    <mergeCell ref="BC34:BH36"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BL67:BQ71"/>
+    <mergeCell ref="BL12:BQ12"/>
+    <mergeCell ref="BL13:BQ14"/>
+    <mergeCell ref="BU17:BZ23"/>
+    <mergeCell ref="BL54:BQ54"/>
+    <mergeCell ref="BM55:BQ55"/>
+    <mergeCell ref="BM56:BQ56"/>
+    <mergeCell ref="BL9:BQ11"/>
+    <mergeCell ref="BL15:BQ15"/>
+    <mergeCell ref="BL16:BQ17"/>
+    <mergeCell ref="BL34:BQ35"/>
+    <mergeCell ref="BL24:BQ24"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL61:BQ63"/>
+    <mergeCell ref="BO32:BQ32"/>
+    <mergeCell ref="BL33:BQ33"/>
+    <mergeCell ref="BM23:BQ23"/>
+    <mergeCell ref="BL25:BQ25"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11163,54 +11171,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="J1" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="S1" s="59" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="S1" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="AB1" s="69" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="AB1" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="71" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AK1" s="66" t="s">
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AK1" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -11281,40 +11289,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="66"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="68" t="s">
+      <c r="W3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="68"/>
+      <c r="X3" s="66"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="68" t="s">
+      <c r="AF3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="68"/>
+      <c r="AG3" s="66"/>
       <c r="AK3" s="5" t="s">
         <v>173</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="68" t="s">
+      <c r="AO3" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="AP3" s="68"/>
+      <c r="AP3" s="66"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -11333,38 +11341,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="37"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="42"/>
+      <c r="X4" s="37"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="42" t="s">
+      <c r="AF4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="42"/>
+      <c r="AG4" s="37"/>
       <c r="AK4" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -11375,90 +11383,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="S5" s="29" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="S5" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="AB5" s="29" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="AB5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AK5" s="29" t="s">
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AK5" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="S6" s="31" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="S6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="AB6" s="31" t="s">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="AB6" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AK6" s="37" t="s">
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AK6" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -11483,14 +11491,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="55" t="s">
+      <c r="AK7" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -11506,37 +11514,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="45" t="s">
+      <c r="V8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="45" t="s">
+      <c r="AE8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -11544,169 +11552,169 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="AB9" s="39" t="s">
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="AB9" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="47" t="s">
+      <c r="T10" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="55"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="47" t="s">
+      <c r="AC11" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="J12" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="S12" s="37" t="s">
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="S12" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="47" t="s">
+      <c r="AC12" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -11715,62 +11723,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="S13" s="57" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="S13" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="47" t="s">
+      <c r="AC13" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="J14" s="37" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="J14" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="AB14" s="37" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="AB14" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
     </row>
     <row r="15" spans="1:42" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -11781,30 +11789,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="S15" s="37" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="S15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="AB15" s="57" t="s">
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="AB15" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -11812,178 +11820,229 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="S16" s="57" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="S16" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="AB17" s="37" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="AB17" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="AB18" s="55" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="AB18" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="AB21" s="37" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="AB21" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="AB22" s="55" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="AB22" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="AB21:AG21"/>
     <mergeCell ref="AB22:AG24"/>
     <mergeCell ref="S6:X6"/>
@@ -12000,57 +12059,6 @@
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="S12:X12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AB15:AG16"/>
-    <mergeCell ref="AB9:AG10"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG20"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP10"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK5:AP5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205658DF-EE16-4A74-9965-EA1C1F21EF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162896A-EA98-4839-9A82-A1C165B2D29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="570" yWindow="780" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
@@ -5595,29 +5595,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The damage is halved and if there is any potency effect associated with it, the potency is decreased by 1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Great Hammer of Stone </t>
     </r>
     <r>
@@ -5694,102 +5671,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2 Malice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The statue can shift 2 and make a free strike.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 poison damage; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M&lt;1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dazed or bleeding (EoT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6 poison damage; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M&lt;2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dazed or bleeding (EoT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8 poison damage; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M&lt;3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dazed or bleeding (EoT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -6207,6 +6088,125 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> The target grows miniature faces all over its body. The next time it is damaged, the faces shriek and and burst. The damage is halved and enemies adjacent to the target are frightened (save ends) of the target. If the target is a minion, all minions in the squad share the effect, and when one minion's faces burst, all of them burst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Malice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The statue can shift 2 and make a free strike.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dazed or bleeding (EoT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dazed or bleeding (EoT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11 poison damage; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M&lt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dazed or bleeding (EoT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The damage is halved and if there is any potency effect associated with it, the potency is decreased by 1. Additionally, the statue makes a melee free strike on the creature.</t>
     </r>
   </si>
 </sst>
@@ -6454,12 +6454,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6469,18 +6463,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -6492,21 +6482,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6520,42 +6557,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6570,10 +6574,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6923,16 +6923,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -6944,10 +6944,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -7073,50 +7073,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -7172,11 +7172,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -7185,125 +7185,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="L18" s="33" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="L18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -7329,115 +7329,102 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="L21" s="39" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="L21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="L23" s="41" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="L23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -7450,6 +7437,19 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7472,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
   <dimension ref="A1:CR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ10" sqref="BJ10"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BR39" sqref="BR39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7497,46 +7497,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="J1" s="43" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="J1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="30" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="S1" s="43" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="S1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="30" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="AB1" s="49" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="AB1" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51" t="s">
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
       <c r="AK1" s="25" t="s">
         <v>196</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>202</v>
       </c>
       <c r="BL3" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" s="5"/>
@@ -7795,12 +7795,12 @@
       <c r="BQ3" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="56"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49"/>
       <c r="CD3" s="5" t="s">
         <v>122</v>
       </c>
@@ -7901,14 +7901,14 @@
       <c r="BQ4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU4" s="33" t="s">
+      <c r="BU4" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="33"/>
-      <c r="BZ4" s="33"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
       <c r="CD4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7955,30 +7955,30 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="37" t="s">
+      <c r="AK5" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>118</v>
@@ -7991,14 +7991,14 @@
       <c r="BH5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BL5" s="31" t="s">
+      <c r="BL5" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
+      <c r="BM5" s="30"/>
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="30"/>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30"/>
       <c r="BU5" s="44" t="s">
         <v>271</v>
       </c>
@@ -8015,184 +8015,184 @@
       <c r="CI5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="CM5" s="31" t="s">
+      <c r="CM5" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="32"/>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="32"/>
+      <c r="CN5" s="30"/>
+      <c r="CO5" s="30"/>
+      <c r="CP5" s="30"/>
+      <c r="CQ5" s="30"/>
+      <c r="CR5" s="30"/>
     </row>
     <row r="6" spans="1:96">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="J6" s="31" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="J6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="S6" s="31" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="S6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="AB6" s="31" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="AB6" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AK6" s="31" t="s">
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AK6" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AT6" s="31" t="s">
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AT6" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="BC6" s="31" t="s">
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="BC6" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BL6" s="41" t="s">
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BL6" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="41"/>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
-      <c r="BQ6" s="41"/>
-      <c r="BU6" s="56"/>
-      <c r="BV6" s="56"/>
-      <c r="BW6" s="56"/>
-      <c r="BX6" s="56"/>
-      <c r="BY6" s="56"/>
-      <c r="BZ6" s="56"/>
-      <c r="CD6" s="31" t="s">
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="49"/>
+      <c r="CD6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="32"/>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="32"/>
-      <c r="CM6" s="33" t="s">
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="30"/>
+      <c r="CI6" s="30"/>
+      <c r="CM6" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="CN6" s="33"/>
-      <c r="CO6" s="33"/>
-      <c r="CP6" s="33"/>
-      <c r="CQ6" s="33"/>
-      <c r="CR6" s="33"/>
+      <c r="CN6" s="31"/>
+      <c r="CO6" s="31"/>
+      <c r="CP6" s="31"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
     </row>
     <row r="7" spans="1:96">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="S7" s="41" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="S7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="AB7" s="33" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="AB7" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AK7" s="33" t="s">
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AK7" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AT7" s="33" t="s">
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AT7" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="BC7" s="33" t="s">
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="BC7" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BL7" s="45" t="s">
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BL7" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BU7" s="33" t="s">
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="51"/>
+      <c r="BO7" s="51"/>
+      <c r="BP7" s="51"/>
+      <c r="BQ7" s="51"/>
+      <c r="BU7" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="33"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="33"/>
-      <c r="BZ7" s="33"/>
-      <c r="CD7" s="33" t="s">
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CD7" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="CE7" s="33"/>
-      <c r="CF7" s="33"/>
-      <c r="CG7" s="33"/>
-      <c r="CH7" s="33"/>
-      <c r="CI7" s="33"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31"/>
+      <c r="CG7" s="31"/>
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="31"/>
       <c r="CM7" s="5" t="s">
         <v>62</v>
       </c>
@@ -8219,14 +8219,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
       <c r="AB8" s="5" t="s">
         <v>191</v>
       </c>
@@ -8259,12 +8259,12 @@
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="45"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="51"/>
+      <c r="BN8" s="51"/>
+      <c r="BO8" s="51"/>
+      <c r="BP8" s="51"/>
+      <c r="BQ8" s="51"/>
       <c r="BU8" s="44" t="s">
         <v>270</v>
       </c>
@@ -8298,27 +8298,27 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
       <c r="AB9" s="5" t="s">
         <v>192</v>
       </c>
@@ -8359,236 +8359,236 @@
       <c r="BH9" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="BL9" s="45" t="s">
+      <c r="BL9" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BU9" s="56"/>
-      <c r="BV9" s="56"/>
-      <c r="BW9" s="56"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="56"/>
-      <c r="BZ9" s="56"/>
+      <c r="BM9" s="51"/>
+      <c r="BN9" s="51"/>
+      <c r="BO9" s="51"/>
+      <c r="BP9" s="51"/>
+      <c r="BQ9" s="51"/>
+      <c r="BU9" s="49"/>
+      <c r="BV9" s="49"/>
+      <c r="BW9" s="49"/>
+      <c r="BX9" s="49"/>
+      <c r="BY9" s="49"/>
+      <c r="BZ9" s="49"/>
       <c r="CD9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="47" t="s">
+      <c r="CG9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="CH9" s="47"/>
-      <c r="CI9" s="47"/>
+      <c r="CH9" s="45"/>
+      <c r="CI9" s="45"/>
       <c r="CM9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN9" s="46" t="s">
+      <c r="CN9" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34"/>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="41"/>
+      <c r="CR9" s="41"/>
     </row>
     <row r="10" spans="1:96">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="S10" s="45" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="S10" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="46" t="s">
+      <c r="AC10" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="46" t="s">
+      <c r="AL10" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="46" t="s">
+      <c r="AU10" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
       <c r="BC10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD10" s="46" t="s">
+      <c r="BD10" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BL10" s="45"/>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="45"/>
-      <c r="BU10" s="33" t="s">
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="41"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="51"/>
+      <c r="BN10" s="51"/>
+      <c r="BO10" s="51"/>
+      <c r="BP10" s="51"/>
+      <c r="BQ10" s="51"/>
+      <c r="BU10" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="33"/>
-      <c r="BX10" s="33"/>
-      <c r="BY10" s="33"/>
-      <c r="BZ10" s="33"/>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31"/>
       <c r="CD10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE10" s="46" t="s">
+      <c r="CE10" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="CF10" s="34"/>
-      <c r="CG10" s="34"/>
-      <c r="CH10" s="34"/>
-      <c r="CI10" s="34"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="41"/>
       <c r="CM10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CN10" s="46" t="s">
+      <c r="CN10" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="CO10" s="34"/>
-      <c r="CP10" s="34"/>
-      <c r="CQ10" s="34"/>
-      <c r="CR10" s="34"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="41"/>
+      <c r="CR10" s="41"/>
     </row>
     <row r="11" spans="1:96">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="46" t="s">
+      <c r="AC11" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="46" t="s">
+      <c r="AL11" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="46" t="s">
+      <c r="AU11" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
       <c r="BC11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD11" s="46" t="s">
+      <c r="BD11" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="45"/>
-      <c r="BO11" s="45"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="41"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="51"/>
+      <c r="BN11" s="51"/>
+      <c r="BO11" s="51"/>
+      <c r="BP11" s="51"/>
+      <c r="BQ11" s="51"/>
       <c r="BU11" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="BV11" s="64"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
+      <c r="BV11" s="50"/>
+      <c r="BW11" s="50"/>
+      <c r="BX11" s="50"/>
+      <c r="BY11" s="50"/>
+      <c r="BZ11" s="50"/>
       <c r="CD11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE11" s="46" t="s">
+      <c r="CE11" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="CF11" s="34"/>
-      <c r="CG11" s="34"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="34"/>
+      <c r="CF11" s="41"/>
+      <c r="CG11" s="41"/>
+      <c r="CH11" s="41"/>
+      <c r="CI11" s="41"/>
       <c r="CM11" s="5" t="s">
         <v>7</v>
       </c>
@@ -8607,98 +8607,98 @@
       <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AC12" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="46" t="s">
+      <c r="AL12" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU12" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
       <c r="BC12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BD12" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BL12" s="41" t="s">
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="41"/>
+      <c r="BL12" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="BM12" s="41"/>
-      <c r="BN12" s="41"/>
-      <c r="BO12" s="41"/>
-      <c r="BP12" s="41"/>
-      <c r="BQ12" s="41"/>
-      <c r="BU12" s="64"/>
-      <c r="BV12" s="64"/>
-      <c r="BW12" s="64"/>
-      <c r="BX12" s="64"/>
-      <c r="BY12" s="64"/>
-      <c r="BZ12" s="64"/>
+      <c r="BM12" s="37"/>
+      <c r="BN12" s="37"/>
+      <c r="BO12" s="37"/>
+      <c r="BP12" s="37"/>
+      <c r="BQ12" s="37"/>
+      <c r="BU12" s="50"/>
+      <c r="BV12" s="50"/>
+      <c r="BW12" s="50"/>
+      <c r="BX12" s="50"/>
+      <c r="BY12" s="50"/>
+      <c r="BZ12" s="50"/>
       <c r="CD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE12" s="46" t="s">
+      <c r="CE12" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="CF12" s="34"/>
-      <c r="CG12" s="34"/>
-      <c r="CH12" s="34"/>
-      <c r="CI12" s="34"/>
-      <c r="CM12" s="35" t="s">
+      <c r="CF12" s="41"/>
+      <c r="CG12" s="41"/>
+      <c r="CH12" s="41"/>
+      <c r="CI12" s="41"/>
+      <c r="CM12" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="CN12" s="35"/>
-      <c r="CO12" s="35"/>
-      <c r="CP12" s="35"/>
-      <c r="CQ12" s="35"/>
-      <c r="CR12" s="35"/>
+      <c r="CN12" s="39"/>
+      <c r="CO12" s="39"/>
+      <c r="CP12" s="39"/>
+      <c r="CQ12" s="39"/>
+      <c r="CR12" s="39"/>
     </row>
     <row r="13" spans="1:96" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -8707,22 +8707,22 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="S13" s="33" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="S13" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
       <c r="AB13" s="44" t="s">
         <v>281</v>
       </c>
@@ -8731,78 +8731,78 @@
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AK13" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AT13" s="33" t="s">
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AT13" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="BC13" s="35" t="s">
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="BC13" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="BD13" s="35"/>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="35"/>
-      <c r="BH13" s="35"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
       <c r="BL13" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="45"/>
-      <c r="BO13" s="45"/>
-      <c r="BP13" s="45"/>
-      <c r="BQ13" s="45"/>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
+      <c r="BP13" s="51"/>
+      <c r="BQ13" s="51"/>
       <c r="BU13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV13" s="46" t="s">
+      <c r="BV13" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="BW13" s="34"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="34"/>
-      <c r="BZ13" s="34"/>
-      <c r="CD13" s="35" t="s">
+      <c r="BW13" s="41"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="41"/>
+      <c r="CD13" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="CE13" s="35"/>
-      <c r="CF13" s="35"/>
-      <c r="CG13" s="35"/>
-      <c r="CH13" s="35"/>
-      <c r="CI13" s="35"/>
-      <c r="CM13" s="35"/>
-      <c r="CN13" s="35"/>
-      <c r="CO13" s="35"/>
-      <c r="CP13" s="35"/>
-      <c r="CQ13" s="35"/>
-      <c r="CR13" s="35"/>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39"/>
+      <c r="CG13" s="39"/>
+      <c r="CH13" s="39"/>
+      <c r="CI13" s="39"/>
+      <c r="CM13" s="39"/>
+      <c r="CN13" s="39"/>
+      <c r="CO13" s="39"/>
+      <c r="CP13" s="39"/>
+      <c r="CQ13" s="39"/>
+      <c r="CR13" s="39"/>
     </row>
     <row r="14" spans="1:96">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -8811,12 +8811,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -8833,42 +8833,42 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BL14" s="45"/>
-      <c r="BM14" s="45"/>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="45"/>
-      <c r="BP14" s="45"/>
-      <c r="BQ14" s="45"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="40"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+      <c r="BN14" s="51"/>
+      <c r="BO14" s="51"/>
+      <c r="BP14" s="51"/>
+      <c r="BQ14" s="51"/>
       <c r="BU14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV14" s="46" t="s">
+      <c r="BV14" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
-      <c r="BZ14" s="34"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="36"/>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
-      <c r="CM14" s="41" t="s">
+      <c r="BW14" s="41"/>
+      <c r="BX14" s="41"/>
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="41"/>
+      <c r="CD14" s="40"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="40"/>
+      <c r="CG14" s="40"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="40"/>
+      <c r="CM14" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="CN14" s="33"/>
-      <c r="CO14" s="33"/>
-      <c r="CP14" s="33"/>
-      <c r="CQ14" s="33"/>
-      <c r="CR14" s="33"/>
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="31"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
     </row>
     <row r="15" spans="1:96">
       <c r="A15" s="5" t="s">
@@ -8879,32 +8879,32 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="47" t="s">
+      <c r="V15" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="AB15" s="41" t="s">
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="AB15" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -8920,45 +8920,45 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="47" t="s">
+      <c r="AW15" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="47"/>
-      <c r="AY15" s="47"/>
-      <c r="BC15" s="33" t="s">
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="BC15" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="33"/>
-      <c r="BG15" s="33"/>
-      <c r="BH15" s="33"/>
-      <c r="BL15" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM15" s="41"/>
-      <c r="BN15" s="41"/>
-      <c r="BO15" s="41"/>
-      <c r="BP15" s="41"/>
-      <c r="BQ15" s="41"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BL15" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="37"/>
+      <c r="BO15" s="37"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
       <c r="BU15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BV15" s="46" t="s">
+      <c r="BV15" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="BW15" s="34"/>
-      <c r="BX15" s="34"/>
-      <c r="BY15" s="34"/>
-      <c r="BZ15" s="34"/>
-      <c r="CD15" s="33" t="s">
+      <c r="BW15" s="41"/>
+      <c r="BX15" s="41"/>
+      <c r="BY15" s="41"/>
+      <c r="BZ15" s="41"/>
+      <c r="CD15" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="CE15" s="33"/>
-      <c r="CF15" s="33"/>
-      <c r="CG15" s="33"/>
-      <c r="CH15" s="33"/>
-      <c r="CI15" s="33"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="31"/>
       <c r="CM15" s="44" t="s">
         <v>287</v>
       </c>
@@ -8974,11 +8974,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -8990,21 +8990,21 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="AB16" s="53" t="s">
+      <c r="T16" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="AB16" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
       <c r="AK16" s="44" t="s">
         <v>206</v>
       </c>
@@ -9013,14 +9013,14 @@
       <c r="AN16" s="44"/>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
-      <c r="AT16" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
+      <c r="AT16" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
       <c r="BC16" s="5" t="s">
         <v>98</v>
       </c>
@@ -9030,21 +9030,21 @@
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BL16" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="BM16" s="45"/>
-      <c r="BN16" s="45"/>
-      <c r="BO16" s="45"/>
-      <c r="BP16" s="45"/>
-      <c r="BQ16" s="45"/>
-      <c r="BU16" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="BM16" s="51"/>
+      <c r="BN16" s="51"/>
+      <c r="BO16" s="51"/>
+      <c r="BP16" s="51"/>
+      <c r="BQ16" s="51"/>
+      <c r="BU16" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
       <c r="CD16" s="5" t="s">
         <v>62</v>
       </c>
@@ -9064,51 +9064,51 @@
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="46" t="s">
+      <c r="T17" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
       <c r="AK17" s="44"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44"/>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
       <c r="BC17" s="5" t="s">
         <v>241</v>
       </c>
@@ -9119,12 +9119,12 @@
       <c r="BH17" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="BL17" s="45"/>
-      <c r="BM17" s="45"/>
-      <c r="BN17" s="45"/>
-      <c r="BO17" s="45"/>
-      <c r="BP17" s="45"/>
-      <c r="BQ17" s="45"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="51"/>
+      <c r="BQ17" s="51"/>
       <c r="BU17" s="44" t="s">
         <v>307</v>
       </c>
@@ -9154,31 +9154,31 @@
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="J18" s="39" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="J18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
+      <c r="T18" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
       <c r="AK18" s="44" t="s">
         <v>212</v>
       </c>
@@ -9187,28 +9187,28 @@
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
       <c r="AP18" s="44"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="BC18" s="45" t="s">
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="BC18" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="BD18" s="45"/>
-      <c r="BE18" s="45"/>
-      <c r="BF18" s="45"/>
-      <c r="BG18" s="45"/>
-      <c r="BH18" s="45"/>
-      <c r="BL18" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM18" s="33"/>
-      <c r="BN18" s="33"/>
-      <c r="BO18" s="33"/>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BL18" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
       <c r="BU18" s="44"/>
       <c r="BV18" s="44"/>
       <c r="BW18" s="44"/>
@@ -9218,13 +9218,13 @@
       <c r="CD18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE18" s="46" t="s">
+      <c r="CE18" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="CF18" s="34"/>
-      <c r="CG18" s="34"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="34"/>
+      <c r="CF18" s="41"/>
+      <c r="CG18" s="41"/>
+      <c r="CH18" s="41"/>
+      <c r="CI18" s="41"/>
       <c r="CM18" s="44"/>
       <c r="CN18" s="44"/>
       <c r="CO18" s="44"/>
@@ -9236,49 +9236,49 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="J19" s="33" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="J19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="S19" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="45"/>
-      <c r="BE19" s="45"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="45"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="S19" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AY19" s="51"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
       <c r="BL19" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
@@ -9294,31 +9294,31 @@
       <c r="CD19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE19" s="46" t="s">
+      <c r="CE19" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="CF19" s="34"/>
-      <c r="CG19" s="34"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="34"/>
-      <c r="CM19" s="41" t="s">
+      <c r="CF19" s="41"/>
+      <c r="CG19" s="41"/>
+      <c r="CH19" s="41"/>
+      <c r="CI19" s="41"/>
+      <c r="CM19" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="CN19" s="33"/>
-      <c r="CO19" s="33"/>
-      <c r="CP19" s="33"/>
-      <c r="CQ19" s="33"/>
-      <c r="CR19" s="33"/>
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="31"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
     </row>
     <row r="20" spans="1:96" ht="15" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -9327,42 +9327,42 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="AK20" s="41" t="s">
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="AK20" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="63"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="63"/>
-      <c r="BH20" s="63"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
       <c r="BL20" s="5" t="s">
         <v>289</v>
       </c>
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
-      <c r="BO20" s="47" t="s">
+      <c r="BO20" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="BP20" s="47"/>
-      <c r="BQ20" s="47"/>
+      <c r="BP20" s="45"/>
+      <c r="BQ20" s="45"/>
       <c r="BU20" s="44"/>
       <c r="BV20" s="44"/>
       <c r="BW20" s="44"/>
@@ -9372,13 +9372,13 @@
       <c r="CD20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE20" s="46" t="s">
+      <c r="CE20" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="CF20" s="34"/>
-      <c r="CG20" s="34"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="34"/>
+      <c r="CF20" s="41"/>
+      <c r="CG20" s="41"/>
+      <c r="CH20" s="41"/>
+      <c r="CI20" s="41"/>
       <c r="CM20" s="44" t="s">
         <v>298</v>
       </c>
@@ -9389,76 +9389,76 @@
       <c r="CR20" s="44"/>
     </row>
     <row r="21" spans="1:96" ht="15" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="AK21" s="53" t="s">
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="AK21" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="BC21" s="41" t="s">
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="BC21" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="42"/>
-      <c r="BG21" s="42"/>
-      <c r="BH21" s="42"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
       <c r="BL21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM21" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="BN21" s="46"/>
-      <c r="BO21" s="46"/>
-      <c r="BP21" s="46"/>
-      <c r="BQ21" s="46"/>
+      <c r="BM21" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="BN21" s="47"/>
+      <c r="BO21" s="47"/>
+      <c r="BP21" s="47"/>
+      <c r="BQ21" s="47"/>
       <c r="BU21" s="44"/>
       <c r="BV21" s="44"/>
       <c r="BW21" s="44"/>
       <c r="BX21" s="44"/>
       <c r="BY21" s="44"/>
       <c r="BZ21" s="44"/>
-      <c r="CD21" s="41" t="s">
+      <c r="CD21" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="CE21" s="42"/>
-      <c r="CF21" s="42"/>
-      <c r="CG21" s="42"/>
-      <c r="CH21" s="42"/>
-      <c r="CI21" s="42"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
       <c r="CM21" s="44"/>
       <c r="CN21" s="44"/>
       <c r="CO21" s="44"/>
@@ -9475,68 +9475,68 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="S22" s="33" t="s">
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="S22" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AT22" s="41" t="s">
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="54"/>
+      <c r="AO22" s="54"/>
+      <c r="AP22" s="54"/>
+      <c r="AT22" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="BC22" s="53" t="s">
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="BC22" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
+      <c r="BD22" s="54"/>
+      <c r="BE22" s="54"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="54"/>
+      <c r="BH22" s="54"/>
       <c r="BL22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM22" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BN22" s="46"/>
-      <c r="BO22" s="46"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="46"/>
+      <c r="BM22" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="BN22" s="47"/>
+      <c r="BO22" s="47"/>
+      <c r="BP22" s="47"/>
+      <c r="BQ22" s="47"/>
       <c r="BU22" s="44"/>
       <c r="BV22" s="44"/>
       <c r="BW22" s="44"/>
       <c r="BX22" s="44"/>
       <c r="BY22" s="44"/>
       <c r="BZ22" s="44"/>
-      <c r="CD22" s="57" t="s">
+      <c r="CD22" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="CE22" s="57"/>
-      <c r="CF22" s="57"/>
-      <c r="CG22" s="57"/>
-      <c r="CH22" s="57"/>
-      <c r="CI22" s="57"/>
+      <c r="CE22" s="52"/>
+      <c r="CF22" s="52"/>
+      <c r="CG22" s="52"/>
+      <c r="CH22" s="52"/>
+      <c r="CI22" s="52"/>
       <c r="CM22" s="44"/>
       <c r="CN22" s="44"/>
       <c r="CO22" s="44"/>
@@ -9550,19 +9550,19 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="J23" s="39" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="J23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
       <c r="S23" s="5" t="s">
         <v>62</v>
       </c>
@@ -9571,48 +9571,48 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AT23" s="53" t="s">
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="54"/>
+      <c r="AT23" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="53"/>
+      <c r="AU23" s="54"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="BC23" s="54"/>
+      <c r="BD23" s="54"/>
+      <c r="BE23" s="54"/>
+      <c r="BF23" s="54"/>
+      <c r="BG23" s="54"/>
+      <c r="BH23" s="54"/>
       <c r="BL23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM23" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="34"/>
-      <c r="BP23" s="34"/>
-      <c r="BQ23" s="34"/>
+      <c r="BM23" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="BN23" s="41"/>
+      <c r="BO23" s="41"/>
+      <c r="BP23" s="41"/>
+      <c r="BQ23" s="41"/>
       <c r="BU23" s="44"/>
       <c r="BV23" s="44"/>
       <c r="BW23" s="44"/>
       <c r="BX23" s="44"/>
       <c r="BY23" s="44"/>
       <c r="BZ23" s="44"/>
-      <c r="CD23" s="58"/>
-      <c r="CE23" s="58"/>
-      <c r="CF23" s="58"/>
-      <c r="CG23" s="58"/>
-      <c r="CH23" s="58"/>
-      <c r="CI23" s="58"/>
+      <c r="CD23" s="53"/>
+      <c r="CE23" s="53"/>
+      <c r="CF23" s="53"/>
+      <c r="CG23" s="53"/>
+      <c r="CH23" s="53"/>
+      <c r="CI23" s="53"/>
       <c r="CM23" s="44"/>
       <c r="CN23" s="44"/>
       <c r="CO23" s="44"/>
@@ -9621,22 +9621,22 @@
       <c r="CR23" s="44"/>
     </row>
     <row r="24" spans="1:96" ht="15" customHeight="1">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="J24" s="41" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="J24" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
       <c r="S24" s="5" t="s">
         <v>131</v>
       </c>
@@ -9647,34 +9647,34 @@
       <c r="X24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="53"/>
-      <c r="BH24" s="53"/>
-      <c r="BL24" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="36"/>
-      <c r="BO24" s="36"/>
-      <c r="BP24" s="36"/>
-      <c r="BQ24" s="36"/>
-      <c r="CD24" s="41" t="s">
+      <c r="AT24" s="54"/>
+      <c r="AU24" s="54"/>
+      <c r="AV24" s="54"/>
+      <c r="AW24" s="54"/>
+      <c r="AX24" s="54"/>
+      <c r="AY24" s="54"/>
+      <c r="BC24" s="54"/>
+      <c r="BD24" s="54"/>
+      <c r="BE24" s="54"/>
+      <c r="BF24" s="54"/>
+      <c r="BG24" s="54"/>
+      <c r="BH24" s="54"/>
+      <c r="BL24" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="BM24" s="40"/>
+      <c r="BN24" s="40"/>
+      <c r="BO24" s="40"/>
+      <c r="BP24" s="40"/>
+      <c r="BQ24" s="40"/>
+      <c r="CD24" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="CE24" s="33"/>
-      <c r="CF24" s="33"/>
-      <c r="CG24" s="33"/>
-      <c r="CH24" s="33"/>
-      <c r="CI24" s="33"/>
+      <c r="CE24" s="31"/>
+      <c r="CF24" s="31"/>
+      <c r="CG24" s="31"/>
+      <c r="CH24" s="31"/>
+      <c r="CI24" s="31"/>
       <c r="CM24" s="44"/>
       <c r="CN24" s="44"/>
       <c r="CO24" s="44"/>
@@ -9683,54 +9683,54 @@
       <c r="CR24" s="44"/>
     </row>
     <row r="25" spans="1:96">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="J25" s="54" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="J25" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
       <c r="S25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="BC25" s="41" t="s">
+      <c r="T25" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="AT25" s="54"/>
+      <c r="AU25" s="54"/>
+      <c r="AV25" s="54"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="BC25" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="BD25" s="33"/>
-      <c r="BE25" s="33"/>
-      <c r="BF25" s="33"/>
-      <c r="BG25" s="33"/>
-      <c r="BH25" s="33"/>
-      <c r="BL25" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM25" s="33"/>
-      <c r="BN25" s="33"/>
-      <c r="BO25" s="33"/>
-      <c r="BP25" s="33"/>
-      <c r="BQ25" s="33"/>
+      <c r="BD25" s="31"/>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="31"/>
+      <c r="BG25" s="31"/>
+      <c r="BH25" s="31"/>
+      <c r="BL25" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
       <c r="CD25" s="44" t="s">
         <v>140</v>
       </c>
@@ -9747,38 +9747,38 @@
       <c r="CR25" s="44"/>
     </row>
     <row r="26" spans="1:96" ht="15" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
       <c r="S26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="AT26" s="41" t="s">
+      <c r="T26" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="AT26" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
       <c r="BC26" s="44" t="s">
         <v>237</v>
       </c>
@@ -9809,36 +9809,36 @@
       <c r="CR26" s="44"/>
     </row>
     <row r="27" spans="1:96">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
       <c r="S27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="AT27" s="53" t="s">
+      <c r="T27" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="AT27" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="53"/>
-      <c r="AW27" s="53"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="53"/>
+      <c r="AU27" s="54"/>
+      <c r="AV27" s="54"/>
+      <c r="AW27" s="54"/>
+      <c r="AX27" s="54"/>
+      <c r="AY27" s="54"/>
       <c r="BC27" s="44"/>
       <c r="BD27" s="44"/>
       <c r="BE27" s="44"/>
@@ -9855,58 +9855,58 @@
       <c r="BQ27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CD27" s="56"/>
-      <c r="CE27" s="56"/>
-      <c r="CF27" s="56"/>
-      <c r="CG27" s="56"/>
-      <c r="CH27" s="56"/>
-      <c r="CI27" s="56"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
+      <c r="CH27" s="49"/>
+      <c r="CI27" s="49"/>
     </row>
     <row r="28" spans="1:96" ht="15" customHeight="1">
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="S28" s="41" t="s">
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="S28" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="AT28" s="54"/>
+      <c r="AU28" s="54"/>
+      <c r="AV28" s="54"/>
+      <c r="AW28" s="54"/>
+      <c r="AX28" s="54"/>
+      <c r="AY28" s="54"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
       <c r="BL28" s="44" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="BM28" s="44"/>
       <c r="BN28" s="44"/>
       <c r="BO28" s="44"/>
       <c r="BP28" s="44"/>
       <c r="BQ28" s="44"/>
-      <c r="CD28" s="33" t="s">
+      <c r="CD28" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="CE28" s="33"/>
-      <c r="CF28" s="33"/>
-      <c r="CG28" s="33"/>
-      <c r="CH28" s="33"/>
-      <c r="CI28" s="33"/>
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="31"/>
+      <c r="CH28" s="31"/>
+      <c r="CI28" s="31"/>
     </row>
     <row r="29" spans="1:96" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
@@ -9917,28 +9917,28 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="57" t="s">
+      <c r="S29" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="BC29" s="33" t="s">
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="BC29" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="BD29" s="33"/>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="33"/>
-      <c r="BH29" s="33"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="31"/>
+      <c r="BG29" s="31"/>
+      <c r="BH29" s="31"/>
       <c r="BL29" s="44"/>
       <c r="BM29" s="44"/>
       <c r="BN29" s="44"/>
@@ -9960,17 +9960,17 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="47" t="s">
+      <c r="M30" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
       <c r="BC30" s="5" t="s">
         <v>104</v>
       </c>
@@ -9979,52 +9979,52 @@
       <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
-      <c r="BL30" s="33" t="s">
+      <c r="BL30" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="BM30" s="33"/>
-      <c r="BN30" s="33"/>
-      <c r="BO30" s="33"/>
-      <c r="BP30" s="33"/>
-      <c r="BQ30" s="33"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
       <c r="CD30" s="5" t="s">
         <v>134</v>
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
-      <c r="CG30" s="47" t="s">
+      <c r="CG30" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="CH30" s="48"/>
-      <c r="CI30" s="48"/>
+      <c r="CH30" s="46"/>
+      <c r="CI30" s="46"/>
     </row>
     <row r="31" spans="1:96">
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="S31" s="41" t="s">
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="S31" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
       <c r="BC31" s="5" t="s">
         <v>246</v>
       </c>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
-      <c r="BF31" s="47" t="s">
+      <c r="BF31" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="BG31" s="48"/>
-      <c r="BH31" s="48"/>
+      <c r="BG31" s="46"/>
+      <c r="BH31" s="46"/>
       <c r="BL31" s="5" t="s">
         <v>321</v>
       </c>
@@ -10033,22 +10033,22 @@
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
-      <c r="CD31" s="37" t="s">
+      <c r="CD31" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="CE31" s="37"/>
-      <c r="CF31" s="37"/>
-      <c r="CG31" s="37"/>
-      <c r="CH31" s="37"/>
-      <c r="CI31" s="37"/>
+      <c r="CE31" s="42"/>
+      <c r="CF31" s="42"/>
+      <c r="CG31" s="42"/>
+      <c r="CH31" s="42"/>
+      <c r="CI31" s="42"/>
     </row>
     <row r="32" spans="1:96" ht="15" customHeight="1">
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
       <c r="S32" s="44" t="s">
         <v>140</v>
       </c>
@@ -10057,24 +10057,24 @@
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
-      <c r="BC32" s="65" t="s">
+      <c r="BC32" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="BD32" s="65"/>
-      <c r="BE32" s="65"/>
-      <c r="BF32" s="65"/>
-      <c r="BG32" s="65"/>
-      <c r="BH32" s="65"/>
+      <c r="BD32" s="48"/>
+      <c r="BE32" s="48"/>
+      <c r="BF32" s="48"/>
+      <c r="BG32" s="48"/>
+      <c r="BH32" s="48"/>
       <c r="BL32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
-      <c r="BO32" s="47" t="s">
+      <c r="BO32" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BP32" s="48"/>
-      <c r="BQ32" s="48"/>
+      <c r="BP32" s="46"/>
+      <c r="BQ32" s="46"/>
       <c r="CD32" s="44" t="s">
         <v>150</v>
       </c>
@@ -10085,34 +10085,34 @@
       <c r="CI32" s="44"/>
     </row>
     <row r="33" spans="10:87">
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
       <c r="X33" s="44"/>
-      <c r="BC33" s="65"/>
-      <c r="BD33" s="65"/>
-      <c r="BE33" s="65"/>
-      <c r="BF33" s="65"/>
-      <c r="BG33" s="65"/>
-      <c r="BH33" s="65"/>
-      <c r="BL33" s="37" t="s">
+      <c r="BC33" s="48"/>
+      <c r="BD33" s="48"/>
+      <c r="BE33" s="48"/>
+      <c r="BF33" s="48"/>
+      <c r="BG33" s="48"/>
+      <c r="BH33" s="48"/>
+      <c r="BL33" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="BM33" s="37"/>
-      <c r="BN33" s="37"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="37"/>
-      <c r="BQ33" s="37"/>
+      <c r="BM33" s="42"/>
+      <c r="BN33" s="42"/>
+      <c r="BO33" s="42"/>
+      <c r="BP33" s="42"/>
+      <c r="BQ33" s="42"/>
       <c r="CD33" s="44"/>
       <c r="CE33" s="44"/>
       <c r="CF33" s="44"/>
@@ -10129,20 +10129,20 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="BC34" s="65"/>
-      <c r="BD34" s="65"/>
-      <c r="BE34" s="65"/>
-      <c r="BF34" s="65"/>
-      <c r="BG34" s="65"/>
-      <c r="BH34" s="65"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="BC34" s="48"/>
+      <c r="BD34" s="48"/>
+      <c r="BE34" s="48"/>
+      <c r="BF34" s="48"/>
+      <c r="BG34" s="48"/>
+      <c r="BH34" s="48"/>
       <c r="BL34" s="44" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="BM34" s="44"/>
       <c r="BN34" s="44"/>
@@ -10162,19 +10162,19 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="47" t="s">
+      <c r="M35" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="S35" s="33" t="s">
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="S35" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
       <c r="BC35" s="44" t="s">
         <v>250</v>
       </c>
@@ -10197,14 +10197,14 @@
       <c r="CI35" s="44"/>
     </row>
     <row r="36" spans="10:87" ht="15" customHeight="1">
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
       <c r="S36" s="5" t="s">
         <v>43</v>
       </c>
@@ -10219,36 +10219,42 @@
       <c r="BF36" s="44"/>
       <c r="BG36" s="44"/>
       <c r="BH36" s="44"/>
+      <c r="BL36" s="44"/>
+      <c r="BM36" s="44"/>
+      <c r="BN36" s="44"/>
+      <c r="BO36" s="44"/>
+      <c r="BP36" s="44"/>
+      <c r="BQ36" s="44"/>
       <c r="CD36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE36" s="46" t="s">
+      <c r="CE36" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="CF36" s="34"/>
-      <c r="CG36" s="34"/>
-      <c r="CH36" s="34"/>
-      <c r="CI36" s="34"/>
+      <c r="CF36" s="41"/>
+      <c r="CG36" s="41"/>
+      <c r="CH36" s="41"/>
+      <c r="CI36" s="41"/>
     </row>
     <row r="37" spans="10:87">
-      <c r="J37" s="41" t="s">
+      <c r="J37" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
       <c r="S37" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="47" t="s">
+      <c r="V37" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
       <c r="BC37" s="44"/>
       <c r="BD37" s="44"/>
       <c r="BE37" s="44"/>
@@ -10258,13 +10264,13 @@
       <c r="CD37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE37" s="46" t="s">
+      <c r="CE37" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="CF37" s="34"/>
-      <c r="CG37" s="34"/>
-      <c r="CH37" s="34"/>
-      <c r="CI37" s="34"/>
+      <c r="CF37" s="41"/>
+      <c r="CG37" s="41"/>
+      <c r="CH37" s="41"/>
+      <c r="CI37" s="41"/>
     </row>
     <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
@@ -10275,22 +10281,22 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="37" t="s">
+      <c r="S38" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="BC38" s="33" t="s">
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="BC38" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="33"/>
-      <c r="BG38" s="33"/>
-      <c r="BH38" s="33"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
       <c r="CD38" s="1" t="s">
         <v>7</v>
       </c>
@@ -10308,11 +10314,11 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="47" t="s">
+      <c r="M39" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
       <c r="S39" s="44" t="s">
         <v>150</v>
       </c>
@@ -10339,14 +10345,14 @@
       <c r="CI39" s="44"/>
     </row>
     <row r="40" spans="10:87" ht="15" customHeight="1">
-      <c r="J40" s="35" t="s">
+      <c r="J40" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="44"/>
@@ -10358,41 +10364,41 @@
       </c>
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
-      <c r="BF40" s="47" t="s">
+      <c r="BF40" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BG40" s="48"/>
-      <c r="BH40" s="48"/>
+      <c r="BG40" s="46"/>
+      <c r="BH40" s="46"/>
     </row>
     <row r="41" spans="10:87">
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
       <c r="V41" s="44"/>
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
-      <c r="BC41" s="37" t="s">
+      <c r="BC41" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="BD41" s="37"/>
-      <c r="BE41" s="37"/>
-      <c r="BF41" s="37"/>
-      <c r="BG41" s="37"/>
-      <c r="BH41" s="37"/>
+      <c r="BD41" s="42"/>
+      <c r="BE41" s="42"/>
+      <c r="BF41" s="42"/>
+      <c r="BG41" s="42"/>
+      <c r="BH41" s="42"/>
     </row>
     <row r="42" spans="10:87">
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
@@ -10412,13 +10418,13 @@
       <c r="S43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="46" t="s">
+      <c r="T43" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
       <c r="BC43" s="44"/>
       <c r="BD43" s="44"/>
       <c r="BE43" s="44"/>
@@ -10430,13 +10436,13 @@
       <c r="S44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T44" s="46" t="s">
+      <c r="T44" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
       <c r="BC44" s="44"/>
       <c r="BD44" s="44"/>
       <c r="BE44" s="44"/>
@@ -10467,24 +10473,24 @@
       <c r="X46" s="44"/>
     </row>
     <row r="48" spans="10:87">
-      <c r="CD48" s="41" t="s">
+      <c r="CD48" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="CE48" s="42"/>
-      <c r="CF48" s="42"/>
-      <c r="CG48" s="42"/>
-      <c r="CH48" s="42"/>
-      <c r="CI48" s="42"/>
+      <c r="CE48" s="38"/>
+      <c r="CF48" s="38"/>
+      <c r="CG48" s="38"/>
+      <c r="CH48" s="38"/>
+      <c r="CI48" s="38"/>
     </row>
     <row r="49" spans="55:87">
-      <c r="BC49" s="41" t="s">
+      <c r="BC49" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="BD49" s="41"/>
-      <c r="BE49" s="41"/>
-      <c r="BF49" s="41"/>
-      <c r="BG49" s="41"/>
-      <c r="BH49" s="41"/>
+      <c r="BD49" s="37"/>
+      <c r="BE49" s="37"/>
+      <c r="BF49" s="37"/>
+      <c r="BG49" s="37"/>
+      <c r="BH49" s="37"/>
       <c r="CD49" s="5" t="s">
         <v>62</v>
       </c>
@@ -10508,11 +10514,11 @@
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" s="1"/>
-      <c r="CG50" s="47" t="s">
+      <c r="CG50" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="CH50" s="48"/>
-      <c r="CI50" s="48"/>
+      <c r="CH50" s="46"/>
+      <c r="CI50" s="46"/>
     </row>
     <row r="51" spans="55:87" ht="15" customHeight="1">
       <c r="BC51" s="5" t="s">
@@ -10520,37 +10526,37 @@
       </c>
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
-      <c r="BF51" s="47" t="s">
+      <c r="BF51" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="BG51" s="47"/>
-      <c r="BH51" s="47"/>
-      <c r="BL51" s="41" t="s">
+      <c r="BG51" s="45"/>
+      <c r="BH51" s="45"/>
+      <c r="BL51" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="BM51" s="41"/>
-      <c r="BN51" s="41"/>
-      <c r="BO51" s="41"/>
-      <c r="BP51" s="41"/>
-      <c r="BQ51" s="41"/>
-      <c r="CD51" s="35" t="s">
+      <c r="BM51" s="37"/>
+      <c r="BN51" s="37"/>
+      <c r="BO51" s="37"/>
+      <c r="BP51" s="37"/>
+      <c r="BQ51" s="37"/>
+      <c r="CD51" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="CE51" s="35"/>
-      <c r="CF51" s="35"/>
-      <c r="CG51" s="35"/>
-      <c r="CH51" s="35"/>
-      <c r="CI51" s="35"/>
+      <c r="CE51" s="39"/>
+      <c r="CF51" s="39"/>
+      <c r="CG51" s="39"/>
+      <c r="CH51" s="39"/>
+      <c r="CI51" s="39"/>
     </row>
     <row r="52" spans="55:87">
-      <c r="BC52" s="35" t="s">
+      <c r="BC52" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="BD52" s="35"/>
-      <c r="BE52" s="35"/>
-      <c r="BF52" s="35"/>
-      <c r="BG52" s="35"/>
-      <c r="BH52" s="35"/>
+      <c r="BD52" s="39"/>
+      <c r="BE52" s="39"/>
+      <c r="BF52" s="39"/>
+      <c r="BG52" s="39"/>
+      <c r="BH52" s="39"/>
       <c r="BL52" s="5" t="s">
         <v>98</v>
       </c>
@@ -10559,20 +10565,20 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
       <c r="BQ52" s="1"/>
-      <c r="CD52" s="35"/>
-      <c r="CE52" s="35"/>
-      <c r="CF52" s="35"/>
-      <c r="CG52" s="35"/>
-      <c r="CH52" s="35"/>
-      <c r="CI52" s="35"/>
+      <c r="CD52" s="39"/>
+      <c r="CE52" s="39"/>
+      <c r="CF52" s="39"/>
+      <c r="CG52" s="39"/>
+      <c r="CH52" s="39"/>
+      <c r="CI52" s="39"/>
     </row>
     <row r="53" spans="55:87">
-      <c r="BC53" s="36"/>
-      <c r="BD53" s="36"/>
-      <c r="BE53" s="36"/>
-      <c r="BF53" s="36"/>
-      <c r="BG53" s="36"/>
-      <c r="BH53" s="36"/>
+      <c r="BC53" s="40"/>
+      <c r="BD53" s="40"/>
+      <c r="BE53" s="40"/>
+      <c r="BF53" s="40"/>
+      <c r="BG53" s="40"/>
+      <c r="BH53" s="40"/>
       <c r="BL53" s="5" t="s">
         <v>308</v>
       </c>
@@ -10583,32 +10589,32 @@
       <c r="BQ53" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="CD53" s="41" t="s">
+      <c r="CD53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="CE53" s="42"/>
-      <c r="CF53" s="42"/>
-      <c r="CG53" s="42"/>
-      <c r="CH53" s="42"/>
-      <c r="CI53" s="42"/>
+      <c r="CE53" s="38"/>
+      <c r="CF53" s="38"/>
+      <c r="CG53" s="38"/>
+      <c r="CH53" s="38"/>
+      <c r="CI53" s="38"/>
     </row>
     <row r="54" spans="55:87">
-      <c r="BC54" s="41" t="s">
+      <c r="BC54" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="BD54" s="41"/>
-      <c r="BE54" s="41"/>
-      <c r="BF54" s="41"/>
-      <c r="BG54" s="41"/>
-      <c r="BH54" s="41"/>
-      <c r="BL54" s="35" t="s">
+      <c r="BD54" s="37"/>
+      <c r="BE54" s="37"/>
+      <c r="BF54" s="37"/>
+      <c r="BG54" s="37"/>
+      <c r="BH54" s="37"/>
+      <c r="BL54" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="BM54" s="35"/>
-      <c r="BN54" s="35"/>
-      <c r="BO54" s="35"/>
-      <c r="BP54" s="35"/>
-      <c r="BQ54" s="35"/>
+      <c r="BM54" s="39"/>
+      <c r="BN54" s="39"/>
+      <c r="BO54" s="39"/>
+      <c r="BP54" s="39"/>
+      <c r="BQ54" s="39"/>
       <c r="CD54" s="5" t="s">
         <v>98</v>
       </c>
@@ -10630,23 +10636,23 @@
       <c r="BL55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM55" s="46" t="s">
+      <c r="BM55" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="BN55" s="34"/>
-      <c r="BO55" s="34"/>
-      <c r="BP55" s="34"/>
-      <c r="BQ55" s="34"/>
+      <c r="BN55" s="41"/>
+      <c r="BO55" s="41"/>
+      <c r="BP55" s="41"/>
+      <c r="BQ55" s="41"/>
       <c r="CD55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" s="1"/>
-      <c r="CG55" s="47" t="s">
+      <c r="CG55" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="CH55" s="48"/>
-      <c r="CI55" s="48"/>
+      <c r="CH55" s="46"/>
+      <c r="CI55" s="46"/>
     </row>
     <row r="56" spans="55:87">
       <c r="BC56" s="5" t="s">
@@ -10654,39 +10660,39 @@
       </c>
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
-      <c r="BF56" s="47" t="s">
+      <c r="BF56" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="BG56" s="47"/>
-      <c r="BH56" s="47"/>
+      <c r="BG56" s="45"/>
+      <c r="BH56" s="45"/>
       <c r="BL56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM56" s="46" t="s">
+      <c r="BM56" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="BN56" s="34"/>
-      <c r="BO56" s="34"/>
-      <c r="BP56" s="34"/>
-      <c r="BQ56" s="34"/>
-      <c r="CD56" s="35" t="s">
+      <c r="BN56" s="41"/>
+      <c r="BO56" s="41"/>
+      <c r="BP56" s="41"/>
+      <c r="BQ56" s="41"/>
+      <c r="CD56" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="CE56" s="35"/>
-      <c r="CF56" s="35"/>
-      <c r="CG56" s="35"/>
-      <c r="CH56" s="35"/>
-      <c r="CI56" s="35"/>
+      <c r="CE56" s="39"/>
+      <c r="CF56" s="39"/>
+      <c r="CG56" s="39"/>
+      <c r="CH56" s="39"/>
+      <c r="CI56" s="39"/>
     </row>
     <row r="57" spans="55:87">
-      <c r="BC57" s="35" t="s">
+      <c r="BC57" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="BD57" s="35"/>
-      <c r="BE57" s="35"/>
-      <c r="BF57" s="35"/>
-      <c r="BG57" s="35"/>
-      <c r="BH57" s="35"/>
+      <c r="BD57" s="39"/>
+      <c r="BE57" s="39"/>
+      <c r="BF57" s="39"/>
+      <c r="BG57" s="39"/>
+      <c r="BH57" s="39"/>
       <c r="BL57" s="1" t="s">
         <v>7</v>
       </c>
@@ -10697,30 +10703,30 @@
       <c r="BO57" s="7"/>
       <c r="BP57" s="7"/>
       <c r="BQ57" s="7"/>
-      <c r="CD57" s="41" t="s">
+      <c r="CD57" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="CE57" s="42"/>
-      <c r="CF57" s="42"/>
-      <c r="CG57" s="42"/>
-      <c r="CH57" s="42"/>
-      <c r="CI57" s="42"/>
+      <c r="CE57" s="38"/>
+      <c r="CF57" s="38"/>
+      <c r="CG57" s="38"/>
+      <c r="CH57" s="38"/>
+      <c r="CI57" s="38"/>
     </row>
     <row r="58" spans="55:87" ht="15" customHeight="1">
-      <c r="BC58" s="36"/>
-      <c r="BD58" s="36"/>
-      <c r="BE58" s="36"/>
-      <c r="BF58" s="36"/>
-      <c r="BG58" s="36"/>
-      <c r="BH58" s="36"/>
-      <c r="BL58" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="BM58" s="41"/>
-      <c r="BN58" s="41"/>
-      <c r="BO58" s="41"/>
-      <c r="BP58" s="41"/>
-      <c r="BQ58" s="41"/>
+      <c r="BC58" s="40"/>
+      <c r="BD58" s="40"/>
+      <c r="BE58" s="40"/>
+      <c r="BF58" s="40"/>
+      <c r="BG58" s="40"/>
+      <c r="BH58" s="40"/>
+      <c r="BL58" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="BM58" s="37"/>
+      <c r="BN58" s="37"/>
+      <c r="BO58" s="37"/>
+      <c r="BP58" s="37"/>
+      <c r="BQ58" s="37"/>
       <c r="CD58" s="5" t="s">
         <v>104</v>
       </c>
@@ -10731,16 +10737,16 @@
       <c r="CI58" s="1"/>
     </row>
     <row r="59" spans="55:87">
-      <c r="BC59" s="41" t="s">
+      <c r="BC59" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="BD59" s="41"/>
-      <c r="BE59" s="41"/>
-      <c r="BF59" s="41"/>
-      <c r="BG59" s="41"/>
-      <c r="BH59" s="41"/>
+      <c r="BD59" s="37"/>
+      <c r="BE59" s="37"/>
+      <c r="BF59" s="37"/>
+      <c r="BG59" s="37"/>
+      <c r="BH59" s="37"/>
       <c r="BL59" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
@@ -10752,11 +10758,11 @@
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
-      <c r="CG59" s="47" t="s">
+      <c r="CG59" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="CH59" s="48"/>
-      <c r="CI59" s="48"/>
+      <c r="CH59" s="46"/>
+      <c r="CI59" s="46"/>
     </row>
     <row r="60" spans="55:87" ht="15" customHeight="1">
       <c r="BC60" s="5" t="s">
@@ -10772,19 +10778,19 @@
       </c>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="47" t="s">
+      <c r="BO60" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BP60" s="47"/>
-      <c r="BQ60" s="47"/>
-      <c r="CD60" s="35" t="s">
+      <c r="BP60" s="45"/>
+      <c r="BQ60" s="45"/>
+      <c r="CD60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="CE60" s="35"/>
-      <c r="CF60" s="35"/>
-      <c r="CG60" s="35"/>
-      <c r="CH60" s="35"/>
-      <c r="CI60" s="35"/>
+      <c r="CE60" s="39"/>
+      <c r="CF60" s="39"/>
+      <c r="CG60" s="39"/>
+      <c r="CH60" s="39"/>
+      <c r="CI60" s="39"/>
     </row>
     <row r="61" spans="55:87">
       <c r="BC61" s="5" t="s">
@@ -10792,77 +10798,77 @@
       </c>
       <c r="BD61" s="1"/>
       <c r="BE61" s="1"/>
-      <c r="BF61" s="47" t="s">
+      <c r="BF61" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BG61" s="48"/>
-      <c r="BH61" s="48"/>
-      <c r="BL61" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM61" s="35"/>
-      <c r="BN61" s="35"/>
-      <c r="BO61" s="35"/>
-      <c r="BP61" s="35"/>
-      <c r="BQ61" s="35"/>
-      <c r="CD61" s="35"/>
-      <c r="CE61" s="35"/>
-      <c r="CF61" s="35"/>
-      <c r="CG61" s="35"/>
-      <c r="CH61" s="35"/>
-      <c r="CI61" s="35"/>
+      <c r="BG61" s="46"/>
+      <c r="BH61" s="46"/>
+      <c r="BL61" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM61" s="39"/>
+      <c r="BN61" s="39"/>
+      <c r="BO61" s="39"/>
+      <c r="BP61" s="39"/>
+      <c r="BQ61" s="39"/>
+      <c r="CD61" s="39"/>
+      <c r="CE61" s="39"/>
+      <c r="CF61" s="39"/>
+      <c r="CG61" s="39"/>
+      <c r="CH61" s="39"/>
+      <c r="CI61" s="39"/>
     </row>
     <row r="62" spans="55:87">
-      <c r="BC62" s="35" t="s">
+      <c r="BC62" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="BD62" s="35"/>
-      <c r="BE62" s="35"/>
-      <c r="BF62" s="35"/>
-      <c r="BG62" s="35"/>
-      <c r="BH62" s="35"/>
-      <c r="BL62" s="35"/>
-      <c r="BM62" s="35"/>
-      <c r="BN62" s="35"/>
-      <c r="BO62" s="35"/>
-      <c r="BP62" s="35"/>
-      <c r="BQ62" s="35"/>
-      <c r="CD62" s="35"/>
-      <c r="CE62" s="35"/>
-      <c r="CF62" s="35"/>
-      <c r="CG62" s="35"/>
-      <c r="CH62" s="35"/>
-      <c r="CI62" s="35"/>
+      <c r="BD62" s="39"/>
+      <c r="BE62" s="39"/>
+      <c r="BF62" s="39"/>
+      <c r="BG62" s="39"/>
+      <c r="BH62" s="39"/>
+      <c r="BL62" s="39"/>
+      <c r="BM62" s="39"/>
+      <c r="BN62" s="39"/>
+      <c r="BO62" s="39"/>
+      <c r="BP62" s="39"/>
+      <c r="BQ62" s="39"/>
+      <c r="CD62" s="39"/>
+      <c r="CE62" s="39"/>
+      <c r="CF62" s="39"/>
+      <c r="CG62" s="39"/>
+      <c r="CH62" s="39"/>
+      <c r="CI62" s="39"/>
     </row>
     <row r="63" spans="55:87">
-      <c r="BC63" s="35"/>
-      <c r="BD63" s="35"/>
-      <c r="BE63" s="35"/>
-      <c r="BF63" s="35"/>
-      <c r="BG63" s="35"/>
-      <c r="BH63" s="35"/>
-      <c r="BL63" s="36"/>
-      <c r="BM63" s="36"/>
-      <c r="BN63" s="36"/>
-      <c r="BO63" s="36"/>
-      <c r="BP63" s="36"/>
-      <c r="BQ63" s="36"/>
+      <c r="BC63" s="39"/>
+      <c r="BD63" s="39"/>
+      <c r="BE63" s="39"/>
+      <c r="BF63" s="39"/>
+      <c r="BG63" s="39"/>
+      <c r="BH63" s="39"/>
+      <c r="BL63" s="40"/>
+      <c r="BM63" s="40"/>
+      <c r="BN63" s="40"/>
+      <c r="BO63" s="40"/>
+      <c r="BP63" s="40"/>
+      <c r="BQ63" s="40"/>
     </row>
     <row r="64" spans="55:87" ht="15" customHeight="1">
-      <c r="BC64" s="35"/>
-      <c r="BD64" s="35"/>
-      <c r="BE64" s="35"/>
-      <c r="BF64" s="35"/>
-      <c r="BG64" s="35"/>
-      <c r="BH64" s="35"/>
-      <c r="BL64" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="BM64" s="41"/>
-      <c r="BN64" s="41"/>
-      <c r="BO64" s="41"/>
-      <c r="BP64" s="41"/>
-      <c r="BQ64" s="41"/>
+      <c r="BC64" s="39"/>
+      <c r="BD64" s="39"/>
+      <c r="BE64" s="39"/>
+      <c r="BF64" s="39"/>
+      <c r="BG64" s="39"/>
+      <c r="BH64" s="39"/>
+      <c r="BL64" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="BM64" s="37"/>
+      <c r="BN64" s="37"/>
+      <c r="BO64" s="37"/>
+      <c r="BP64" s="37"/>
+      <c r="BQ64" s="37"/>
     </row>
     <row r="65" spans="64:69">
       <c r="BL65" s="5" t="s">
@@ -10880,56 +10886,251 @@
       </c>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
-      <c r="BO66" s="47" t="s">
+      <c r="BO66" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BP66" s="48"/>
-      <c r="BQ66" s="48"/>
+      <c r="BP66" s="46"/>
+      <c r="BQ66" s="46"/>
     </row>
     <row r="67" spans="64:69">
-      <c r="BL67" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="BM67" s="35"/>
-      <c r="BN67" s="35"/>
-      <c r="BO67" s="35"/>
-      <c r="BP67" s="35"/>
-      <c r="BQ67" s="35"/>
+      <c r="BL67" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM67" s="39"/>
+      <c r="BN67" s="39"/>
+      <c r="BO67" s="39"/>
+      <c r="BP67" s="39"/>
+      <c r="BQ67" s="39"/>
     </row>
     <row r="68" spans="64:69">
-      <c r="BL68" s="35"/>
-      <c r="BM68" s="35"/>
-      <c r="BN68" s="35"/>
-      <c r="BO68" s="35"/>
-      <c r="BP68" s="35"/>
-      <c r="BQ68" s="35"/>
+      <c r="BL68" s="39"/>
+      <c r="BM68" s="39"/>
+      <c r="BN68" s="39"/>
+      <c r="BO68" s="39"/>
+      <c r="BP68" s="39"/>
+      <c r="BQ68" s="39"/>
     </row>
     <row r="69" spans="64:69">
-      <c r="BL69" s="35"/>
-      <c r="BM69" s="35"/>
-      <c r="BN69" s="35"/>
-      <c r="BO69" s="35"/>
-      <c r="BP69" s="35"/>
-      <c r="BQ69" s="35"/>
+      <c r="BL69" s="39"/>
+      <c r="BM69" s="39"/>
+      <c r="BN69" s="39"/>
+      <c r="BO69" s="39"/>
+      <c r="BP69" s="39"/>
+      <c r="BQ69" s="39"/>
     </row>
     <row r="70" spans="64:69">
-      <c r="BL70" s="35"/>
-      <c r="BM70" s="35"/>
-      <c r="BN70" s="35"/>
-      <c r="BO70" s="35"/>
-      <c r="BP70" s="35"/>
-      <c r="BQ70" s="35"/>
+      <c r="BL70" s="39"/>
+      <c r="BM70" s="39"/>
+      <c r="BN70" s="39"/>
+      <c r="BO70" s="39"/>
+      <c r="BP70" s="39"/>
+      <c r="BQ70" s="39"/>
     </row>
     <row r="71" spans="64:69">
-      <c r="BL71" s="35"/>
-      <c r="BM71" s="35"/>
-      <c r="BN71" s="35"/>
-      <c r="BO71" s="35"/>
-      <c r="BP71" s="35"/>
-      <c r="BQ71" s="35"/>
+      <c r="BL71" s="39"/>
+      <c r="BM71" s="39"/>
+      <c r="BN71" s="39"/>
+      <c r="BO71" s="39"/>
+      <c r="BP71" s="39"/>
+      <c r="BQ71" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="219">
+    <mergeCell ref="BL67:BQ71"/>
+    <mergeCell ref="BL12:BQ12"/>
+    <mergeCell ref="BL13:BQ14"/>
+    <mergeCell ref="BU17:BZ23"/>
+    <mergeCell ref="BL54:BQ54"/>
+    <mergeCell ref="BM55:BQ55"/>
+    <mergeCell ref="BM56:BQ56"/>
+    <mergeCell ref="BL9:BQ11"/>
+    <mergeCell ref="BL15:BQ15"/>
+    <mergeCell ref="BL16:BQ17"/>
+    <mergeCell ref="BL24:BQ24"/>
+    <mergeCell ref="BL28:BQ29"/>
+    <mergeCell ref="BL61:BQ63"/>
+    <mergeCell ref="BO32:BQ32"/>
+    <mergeCell ref="BL33:BQ33"/>
+    <mergeCell ref="BM23:BQ23"/>
+    <mergeCell ref="BL25:BQ25"/>
+    <mergeCell ref="BL34:BQ36"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="S10:X12"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB16:AG17"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AB13:AG14"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="S32:X34"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="S39:X42"/>
+    <mergeCell ref="S29:X30"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="S19:X21"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J31:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J25:O27"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AT6:AY6"/>
+    <mergeCell ref="AT7:AY7"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AK20:AP20"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="BC6:BH6"/>
+    <mergeCell ref="AK16:AP17"/>
+    <mergeCell ref="AK21:AP23"/>
+    <mergeCell ref="AT23:AY25"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK18:AP19"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AT26:AY26"/>
+    <mergeCell ref="AT22:AY22"/>
+    <mergeCell ref="BD12:BH12"/>
+    <mergeCell ref="BC13:BH14"/>
+    <mergeCell ref="BC15:BH15"/>
+    <mergeCell ref="BC7:BH7"/>
+    <mergeCell ref="BD10:BH10"/>
+    <mergeCell ref="BD11:BH11"/>
+    <mergeCell ref="BC18:BH20"/>
+    <mergeCell ref="CD31:CI31"/>
+    <mergeCell ref="CD32:CI35"/>
+    <mergeCell ref="CD6:CI6"/>
+    <mergeCell ref="CD7:CI7"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="CE12:CI12"/>
+    <mergeCell ref="CD13:CI14"/>
+    <mergeCell ref="CD15:CI15"/>
+    <mergeCell ref="CE18:CI18"/>
+    <mergeCell ref="CE19:CI19"/>
+    <mergeCell ref="AT13:AY13"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="BC49:BH49"/>
+    <mergeCell ref="BF51:BH51"/>
+    <mergeCell ref="BC52:BH53"/>
+    <mergeCell ref="BC54:BH54"/>
+    <mergeCell ref="BF56:BH56"/>
+    <mergeCell ref="AT27:AY29"/>
+    <mergeCell ref="BC21:BH21"/>
+    <mergeCell ref="BC22:BH24"/>
+    <mergeCell ref="BC42:BH44"/>
+    <mergeCell ref="BC26:BH28"/>
+    <mergeCell ref="BC38:BH38"/>
+    <mergeCell ref="BF40:BH40"/>
+    <mergeCell ref="BC41:BH41"/>
+    <mergeCell ref="BC25:BH25"/>
+    <mergeCell ref="BC29:BH29"/>
+    <mergeCell ref="AT16:AY21"/>
+    <mergeCell ref="BL7:BQ8"/>
+    <mergeCell ref="BL18:BQ18"/>
+    <mergeCell ref="BL30:BQ30"/>
+    <mergeCell ref="CD56:CI56"/>
+    <mergeCell ref="CD57:CI57"/>
+    <mergeCell ref="CG59:CI59"/>
+    <mergeCell ref="CD60:CI62"/>
+    <mergeCell ref="BF61:BH61"/>
+    <mergeCell ref="BC62:BH64"/>
+    <mergeCell ref="CE20:CI20"/>
+    <mergeCell ref="CD21:CI21"/>
+    <mergeCell ref="CD22:CI23"/>
+    <mergeCell ref="CD24:CI24"/>
+    <mergeCell ref="CD48:CI48"/>
+    <mergeCell ref="CG50:CI50"/>
+    <mergeCell ref="CD51:CI52"/>
+    <mergeCell ref="CD53:CI53"/>
+    <mergeCell ref="CG55:CI55"/>
+    <mergeCell ref="CE36:CI36"/>
+    <mergeCell ref="CE37:CI37"/>
+    <mergeCell ref="CD39:CI39"/>
+    <mergeCell ref="CD25:CI27"/>
+    <mergeCell ref="CD28:CI28"/>
+    <mergeCell ref="CG30:CI30"/>
+    <mergeCell ref="BU2:BZ3"/>
+    <mergeCell ref="BU16:BZ16"/>
+    <mergeCell ref="BU11:BZ12"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BU4:BZ4"/>
+    <mergeCell ref="BU5:BZ6"/>
+    <mergeCell ref="BU7:BZ7"/>
+    <mergeCell ref="BU8:BZ9"/>
+    <mergeCell ref="BU10:BZ10"/>
+    <mergeCell ref="BV14:BZ14"/>
+    <mergeCell ref="BV15:BZ15"/>
     <mergeCell ref="CM20:CR26"/>
     <mergeCell ref="BO66:BQ66"/>
     <mergeCell ref="BC59:BH59"/>
@@ -10954,201 +11155,6 @@
     <mergeCell ref="BC35:BH37"/>
     <mergeCell ref="BL5:BQ5"/>
     <mergeCell ref="BL6:BQ6"/>
-    <mergeCell ref="BU2:BZ3"/>
-    <mergeCell ref="BU16:BZ16"/>
-    <mergeCell ref="BU11:BZ12"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BU4:BZ4"/>
-    <mergeCell ref="BU5:BZ6"/>
-    <mergeCell ref="BU7:BZ7"/>
-    <mergeCell ref="BU8:BZ9"/>
-    <mergeCell ref="BU10:BZ10"/>
-    <mergeCell ref="BV14:BZ14"/>
-    <mergeCell ref="BV15:BZ15"/>
-    <mergeCell ref="BL7:BQ8"/>
-    <mergeCell ref="BL18:BQ18"/>
-    <mergeCell ref="BL30:BQ30"/>
-    <mergeCell ref="CD56:CI56"/>
-    <mergeCell ref="CD57:CI57"/>
-    <mergeCell ref="CG59:CI59"/>
-    <mergeCell ref="CD60:CI62"/>
-    <mergeCell ref="BF61:BH61"/>
-    <mergeCell ref="BC62:BH64"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CD21:CI21"/>
-    <mergeCell ref="CD22:CI23"/>
-    <mergeCell ref="CD24:CI24"/>
-    <mergeCell ref="CD48:CI48"/>
-    <mergeCell ref="CG50:CI50"/>
-    <mergeCell ref="CD51:CI52"/>
-    <mergeCell ref="CD53:CI53"/>
-    <mergeCell ref="CG55:CI55"/>
-    <mergeCell ref="CE36:CI36"/>
-    <mergeCell ref="CE37:CI37"/>
-    <mergeCell ref="CD39:CI39"/>
-    <mergeCell ref="CD25:CI27"/>
-    <mergeCell ref="CD28:CI28"/>
-    <mergeCell ref="CG30:CI30"/>
-    <mergeCell ref="AT13:AY13"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="BC49:BH49"/>
-    <mergeCell ref="BF51:BH51"/>
-    <mergeCell ref="BC52:BH53"/>
-    <mergeCell ref="BC54:BH54"/>
-    <mergeCell ref="BF56:BH56"/>
-    <mergeCell ref="AT27:AY29"/>
-    <mergeCell ref="BC21:BH21"/>
-    <mergeCell ref="BC22:BH24"/>
-    <mergeCell ref="BC42:BH44"/>
-    <mergeCell ref="BC26:BH28"/>
-    <mergeCell ref="BC38:BH38"/>
-    <mergeCell ref="BF40:BH40"/>
-    <mergeCell ref="BC41:BH41"/>
-    <mergeCell ref="BC25:BH25"/>
-    <mergeCell ref="BC29:BH29"/>
-    <mergeCell ref="AT16:AY21"/>
-    <mergeCell ref="CD31:CI31"/>
-    <mergeCell ref="CD32:CI35"/>
-    <mergeCell ref="CD6:CI6"/>
-    <mergeCell ref="CD7:CI7"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="CE12:CI12"/>
-    <mergeCell ref="CD13:CI14"/>
-    <mergeCell ref="CD15:CI15"/>
-    <mergeCell ref="CE18:CI18"/>
-    <mergeCell ref="CE19:CI19"/>
-    <mergeCell ref="BC6:BH6"/>
-    <mergeCell ref="AK16:AP17"/>
-    <mergeCell ref="AK21:AP23"/>
-    <mergeCell ref="AT23:AY25"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK18:AP19"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AT26:AY26"/>
-    <mergeCell ref="AT22:AY22"/>
-    <mergeCell ref="BD12:BH12"/>
-    <mergeCell ref="BC13:BH14"/>
-    <mergeCell ref="BC15:BH15"/>
-    <mergeCell ref="BC7:BH7"/>
-    <mergeCell ref="BD10:BH10"/>
-    <mergeCell ref="BD11:BH11"/>
-    <mergeCell ref="BC18:BH20"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AT6:AY6"/>
-    <mergeCell ref="AT7:AY7"/>
-    <mergeCell ref="AU10:AY10"/>
-    <mergeCell ref="AU11:AY11"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AK20:AP20"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="S19:X21"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J31:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J25:O27"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="S32:X34"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="S39:X42"/>
-    <mergeCell ref="S29:X30"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="S10:X12"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB16:AG17"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AB13:AG14"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="BL67:BQ71"/>
-    <mergeCell ref="BL12:BQ12"/>
-    <mergeCell ref="BL13:BQ14"/>
-    <mergeCell ref="BU17:BZ23"/>
-    <mergeCell ref="BL54:BQ54"/>
-    <mergeCell ref="BM55:BQ55"/>
-    <mergeCell ref="BM56:BQ56"/>
-    <mergeCell ref="BL9:BQ11"/>
-    <mergeCell ref="BL15:BQ15"/>
-    <mergeCell ref="BL16:BQ17"/>
-    <mergeCell ref="BL34:BQ35"/>
-    <mergeCell ref="BL24:BQ24"/>
-    <mergeCell ref="BL28:BQ29"/>
-    <mergeCell ref="BL61:BQ63"/>
-    <mergeCell ref="BO32:BQ32"/>
-    <mergeCell ref="BL33:BQ33"/>
-    <mergeCell ref="BM23:BQ23"/>
-    <mergeCell ref="BL25:BQ25"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11171,54 +11177,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="J1" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="S1" s="62" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="S1" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="AB1" s="67" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="AB1" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69" t="s">
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AK1" s="72" t="s">
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AK1" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
@@ -11289,40 +11295,40 @@
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="66"/>
+      <c r="O3" s="68"/>
       <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="66" t="s">
+      <c r="W3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="66"/>
+      <c r="X3" s="68"/>
       <c r="AB3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="66" t="s">
+      <c r="AF3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="66"/>
+      <c r="AG3" s="68"/>
       <c r="AK3" s="5" t="s">
         <v>173</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="66" t="s">
+      <c r="AO3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="AP3" s="66"/>
+      <c r="AP3" s="68"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
@@ -11341,38 +11347,38 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="37"/>
+      <c r="O4" s="42"/>
       <c r="S4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="37"/>
+      <c r="X4" s="42"/>
       <c r="AB4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="37" t="s">
+      <c r="AF4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="37"/>
+      <c r="AG4" s="42"/>
       <c r="AK4" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="1"/>
@@ -11383,90 +11389,90 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="S5" s="31" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="S5" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="AB5" s="31" t="s">
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="AB5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AK5" s="31" t="s">
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AK5" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="J6" s="33" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="J6" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="S6" s="33" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="S6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="AB6" s="33" t="s">
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="AB6" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AK6" s="41" t="s">
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AK6" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
@@ -11491,14 +11497,14 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AK7" s="53" t="s">
+      <c r="AK7" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
@@ -11514,37 +11520,37 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
       <c r="S8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="47" t="s">
+      <c r="V8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
       <c r="AB8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="47" t="s">
+      <c r="AE8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
@@ -11552,131 +11558,131 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="J9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="AB9" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="AB9" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="T10" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="S11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="46" t="s">
+      <c r="AC11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
@@ -11685,36 +11691,36 @@
       <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="J12" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="S12" s="41" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="S12" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
       <c r="AB12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="46" t="s">
+      <c r="AC12" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -11723,62 +11729,62 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="S13" s="54" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="S13" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="46" t="s">
+      <c r="AC13" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="J14" s="41" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="J14" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="AB14" s="41" t="s">
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="AB14" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
     </row>
     <row r="15" spans="1:42" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -11789,30 +11795,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="S15" s="41" t="s">
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="S15" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="AB15" s="54" t="s">
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="AB15" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
@@ -11820,229 +11826,178 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="S16" s="54" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="S16" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="AB17" s="41" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="AB17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="AB18" s="53" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="AB18" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="AB21" s="41" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="AB21" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="AB22" s="53" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="AB22" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="54"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="AK7:AP10"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK5:AP5"/>
-    <mergeCell ref="AB15:AG16"/>
-    <mergeCell ref="AB9:AG10"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG20"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="J15:O16"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D9:F9"/>
     <mergeCell ref="AB21:AG21"/>
     <mergeCell ref="AB22:AG24"/>
     <mergeCell ref="S6:X6"/>
@@ -12059,6 +12014,57 @@
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="S12:X12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J15:O16"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AB15:AG16"/>
+    <mergeCell ref="AB9:AG10"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG20"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AK7:AP10"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK5:AP5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adventures/ivywatch/working/monsters.xlsx
+++ b/adventures/ivywatch/working/monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\drawsteel\_products\adventures\ivywatch\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23456EC4-FD4B-416B-8CAD-F7F7FD0E87E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C603412-A031-4483-BC57-5662B34D0FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="780" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
+    <workbookView xWindow="1230" yWindow="810" windowWidth="20475" windowHeight="14100" activeTab="2" xr2:uid="{918A4370-6BD2-4549-B40B-132AC3F5AF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -5539,21 +5539,6 @@
   </si>
   <si>
     <r>
-      <t>Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A tormented creature grows all over their body faces that scream in pain and whisper evil thoughts. The creature is frightened of Excrucior. At the start of each of the creature's turns, they must attempt to cut off the faces, taking damage that can't be reduced in any way equal to 2d6 + their Might score. If the creature takes 10 or more damage, the effect is ended.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -6662,29 +6647,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5x5 cube</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Where The Fear Has Gone There Will Be Nothing </t>
     </r>
     <r>
@@ -6898,78 +6860,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> within distance. Any enemies occupying the space the sigil is summoned into take 8 corruption damage. The sigil immediately uses the All The World Must Suffer ability.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The sigil teleport all enemies within its area to unoccupied spaces adjacent to its area. Additionally, the sigil summons a squad of a number of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tormented albëoq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to 2 + the tier outcome of the power roll to unoccupied squares within the sigil's area. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Effect </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Each tormented target takes 10 damage as the faces on their body explode and the target is no longer tormented. Each target that isn't tormented is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P &lt; 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tormented. All sigils of torment within 1 of any target immediately use the All The World Must Suffer ability.</t>
     </r>
   </si>
   <si>
@@ -7193,6 +7083,116 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Signature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Each tormented target takes 18 damage as the faces on their body explode and the target is no longer tormented. Each target that isn't tormented is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P &lt; 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tormented. All sigils of torment within 1 of any target immediately use the All The World Must Suffer ability.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A tormented creature grows all over their body faces that scream in pain and whisper evil thoughts. The creature is frightened of Excrucior. At the start of each of the creature's turns, they must attempt to cut off the faces as a free triggered action, taking damage that can't be reduced in any way equal to 2d6 + their Might score. If the creature takes 10 or more damage, the effect is ended.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4x4 cube</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The sigil teleport all enemies within its area to unoccupied spaces adjacent to its area. Additionally, the sigil summons a squad of a number of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wobalas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> equal to 2 + the tier outcome of the power roll to unoccupied squares within the sigil's area. </t>
     </r>
   </si>
 </sst>
@@ -7398,7 +7398,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -7458,6 +7458,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7467,14 +7473,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -7486,40 +7496,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7527,36 +7506,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7570,9 +7521,54 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7587,6 +7583,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -7936,16 +7939,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
@@ -7957,10 +7960,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="38"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
@@ -8086,50 +8089,50 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
@@ -8185,11 +8188,11 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
@@ -8198,125 +8201,125 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="L12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="L14" s="45" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="L14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="L18" s="37" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="L18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
@@ -8342,102 +8345,115 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
       <c r="L20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="48" t="s">
+      <c r="O20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="L21" s="40" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="L21" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="L23" s="43" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="L23" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A14:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="L24:Q25"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L7:Q7"/>
@@ -8450,19 +8466,6 @@
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="L21:Q22"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A14:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8483,10 +8486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82A8B5-C780-4855-A5A0-A052A5BEE04A}">
-  <dimension ref="A1:CR95"/>
+  <dimension ref="A1:CR91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BS22" sqref="BS22"/>
+    <sheetView tabSelected="1" topLeftCell="BV46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CN58" sqref="CN58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8510,46 +8513,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="J1" s="39" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="J1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="S1" s="39" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="S1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="38" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="AB1" s="71" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="AB1" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73" t="s">
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
       <c r="AK1" s="25" t="s">
         <v>183</v>
       </c>
@@ -8702,14 +8705,14 @@
       <c r="BQ2" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="BU2" s="52" t="s">
+      <c r="BU2" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="BV2" s="52"/>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="52"/>
-      <c r="BY2" s="52"/>
-      <c r="BZ2" s="52"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="50"/>
+      <c r="BX2" s="50"/>
+      <c r="BY2" s="50"/>
+      <c r="BZ2" s="50"/>
       <c r="CD2" s="21" t="s">
         <v>184</v>
       </c>
@@ -8718,7 +8721,7 @@
       <c r="CG2" s="2"/>
       <c r="CH2" s="2"/>
       <c r="CI2" s="24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="CM2" s="21" t="s">
         <v>267</v>
@@ -8808,21 +8811,21 @@
       <c r="BQ3" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="53"/>
-      <c r="BX3" s="53"/>
-      <c r="BY3" s="53"/>
-      <c r="BZ3" s="53"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62"/>
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
       <c r="CD3" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="CE3" s="1"/>
       <c r="CF3" s="5"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="5"/>
       <c r="CI3" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CM3" s="5" t="s">
         <v>275</v>
@@ -8916,14 +8919,14 @@
       <c r="BQ4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BU4" s="37" t="s">
+      <c r="BU4" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37"/>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
       <c r="CD4" s="5" t="s">
         <v>38</v>
       </c>
@@ -8932,7 +8935,7 @@
       <c r="CG4" s="1"/>
       <c r="CH4" s="5"/>
       <c r="CI4" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM4" s="5" t="s">
         <v>268</v>
@@ -8970,30 +8973,30 @@
       <c r="X5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="48" t="s">
+      <c r="AB5" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="48" t="s">
+      <c r="AK5" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="18" t="s">
         <v>117</v>
@@ -9006,208 +9009,208 @@
       <c r="BH5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BL5" s="35" t="s">
+      <c r="BL5" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BU5" s="52" t="s">
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BU5" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="52"/>
-      <c r="BX5" s="52"/>
-      <c r="BY5" s="52"/>
-      <c r="BZ5" s="52"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
+      <c r="BZ5" s="50"/>
       <c r="CD5" s="1"/>
       <c r="CE5" s="1"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="CM5" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM5" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="CN5" s="36"/>
-      <c r="CO5" s="36"/>
-      <c r="CP5" s="36"/>
-      <c r="CQ5" s="36"/>
-      <c r="CR5" s="36"/>
+      <c r="CN5" s="38"/>
+      <c r="CO5" s="38"/>
+      <c r="CP5" s="38"/>
+      <c r="CQ5" s="38"/>
+      <c r="CR5" s="38"/>
     </row>
     <row r="6" spans="1:96">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="J6" s="35" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="J6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="S6" s="35" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="S6" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="AB6" s="35" t="s">
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="AB6" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AK6" s="35" t="s">
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AK6" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AT6" s="35" t="s">
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AT6" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="BC6" s="35" t="s">
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="BC6" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BL6" s="43" t="s">
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BL6" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="BM6" s="43"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="43"/>
-      <c r="BP6" s="43"/>
-      <c r="BQ6" s="43"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CD6" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="CE6" s="36"/>
-      <c r="CF6" s="36"/>
-      <c r="CG6" s="36"/>
-      <c r="CH6" s="36"/>
-      <c r="CI6" s="36"/>
-      <c r="CM6" s="37" t="s">
+      <c r="BM6" s="47"/>
+      <c r="BN6" s="47"/>
+      <c r="BO6" s="47"/>
+      <c r="BP6" s="47"/>
+      <c r="BQ6" s="47"/>
+      <c r="BU6" s="62"/>
+      <c r="BV6" s="62"/>
+      <c r="BW6" s="62"/>
+      <c r="BX6" s="62"/>
+      <c r="BY6" s="62"/>
+      <c r="BZ6" s="62"/>
+      <c r="CD6" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="CE6" s="38"/>
+      <c r="CF6" s="38"/>
+      <c r="CG6" s="38"/>
+      <c r="CH6" s="38"/>
+      <c r="CI6" s="38"/>
+      <c r="CM6" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="CN6" s="39"/>
+      <c r="CO6" s="39"/>
+      <c r="CP6" s="39"/>
+      <c r="CQ6" s="39"/>
+      <c r="CR6" s="39"/>
+    </row>
+    <row r="7" spans="1:96">
+      <c r="A7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="J7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="S7" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="AB7" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AK7" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AT7" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="BC7" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="CN6" s="37"/>
-      <c r="CO6" s="37"/>
-      <c r="CP6" s="37"/>
-      <c r="CQ6" s="37"/>
-      <c r="CR6" s="37"/>
-    </row>
-    <row r="7" spans="1:96">
-      <c r="A7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="J7" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="S7" s="43" t="s">
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BL7" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM7" s="58"/>
+      <c r="BN7" s="58"/>
+      <c r="BO7" s="58"/>
+      <c r="BP7" s="58"/>
+      <c r="BQ7" s="58"/>
+      <c r="BU7" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="39"/>
+      <c r="CD7" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="AB7" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AK7" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AT7" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="BC7" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="37"/>
-      <c r="BH7" s="37"/>
-      <c r="BL7" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="BM7" s="50"/>
-      <c r="BN7" s="50"/>
-      <c r="BO7" s="50"/>
-      <c r="BP7" s="50"/>
-      <c r="BQ7" s="50"/>
-      <c r="BU7" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="BV7" s="37"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="37"/>
-      <c r="BY7" s="37"/>
-      <c r="BZ7" s="37"/>
-      <c r="CD7" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="CE7" s="43"/>
-      <c r="CF7" s="43"/>
-      <c r="CG7" s="43"/>
-      <c r="CH7" s="43"/>
-      <c r="CI7" s="43"/>
+      <c r="CE7" s="47"/>
+      <c r="CF7" s="47"/>
+      <c r="CG7" s="47"/>
+      <c r="CH7" s="47"/>
+      <c r="CI7" s="47"/>
       <c r="CM7" s="5" t="s">
         <v>62</v>
       </c>
@@ -9234,14 +9237,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
       <c r="AB8" s="5" t="s">
         <v>178</v>
       </c>
@@ -9274,28 +9277,28 @@
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
-      <c r="BL8" s="50"/>
-      <c r="BM8" s="50"/>
-      <c r="BN8" s="50"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="50"/>
-      <c r="BQ8" s="50"/>
-      <c r="BU8" s="52" t="s">
+      <c r="BL8" s="58"/>
+      <c r="BM8" s="58"/>
+      <c r="BN8" s="58"/>
+      <c r="BO8" s="58"/>
+      <c r="BP8" s="58"/>
+      <c r="BQ8" s="58"/>
+      <c r="BU8" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="BV8" s="52"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="52"/>
-      <c r="BZ8" s="52"/>
-      <c r="CD8" s="50" t="s">
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="50"/>
+      <c r="BX8" s="50"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="50"/>
+      <c r="CD8" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="CE8" s="50"/>
-      <c r="CF8" s="50"/>
-      <c r="CG8" s="50"/>
-      <c r="CH8" s="50"/>
-      <c r="CI8" s="50"/>
+      <c r="CE8" s="58"/>
+      <c r="CF8" s="58"/>
+      <c r="CG8" s="58"/>
+      <c r="CH8" s="58"/>
+      <c r="CI8" s="58"/>
       <c r="CM8" s="5" t="s">
         <v>272</v>
       </c>
@@ -9313,27 +9316,27 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
       <c r="J9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
       <c r="AB9" s="5" t="s">
         <v>179</v>
       </c>
@@ -9374,226 +9377,226 @@
       <c r="BH9" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="BL9" s="50" t="s">
+      <c r="BL9" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="BM9" s="50"/>
-      <c r="BN9" s="50"/>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="50"/>
-      <c r="BQ9" s="50"/>
-      <c r="BU9" s="53"/>
-      <c r="BV9" s="53"/>
-      <c r="BW9" s="53"/>
-      <c r="BX9" s="53"/>
-      <c r="BY9" s="53"/>
-      <c r="BZ9" s="53"/>
-      <c r="CD9" s="50"/>
-      <c r="CE9" s="50"/>
-      <c r="CF9" s="50"/>
-      <c r="CG9" s="50"/>
-      <c r="CH9" s="50"/>
-      <c r="CI9" s="50"/>
+      <c r="BM9" s="58"/>
+      <c r="BN9" s="58"/>
+      <c r="BO9" s="58"/>
+      <c r="BP9" s="58"/>
+      <c r="BQ9" s="58"/>
+      <c r="BU9" s="62"/>
+      <c r="BV9" s="62"/>
+      <c r="BW9" s="62"/>
+      <c r="BX9" s="62"/>
+      <c r="BY9" s="62"/>
+      <c r="BZ9" s="62"/>
+      <c r="CD9" s="58"/>
+      <c r="CE9" s="58"/>
+      <c r="CF9" s="58"/>
+      <c r="CG9" s="58"/>
+      <c r="CH9" s="58"/>
+      <c r="CI9" s="58"/>
       <c r="CM9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN9" s="55" t="s">
+      <c r="CN9" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="CO9" s="47"/>
-      <c r="CP9" s="47"/>
-      <c r="CQ9" s="47"/>
-      <c r="CR9" s="47"/>
+      <c r="CO9" s="40"/>
+      <c r="CP9" s="40"/>
+      <c r="CQ9" s="40"/>
+      <c r="CR9" s="40"/>
     </row>
     <row r="10" spans="1:96">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="S10" s="50" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="S10" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
       <c r="AB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="55" t="s">
+      <c r="AC10" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
       <c r="AK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="55" t="s">
+      <c r="AL10" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
       <c r="AT10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="55" t="s">
+      <c r="AU10" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="47"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
       <c r="BC10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD10" s="55" t="s">
+      <c r="BD10" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="BE10" s="47"/>
-      <c r="BF10" s="47"/>
-      <c r="BG10" s="47"/>
-      <c r="BH10" s="47"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
-      <c r="BQ10" s="50"/>
-      <c r="BU10" s="37" t="s">
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="40"/>
+      <c r="BG10" s="40"/>
+      <c r="BH10" s="40"/>
+      <c r="BL10" s="58"/>
+      <c r="BM10" s="58"/>
+      <c r="BN10" s="58"/>
+      <c r="BO10" s="58"/>
+      <c r="BP10" s="58"/>
+      <c r="BQ10" s="58"/>
+      <c r="BU10" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="BV10" s="37"/>
-      <c r="BW10" s="37"/>
-      <c r="BX10" s="37"/>
-      <c r="BY10" s="37"/>
-      <c r="BZ10" s="37"/>
-      <c r="CD10" s="50" t="s">
+      <c r="BV10" s="39"/>
+      <c r="BW10" s="39"/>
+      <c r="BX10" s="39"/>
+      <c r="BY10" s="39"/>
+      <c r="BZ10" s="39"/>
+      <c r="CD10" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="CE10" s="50"/>
-      <c r="CF10" s="50"/>
-      <c r="CG10" s="50"/>
-      <c r="CH10" s="50"/>
-      <c r="CI10" s="50"/>
+      <c r="CE10" s="58"/>
+      <c r="CF10" s="58"/>
+      <c r="CG10" s="58"/>
+      <c r="CH10" s="58"/>
+      <c r="CI10" s="58"/>
       <c r="CM10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CN10" s="55" t="s">
+      <c r="CN10" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="CO10" s="47"/>
-      <c r="CP10" s="47"/>
-      <c r="CQ10" s="47"/>
-      <c r="CR10" s="47"/>
+      <c r="CO10" s="40"/>
+      <c r="CP10" s="40"/>
+      <c r="CQ10" s="40"/>
+      <c r="CR10" s="40"/>
     </row>
     <row r="11" spans="1:96">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
       <c r="AB11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="55" t="s">
+      <c r="AC11" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AK11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL11" s="55" t="s">
+      <c r="AL11" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
       <c r="AT11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="55" t="s">
+      <c r="AU11" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
       <c r="BC11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BD11" s="55" t="s">
+      <c r="BD11" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="47"/>
-      <c r="BL11" s="50"/>
-      <c r="BM11" s="50"/>
-      <c r="BN11" s="50"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="50"/>
-      <c r="BQ11" s="50"/>
-      <c r="BU11" s="52" t="s">
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="40"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
+      <c r="BP11" s="58"/>
+      <c r="BQ11" s="58"/>
+      <c r="BU11" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="BV11" s="61"/>
-      <c r="BW11" s="61"/>
-      <c r="BX11" s="61"/>
-      <c r="BY11" s="61"/>
-      <c r="BZ11" s="61"/>
-      <c r="CD11" s="50"/>
-      <c r="CE11" s="50"/>
-      <c r="CF11" s="50"/>
-      <c r="CG11" s="50"/>
-      <c r="CH11" s="50"/>
-      <c r="CI11" s="50"/>
+      <c r="BV11" s="70"/>
+      <c r="BW11" s="70"/>
+      <c r="BX11" s="70"/>
+      <c r="BY11" s="70"/>
+      <c r="BZ11" s="70"/>
+      <c r="CD11" s="58"/>
+      <c r="CE11" s="58"/>
+      <c r="CF11" s="58"/>
+      <c r="CG11" s="58"/>
+      <c r="CH11" s="58"/>
+      <c r="CI11" s="58"/>
       <c r="CM11" s="5" t="s">
         <v>7</v>
       </c>
@@ -9609,97 +9612,97 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
       <c r="AB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="63" t="s">
+      <c r="AC12" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
       <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="55" t="s">
+      <c r="AL12" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
       <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU12" s="63" t="s">
+      <c r="AU12" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="47"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
       <c r="BC12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD12" s="63" t="s">
+      <c r="BD12" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="BE12" s="47"/>
-      <c r="BF12" s="47"/>
-      <c r="BG12" s="47"/>
-      <c r="BH12" s="47"/>
-      <c r="BL12" s="43" t="s">
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="40"/>
+      <c r="BL12" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="BM12" s="43"/>
-      <c r="BN12" s="43"/>
-      <c r="BO12" s="43"/>
-      <c r="BP12" s="43"/>
-      <c r="BQ12" s="43"/>
-      <c r="BU12" s="61"/>
-      <c r="BV12" s="61"/>
-      <c r="BW12" s="61"/>
-      <c r="BX12" s="61"/>
-      <c r="BY12" s="61"/>
-      <c r="BZ12" s="61"/>
-      <c r="CD12" s="50"/>
-      <c r="CE12" s="50"/>
-      <c r="CF12" s="50"/>
-      <c r="CG12" s="50"/>
-      <c r="CH12" s="50"/>
-      <c r="CI12" s="50"/>
-      <c r="CM12" s="45" t="s">
+      <c r="BM12" s="47"/>
+      <c r="BN12" s="47"/>
+      <c r="BO12" s="47"/>
+      <c r="BP12" s="47"/>
+      <c r="BQ12" s="47"/>
+      <c r="BU12" s="70"/>
+      <c r="BV12" s="70"/>
+      <c r="BW12" s="70"/>
+      <c r="BX12" s="70"/>
+      <c r="BY12" s="70"/>
+      <c r="BZ12" s="70"/>
+      <c r="CD12" s="58"/>
+      <c r="CE12" s="58"/>
+      <c r="CF12" s="58"/>
+      <c r="CG12" s="58"/>
+      <c r="CH12" s="58"/>
+      <c r="CI12" s="58"/>
+      <c r="CM12" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="CN12" s="45"/>
-      <c r="CO12" s="45"/>
-      <c r="CP12" s="45"/>
-      <c r="CQ12" s="45"/>
-      <c r="CR12" s="45"/>
+      <c r="CN12" s="41"/>
+      <c r="CO12" s="41"/>
+      <c r="CP12" s="41"/>
+      <c r="CQ12" s="41"/>
+      <c r="CR12" s="41"/>
     </row>
     <row r="13" spans="1:96" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -9708,102 +9711,102 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="S13" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="AB13" s="52" t="s">
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="S13" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="AB13" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AK13" s="43" t="s">
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AK13" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AT13" s="37" t="s">
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AT13" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="BC13" s="45" t="s">
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="BC13" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="BD13" s="45"/>
-      <c r="BE13" s="45"/>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="45"/>
-      <c r="BL13" s="52" t="s">
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+      <c r="BL13" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="BM13" s="50"/>
-      <c r="BN13" s="50"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="50"/>
-      <c r="BQ13" s="50"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
+      <c r="BP13" s="58"/>
+      <c r="BQ13" s="58"/>
       <c r="BU13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV13" s="55" t="s">
+      <c r="BV13" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="BW13" s="47"/>
-      <c r="BX13" s="47"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CD13" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="CE13" s="37"/>
-      <c r="CF13" s="37"/>
-      <c r="CG13" s="37"/>
-      <c r="CH13" s="37"/>
-      <c r="CI13" s="37"/>
-      <c r="CM13" s="45"/>
-      <c r="CN13" s="45"/>
-      <c r="CO13" s="45"/>
-      <c r="CP13" s="45"/>
-      <c r="CQ13" s="45"/>
-      <c r="CR13" s="45"/>
+      <c r="BW13" s="40"/>
+      <c r="BX13" s="40"/>
+      <c r="BY13" s="40"/>
+      <c r="BZ13" s="40"/>
+      <c r="CD13" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39"/>
+      <c r="CG13" s="39"/>
+      <c r="CH13" s="39"/>
+      <c r="CI13" s="39"/>
+      <c r="CM13" s="41"/>
+      <c r="CN13" s="41"/>
+      <c r="CO13" s="41"/>
+      <c r="CP13" s="41"/>
+      <c r="CQ13" s="41"/>
+      <c r="CR13" s="41"/>
     </row>
     <row r="14" spans="1:96">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
       <c r="S14" s="5" t="s">
         <v>43</v>
       </c>
@@ -9812,12 +9815,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
       <c r="AK14" s="5" t="s">
         <v>50</v>
       </c>
@@ -9834,28 +9837,28 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="46"/>
-      <c r="BG14" s="46"/>
-      <c r="BH14" s="46"/>
-      <c r="BL14" s="50"/>
-      <c r="BM14" s="50"/>
-      <c r="BN14" s="50"/>
-      <c r="BO14" s="50"/>
-      <c r="BP14" s="50"/>
-      <c r="BQ14" s="50"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BL14" s="58"/>
+      <c r="BM14" s="58"/>
+      <c r="BN14" s="58"/>
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="58"/>
       <c r="BU14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV14" s="55" t="s">
+      <c r="BV14" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="BW14" s="47"/>
-      <c r="BX14" s="47"/>
-      <c r="BY14" s="47"/>
-      <c r="BZ14" s="47"/>
+      <c r="BW14" s="40"/>
+      <c r="BX14" s="40"/>
+      <c r="BY14" s="40"/>
+      <c r="BZ14" s="40"/>
       <c r="CD14" s="5" t="s">
         <v>62</v>
       </c>
@@ -9864,14 +9867,14 @@
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
-      <c r="CM14" s="43" t="s">
+      <c r="CM14" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="CN14" s="37"/>
-      <c r="CO14" s="37"/>
-      <c r="CP14" s="37"/>
-      <c r="CQ14" s="37"/>
-      <c r="CR14" s="37"/>
+      <c r="CN14" s="39"/>
+      <c r="CO14" s="39"/>
+      <c r="CP14" s="39"/>
+      <c r="CQ14" s="39"/>
+      <c r="CR14" s="39"/>
     </row>
     <row r="15" spans="1:96">
       <c r="A15" s="5" t="s">
@@ -9882,32 +9885,32 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
       <c r="S15" s="5" t="s">
         <v>122</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="58" t="s">
+      <c r="V15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="AB15" s="43" t="s">
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="AB15" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
       <c r="AK15" s="5" t="s">
         <v>51</v>
       </c>
@@ -9923,55 +9926,55 @@
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="58" t="s">
+      <c r="AW15" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="BC15" s="37" t="s">
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="BC15" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="37"/>
-      <c r="BG15" s="37"/>
-      <c r="BH15" s="37"/>
-      <c r="BL15" s="43" t="s">
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39"/>
+      <c r="BL15" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="BM15" s="43"/>
-      <c r="BN15" s="43"/>
-      <c r="BO15" s="43"/>
-      <c r="BP15" s="43"/>
-      <c r="BQ15" s="43"/>
+      <c r="BM15" s="47"/>
+      <c r="BN15" s="47"/>
+      <c r="BO15" s="47"/>
+      <c r="BP15" s="47"/>
+      <c r="BQ15" s="47"/>
       <c r="BU15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BV15" s="55" t="s">
+      <c r="BV15" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="BW15" s="47"/>
-      <c r="BX15" s="47"/>
-      <c r="BY15" s="47"/>
-      <c r="BZ15" s="47"/>
+      <c r="BW15" s="40"/>
+      <c r="BX15" s="40"/>
+      <c r="BY15" s="40"/>
+      <c r="BZ15" s="40"/>
       <c r="CD15" s="5" t="s">
         <v>333</v>
       </c>
       <c r="CE15" s="1"/>
       <c r="CF15" s="1"/>
-      <c r="CG15" s="58" t="s">
+      <c r="CG15" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="CH15" s="58"/>
-      <c r="CI15" s="58"/>
-      <c r="CM15" s="52" t="s">
+      <c r="CH15" s="51"/>
+      <c r="CI15" s="51"/>
+      <c r="CM15" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="CN15" s="52"/>
-      <c r="CO15" s="52"/>
-      <c r="CP15" s="52"/>
-      <c r="CQ15" s="52"/>
-      <c r="CR15" s="52"/>
+      <c r="CN15" s="50"/>
+      <c r="CO15" s="50"/>
+      <c r="CP15" s="50"/>
+      <c r="CQ15" s="50"/>
+      <c r="CR15" s="50"/>
     </row>
     <row r="16" spans="1:96" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -9979,11 +9982,11 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
@@ -9995,37 +9998,37 @@
       <c r="S16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T16" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="AB16" s="62" t="s">
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="AB16" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AK16" s="52" t="s">
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AK16" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-      <c r="AT16" s="50" t="s">
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AT16" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
       <c r="BC16" s="5" t="s">
         <v>98</v>
       </c>
@@ -10034,88 +10037,88 @@
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
-      <c r="BL16" s="52" t="s">
+      <c r="BL16" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="BM16" s="50"/>
-      <c r="BN16" s="50"/>
-      <c r="BO16" s="50"/>
-      <c r="BP16" s="50"/>
-      <c r="BQ16" s="50"/>
-      <c r="BU16" s="37" t="s">
+      <c r="BM16" s="58"/>
+      <c r="BN16" s="58"/>
+      <c r="BO16" s="58"/>
+      <c r="BP16" s="58"/>
+      <c r="BQ16" s="58"/>
+      <c r="BU16" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="BV16" s="37"/>
-      <c r="BW16" s="37"/>
-      <c r="BX16" s="37"/>
-      <c r="BY16" s="37"/>
-      <c r="BZ16" s="37"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="39"/>
+      <c r="BZ16" s="39"/>
       <c r="CD16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CE16" s="55" t="s">
+      <c r="CE16" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="CF16" s="47"/>
-      <c r="CG16" s="47"/>
-      <c r="CH16" s="47"/>
-      <c r="CI16" s="47"/>
-      <c r="CM16" s="52"/>
-      <c r="CN16" s="52"/>
-      <c r="CO16" s="52"/>
-      <c r="CP16" s="52"/>
-      <c r="CQ16" s="52"/>
-      <c r="CR16" s="52"/>
+      <c r="CF16" s="40"/>
+      <c r="CG16" s="40"/>
+      <c r="CH16" s="40"/>
+      <c r="CI16" s="40"/>
+      <c r="CM16" s="50"/>
+      <c r="CN16" s="50"/>
+      <c r="CO16" s="50"/>
+      <c r="CP16" s="50"/>
+      <c r="CQ16" s="50"/>
+      <c r="CR16" s="50"/>
     </row>
     <row r="17" spans="1:96">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
       <c r="S17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="55" t="s">
+      <c r="T17" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="52"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
       <c r="BC17" s="5" t="s">
         <v>225</v>
       </c>
@@ -10126,164 +10129,164 @@
       <c r="BH17" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="BL17" s="50"/>
-      <c r="BM17" s="50"/>
-      <c r="BN17" s="50"/>
-      <c r="BO17" s="50"/>
-      <c r="BP17" s="50"/>
-      <c r="BQ17" s="50"/>
-      <c r="BU17" s="52" t="s">
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
+      <c r="BP17" s="58"/>
+      <c r="BQ17" s="58"/>
+      <c r="BU17" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="BV17" s="52"/>
-      <c r="BW17" s="52"/>
-      <c r="BX17" s="52"/>
-      <c r="BY17" s="52"/>
-      <c r="BZ17" s="52"/>
+      <c r="BV17" s="50"/>
+      <c r="BW17" s="50"/>
+      <c r="BX17" s="50"/>
+      <c r="BY17" s="50"/>
+      <c r="BZ17" s="50"/>
       <c r="CD17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CE17" s="55" t="s">
+      <c r="CE17" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="CF17" s="47"/>
-      <c r="CG17" s="47"/>
-      <c r="CH17" s="47"/>
-      <c r="CI17" s="47"/>
-      <c r="CM17" s="52"/>
-      <c r="CN17" s="52"/>
-      <c r="CO17" s="52"/>
-      <c r="CP17" s="52"/>
-      <c r="CQ17" s="52"/>
-      <c r="CR17" s="52"/>
+      <c r="CF17" s="40"/>
+      <c r="CG17" s="40"/>
+      <c r="CH17" s="40"/>
+      <c r="CI17" s="40"/>
+      <c r="CM17" s="50"/>
+      <c r="CN17" s="50"/>
+      <c r="CO17" s="50"/>
+      <c r="CP17" s="50"/>
+      <c r="CQ17" s="50"/>
+      <c r="CR17" s="50"/>
     </row>
     <row r="18" spans="1:96" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="J18" s="40" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="J18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="55" t="s">
+      <c r="T18" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="AK18" s="52" t="s">
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="AK18" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="BC18" s="50" t="s">
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AT18" s="58"/>
+      <c r="AU18" s="58"/>
+      <c r="AV18" s="58"/>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="BC18" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BL18" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="37"/>
-      <c r="BU18" s="52"/>
-      <c r="BV18" s="52"/>
-      <c r="BW18" s="52"/>
-      <c r="BX18" s="52"/>
-      <c r="BY18" s="52"/>
-      <c r="BZ18" s="52"/>
+      <c r="BD18" s="58"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="58"/>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="58"/>
+      <c r="BL18" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="BM18" s="39"/>
+      <c r="BN18" s="39"/>
+      <c r="BO18" s="39"/>
+      <c r="BP18" s="39"/>
+      <c r="BQ18" s="39"/>
+      <c r="BU18" s="50"/>
+      <c r="BV18" s="50"/>
+      <c r="BW18" s="50"/>
+      <c r="BX18" s="50"/>
+      <c r="BY18" s="50"/>
+      <c r="BZ18" s="50"/>
       <c r="CD18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE18" s="55" t="s">
+      <c r="CE18" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="CF18" s="47"/>
-      <c r="CG18" s="47"/>
-      <c r="CH18" s="47"/>
-      <c r="CI18" s="47"/>
-      <c r="CM18" s="52"/>
-      <c r="CN18" s="52"/>
-      <c r="CO18" s="52"/>
-      <c r="CP18" s="52"/>
-      <c r="CQ18" s="52"/>
-      <c r="CR18" s="52"/>
+      <c r="CF18" s="40"/>
+      <c r="CG18" s="40"/>
+      <c r="CH18" s="40"/>
+      <c r="CI18" s="40"/>
+      <c r="CM18" s="50"/>
+      <c r="CN18" s="50"/>
+      <c r="CO18" s="50"/>
+      <c r="CP18" s="50"/>
+      <c r="CQ18" s="50"/>
+      <c r="CR18" s="50"/>
     </row>
     <row r="19" spans="1:96" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="J19" s="37" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="J19" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="S19" s="45" t="s">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="S19" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
-      <c r="BG19" s="50"/>
-      <c r="BH19" s="50"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
       <c r="BL19" s="5" t="s">
         <v>304</v>
       </c>
@@ -10292,38 +10295,38 @@
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
-      <c r="BU19" s="52"/>
-      <c r="BV19" s="52"/>
-      <c r="BW19" s="52"/>
-      <c r="BX19" s="52"/>
-      <c r="BY19" s="52"/>
-      <c r="BZ19" s="52"/>
-      <c r="CD19" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="CE19" s="45"/>
-      <c r="CF19" s="45"/>
-      <c r="CG19" s="45"/>
-      <c r="CH19" s="45"/>
-      <c r="CI19" s="45"/>
-      <c r="CM19" s="43" t="s">
+      <c r="BU19" s="50"/>
+      <c r="BV19" s="50"/>
+      <c r="BW19" s="50"/>
+      <c r="BX19" s="50"/>
+      <c r="BY19" s="50"/>
+      <c r="BZ19" s="50"/>
+      <c r="CD19" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE19" s="41"/>
+      <c r="CF19" s="41"/>
+      <c r="CG19" s="41"/>
+      <c r="CH19" s="41"/>
+      <c r="CI19" s="41"/>
+      <c r="CM19" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="CN19" s="37"/>
-      <c r="CO19" s="37"/>
-      <c r="CP19" s="37"/>
-      <c r="CQ19" s="37"/>
-      <c r="CR19" s="37"/>
+      <c r="CN19" s="39"/>
+      <c r="CO19" s="39"/>
+      <c r="CP19" s="39"/>
+      <c r="CQ19" s="39"/>
+      <c r="CR19" s="39"/>
     </row>
     <row r="20" spans="1:96" ht="15" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
@@ -10332,138 +10335,138 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="AK20" s="43" t="s">
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="AK20" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="50"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AT20" s="58"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="BC20" s="69"/>
+      <c r="BD20" s="69"/>
+      <c r="BE20" s="69"/>
+      <c r="BF20" s="69"/>
+      <c r="BG20" s="69"/>
+      <c r="BH20" s="69"/>
       <c r="BL20" s="5" t="s">
         <v>272</v>
       </c>
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
-      <c r="BO20" s="58" t="s">
+      <c r="BO20" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="BP20" s="58"/>
-      <c r="BQ20" s="58"/>
-      <c r="BU20" s="52"/>
-      <c r="BV20" s="52"/>
-      <c r="BW20" s="52"/>
-      <c r="BX20" s="52"/>
-      <c r="BY20" s="52"/>
-      <c r="BZ20" s="52"/>
-      <c r="CD20" s="45"/>
-      <c r="CE20" s="45"/>
-      <c r="CF20" s="45"/>
-      <c r="CG20" s="45"/>
-      <c r="CH20" s="45"/>
-      <c r="CI20" s="45"/>
-      <c r="CM20" s="52" t="s">
+      <c r="BP20" s="51"/>
+      <c r="BQ20" s="51"/>
+      <c r="BU20" s="50"/>
+      <c r="BV20" s="50"/>
+      <c r="BW20" s="50"/>
+      <c r="BX20" s="50"/>
+      <c r="BY20" s="50"/>
+      <c r="BZ20" s="50"/>
+      <c r="CD20" s="41"/>
+      <c r="CE20" s="41"/>
+      <c r="CF20" s="41"/>
+      <c r="CG20" s="41"/>
+      <c r="CH20" s="41"/>
+      <c r="CI20" s="41"/>
+      <c r="CM20" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="CN20" s="52"/>
-      <c r="CO20" s="52"/>
-      <c r="CP20" s="52"/>
-      <c r="CQ20" s="52"/>
-      <c r="CR20" s="52"/>
+      <c r="CN20" s="50"/>
+      <c r="CO20" s="50"/>
+      <c r="CP20" s="50"/>
+      <c r="CQ20" s="50"/>
+      <c r="CR20" s="50"/>
     </row>
     <row r="21" spans="1:96" ht="15" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
       <c r="J21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="AK21" s="62" t="s">
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="AK21" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="BC21" s="43" t="s">
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AT21" s="58"/>
+      <c r="AU21" s="58"/>
+      <c r="AV21" s="58"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="BC21" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
       <c r="BL21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BM21" s="55" t="s">
+      <c r="BM21" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="BN21" s="55"/>
-      <c r="BO21" s="55"/>
-      <c r="BP21" s="55"/>
-      <c r="BQ21" s="55"/>
-      <c r="BU21" s="52"/>
-      <c r="BV21" s="52"/>
-      <c r="BW21" s="52"/>
-      <c r="BX21" s="52"/>
-      <c r="BY21" s="52"/>
-      <c r="BZ21" s="52"/>
-      <c r="CD21" s="45"/>
-      <c r="CE21" s="45"/>
-      <c r="CF21" s="45"/>
-      <c r="CG21" s="45"/>
-      <c r="CH21" s="45"/>
-      <c r="CI21" s="45"/>
-      <c r="CM21" s="52"/>
-      <c r="CN21" s="52"/>
-      <c r="CO21" s="52"/>
-      <c r="CP21" s="52"/>
-      <c r="CQ21" s="52"/>
-      <c r="CR21" s="52"/>
+      <c r="BN21" s="53"/>
+      <c r="BO21" s="53"/>
+      <c r="BP21" s="53"/>
+      <c r="BQ21" s="53"/>
+      <c r="BU21" s="50"/>
+      <c r="BV21" s="50"/>
+      <c r="BW21" s="50"/>
+      <c r="BX21" s="50"/>
+      <c r="BY21" s="50"/>
+      <c r="BZ21" s="50"/>
+      <c r="CD21" s="41"/>
+      <c r="CE21" s="41"/>
+      <c r="CF21" s="41"/>
+      <c r="CG21" s="41"/>
+      <c r="CH21" s="41"/>
+      <c r="CI21" s="41"/>
+      <c r="CM21" s="50"/>
+      <c r="CN21" s="50"/>
+      <c r="CO21" s="50"/>
+      <c r="CP21" s="50"/>
+      <c r="CQ21" s="50"/>
+      <c r="CR21" s="50"/>
     </row>
     <row r="22" spans="1:96" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -10474,72 +10477,72 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="S22" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AT22" s="43" t="s">
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="S22" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AT22" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="BC22" s="62" t="s">
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+      <c r="BC22" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="BD22" s="62"/>
-      <c r="BE22" s="62"/>
-      <c r="BF22" s="62"/>
-      <c r="BG22" s="62"/>
-      <c r="BH22" s="62"/>
+      <c r="BD22" s="59"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="59"/>
+      <c r="BG22" s="59"/>
+      <c r="BH22" s="59"/>
       <c r="BL22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM22" s="55" t="s">
+      <c r="BM22" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="BN22" s="55"/>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="55"/>
-      <c r="BQ22" s="55"/>
-      <c r="BU22" s="52"/>
-      <c r="BV22" s="52"/>
-      <c r="BW22" s="52"/>
-      <c r="BX22" s="52"/>
-      <c r="BY22" s="52"/>
-      <c r="BZ22" s="52"/>
-      <c r="CD22" s="45"/>
-      <c r="CE22" s="45"/>
-      <c r="CF22" s="45"/>
-      <c r="CG22" s="45"/>
-      <c r="CH22" s="45"/>
-      <c r="CI22" s="45"/>
-      <c r="CM22" s="52"/>
-      <c r="CN22" s="52"/>
-      <c r="CO22" s="52"/>
-      <c r="CP22" s="52"/>
-      <c r="CQ22" s="52"/>
-      <c r="CR22" s="52"/>
+      <c r="BN22" s="53"/>
+      <c r="BO22" s="53"/>
+      <c r="BP22" s="53"/>
+      <c r="BQ22" s="53"/>
+      <c r="BU22" s="50"/>
+      <c r="BV22" s="50"/>
+      <c r="BW22" s="50"/>
+      <c r="BX22" s="50"/>
+      <c r="BY22" s="50"/>
+      <c r="BZ22" s="50"/>
+      <c r="CD22" s="41"/>
+      <c r="CE22" s="41"/>
+      <c r="CF22" s="41"/>
+      <c r="CG22" s="41"/>
+      <c r="CH22" s="41"/>
+      <c r="CI22" s="41"/>
+      <c r="CM22" s="50"/>
+      <c r="CN22" s="50"/>
+      <c r="CO22" s="50"/>
+      <c r="CP22" s="50"/>
+      <c r="CQ22" s="50"/>
+      <c r="CR22" s="50"/>
     </row>
     <row r="23" spans="1:96">
       <c r="A23" s="5" t="s">
@@ -10547,19 +10550,19 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="J23" s="40" t="s">
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="J23" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
       <c r="S23" s="5" t="s">
         <v>62</v>
       </c>
@@ -10568,72 +10571,72 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AT23" s="62" t="s">
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AT23" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="BC23" s="62"/>
-      <c r="BD23" s="62"/>
-      <c r="BE23" s="62"/>
-      <c r="BF23" s="62"/>
-      <c r="BG23" s="62"/>
-      <c r="BH23" s="62"/>
+      <c r="AU23" s="59"/>
+      <c r="AV23" s="59"/>
+      <c r="AW23" s="59"/>
+      <c r="AX23" s="59"/>
+      <c r="AY23" s="59"/>
+      <c r="BC23" s="59"/>
+      <c r="BD23" s="59"/>
+      <c r="BE23" s="59"/>
+      <c r="BF23" s="59"/>
+      <c r="BG23" s="59"/>
+      <c r="BH23" s="59"/>
       <c r="BL23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BM23" s="55" t="s">
+      <c r="BM23" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="BN23" s="47"/>
-      <c r="BO23" s="47"/>
-      <c r="BP23" s="47"/>
-      <c r="BQ23" s="47"/>
-      <c r="BU23" s="52"/>
-      <c r="BV23" s="52"/>
-      <c r="BW23" s="52"/>
-      <c r="BX23" s="52"/>
-      <c r="BY23" s="52"/>
-      <c r="BZ23" s="52"/>
-      <c r="CD23" s="45"/>
-      <c r="CE23" s="45"/>
-      <c r="CF23" s="45"/>
-      <c r="CG23" s="45"/>
-      <c r="CH23" s="45"/>
-      <c r="CI23" s="45"/>
-      <c r="CM23" s="52"/>
-      <c r="CN23" s="52"/>
-      <c r="CO23" s="52"/>
-      <c r="CP23" s="52"/>
-      <c r="CQ23" s="52"/>
-      <c r="CR23" s="52"/>
+      <c r="BN23" s="40"/>
+      <c r="BO23" s="40"/>
+      <c r="BP23" s="40"/>
+      <c r="BQ23" s="40"/>
+      <c r="BU23" s="50"/>
+      <c r="BV23" s="50"/>
+      <c r="BW23" s="50"/>
+      <c r="BX23" s="50"/>
+      <c r="BY23" s="50"/>
+      <c r="BZ23" s="50"/>
+      <c r="CD23" s="41"/>
+      <c r="CE23" s="41"/>
+      <c r="CF23" s="41"/>
+      <c r="CG23" s="41"/>
+      <c r="CH23" s="41"/>
+      <c r="CI23" s="41"/>
+      <c r="CM23" s="50"/>
+      <c r="CN23" s="50"/>
+      <c r="CO23" s="50"/>
+      <c r="CP23" s="50"/>
+      <c r="CQ23" s="50"/>
+      <c r="CR23" s="50"/>
     </row>
     <row r="24" spans="1:96" ht="15" customHeight="1">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="J24" s="43" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="J24" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
       <c r="S24" s="5" t="s">
         <v>124</v>
       </c>
@@ -10644,144 +10647,142 @@
       <c r="X24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AT24" s="62"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="62"/>
-      <c r="AX24" s="62"/>
-      <c r="AY24" s="62"/>
-      <c r="BC24" s="62"/>
-      <c r="BD24" s="62"/>
-      <c r="BE24" s="62"/>
-      <c r="BF24" s="62"/>
-      <c r="BG24" s="62"/>
-      <c r="BH24" s="62"/>
-      <c r="BL24" s="46" t="s">
+      <c r="AT24" s="59"/>
+      <c r="AU24" s="59"/>
+      <c r="AV24" s="59"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="59"/>
+      <c r="AY24" s="59"/>
+      <c r="BC24" s="59"/>
+      <c r="BD24" s="59"/>
+      <c r="BE24" s="59"/>
+      <c r="BF24" s="59"/>
+      <c r="BG24" s="59"/>
+      <c r="BH24" s="59"/>
+      <c r="BL24" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="BM24" s="46"/>
-      <c r="BN24" s="46"/>
-      <c r="BO24" s="46"/>
-      <c r="BP24" s="46"/>
-      <c r="BQ24" s="46"/>
-      <c r="CD24" s="46"/>
-      <c r="CE24" s="46"/>
-      <c r="CF24" s="46"/>
-      <c r="CG24" s="46"/>
-      <c r="CH24" s="46"/>
-      <c r="CI24" s="46"/>
-      <c r="CM24" s="52"/>
-      <c r="CN24" s="52"/>
-      <c r="CO24" s="52"/>
-      <c r="CP24" s="52"/>
-      <c r="CQ24" s="52"/>
-      <c r="CR24" s="52"/>
+      <c r="BM24" s="42"/>
+      <c r="BN24" s="42"/>
+      <c r="BO24" s="42"/>
+      <c r="BP24" s="42"/>
+      <c r="BQ24" s="42"/>
+      <c r="CD24" s="41"/>
+      <c r="CE24" s="41"/>
+      <c r="CF24" s="41"/>
+      <c r="CG24" s="41"/>
+      <c r="CH24" s="41"/>
+      <c r="CI24" s="41"/>
+      <c r="CM24" s="50"/>
+      <c r="CN24" s="50"/>
+      <c r="CO24" s="50"/>
+      <c r="CP24" s="50"/>
+      <c r="CQ24" s="50"/>
+      <c r="CR24" s="50"/>
     </row>
     <row r="25" spans="1:96">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="J25" s="64" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="J25" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
       <c r="S25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="55" t="s">
+      <c r="T25" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="BC25" s="43" t="s">
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="AT25" s="59"/>
+      <c r="AU25" s="59"/>
+      <c r="AV25" s="59"/>
+      <c r="AW25" s="59"/>
+      <c r="AX25" s="59"/>
+      <c r="AY25" s="59"/>
+      <c r="BC25" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="BD25" s="37"/>
-      <c r="BE25" s="37"/>
-      <c r="BF25" s="37"/>
-      <c r="BG25" s="37"/>
-      <c r="BH25" s="37"/>
-      <c r="BL25" s="37" t="s">
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BL25" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="BM25" s="37"/>
-      <c r="BN25" s="37"/>
-      <c r="BO25" s="37"/>
-      <c r="BP25" s="37"/>
-      <c r="BQ25" s="37"/>
-      <c r="CD25" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="CE25" s="37"/>
-      <c r="CF25" s="37"/>
-      <c r="CG25" s="37"/>
-      <c r="CH25" s="37"/>
-      <c r="CI25" s="37"/>
-      <c r="CM25" s="52"/>
-      <c r="CN25" s="52"/>
-      <c r="CO25" s="52"/>
-      <c r="CP25" s="52"/>
-      <c r="CQ25" s="52"/>
-      <c r="CR25" s="52"/>
+      <c r="BM25" s="39"/>
+      <c r="BN25" s="39"/>
+      <c r="BO25" s="39"/>
+      <c r="BP25" s="39"/>
+      <c r="BQ25" s="39"/>
+      <c r="CD25" s="42"/>
+      <c r="CE25" s="42"/>
+      <c r="CF25" s="42"/>
+      <c r="CG25" s="42"/>
+      <c r="CH25" s="42"/>
+      <c r="CI25" s="42"/>
+      <c r="CM25" s="50"/>
+      <c r="CN25" s="50"/>
+      <c r="CO25" s="50"/>
+      <c r="CP25" s="50"/>
+      <c r="CQ25" s="50"/>
+      <c r="CR25" s="50"/>
     </row>
     <row r="26" spans="1:96" ht="15" customHeight="1">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
       <c r="S26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="55" t="s">
+      <c r="T26" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="AT26" s="43" t="s">
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="AT26" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="BC26" s="52" t="s">
+      <c r="AU26" s="48"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
+      <c r="BC26" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="BD26" s="52"/>
-      <c r="BE26" s="52"/>
-      <c r="BF26" s="52"/>
-      <c r="BG26" s="52"/>
-      <c r="BH26" s="52"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
       <c r="BL26" s="5" t="s">
         <v>62</v>
       </c>
@@ -10790,58 +10791,58 @@
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
-      <c r="CD26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE26" s="1"/>
-      <c r="CF26" s="1"/>
-      <c r="CG26" s="1"/>
-      <c r="CH26" s="1"/>
-      <c r="CI26" s="1"/>
-      <c r="CM26" s="52"/>
-      <c r="CN26" s="52"/>
-      <c r="CO26" s="52"/>
-      <c r="CP26" s="52"/>
-      <c r="CQ26" s="52"/>
-      <c r="CR26" s="52"/>
+      <c r="CD26" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="CE26" s="39"/>
+      <c r="CF26" s="39"/>
+      <c r="CG26" s="39"/>
+      <c r="CH26" s="39"/>
+      <c r="CI26" s="39"/>
+      <c r="CM26" s="50"/>
+      <c r="CN26" s="50"/>
+      <c r="CO26" s="50"/>
+      <c r="CP26" s="50"/>
+      <c r="CQ26" s="50"/>
+      <c r="CR26" s="50"/>
     </row>
     <row r="27" spans="1:96">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
       <c r="S27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="55" t="s">
+      <c r="T27" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="AT27" s="62" t="s">
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="AT27" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="BC27" s="52"/>
-      <c r="BD27" s="52"/>
-      <c r="BE27" s="52"/>
-      <c r="BF27" s="52"/>
-      <c r="BG27" s="52"/>
-      <c r="BH27" s="52"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="BC27" s="50"/>
+      <c r="BD27" s="50"/>
+      <c r="BE27" s="50"/>
+      <c r="BF27" s="50"/>
+      <c r="BG27" s="50"/>
+      <c r="BH27" s="50"/>
       <c r="BL27" s="5" t="s">
         <v>51</v>
       </c>
@@ -10853,61 +10854,61 @@
         <v>52</v>
       </c>
       <c r="CD27" s="5" t="s">
-        <v>339</v>
+        <v>62</v>
       </c>
       <c r="CE27" s="1"/>
       <c r="CF27" s="1"/>
-      <c r="CG27" s="18"/>
-      <c r="CH27" s="18"/>
-      <c r="CI27" s="18" t="s">
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+    </row>
+    <row r="28" spans="1:96" ht="15" customHeight="1">
+      <c r="J28" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="S28" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="59"/>
+      <c r="AX28" s="59"/>
+      <c r="AY28" s="59"/>
+      <c r="BC28" s="62"/>
+      <c r="BD28" s="62"/>
+      <c r="BE28" s="62"/>
+      <c r="BF28" s="62"/>
+      <c r="BG28" s="62"/>
+      <c r="BH28" s="62"/>
+      <c r="BL28" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="BM28" s="50"/>
+      <c r="BN28" s="50"/>
+      <c r="BO28" s="50"/>
+      <c r="BP28" s="50"/>
+      <c r="BQ28" s="50"/>
+      <c r="CD28" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="18"/>
+      <c r="CH28" s="18"/>
+      <c r="CI28" s="18" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="28" spans="1:96" ht="15" customHeight="1">
-      <c r="J28" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="S28" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="62"/>
-      <c r="AY28" s="62"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="53"/>
-      <c r="BL28" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="52"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="CD28" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="CE28" s="50"/>
-      <c r="CF28" s="50"/>
-      <c r="CG28" s="50"/>
-      <c r="CH28" s="50"/>
-      <c r="CI28" s="50"/>
     </row>
     <row r="29" spans="1:96" ht="15" customHeight="1">
       <c r="J29" s="5" t="s">
@@ -10918,40 +10919,42 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="S29" s="69" t="s">
+      <c r="S29" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="62"/>
-      <c r="AY29" s="62"/>
-      <c r="BC29" s="37" t="s">
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="59"/>
+      <c r="AW29" s="59"/>
+      <c r="AX29" s="59"/>
+      <c r="AY29" s="59"/>
+      <c r="BC29" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BL29" s="52"/>
-      <c r="BM29" s="52"/>
-      <c r="BN29" s="52"/>
-      <c r="BO29" s="52"/>
-      <c r="BP29" s="52"/>
-      <c r="BQ29" s="52"/>
-      <c r="CD29" s="50"/>
-      <c r="CE29" s="50"/>
-      <c r="CF29" s="50"/>
-      <c r="CG29" s="50"/>
-      <c r="CH29" s="50"/>
-      <c r="CI29" s="50"/>
+      <c r="BD29" s="39"/>
+      <c r="BE29" s="39"/>
+      <c r="BF29" s="39"/>
+      <c r="BG29" s="39"/>
+      <c r="BH29" s="39"/>
+      <c r="BL29" s="50"/>
+      <c r="BM29" s="50"/>
+      <c r="BN29" s="50"/>
+      <c r="BO29" s="50"/>
+      <c r="BP29" s="50"/>
+      <c r="BQ29" s="50"/>
+      <c r="CD29" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="CE29" s="58"/>
+      <c r="CF29" s="58"/>
+      <c r="CG29" s="58"/>
+      <c r="CH29" s="58"/>
+      <c r="CI29" s="58"/>
     </row>
     <row r="30" spans="1:96" ht="15" customHeight="1">
       <c r="J30" s="5" t="s">
@@ -10959,17 +10962,17 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="58" t="s">
+      <c r="M30" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
       <c r="BC30" s="5" t="s">
         <v>104</v>
       </c>
@@ -10978,48 +10981,48 @@
       <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
-      <c r="BL30" s="37" t="s">
+      <c r="BL30" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="BM30" s="37"/>
-      <c r="BN30" s="37"/>
-      <c r="BO30" s="37"/>
-      <c r="BP30" s="37"/>
-      <c r="BQ30" s="37"/>
-      <c r="CD30" s="50"/>
-      <c r="CE30" s="50"/>
-      <c r="CF30" s="50"/>
-      <c r="CG30" s="50"/>
-      <c r="CH30" s="50"/>
-      <c r="CI30" s="50"/>
+      <c r="BM30" s="39"/>
+      <c r="BN30" s="39"/>
+      <c r="BO30" s="39"/>
+      <c r="BP30" s="39"/>
+      <c r="BQ30" s="39"/>
+      <c r="CD30" s="58"/>
+      <c r="CE30" s="58"/>
+      <c r="CF30" s="58"/>
+      <c r="CG30" s="58"/>
+      <c r="CH30" s="58"/>
+      <c r="CI30" s="58"/>
     </row>
     <row r="31" spans="1:96">
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="S31" s="43" t="s">
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="S31" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
       <c r="BC31" s="5" t="s">
         <v>230</v>
       </c>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
-      <c r="BF31" s="58" t="s">
+      <c r="BF31" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="BG31" s="59"/>
-      <c r="BH31" s="59"/>
+      <c r="BG31" s="52"/>
+      <c r="BH31" s="52"/>
       <c r="BL31" s="5" t="s">
         <v>302</v>
       </c>
@@ -11028,90 +11031,88 @@
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
-      <c r="CD31" s="50"/>
-      <c r="CE31" s="50"/>
-      <c r="CF31" s="50"/>
-      <c r="CG31" s="50"/>
-      <c r="CH31" s="50"/>
-      <c r="CI31" s="50"/>
+      <c r="CD31" s="58"/>
+      <c r="CE31" s="58"/>
+      <c r="CF31" s="58"/>
+      <c r="CG31" s="58"/>
+      <c r="CH31" s="58"/>
+      <c r="CI31" s="58"/>
     </row>
     <row r="32" spans="1:96" ht="15" customHeight="1">
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="S32" s="52" t="s">
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="S32" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="BC32" s="60" t="s">
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="BC32" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="BD32" s="60"/>
-      <c r="BE32" s="60"/>
-      <c r="BF32" s="60"/>
-      <c r="BG32" s="60"/>
-      <c r="BH32" s="60"/>
+      <c r="BD32" s="71"/>
+      <c r="BE32" s="71"/>
+      <c r="BF32" s="71"/>
+      <c r="BG32" s="71"/>
+      <c r="BH32" s="71"/>
       <c r="BL32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
-      <c r="BO32" s="58" t="s">
+      <c r="BO32" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="BP32" s="59"/>
-      <c r="BQ32" s="59"/>
-      <c r="CD32" s="51"/>
-      <c r="CE32" s="51"/>
-      <c r="CF32" s="51"/>
-      <c r="CG32" s="51"/>
-      <c r="CH32" s="51"/>
-      <c r="CI32" s="51"/>
+      <c r="BP32" s="52"/>
+      <c r="BQ32" s="52"/>
+      <c r="CD32" s="58"/>
+      <c r="CE32" s="58"/>
+      <c r="CF32" s="58"/>
+      <c r="CG32" s="58"/>
+      <c r="CH32" s="58"/>
+      <c r="CI32" s="58"/>
     </row>
     <row r="33" spans="10:87">
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="BC33" s="60"/>
-      <c r="BD33" s="60"/>
-      <c r="BE33" s="60"/>
-      <c r="BF33" s="60"/>
-      <c r="BG33" s="60"/>
-      <c r="BH33" s="60"/>
-      <c r="BL33" s="48" t="s">
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="BC33" s="71"/>
+      <c r="BD33" s="71"/>
+      <c r="BE33" s="71"/>
+      <c r="BF33" s="71"/>
+      <c r="BG33" s="71"/>
+      <c r="BH33" s="71"/>
+      <c r="BL33" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="BM33" s="48"/>
-      <c r="BN33" s="48"/>
-      <c r="BO33" s="48"/>
-      <c r="BP33" s="48"/>
-      <c r="BQ33" s="48"/>
-      <c r="CD33" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="CE33" s="37"/>
-      <c r="CF33" s="37"/>
-      <c r="CG33" s="37"/>
-      <c r="CH33" s="37"/>
-      <c r="CI33" s="37"/>
+      <c r="BM33" s="43"/>
+      <c r="BN33" s="43"/>
+      <c r="BO33" s="43"/>
+      <c r="BP33" s="43"/>
+      <c r="BQ33" s="43"/>
+      <c r="CD33" s="69"/>
+      <c r="CE33" s="69"/>
+      <c r="CF33" s="69"/>
+      <c r="CG33" s="69"/>
+      <c r="CH33" s="69"/>
+      <c r="CI33" s="69"/>
     </row>
     <row r="34" spans="10:87" ht="15" customHeight="1">
       <c r="J34" s="5" t="s">
@@ -11122,34 +11123,34 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="BC34" s="60"/>
-      <c r="BD34" s="60"/>
-      <c r="BE34" s="60"/>
-      <c r="BF34" s="60"/>
-      <c r="BG34" s="60"/>
-      <c r="BH34" s="60"/>
-      <c r="BL34" s="52" t="s">
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="BC34" s="71"/>
+      <c r="BD34" s="71"/>
+      <c r="BE34" s="71"/>
+      <c r="BF34" s="71"/>
+      <c r="BG34" s="71"/>
+      <c r="BH34" s="71"/>
+      <c r="BL34" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="BM34" s="52"/>
-      <c r="BN34" s="52"/>
-      <c r="BO34" s="52"/>
-      <c r="BP34" s="52"/>
-      <c r="BQ34" s="52"/>
-      <c r="CD34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
-      <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
-      <c r="CI34" s="1"/>
+      <c r="BM34" s="50"/>
+      <c r="BN34" s="50"/>
+      <c r="BO34" s="50"/>
+      <c r="BP34" s="50"/>
+      <c r="BQ34" s="50"/>
+      <c r="CD34" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="CE34" s="39"/>
+      <c r="CF34" s="39"/>
+      <c r="CG34" s="39"/>
+      <c r="CH34" s="39"/>
+      <c r="CI34" s="39"/>
     </row>
     <row r="35" spans="10:87">
       <c r="J35" s="5" t="s">
@@ -11157,53 +11158,51 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="58" t="s">
+      <c r="M35" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="S35" s="37" t="s">
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="S35" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="BC35" s="52" t="s">
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="BC35" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="BD35" s="52"/>
-      <c r="BE35" s="52"/>
-      <c r="BF35" s="52"/>
-      <c r="BG35" s="52"/>
-      <c r="BH35" s="52"/>
-      <c r="BL35" s="52"/>
-      <c r="BM35" s="52"/>
-      <c r="BN35" s="52"/>
-      <c r="BO35" s="52"/>
-      <c r="BP35" s="52"/>
-      <c r="BQ35" s="52"/>
+      <c r="BD35" s="50"/>
+      <c r="BE35" s="50"/>
+      <c r="BF35" s="50"/>
+      <c r="BG35" s="50"/>
+      <c r="BH35" s="50"/>
+      <c r="BL35" s="50"/>
+      <c r="BM35" s="50"/>
+      <c r="BN35" s="50"/>
+      <c r="BO35" s="50"/>
+      <c r="BP35" s="50"/>
+      <c r="BQ35" s="50"/>
       <c r="CD35" s="5" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="CE35" s="1"/>
       <c r="CF35" s="1"/>
-      <c r="CG35" s="18"/>
-      <c r="CH35" s="18"/>
-      <c r="CI35" s="18" t="s">
-        <v>340</v>
-      </c>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
     </row>
     <row r="36" spans="10:87" ht="15" customHeight="1">
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
       <c r="S36" s="5" t="s">
         <v>43</v>
       </c>
@@ -11212,58 +11211,62 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="BC36" s="52"/>
-      <c r="BD36" s="52"/>
-      <c r="BE36" s="52"/>
-      <c r="BF36" s="52"/>
-      <c r="BG36" s="52"/>
-      <c r="BH36" s="52"/>
-      <c r="BL36" s="52"/>
-      <c r="BM36" s="52"/>
-      <c r="BN36" s="52"/>
-      <c r="BO36" s="52"/>
-      <c r="BP36" s="52"/>
-      <c r="BQ36" s="52"/>
-      <c r="CD36" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="CE36" s="52"/>
-      <c r="CF36" s="52"/>
-      <c r="CG36" s="52"/>
-      <c r="CH36" s="52"/>
-      <c r="CI36" s="52"/>
+      <c r="BC36" s="50"/>
+      <c r="BD36" s="50"/>
+      <c r="BE36" s="50"/>
+      <c r="BF36" s="50"/>
+      <c r="BG36" s="50"/>
+      <c r="BH36" s="50"/>
+      <c r="BL36" s="50"/>
+      <c r="BM36" s="50"/>
+      <c r="BN36" s="50"/>
+      <c r="BO36" s="50"/>
+      <c r="BP36" s="50"/>
+      <c r="BQ36" s="50"/>
+      <c r="CD36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="18"/>
+      <c r="CH36" s="18"/>
+      <c r="CI36" s="18" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="37" spans="10:87">
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
       <c r="S37" s="5" t="s">
         <v>126</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="58" t="s">
+      <c r="V37" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="BC37" s="52"/>
-      <c r="BD37" s="52"/>
-      <c r="BE37" s="52"/>
-      <c r="BF37" s="52"/>
-      <c r="BG37" s="52"/>
-      <c r="BH37" s="52"/>
-      <c r="CD37" s="52"/>
-      <c r="CE37" s="52"/>
-      <c r="CF37" s="52"/>
-      <c r="CG37" s="52"/>
-      <c r="CH37" s="52"/>
-      <c r="CI37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="BC37" s="50"/>
+      <c r="BD37" s="50"/>
+      <c r="BE37" s="50"/>
+      <c r="BF37" s="50"/>
+      <c r="BG37" s="50"/>
+      <c r="BH37" s="50"/>
+      <c r="CD37" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="CE37" s="50"/>
+      <c r="CF37" s="50"/>
+      <c r="CG37" s="50"/>
+      <c r="CH37" s="50"/>
+      <c r="CI37" s="50"/>
     </row>
     <row r="38" spans="10:87">
       <c r="J38" s="5" t="s">
@@ -11274,28 +11277,28 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="S38" s="48" t="s">
+      <c r="S38" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="BC38" s="37" t="s">
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="BC38" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="BD38" s="37"/>
-      <c r="BE38" s="37"/>
-      <c r="BF38" s="37"/>
-      <c r="BG38" s="37"/>
-      <c r="BH38" s="37"/>
-      <c r="CD38" s="52"/>
-      <c r="CE38" s="52"/>
-      <c r="CF38" s="52"/>
-      <c r="CG38" s="52"/>
-      <c r="CH38" s="52"/>
-      <c r="CI38" s="52"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="39"/>
+      <c r="BF38" s="39"/>
+      <c r="BG38" s="39"/>
+      <c r="BH38" s="39"/>
+      <c r="CD38" s="50"/>
+      <c r="CE38" s="50"/>
+      <c r="CF38" s="50"/>
+      <c r="CG38" s="50"/>
+      <c r="CH38" s="50"/>
+      <c r="CI38" s="50"/>
     </row>
     <row r="39" spans="10:87">
       <c r="J39" s="5" t="s">
@@ -11303,19 +11306,19 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="58" t="s">
+      <c r="M39" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="S39" s="52" t="s">
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="S39" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
       <c r="BC39" s="5" t="s">
         <v>53</v>
       </c>
@@ -11324,160 +11327,158 @@
       <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
-      <c r="CD39" s="53"/>
-      <c r="CE39" s="53"/>
-      <c r="CF39" s="53"/>
-      <c r="CG39" s="53"/>
-      <c r="CH39" s="53"/>
-      <c r="CI39" s="53"/>
+      <c r="CD39" s="50"/>
+      <c r="CE39" s="50"/>
+      <c r="CF39" s="50"/>
+      <c r="CG39" s="50"/>
+      <c r="CH39" s="50"/>
+      <c r="CI39" s="50"/>
     </row>
     <row r="40" spans="10:87" ht="15" customHeight="1">
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
       <c r="BC40" s="5" t="s">
         <v>51</v>
       </c>
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
-      <c r="BF40" s="58" t="s">
+      <c r="BF40" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="BG40" s="59"/>
-      <c r="BH40" s="59"/>
-      <c r="CD40" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="CE40" s="37"/>
-      <c r="CF40" s="37"/>
-      <c r="CG40" s="37"/>
-      <c r="CH40" s="37"/>
-      <c r="CI40" s="37"/>
+      <c r="BG40" s="52"/>
+      <c r="BH40" s="52"/>
+      <c r="CD40" s="62"/>
+      <c r="CE40" s="62"/>
+      <c r="CF40" s="62"/>
+      <c r="CG40" s="62"/>
+      <c r="CH40" s="62"/>
+      <c r="CI40" s="62"/>
     </row>
     <row r="41" spans="10:87">
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="BC41" s="48" t="s">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="BC41" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="BD41" s="48"/>
-      <c r="BE41" s="48"/>
-      <c r="BF41" s="48"/>
-      <c r="BG41" s="48"/>
-      <c r="BH41" s="48"/>
-      <c r="CD41" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="CE41" s="1"/>
-      <c r="CF41" s="1"/>
-      <c r="CG41" s="1"/>
-      <c r="CH41" s="1"/>
-      <c r="CI41" s="1"/>
+      <c r="BD41" s="43"/>
+      <c r="BE41" s="43"/>
+      <c r="BF41" s="43"/>
+      <c r="BG41" s="43"/>
+      <c r="BH41" s="43"/>
+      <c r="CD41" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="CE41" s="39"/>
+      <c r="CF41" s="39"/>
+      <c r="CG41" s="39"/>
+      <c r="CH41" s="39"/>
+      <c r="CI41" s="39"/>
     </row>
     <row r="42" spans="10:87">
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="BC42" s="52" t="s">
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="BC42" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="BD42" s="52"/>
-      <c r="BE42" s="52"/>
-      <c r="BF42" s="52"/>
-      <c r="BG42" s="52"/>
-      <c r="BH42" s="52"/>
-      <c r="CD42" s="29" t="s">
-        <v>357</v>
+      <c r="BD42" s="50"/>
+      <c r="BE42" s="50"/>
+      <c r="BF42" s="50"/>
+      <c r="BG42" s="50"/>
+      <c r="BH42" s="50"/>
+      <c r="CD42" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="CE42" s="1"/>
       <c r="CF42" s="1"/>
-      <c r="CG42" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="CH42" s="59"/>
-      <c r="CI42" s="59"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
     </row>
     <row r="43" spans="10:87" ht="15" customHeight="1">
       <c r="S43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="55" t="s">
+      <c r="T43" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="BC43" s="52"/>
-      <c r="BD43" s="52"/>
-      <c r="BE43" s="52"/>
-      <c r="BF43" s="52"/>
-      <c r="BG43" s="52"/>
-      <c r="BH43" s="52"/>
-      <c r="CD43" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="CE43" s="48"/>
-      <c r="CF43" s="48"/>
-      <c r="CG43" s="48"/>
-      <c r="CH43" s="48"/>
-      <c r="CI43" s="48"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="BC43" s="50